--- a/database.xlsx
+++ b/database.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2CB74F-A111-4F79-8B2D-0AA32D49251D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="323">
   <si>
     <t>SCF</t>
   </si>
@@ -119,9 +112,6 @@
     <t>SCF-100.TR606P35</t>
   </si>
   <si>
-    <t>FELIZTRIP TR-606-P35 TRAVEL ADAPTOR GaN. 100-250V .AC Current 1100W at 100V and 2500W at 250V. 2x USB C and 2X USB A Fast Charging PD 35W</t>
-  </si>
-  <si>
     <t>SCF-100.TRP216GY</t>
   </si>
   <si>
@@ -927,22 +917,90 @@
   </si>
   <si>
     <t>untill 25.05.2025</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/LI5I</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/HY1V</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/DVC</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/U2T</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/x7O</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/Xhx</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/TLZga</t>
+  </si>
+  <si>
+    <t>FELIZTRIP TR-606-P35 TRAVEL ADAPTOR. 2x USB C and 2X USB A Fast Charging PD 35W</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/XZJyq</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/Wna</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/jXs</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/Xbvb1</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/379G</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/5HM</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/Dxp</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/EY0o</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/lTYcm</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/Tgjju</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/D4uDK</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/Y4oit</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/6E6w4</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/wghz</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/gaE</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/dsIs7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="[$RM-4409]#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[$RM-4409]#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$RM-4409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$RM-4409]#,##0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,143 +1062,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1151,7 +1072,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1160,19 +1081,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,198 +1111,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1430,254 +1165,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1689,13 +1185,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,19 +1206,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,127 +1230,197 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="Comma 137" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Comma 137" xfId="49"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1865,7 +1431,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1893,154 +1459,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2298,29 +1750,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="80.6666666666667" customWidth="1"/>
-    <col min="3" max="4" width="12.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="5.88888888888889" customWidth="1"/>
-    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="46.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:8">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +1799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:8">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2369,9 +1822,11 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" ht="15.6" spans="1:8">
+      <c r="H2" s="29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2394,9 +1849,11 @@
       <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:8">
+      <c r="H3" s="29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2419,9 +1876,11 @@
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:8">
+      <c r="H4" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2444,9 +1903,11 @@
       <c r="G5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" ht="15.6" spans="1:8">
+      <c r="H5" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2469,9 +1930,11 @@
       <c r="G6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" ht="15.6" spans="1:8">
+      <c r="H6" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -2494,9 +1957,11 @@
       <c r="G7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" ht="15.6" spans="1:8">
+      <c r="H7" s="29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -2519,9 +1984,11 @@
       <c r="G8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" ht="15.6" spans="1:8">
+      <c r="H8" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -2546,12 +2013,12 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" ht="15.6" spans="1:8">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="C10" s="5">
         <v>129</v>
@@ -2571,12 +2038,12 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="15.6" spans="1:8">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="5">
         <v>99</v>
@@ -2594,14 +2061,16 @@
       <c r="G11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" ht="15.6" spans="1:8">
+      <c r="H11" s="29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="5">
         <v>1999</v>
@@ -2619,14 +2088,16 @@
       <c r="G12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" ht="15.6" spans="1:8">
+      <c r="H12" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="5">
         <v>149</v>
@@ -2644,14 +2115,16 @@
       <c r="G13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:8">
+      <c r="H13" s="29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="5">
         <v>149</v>
@@ -2669,14 +2142,16 @@
       <c r="G14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" ht="15.6" spans="1:8">
+      <c r="H14" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="5">
         <v>29</v>
@@ -2694,14 +2169,16 @@
       <c r="G15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" ht="15.6" spans="1:8">
+      <c r="H15" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="5">
         <v>39</v>
@@ -2721,12 +2198,12 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" ht="15.6" spans="1:8">
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5">
         <v>49</v>
@@ -2746,12 +2223,12 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" ht="15.6" spans="1:8">
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C18" s="5">
         <v>89</v>
@@ -2769,14 +2246,16 @@
       <c r="G18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:8">
+      <c r="H18" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C19" s="5">
         <v>229</v>
@@ -2792,16 +2271,18 @@
         <v>22900</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75">
+      <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" ht="15.6" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5">
         <v>89</v>
@@ -2819,14 +2300,16 @@
       <c r="G20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" ht="15.6" spans="1:8">
+      <c r="H20" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C21" s="5">
         <v>299</v>
@@ -2844,14 +2327,16 @@
       <c r="G21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" ht="15.6" spans="1:8">
+      <c r="H21" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="5">
         <v>89</v>
@@ -2869,14 +2354,16 @@
       <c r="G22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" ht="15.6" spans="1:8">
+      <c r="H22" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C23" s="5">
         <v>39.9</v>
@@ -2894,14 +2381,16 @@
       <c r="G23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" ht="15.6" spans="1:8">
+      <c r="H23" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C24" s="5">
         <v>99</v>
@@ -2919,14 +2408,16 @@
       <c r="G24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" ht="15.6" spans="1:8">
+      <c r="H24" s="29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C25" s="5">
         <v>129</v>
@@ -2944,14 +2435,16 @@
       <c r="G25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" ht="15.6" spans="1:8">
+      <c r="H25" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C26" s="5">
         <v>269</v>
@@ -2969,14 +2462,16 @@
       <c r="G26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" ht="15.6" spans="1:8">
+      <c r="H26" s="29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C27" s="5">
         <v>559</v>
@@ -2994,14 +2489,16 @@
       <c r="G27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" ht="15.6" spans="1:8">
+      <c r="H27" s="29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="5">
         <v>559</v>
@@ -3019,14 +2516,16 @@
       <c r="G28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" ht="15.6" spans="1:8">
+      <c r="H28" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="5">
         <v>469</v>
@@ -3046,12 +2545,12 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" ht="15.6" spans="1:8">
+    <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="5">
         <v>2099</v>
@@ -3071,12 +2570,12 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" ht="15.6" spans="1:8">
+    <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="5">
         <v>2699</v>
@@ -3096,12 +2595,12 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" ht="15.6" spans="1:8">
+    <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="5">
         <v>135</v>
@@ -3121,12 +2620,12 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" ht="15.6" spans="1:8">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="5">
         <v>799</v>
@@ -3146,12 +2645,12 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" ht="15.6" spans="1:8">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="5">
         <v>159</v>
@@ -3171,12 +2670,12 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" ht="15.6" spans="1:8">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="5">
         <v>1199</v>
@@ -3196,12 +2695,12 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" ht="15.6" spans="1:8">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="5">
         <v>199</v>
@@ -3221,12 +2720,12 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" ht="15.6" spans="1:8">
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="5">
         <v>162</v>
@@ -3246,12 +2745,12 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" ht="15.6" spans="1:8">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C38" s="5">
         <v>159</v>
@@ -3271,12 +2770,12 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" ht="15.6" spans="1:8">
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C39" s="5">
         <v>169</v>
@@ -3296,12 +2795,12 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" ht="15.6" spans="1:8">
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="C40" s="5">
         <v>499</v>
@@ -3321,12 +2820,12 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" ht="15.6" spans="1:8">
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C41" s="5">
         <v>18.5</v>
@@ -3342,41 +2841,41 @@
         <v>1850</v>
       </c>
       <c r="G41" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75">
+      <c r="A42" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" ht="15.6" spans="1:8">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D42" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>1690</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75">
+      <c r="A43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="5">
-        <v>16.9</v>
-      </c>
-      <c r="D42" s="5">
-        <v>16.9</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>1690</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" ht="15.6" spans="1:8">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C43" s="5">
         <v>11.9</v>
@@ -3392,16 +2891,16 @@
         <v>1190</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" ht="15.6" spans="1:8">
+    <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C44" s="5">
         <v>3.5</v>
@@ -3417,16 +2916,16 @@
         <v>350</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" ht="15.6" spans="1:8">
+    <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="C45" s="5">
         <v>2.6</v>
@@ -3442,16 +2941,16 @@
         <v>260</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" ht="15.6" spans="1:8">
+    <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="C46" s="5">
         <v>5.7</v>
@@ -3467,16 +2966,16 @@
         <v>570</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" ht="15.6" spans="1:8">
+    <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="C47" s="5">
         <v>4.5</v>
@@ -3492,16 +2991,16 @@
         <v>450</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" ht="15.6" spans="1:8">
+    <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C48" s="5">
         <v>14.4</v>
@@ -3517,16 +3016,16 @@
         <v>1440</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" ht="15.6" spans="1:8">
+    <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C49" s="5">
         <v>9.1</v>
@@ -3542,16 +3041,16 @@
         <v>910</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" ht="15.6" spans="1:8">
+    <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="C50" s="5">
         <v>8.1</v>
@@ -3567,16 +3066,16 @@
         <v>810</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" ht="15.6" spans="1:8">
+    <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="C51" s="5">
         <v>9.9</v>
@@ -3592,16 +3091,16 @@
         <v>990</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" ht="15.6" spans="1:8">
+    <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C52" s="5">
         <v>7.9</v>
@@ -3617,16 +3116,16 @@
         <v>790</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" ht="15.6" spans="1:8">
+    <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="C53" s="5">
         <v>16.5</v>
@@ -3642,16 +3141,16 @@
         <v>1650</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" ht="15.6" spans="1:8">
+    <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="C54" s="5">
         <v>8.6</v>
@@ -3667,16 +3166,16 @@
         <v>860</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" ht="15.6" spans="1:8">
+    <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C55" s="5">
         <v>18.5</v>
@@ -3692,16 +3191,16 @@
         <v>1850</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" ht="15.6" spans="1:8">
+    <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="C56" s="5">
         <v>15.5</v>
@@ -3717,16 +3216,16 @@
         <v>1550</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" ht="15.6" spans="1:8">
+    <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="C57" s="5">
         <v>3.3</v>
@@ -3742,16 +3241,16 @@
         <v>330</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" ht="15.6" spans="1:8">
+    <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="C58" s="5">
         <v>8</v>
@@ -3767,16 +3266,16 @@
         <v>800</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" ht="15.6" spans="1:8">
+    <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="C59" s="5">
         <v>8</v>
@@ -3792,16 +3291,16 @@
         <v>800</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" ht="15.6" spans="1:8">
+    <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="C60" s="5">
         <v>8</v>
@@ -3817,16 +3316,16 @@
         <v>800</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" ht="15.6" spans="1:8">
+    <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="C61" s="22">
         <v>11.5</v>
@@ -3842,16 +3341,16 @@
         <v>1150</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" ht="15.6" spans="1:8">
+    <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="C62" s="5">
         <v>18</v>
@@ -3867,16 +3366,16 @@
         <v>1800</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" ht="15.6" spans="1:8">
+    <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="C63" s="12">
         <v>106</v>
@@ -3892,16 +3391,16 @@
         <v>10400</v>
       </c>
       <c r="G63" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75">
+      <c r="A64" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" ht="15.6" spans="1:8">
-      <c r="A64" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="B64" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="12">
         <v>106</v>
@@ -3917,16 +3416,16 @@
         <v>10400</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" ht="15.6" spans="1:8">
+    <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="C65" s="5">
         <v>369</v>
@@ -3942,16 +3441,16 @@
         <v>14900</v>
       </c>
       <c r="G65" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75">
+      <c r="A66" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" ht="15.6" spans="1:8">
-      <c r="A66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="C66" s="5">
         <v>439</v>
@@ -3967,16 +3466,16 @@
         <v>16900</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" ht="15.6" spans="1:8">
+    <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="C67" s="5">
         <v>489</v>
@@ -3992,16 +3491,16 @@
         <v>18900</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" ht="15.6" spans="1:8">
+    <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="C68" s="12">
         <v>86</v>
@@ -4017,16 +3516,16 @@
         <v>8400</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" ht="15.6" spans="1:8">
+    <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="C69" s="5">
         <v>499</v>
@@ -4042,16 +3541,16 @@
         <v>19900</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" ht="15.6" spans="1:8">
+    <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="C70" s="12">
         <v>106</v>
@@ -4067,16 +3566,16 @@
         <v>10400</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" ht="15.6" spans="1:8">
+    <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="C71" s="5">
         <v>459</v>
@@ -4092,16 +3591,16 @@
         <v>16900</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" ht="15.6" spans="1:8">
+    <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="C72" s="5">
         <v>459</v>
@@ -4117,16 +3616,16 @@
         <v>16900</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" ht="15.6" spans="1:8">
+    <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="C73" s="5">
         <v>519</v>
@@ -4142,16 +3641,16 @@
         <v>18900</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" ht="15.6" spans="1:8">
+    <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C74" s="5">
         <v>519</v>
@@ -4167,16 +3666,16 @@
         <v>18900</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" ht="15.6" spans="1:8">
+    <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="C75" s="5">
         <v>639</v>
@@ -4192,16 +3691,16 @@
         <v>23900</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" ht="15.6" spans="1:8">
+    <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" s="5">
         <v>639</v>
@@ -4217,16 +3716,16 @@
         <v>23900</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" ht="15.6" spans="1:8">
+    <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C77" s="5">
         <v>639</v>
@@ -4242,16 +3741,16 @@
         <v>23900</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" ht="15.6" spans="1:8">
+    <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="26" t="s">
         <v>161</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>162</v>
       </c>
       <c r="C78" s="12">
         <v>69</v>
@@ -4267,16 +3766,16 @@
         <v>6900</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" ht="15.6" spans="1:8">
+    <row r="79" spans="1:8" ht="15.75">
       <c r="A79" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" s="12">
         <v>69</v>
@@ -4292,16 +3791,16 @@
         <v>6900</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" ht="15.6" spans="1:8">
+    <row r="80" spans="1:8" ht="15.75">
       <c r="A80" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C80" s="12">
         <v>69</v>
@@ -4317,16 +3816,16 @@
         <v>6900</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" ht="15.6" spans="1:8">
+    <row r="81" spans="1:8" ht="15.75">
       <c r="A81" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>166</v>
       </c>
       <c r="C81" s="5">
         <v>1499</v>
@@ -4342,16 +3841,16 @@
         <v>104900</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" ht="15.6" spans="1:8">
+    <row r="82" spans="1:8" ht="15.75">
       <c r="A82" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C82" s="5">
         <v>1299</v>
@@ -4367,16 +3866,16 @@
         <v>87900</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" ht="15.6" spans="1:8">
+    <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="26" t="s">
         <v>168</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>169</v>
       </c>
       <c r="C83" s="12">
         <v>119</v>
@@ -4392,16 +3891,16 @@
         <v>9900</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" ht="15.6" spans="1:8">
+    <row r="84" spans="1:8" ht="15.75">
       <c r="A84" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>171</v>
       </c>
       <c r="C84" s="12">
         <v>99</v>
@@ -4417,16 +3916,16 @@
         <v>9700</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" ht="15.6" spans="1:8">
+    <row r="85" spans="1:8" ht="15.75">
       <c r="A85" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C85" s="5">
         <v>15.5</v>
@@ -4442,16 +3941,16 @@
         <v>1550</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" ht="15.6" spans="1:8">
+    <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="26" t="s">
         <v>174</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>175</v>
       </c>
       <c r="C86" s="12">
         <v>109</v>
@@ -4467,16 +3966,16 @@
         <v>10900</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" ht="15.6" spans="1:8">
+    <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="26" t="s">
         <v>176</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>177</v>
       </c>
       <c r="C87" s="12">
         <v>259</v>
@@ -4492,16 +3991,16 @@
         <v>25900</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" ht="15.6" spans="1:8">
+    <row r="88" spans="1:8" ht="15.75">
       <c r="A88" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="C88" s="5">
         <v>409</v>
@@ -4517,16 +4016,16 @@
         <v>15900</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" ht="15.6" spans="1:8">
+    <row r="89" spans="1:8" ht="15.75">
       <c r="A89" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="26" t="s">
         <v>180</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>181</v>
       </c>
       <c r="C89" s="5">
         <v>499</v>
@@ -4542,16 +4041,16 @@
         <v>19900</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" ht="15.6" spans="1:8">
+    <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>182</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>183</v>
       </c>
       <c r="C90" s="5">
         <v>209</v>
@@ -4567,16 +4066,16 @@
         <v>18900</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" ht="15.6" spans="1:8">
+    <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="C91" s="5">
         <v>159</v>
@@ -4592,16 +4091,16 @@
         <v>10000</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" ht="15.6" spans="1:8">
+    <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>187</v>
       </c>
       <c r="C92" s="5">
         <v>147</v>
@@ -4617,16 +4116,16 @@
         <v>12200</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" ht="15.6" spans="1:8">
+    <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>189</v>
       </c>
       <c r="C93" s="5">
         <v>208</v>
@@ -4642,16 +4141,16 @@
         <v>14800</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" ht="15.6" spans="1:8">
+    <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="C94" s="5">
         <v>279</v>
@@ -4667,16 +4166,16 @@
         <v>19900</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" ht="15.6" spans="1:8">
+    <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>193</v>
       </c>
       <c r="C95" s="5">
         <v>99</v>
@@ -4692,16 +4191,16 @@
         <v>8500</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" ht="15.6" spans="1:8">
+    <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>195</v>
       </c>
       <c r="C96" s="5">
         <v>99</v>
@@ -4717,16 +4216,16 @@
         <v>7900</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" ht="15.6" spans="1:8">
+    <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="26" t="s">
         <v>196</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>197</v>
       </c>
       <c r="C97" s="5">
         <v>229</v>
@@ -4742,16 +4241,16 @@
         <v>16500</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" ht="15.6" spans="1:8">
+    <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>199</v>
       </c>
       <c r="C98" s="5">
         <v>131</v>
@@ -4767,16 +4266,16 @@
         <v>12100</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" ht="15.6" spans="1:8">
+    <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="C99" s="5">
         <v>127</v>
@@ -4792,16 +4291,16 @@
         <v>9500</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" ht="15.6" spans="1:8">
+    <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="26" t="s">
         <v>202</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>203</v>
       </c>
       <c r="C100" s="5">
         <v>289</v>
@@ -4817,16 +4316,16 @@
         <v>22900</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" ht="15.6" spans="1:8">
+    <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="C101" s="5">
         <v>449</v>
@@ -4842,16 +4341,16 @@
         <v>29900</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" ht="15.6" spans="1:8">
+    <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>207</v>
       </c>
       <c r="C102" s="12">
         <v>27.9</v>
@@ -4867,16 +4366,16 @@
         <v>2790</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" ht="15.6" spans="1:8">
+    <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>209</v>
       </c>
       <c r="C103" s="12">
         <v>27.9</v>
@@ -4892,16 +4391,16 @@
         <v>2790</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" ht="15.6" spans="1:8">
+    <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>211</v>
       </c>
       <c r="C104" s="12">
         <v>87.7</v>
@@ -4917,16 +4416,16 @@
         <v>6900</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" ht="15.6" spans="1:8">
+    <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="26" t="s">
         <v>212</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>213</v>
       </c>
       <c r="C105" s="12">
         <v>32.9</v>
@@ -4942,16 +4441,16 @@
         <v>2300</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" ht="15.6" spans="1:8">
+    <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="C106" s="12">
         <v>20.9</v>
@@ -4967,16 +4466,16 @@
         <v>2090</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" ht="15.6" spans="1:8">
+    <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="C107" s="12">
         <v>499</v>
@@ -4992,16 +4491,16 @@
         <v>18900</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" ht="15.6" spans="1:8">
+    <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="C108" s="12">
         <v>55</v>
@@ -5017,16 +4516,16 @@
         <v>4900</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" ht="15.6" spans="1:8">
+    <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="C109" s="12">
         <v>129</v>
@@ -5042,16 +4541,16 @@
         <v>12500</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" ht="15.6" spans="1:8">
+    <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="C110" s="12">
         <v>499</v>
@@ -5067,16 +4566,16 @@
         <v>19900</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" ht="15.6" spans="1:8">
+    <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="C111" s="12">
         <v>399</v>
@@ -5092,16 +4591,16 @@
         <v>19900</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" ht="15.6" spans="1:8">
+    <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="C112" s="12">
         <v>439</v>
@@ -5117,16 +4616,16 @@
         <v>16900</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" ht="15.6" spans="1:8">
+    <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="C113" s="12">
         <v>479</v>
@@ -5142,16 +4641,16 @@
         <v>18900</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" ht="15.6" spans="1:8">
+    <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="C114" s="12">
         <v>599</v>
@@ -5167,16 +4666,16 @@
         <v>18900</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" ht="15.6" spans="1:8">
+    <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="C115" s="12">
         <v>669</v>
@@ -5192,16 +4691,16 @@
         <v>25900</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" ht="15.6" spans="1:8">
+    <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C116" s="12">
         <v>106</v>
@@ -5217,16 +4716,16 @@
         <v>10400</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" ht="15.6" spans="1:8">
+    <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="C117" s="12">
         <v>699</v>
@@ -5242,16 +4741,16 @@
         <v>49900</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" ht="15.6" spans="1:8">
+    <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="C118" s="12">
         <v>79</v>
@@ -5267,16 +4766,16 @@
         <v>5500</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" ht="15.6" spans="1:8">
+    <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="C119" s="12">
         <v>289</v>
@@ -5292,16 +4791,16 @@
         <v>27900</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" ht="15.6" spans="1:8">
+    <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="C120" s="5">
         <v>159</v>
@@ -5317,16 +4816,16 @@
         <v>9900</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H120" s="9"/>
     </row>
-    <row r="121" ht="15.6" spans="1:8">
+    <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="C121" s="5">
         <v>111</v>
@@ -5342,16 +4841,16 @@
         <v>8900</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" ht="15.6" spans="1:8">
+    <row r="122" spans="1:8" ht="15.75">
       <c r="A122" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="C122" s="12">
         <v>699</v>
@@ -5367,16 +4866,16 @@
         <v>31900</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H122" s="9"/>
     </row>
-    <row r="123" ht="15.6" spans="1:8">
+    <row r="123" spans="1:8" ht="15.75">
       <c r="A123" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>248</v>
       </c>
       <c r="C123" s="12">
         <v>559</v>
@@ -5392,16 +4891,16 @@
         <v>32900</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" ht="15.6" spans="1:8">
+    <row r="124" spans="1:8" ht="15.75">
       <c r="A124" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="C124" s="5">
         <v>449</v>
@@ -5417,16 +4916,16 @@
         <v>39900</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H124" s="9"/>
     </row>
-    <row r="125" ht="15.6" spans="1:8">
+    <row r="125" spans="1:8" ht="15.75">
       <c r="A125" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="C125" s="12">
         <v>949</v>
@@ -5442,16 +4941,16 @@
         <v>49900</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H125" s="9"/>
     </row>
-    <row r="126" ht="15.6" spans="1:8">
+    <row r="126" spans="1:8" ht="15.75">
       <c r="A126" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="C126" s="5">
         <v>86</v>
@@ -5467,16 +4966,16 @@
         <v>8400</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H126" s="9"/>
     </row>
-    <row r="127" ht="15.6" spans="1:8">
+    <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C127" s="5">
         <v>86</v>
@@ -5492,16 +4991,16 @@
         <v>8400</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H127" s="9"/>
     </row>
-    <row r="128" ht="15.6" spans="1:8">
+    <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C128" s="5">
         <v>86</v>
@@ -5517,16 +5016,16 @@
         <v>8400</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H128" s="9"/>
     </row>
-    <row r="129" ht="15.6" spans="1:8">
+    <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="C129" s="12">
         <v>239</v>
@@ -5542,16 +5041,16 @@
         <v>12900</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H129" s="9"/>
     </row>
-    <row r="130" ht="15.6" spans="1:8">
+    <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="C130" s="12">
         <v>529</v>
@@ -5567,16 +5066,16 @@
         <v>25900</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H130" s="9"/>
     </row>
-    <row r="131" ht="15.6" spans="1:8">
+    <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="C131" s="5">
         <v>409</v>
@@ -5592,16 +5091,16 @@
         <v>29900</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H131" s="9"/>
     </row>
-    <row r="132" ht="15.6" spans="1:8">
+    <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="C132" s="5">
         <v>219</v>
@@ -5617,16 +5116,16 @@
         <v>16900</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H132" s="9"/>
     </row>
-    <row r="133" ht="15.6" spans="1:8">
+    <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="C133" s="5">
         <v>209</v>
@@ -5642,16 +5141,16 @@
         <v>18900</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H133" s="9"/>
     </row>
-    <row r="134" ht="15.6" spans="1:8">
+    <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="C134" s="5">
         <v>121</v>
@@ -5667,16 +5166,16 @@
         <v>10400</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H134" s="9"/>
     </row>
-    <row r="135" ht="15.6" spans="1:8">
+    <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="C135" s="12">
         <v>1049</v>
@@ -5692,16 +5191,16 @@
         <v>85900</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H135" s="9"/>
     </row>
-    <row r="136" ht="15.6" spans="1:8">
+    <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C136" s="12">
         <v>809</v>
@@ -5717,16 +5216,16 @@
         <v>69900</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H136" s="9"/>
     </row>
-    <row r="137" ht="15.6" spans="1:8">
+    <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="C137" s="12">
         <v>79</v>
@@ -5742,16 +5241,16 @@
         <v>7900</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H137" s="9"/>
     </row>
-    <row r="138" ht="15.6" spans="1:8">
+    <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="C138" s="12">
         <v>159</v>
@@ -5767,16 +5266,16 @@
         <v>15900</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H138" s="9"/>
     </row>
-    <row r="139" ht="15.6" spans="1:8">
+    <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="C139" s="12">
         <v>159</v>
@@ -5792,16 +5291,16 @@
         <v>15900</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" ht="15.6" spans="1:8">
+    <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="C140" s="12">
         <v>159</v>
@@ -5817,16 +5316,16 @@
         <v>15900</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" ht="15.6" spans="1:8">
+    <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="C141" s="12">
         <v>159</v>
@@ -5842,16 +5341,16 @@
         <v>15900</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H141" s="9"/>
     </row>
-    <row r="142" ht="15.6" spans="1:8">
+    <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="C142" s="12">
         <v>79</v>
@@ -5867,16 +5366,16 @@
         <v>7900</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H142" s="9"/>
     </row>
-    <row r="143" ht="15.6" spans="1:8">
+    <row r="143" spans="1:8" ht="15.75">
       <c r="A143" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="C143" s="12">
         <v>79</v>
@@ -5892,16 +5391,16 @@
         <v>7900</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H143" s="9"/>
     </row>
-    <row r="144" ht="15.6" spans="1:8">
+    <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="C144" s="12">
         <v>89</v>
@@ -5917,16 +5416,16 @@
         <v>8900</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H144" s="9"/>
     </row>
-    <row r="145" ht="15.6" spans="1:8">
+    <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="C145" s="12">
         <v>89</v>
@@ -5942,16 +5441,16 @@
         <v>8900</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H145" s="9"/>
     </row>
-    <row r="146" ht="15.6" spans="1:8">
+    <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C146" s="12">
         <v>89</v>
@@ -5967,16 +5466,16 @@
         <v>8900</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H146" s="9"/>
     </row>
-    <row r="147" ht="15.6" spans="1:8">
+    <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="C147" s="12">
         <v>89</v>
@@ -5992,16 +5491,16 @@
         <v>8900</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H147" s="9"/>
     </row>
-    <row r="148" ht="15.6" spans="1:8">
+    <row r="148" spans="1:8" ht="15.75">
       <c r="A148" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="C148" s="5">
         <v>119</v>
@@ -6017,16 +5516,16 @@
         <v>7900</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H148" s="9"/>
     </row>
-    <row r="149" ht="15.6" spans="1:8">
+    <row r="149" spans="1:8" ht="15.75">
       <c r="A149" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C149" s="5">
         <v>119</v>
@@ -6042,16 +5541,16 @@
         <v>7900</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H149" s="9"/>
     </row>
-    <row r="150" ht="15.6" spans="1:8">
+    <row r="150" spans="1:8" ht="15.75">
       <c r="A150" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>298</v>
       </c>
       <c r="C150" s="5">
         <v>12.5</v>
@@ -6067,12 +5566,36 @@
         <v>1250</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H150" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{1F662140-7E1F-4C62-8AC3-788F692F9FF9}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{0BDDF70C-CAE0-4D3A-97EE-A61CEE252528}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{65C14F93-4962-4896-BCCE-A03F185CB243}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{0DCCCA41-03F0-4F5B-A28A-65236261E9BF}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{1F8E79C8-9F45-46CC-882E-FD5B457E52E2}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{F88B982A-7B17-45BF-B266-D7A98A63465C}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{B388936A-FAE9-4420-B4B9-48FBCD95E3EA}"/>
+    <hyperlink ref="H11" r:id="rId8" xr:uid="{22A6535B-89D7-4259-B18A-4383C7F2C84E}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{9FF03C27-8CFC-4951-8FF1-978CDE50D4F4}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{3DB95A8A-38D5-4DDE-851D-109FB0072131}"/>
+    <hyperlink ref="H14" r:id="rId11" xr:uid="{12240AD6-4C35-4E3C-8A18-B9E0905E6FF7}"/>
+    <hyperlink ref="H15" r:id="rId12" xr:uid="{4EFB6327-63C9-42B5-8F0F-498FF56DE480}"/>
+    <hyperlink ref="H18" r:id="rId13" xr:uid="{12E0C8BD-9817-44E8-AA7F-555DC67C9C50}"/>
+    <hyperlink ref="H20" r:id="rId14" xr:uid="{624101B1-1D6A-486D-AEF3-A48158CBC889}"/>
+    <hyperlink ref="H22" r:id="rId15" xr:uid="{C90003EF-6495-4B95-AEAA-5ACF067B7A61}"/>
+    <hyperlink ref="H23" r:id="rId16" xr:uid="{9701BF7B-FEFA-46B5-A4CF-DD01DD2238EC}"/>
+    <hyperlink ref="H19" r:id="rId17" xr:uid="{6EC46399-923F-40A3-9878-17CCEF40D04E}"/>
+    <hyperlink ref="H21" r:id="rId18" xr:uid="{B8B61869-35E6-47C3-91FC-9FA9DA4DC486}"/>
+    <hyperlink ref="H24" r:id="rId19" xr:uid="{A515E218-830D-412B-AE61-8B1ABF5CDDA1}"/>
+    <hyperlink ref="H25" r:id="rId20" xr:uid="{24982F2D-46AF-4EFF-B3D9-82513C3AF111}"/>
+    <hyperlink ref="H26" r:id="rId21" xr:uid="{38B0D437-7C2C-47ED-8A56-D6553D764958}"/>
+    <hyperlink ref="H27" r:id="rId22" xr:uid="{DE48B831-D207-4FB3-B832-2368EC72F7EA}"/>
+    <hyperlink ref="H28" r:id="rId23" xr:uid="{067B0C5B-941A-4D92-BB6B-1F64CA4C32BC}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2CB74F-A111-4F79-8B2D-0AA32D49251D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B26F2D-5161-42F0-AF65-B6A0783D281E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="332">
   <si>
     <t>SCF</t>
   </si>
@@ -115,9 +115,6 @@
     <t>SCF-100.TRP216GY</t>
   </si>
   <si>
-    <t>Premium Memory Foam Neck Pillow</t>
-  </si>
-  <si>
     <t>SCF-100.HWLS60D</t>
   </si>
   <si>
@@ -925,9 +922,6 @@
     <t>https://cutt.cx/HY1V</t>
   </si>
   <si>
-    <t>https://cutt.cx/DVC</t>
-  </si>
-  <si>
     <t>https://cutt.cx/U2T</t>
   </si>
   <si>
@@ -943,12 +937,6 @@
     <t>FELIZTRIP TR-606-P35 TRAVEL ADAPTOR. 2x USB C and 2X USB A Fast Charging PD 35W</t>
   </si>
   <si>
-    <t>https://cutt.cx/XZJyq</t>
-  </si>
-  <si>
-    <t>https://cutt.cx/Wna</t>
-  </si>
-  <si>
     <t>https://cutt.cx/jXs</t>
   </si>
   <si>
@@ -989,6 +977,45 @@
   </si>
   <si>
     <t>https://cutt.cx/dsIs7</t>
+  </si>
+  <si>
+    <t>https://cutt.cx/rdF</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/F82DCWK/New-Project-2.png</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/5ySm0HJG/Watermark.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tgLT12CZ/bb1f697dcc5270c0556c893dc8b6a064.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/DzbfKLd2/20220120-192454.png</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/T1TTmS8w/Samsung-162912926-sg-music-frame-hw-ls60d-hw-ls60d-xs-540309625-Download-Source-zoom.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tCCX4Ltv/1537671797926.jpg</t>
+  </si>
+  <si>
+    <t>FELIZTRIP Premium Memory Foam Neck Pillow</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jSBKvCVB/DLAR15-DWM-T1-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qRxTkLtd/HW9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SRZb9x7T/HW9PRO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/m2Dss7B0/MFG150-M0-APB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/2SLNqmqG/BX6.jpg</t>
   </si>
 </sst>
 </file>
@@ -997,8 +1024,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$RM-4409]#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$RM-4409]#,##0"/>
+    <numFmt numFmtId="164" formatCode="[$RM-4409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$RM-4409]#,##0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1191,7 +1218,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,10 +1239,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1242,13 +1269,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1758,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1823,7 +1850,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -1850,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -1877,7 +1904,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -1904,7 +1931,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -1931,7 +1958,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
@@ -1958,7 +1985,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
@@ -1985,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
@@ -2011,14 +2038,16 @@
       <c r="G9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="29" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="5">
         <v>129</v>
@@ -2043,7 +2072,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="C11" s="5">
         <v>99</v>
@@ -2062,15 +2091,15 @@
         <v>28</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="5">
         <v>1999</v>
@@ -2089,15 +2118,15 @@
         <v>28</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>149</v>
@@ -2116,15 +2145,15 @@
         <v>28</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C14" s="5">
         <v>149</v>
@@ -2143,15 +2172,15 @@
         <v>28</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C15" s="5">
         <v>29</v>
@@ -2170,15 +2199,15 @@
         <v>28</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="5">
         <v>39</v>
@@ -2196,14 +2225,16 @@
       <c r="G16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="29" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5">
         <v>49</v>
@@ -2221,14 +2252,16 @@
       <c r="G17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="29" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="5">
         <v>89</v>
@@ -2247,15 +2280,15 @@
         <v>28</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="5">
         <v>229</v>
@@ -2271,18 +2304,18 @@
         <v>22900</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5">
         <v>89</v>
@@ -2301,15 +2334,15 @@
         <v>28</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C21" s="5">
         <v>299</v>
@@ -2328,15 +2361,15 @@
         <v>28</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5">
         <v>89</v>
@@ -2355,15 +2388,15 @@
         <v>28</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C23" s="5">
         <v>39.9</v>
@@ -2382,15 +2415,15 @@
         <v>28</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="5">
         <v>99</v>
@@ -2409,15 +2442,15 @@
         <v>28</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="5">
         <v>129</v>
@@ -2436,15 +2469,15 @@
         <v>28</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="5">
         <v>269</v>
@@ -2463,15 +2496,15 @@
         <v>28</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="5">
         <v>559</v>
@@ -2490,15 +2523,15 @@
         <v>28</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5">
         <v>559</v>
@@ -2517,15 +2550,15 @@
         <v>28</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="5">
         <v>469</v>
@@ -2543,14 +2576,16 @@
       <c r="G29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="29" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C30" s="5">
         <v>2099</v>
@@ -2568,14 +2603,16 @@
       <c r="G30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="29" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="5">
         <v>2699</v>
@@ -2593,14 +2630,16 @@
       <c r="G31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="29" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="C32" s="5">
         <v>135</v>
@@ -2618,14 +2657,16 @@
       <c r="G32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="29" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C33" s="5">
         <v>799</v>
@@ -2643,14 +2684,16 @@
       <c r="G33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="29" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C34" s="5">
         <v>159</v>
@@ -2668,14 +2711,16 @@
       <c r="G34" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="29" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C35" s="5">
         <v>1199</v>
@@ -2697,10 +2742,10 @@
     </row>
     <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C36" s="5">
         <v>199</v>
@@ -2722,10 +2767,10 @@
     </row>
     <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C37" s="5">
         <v>162</v>
@@ -2747,10 +2792,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C38" s="5">
         <v>159</v>
@@ -2772,10 +2817,10 @@
     </row>
     <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="5">
         <v>169</v>
@@ -2797,10 +2842,10 @@
     </row>
     <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="5">
         <v>499</v>
@@ -2822,10 +2867,10 @@
     </row>
     <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="5">
         <v>18.5</v>
@@ -2841,16 +2886,16 @@
         <v>1850</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="C42" s="5">
         <v>16.899999999999999</v>
@@ -2866,16 +2911,16 @@
         <v>1690</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="C43" s="5">
         <v>11.9</v>
@@ -2891,16 +2936,16 @@
         <v>1190</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C44" s="5">
         <v>3.5</v>
@@ -2916,16 +2961,16 @@
         <v>350</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="C45" s="5">
         <v>2.6</v>
@@ -2941,16 +2986,16 @@
         <v>260</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C46" s="5">
         <v>5.7</v>
@@ -2966,16 +3011,16 @@
         <v>570</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="C47" s="5">
         <v>4.5</v>
@@ -2991,16 +3036,16 @@
         <v>450</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="C48" s="5">
         <v>14.4</v>
@@ -3016,16 +3061,16 @@
         <v>1440</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C49" s="5">
         <v>9.1</v>
@@ -3041,16 +3086,16 @@
         <v>910</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C50" s="5">
         <v>8.1</v>
@@ -3066,16 +3111,16 @@
         <v>810</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C51" s="5">
         <v>9.9</v>
@@ -3091,16 +3136,16 @@
         <v>990</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="C52" s="5">
         <v>7.9</v>
@@ -3116,16 +3161,16 @@
         <v>790</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="C53" s="5">
         <v>16.5</v>
@@ -3141,16 +3186,16 @@
         <v>1650</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="C54" s="5">
         <v>8.6</v>
@@ -3166,16 +3211,16 @@
         <v>860</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="C55" s="5">
         <v>18.5</v>
@@ -3191,16 +3236,16 @@
         <v>1850</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="C56" s="5">
         <v>15.5</v>
@@ -3216,16 +3261,16 @@
         <v>1550</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C57" s="5">
         <v>3.3</v>
@@ -3241,16 +3286,16 @@
         <v>330</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="C58" s="5">
         <v>8</v>
@@ -3266,16 +3311,16 @@
         <v>800</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="C59" s="5">
         <v>8</v>
@@ -3291,16 +3336,16 @@
         <v>800</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C60" s="5">
         <v>8</v>
@@ -3316,16 +3361,16 @@
         <v>800</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>129</v>
       </c>
       <c r="C61" s="22">
         <v>11.5</v>
@@ -3341,16 +3386,16 @@
         <v>1150</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C62" s="5">
         <v>18</v>
@@ -3366,16 +3411,16 @@
         <v>1800</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="C63" s="12">
         <v>106</v>
@@ -3391,16 +3436,16 @@
         <v>10400</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8" ht="15.75">
       <c r="A64" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="12">
         <v>106</v>
@@ -3416,16 +3461,16 @@
         <v>10400</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="C65" s="5">
         <v>369</v>
@@ -3441,16 +3486,16 @@
         <v>14900</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" ht="15.75">
       <c r="A66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="C66" s="5">
         <v>439</v>
@@ -3466,16 +3511,16 @@
         <v>16900</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="C67" s="5">
         <v>489</v>
@@ -3491,16 +3536,16 @@
         <v>18900</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="C68" s="12">
         <v>86</v>
@@ -3516,16 +3561,16 @@
         <v>8400</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="C69" s="5">
         <v>499</v>
@@ -3541,16 +3586,16 @@
         <v>19900</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C70" s="12">
         <v>106</v>
@@ -3566,16 +3611,16 @@
         <v>10400</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C71" s="5">
         <v>459</v>
@@ -3591,16 +3636,16 @@
         <v>16900</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="C72" s="5">
         <v>459</v>
@@ -3616,16 +3661,16 @@
         <v>16900</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H72" s="9"/>
     </row>
     <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C73" s="5">
         <v>519</v>
@@ -3641,16 +3686,16 @@
         <v>18900</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="5">
         <v>519</v>
@@ -3666,16 +3711,16 @@
         <v>18900</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="C75" s="5">
         <v>639</v>
@@ -3691,16 +3736,16 @@
         <v>23900</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C76" s="5">
         <v>639</v>
@@ -3716,16 +3761,16 @@
         <v>23900</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="5">
         <v>639</v>
@@ -3741,16 +3786,16 @@
         <v>23900</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="C78" s="12">
         <v>69</v>
@@ -3766,16 +3811,16 @@
         <v>6900</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H78" s="9"/>
     </row>
     <row r="79" spans="1:8" ht="15.75">
       <c r="A79" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C79" s="12">
         <v>69</v>
@@ -3791,16 +3836,16 @@
         <v>6900</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8" ht="15.75">
       <c r="A80" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" s="12">
         <v>69</v>
@@ -3816,16 +3861,16 @@
         <v>6900</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8" ht="15.75">
       <c r="A81" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>165</v>
       </c>
       <c r="C81" s="5">
         <v>1499</v>
@@ -3841,16 +3886,16 @@
         <v>104900</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8" ht="15.75">
       <c r="A82" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82" s="5">
         <v>1299</v>
@@ -3866,16 +3911,16 @@
         <v>87900</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="C83" s="12">
         <v>119</v>
@@ -3891,16 +3936,16 @@
         <v>9900</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8" ht="15.75">
       <c r="A84" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="C84" s="12">
         <v>99</v>
@@ -3916,16 +3961,16 @@
         <v>9700</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H84" s="9"/>
     </row>
     <row r="85" spans="1:8" ht="15.75">
       <c r="A85" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="C85" s="5">
         <v>15.5</v>
@@ -3941,16 +3986,16 @@
         <v>1550</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H85" s="9"/>
     </row>
     <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="26" t="s">
         <v>173</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="C86" s="12">
         <v>109</v>
@@ -3966,16 +4011,16 @@
         <v>10900</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="26" t="s">
         <v>175</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>176</v>
       </c>
       <c r="C87" s="12">
         <v>259</v>
@@ -3991,16 +4036,16 @@
         <v>25900</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8" ht="15.75">
       <c r="A88" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="C88" s="5">
         <v>409</v>
@@ -4016,16 +4061,16 @@
         <v>15900</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8" ht="15.75">
       <c r="A89" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="C89" s="5">
         <v>499</v>
@@ -4041,16 +4086,16 @@
         <v>19900</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>181</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>182</v>
       </c>
       <c r="C90" s="5">
         <v>209</v>
@@ -4066,16 +4111,16 @@
         <v>18900</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="26" t="s">
         <v>183</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>184</v>
       </c>
       <c r="C91" s="5">
         <v>159</v>
@@ -4091,16 +4136,16 @@
         <v>10000</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H91" s="9"/>
     </row>
     <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>186</v>
       </c>
       <c r="C92" s="5">
         <v>147</v>
@@ -4116,16 +4161,16 @@
         <v>12200</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>188</v>
       </c>
       <c r="C93" s="5">
         <v>208</v>
@@ -4141,16 +4186,16 @@
         <v>14800</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>189</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>190</v>
       </c>
       <c r="C94" s="5">
         <v>279</v>
@@ -4166,16 +4211,16 @@
         <v>19900</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H94" s="9"/>
     </row>
     <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="C95" s="5">
         <v>99</v>
@@ -4191,16 +4236,16 @@
         <v>8500</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="C96" s="5">
         <v>99</v>
@@ -4216,16 +4261,16 @@
         <v>7900</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="C97" s="5">
         <v>229</v>
@@ -4241,16 +4286,16 @@
         <v>16500</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="C98" s="5">
         <v>131</v>
@@ -4266,16 +4311,16 @@
         <v>12100</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H98" s="9"/>
     </row>
     <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="C99" s="5">
         <v>127</v>
@@ -4291,16 +4336,16 @@
         <v>9500</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>202</v>
       </c>
       <c r="C100" s="5">
         <v>289</v>
@@ -4316,16 +4361,16 @@
         <v>22900</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>204</v>
       </c>
       <c r="C101" s="5">
         <v>449</v>
@@ -4341,16 +4386,16 @@
         <v>29900</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>206</v>
       </c>
       <c r="C102" s="12">
         <v>27.9</v>
@@ -4366,16 +4411,16 @@
         <v>2790</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>208</v>
       </c>
       <c r="C103" s="12">
         <v>27.9</v>
@@ -4391,16 +4436,16 @@
         <v>2790</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="26" t="s">
         <v>209</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>210</v>
       </c>
       <c r="C104" s="12">
         <v>87.7</v>
@@ -4416,16 +4461,18 @@
         <v>6900</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H104" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="C105" s="12">
         <v>32.9</v>
@@ -4441,16 +4488,16 @@
         <v>2300</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H105" s="9"/>
     </row>
     <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="C106" s="12">
         <v>20.9</v>
@@ -4466,16 +4513,16 @@
         <v>2090</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H106" s="9"/>
     </row>
     <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="C107" s="12">
         <v>499</v>
@@ -4491,16 +4538,16 @@
         <v>18900</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="C108" s="12">
         <v>55</v>
@@ -4516,16 +4563,16 @@
         <v>4900</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>220</v>
       </c>
       <c r="C109" s="12">
         <v>129</v>
@@ -4541,16 +4588,16 @@
         <v>12500</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>222</v>
       </c>
       <c r="C110" s="12">
         <v>499</v>
@@ -4566,16 +4613,16 @@
         <v>19900</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H110" s="9"/>
     </row>
     <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="C111" s="12">
         <v>399</v>
@@ -4591,16 +4638,16 @@
         <v>19900</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H111" s="9"/>
     </row>
     <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>226</v>
       </c>
       <c r="C112" s="12">
         <v>439</v>
@@ -4616,16 +4663,16 @@
         <v>16900</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="C113" s="12">
         <v>479</v>
@@ -4641,16 +4688,16 @@
         <v>18900</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="C114" s="12">
         <v>599</v>
@@ -4666,16 +4713,16 @@
         <v>18900</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H114" s="9"/>
     </row>
     <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="C115" s="12">
         <v>669</v>
@@ -4691,16 +4738,16 @@
         <v>25900</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H115" s="9"/>
     </row>
     <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116" s="12">
         <v>106</v>
@@ -4716,16 +4763,16 @@
         <v>10400</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="C117" s="12">
         <v>699</v>
@@ -4741,16 +4788,16 @@
         <v>49900</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="C118" s="12">
         <v>79</v>
@@ -4766,16 +4813,16 @@
         <v>5500</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H118" s="9"/>
     </row>
     <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="C119" s="12">
         <v>289</v>
@@ -4791,16 +4838,16 @@
         <v>27900</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H119" s="9"/>
     </row>
     <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="C120" s="5">
         <v>159</v>
@@ -4816,16 +4863,16 @@
         <v>9900</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H120" s="9"/>
     </row>
     <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="C121" s="5">
         <v>111</v>
@@ -4841,16 +4888,16 @@
         <v>8900</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="15.75">
       <c r="A122" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="C122" s="12">
         <v>699</v>
@@ -4866,16 +4913,16 @@
         <v>31900</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H122" s="9"/>
     </row>
     <row r="123" spans="1:8" ht="15.75">
       <c r="A123" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="C123" s="12">
         <v>559</v>
@@ -4891,16 +4938,16 @@
         <v>32900</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H123" s="9"/>
     </row>
     <row r="124" spans="1:8" ht="15.75">
       <c r="A124" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="C124" s="5">
         <v>449</v>
@@ -4916,16 +4963,16 @@
         <v>39900</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H124" s="9"/>
     </row>
     <row r="125" spans="1:8" ht="15.75">
       <c r="A125" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="C125" s="12">
         <v>949</v>
@@ -4941,16 +4988,16 @@
         <v>49900</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="15.75">
       <c r="A126" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="C126" s="5">
         <v>86</v>
@@ -4966,16 +5013,16 @@
         <v>8400</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H126" s="9"/>
     </row>
     <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C127" s="5">
         <v>86</v>
@@ -4991,16 +5038,16 @@
         <v>8400</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H127" s="9"/>
     </row>
     <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C128" s="5">
         <v>86</v>
@@ -5016,16 +5063,16 @@
         <v>8400</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H128" s="9"/>
     </row>
     <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="C129" s="12">
         <v>239</v>
@@ -5041,16 +5088,16 @@
         <v>12900</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="C130" s="12">
         <v>529</v>
@@ -5066,16 +5113,16 @@
         <v>25900</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H130" s="9"/>
     </row>
     <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="C131" s="5">
         <v>409</v>
@@ -5091,16 +5138,16 @@
         <v>29900</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H131" s="9"/>
     </row>
     <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="C132" s="5">
         <v>219</v>
@@ -5116,16 +5163,16 @@
         <v>16900</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H132" s="9"/>
     </row>
     <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="C133" s="5">
         <v>209</v>
@@ -5141,16 +5188,16 @@
         <v>18900</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="C134" s="5">
         <v>121</v>
@@ -5166,16 +5213,16 @@
         <v>10400</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H134" s="9"/>
     </row>
     <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="C135" s="12">
         <v>1049</v>
@@ -5191,16 +5238,16 @@
         <v>85900</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C136" s="12">
         <v>809</v>
@@ -5216,16 +5263,16 @@
         <v>69900</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H136" s="9"/>
     </row>
     <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="C137" s="12">
         <v>79</v>
@@ -5241,16 +5288,16 @@
         <v>7900</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H137" s="9"/>
     </row>
     <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="C138" s="12">
         <v>159</v>
@@ -5266,16 +5313,16 @@
         <v>15900</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H138" s="9"/>
     </row>
     <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="C139" s="12">
         <v>159</v>
@@ -5291,16 +5338,16 @@
         <v>15900</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H139" s="9"/>
     </row>
     <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="C140" s="12">
         <v>159</v>
@@ -5316,16 +5363,16 @@
         <v>15900</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H140" s="9"/>
     </row>
     <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="C141" s="12">
         <v>159</v>
@@ -5341,16 +5388,16 @@
         <v>15900</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H141" s="9"/>
     </row>
     <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="C142" s="12">
         <v>79</v>
@@ -5366,16 +5413,16 @@
         <v>7900</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H142" s="9"/>
     </row>
     <row r="143" spans="1:8" ht="15.75">
       <c r="A143" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="C143" s="12">
         <v>79</v>
@@ -5391,16 +5438,16 @@
         <v>7900</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H143" s="9"/>
     </row>
     <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="C144" s="12">
         <v>89</v>
@@ -5416,16 +5463,16 @@
         <v>8900</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H144" s="9"/>
     </row>
     <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="C145" s="12">
         <v>89</v>
@@ -5441,16 +5488,16 @@
         <v>8900</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H145" s="9"/>
     </row>
     <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="C146" s="12">
         <v>89</v>
@@ -5466,16 +5513,16 @@
         <v>8900</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H146" s="9"/>
     </row>
     <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="C147" s="12">
         <v>89</v>
@@ -5491,16 +5538,16 @@
         <v>8900</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H147" s="9"/>
     </row>
     <row r="148" spans="1:8" ht="15.75">
       <c r="A148" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="C148" s="5">
         <v>119</v>
@@ -5516,16 +5563,16 @@
         <v>7900</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H148" s="9"/>
     </row>
     <row r="149" spans="1:8" ht="15.75">
       <c r="A149" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C149" s="5">
         <v>119</v>
@@ -5541,16 +5588,16 @@
         <v>7900</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H149" s="9"/>
     </row>
     <row r="150" spans="1:8" ht="15.75">
       <c r="A150" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="C150" s="5">
         <v>12.5</v>
@@ -5566,7 +5613,7 @@
         <v>1250</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H150" s="9"/>
     </row>
@@ -5574,27 +5621,37 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{1F662140-7E1F-4C62-8AC3-788F692F9FF9}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{0BDDF70C-CAE0-4D3A-97EE-A61CEE252528}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{65C14F93-4962-4896-BCCE-A03F185CB243}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{0DCCCA41-03F0-4F5B-A28A-65236261E9BF}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{1F8E79C8-9F45-46CC-882E-FD5B457E52E2}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{F88B982A-7B17-45BF-B266-D7A98A63465C}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{B388936A-FAE9-4420-B4B9-48FBCD95E3EA}"/>
-    <hyperlink ref="H11" r:id="rId8" xr:uid="{22A6535B-89D7-4259-B18A-4383C7F2C84E}"/>
-    <hyperlink ref="H12" r:id="rId9" xr:uid="{9FF03C27-8CFC-4951-8FF1-978CDE50D4F4}"/>
-    <hyperlink ref="H13" r:id="rId10" xr:uid="{3DB95A8A-38D5-4DDE-851D-109FB0072131}"/>
-    <hyperlink ref="H14" r:id="rId11" xr:uid="{12240AD6-4C35-4E3C-8A18-B9E0905E6FF7}"/>
-    <hyperlink ref="H15" r:id="rId12" xr:uid="{4EFB6327-63C9-42B5-8F0F-498FF56DE480}"/>
-    <hyperlink ref="H18" r:id="rId13" xr:uid="{12E0C8BD-9817-44E8-AA7F-555DC67C9C50}"/>
-    <hyperlink ref="H20" r:id="rId14" xr:uid="{624101B1-1D6A-486D-AEF3-A48158CBC889}"/>
-    <hyperlink ref="H22" r:id="rId15" xr:uid="{C90003EF-6495-4B95-AEAA-5ACF067B7A61}"/>
-    <hyperlink ref="H23" r:id="rId16" xr:uid="{9701BF7B-FEFA-46B5-A4CF-DD01DD2238EC}"/>
-    <hyperlink ref="H19" r:id="rId17" xr:uid="{6EC46399-923F-40A3-9878-17CCEF40D04E}"/>
-    <hyperlink ref="H21" r:id="rId18" xr:uid="{B8B61869-35E6-47C3-91FC-9FA9DA4DC486}"/>
-    <hyperlink ref="H24" r:id="rId19" xr:uid="{A515E218-830D-412B-AE61-8B1ABF5CDDA1}"/>
-    <hyperlink ref="H25" r:id="rId20" xr:uid="{24982F2D-46AF-4EFF-B3D9-82513C3AF111}"/>
-    <hyperlink ref="H26" r:id="rId21" xr:uid="{38B0D437-7C2C-47ED-8A56-D6553D764958}"/>
-    <hyperlink ref="H27" r:id="rId22" xr:uid="{DE48B831-D207-4FB3-B832-2368EC72F7EA}"/>
-    <hyperlink ref="H28" r:id="rId23" xr:uid="{067B0C5B-941A-4D92-BB6B-1F64CA4C32BC}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{0DCCCA41-03F0-4F5B-A28A-65236261E9BF}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{1F8E79C8-9F45-46CC-882E-FD5B457E52E2}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{F88B982A-7B17-45BF-B266-D7A98A63465C}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{B388936A-FAE9-4420-B4B9-48FBCD95E3EA}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{3DB95A8A-38D5-4DDE-851D-109FB0072131}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{12240AD6-4C35-4E3C-8A18-B9E0905E6FF7}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{4EFB6327-63C9-42B5-8F0F-498FF56DE480}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{12E0C8BD-9817-44E8-AA7F-555DC67C9C50}"/>
+    <hyperlink ref="H20" r:id="rId11" xr:uid="{624101B1-1D6A-486D-AEF3-A48158CBC889}"/>
+    <hyperlink ref="H22" r:id="rId12" xr:uid="{C90003EF-6495-4B95-AEAA-5ACF067B7A61}"/>
+    <hyperlink ref="H23" r:id="rId13" xr:uid="{9701BF7B-FEFA-46B5-A4CF-DD01DD2238EC}"/>
+    <hyperlink ref="H19" r:id="rId14" xr:uid="{6EC46399-923F-40A3-9878-17CCEF40D04E}"/>
+    <hyperlink ref="H21" r:id="rId15" xr:uid="{B8B61869-35E6-47C3-91FC-9FA9DA4DC486}"/>
+    <hyperlink ref="H24" r:id="rId16" xr:uid="{A515E218-830D-412B-AE61-8B1ABF5CDDA1}"/>
+    <hyperlink ref="H25" r:id="rId17" xr:uid="{24982F2D-46AF-4EFF-B3D9-82513C3AF111}"/>
+    <hyperlink ref="H26" r:id="rId18" xr:uid="{38B0D437-7C2C-47ED-8A56-D6553D764958}"/>
+    <hyperlink ref="H27" r:id="rId19" xr:uid="{DE48B831-D207-4FB3-B832-2368EC72F7EA}"/>
+    <hyperlink ref="H28" r:id="rId20" xr:uid="{067B0C5B-941A-4D92-BB6B-1F64CA4C32BC}"/>
+    <hyperlink ref="H4" r:id="rId21" xr:uid="{166242A6-84AF-4177-8CFF-AF4E04E121B6}"/>
+    <hyperlink ref="H104" r:id="rId22" xr:uid="{E9F847FB-4000-4834-8307-7CD6580EB201}"/>
+    <hyperlink ref="H9" r:id="rId23" xr:uid="{56DE5FF6-6968-40E2-8944-AC47B62E508E}"/>
+    <hyperlink ref="H16" r:id="rId24" xr:uid="{4933627B-2BCD-4570-A6A9-60B49E269547}"/>
+    <hyperlink ref="H17" r:id="rId25" xr:uid="{45D8684E-8E5B-43FC-8992-D09509676D2F}"/>
+    <hyperlink ref="H12" r:id="rId26" xr:uid="{EBDCCE59-783D-4B53-94F7-2BB9889F9D10}"/>
+    <hyperlink ref="H11" r:id="rId27" xr:uid="{2B1060E7-2E59-4CCD-A7E8-D0148EAC3702}"/>
+    <hyperlink ref="H29" r:id="rId28" xr:uid="{7826FFE3-EC7A-40D7-A45B-5D99AF7E4556}"/>
+    <hyperlink ref="H30" r:id="rId29" xr:uid="{28608F9D-016D-4FC5-9343-E31DA4F62C0B}"/>
+    <hyperlink ref="H31" r:id="rId30" xr:uid="{F6199302-674E-44EB-B8C0-8C85C1DAD826}"/>
+    <hyperlink ref="H32" r:id="rId31" xr:uid="{42705635-3CC3-49C5-A354-10A6B0AD8A3F}"/>
+    <hyperlink ref="H33" r:id="rId32" xr:uid="{A03BA77E-759F-4086-9421-4FAB47B56CF4}"/>
+    <hyperlink ref="H34" r:id="rId33" xr:uid="{75506291-F652-4D36-AB3F-3559D726503B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B26F2D-5161-42F0-AF65-B6A0783D281E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3328C-4993-4AF9-A98D-CBCD2D7819F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="363">
   <si>
     <t>SCF</t>
   </si>
@@ -91,9 +91,6 @@
     <t>SCF-100.MINI(G)</t>
   </si>
   <si>
-    <t>LAIFEN MINI</t>
-  </si>
-  <si>
     <t>Promo 1/1 - 5/1, 6/1 resume RM459</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>SCF-100.MAGNANO05</t>
   </si>
   <si>
-    <t>Magnano 05 - Magnetic Wireless Power Bank 5000mAh</t>
-  </si>
-  <si>
     <t>SCF-100.KUB-G100</t>
   </si>
   <si>
@@ -388,21 +382,12 @@
     <t>SCF-100.MRMUSLE_PINE</t>
   </si>
   <si>
-    <t>MR MUSLE PINE</t>
-  </si>
-  <si>
     <t>SCF-100.MRMUSLE_MAR</t>
   </si>
   <si>
-    <t>MR MUSLE MARINE</t>
-  </si>
-  <si>
     <t>SCF-100.MRMUSLE_CITRUS</t>
   </si>
   <si>
-    <t>MR MUSCLE TOILET CLEANER CIT</t>
-  </si>
-  <si>
     <t>SCF-100.PRMBOX5x90_MD</t>
   </si>
   <si>
@@ -997,9 +982,6 @@
     <t>https://i.postimg.cc/T1TTmS8w/Samsung-162912926-sg-music-frame-hw-ls60d-hw-ls60d-xs-540309625-Download-Source-zoom.webp</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/tCCX4Ltv/1537671797926.jpg</t>
-  </si>
-  <si>
     <t>FELIZTRIP Premium Memory Foam Neck Pillow</t>
   </si>
   <si>
@@ -1016,6 +998,117 @@
   </si>
   <si>
     <t>https://i.postimg.cc/2SLNqmqG/BX6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/G2QW0mNL/SVMSBDO2.jpg</t>
+  </si>
+  <si>
+    <t>Riversong Magnetic Wireless Power Bank 5000mAh</t>
+  </si>
+  <si>
+    <t>LAIFEN MINI Green</t>
+  </si>
+  <si>
+    <t>LAIFEN MINI Pink</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZqJHGxhN/F6.png</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/X7FT3Lt1/HD3008.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/2yWXkj9L/FMC1508-WH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7ZwQ4k3b/SVMISVZ4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kXdTNmhw/SVPSRBS9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/PxYmNLhH/TRP216GY.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/8cwfrM02/TACTWP05-BLK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/q7fqq17t/GLADE-SCENT-GEL-TWINPACK-LAVENDAR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jjz57yWM/COLGATE-TWINPACK-GREAT-RE-FLAVOUR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FRpHPmVc/FEBREEZE-370-ML-ANTI-BACTERIA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/0jN2F3V4/HOMESOY-SOYA-MILK-1-L-DRINK.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/rsYFkJbw/Ribena-Blackcurrant-300ml.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/yxWsvRd4/GLO-LIME-800-ML.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BbysyvL8/GLo-800-ML-Lemon.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/bNDqn1W1/COLGATE-ZIG-ZAG-TOOTHBRUSH-5-S.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/4d2T7318/Scotch-Brite-4-1-kitchen-sponge.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/6q7xdNjB/Premier-Tissue-Box-4x100s.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/76WpPWxd/Darlie-175g.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kDrzKRRy/SOFTLAN-1-6-FLORAL-FANTASY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fW3b7403/SCOTT-EXTRA-BT-REGULAR.png</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dQzV4W85/Mr-Muscle-Floor-Cleaner-1-L.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/MpYZZqgL/DYNAMO-REFILL-1-44-KG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/YSqrhTHC/COLGATE-ZIG-ZAG-CHARCOAL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp</t>
+  </si>
+  <si>
+    <t>MR MUSLE TOILET BOWL CLEANER - PINE</t>
+  </si>
+  <si>
+    <t>MR MUSLE TOILET BOWL CLEANER - MARINE</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/yxwxRjTr/MR-MUSLE-TOILET-BOWL-CLEANER-MARINE.jpg</t>
+  </si>
+  <si>
+    <t>MR MUSLE TOILET BOWL CLEANER - CITRUS</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/h4wfN4qb/MR-MUSLE-TOILET-BOWL-CLEANER-CITRUS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cL7CKQtX/Premier-Tissue-90s-x-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GtshbY1P/Glade-Scent-Gel-Twin-Pack-Lemon.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/90J55QDP/Montigo-ACE-WATER-BOTTLE-32-OZ-DARK-TEAL.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gk2by87g/Montigo-ACE-WATER-BOTTLE-32-OZ-STONE-GREY.webp</t>
   </si>
 </sst>
 </file>
@@ -1785,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1850,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -1877,7 +1970,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -1904,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -1931,7 +2024,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -1958,7 +2051,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
@@ -1966,7 +2059,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="C7" s="12">
         <v>699</v>
@@ -1982,18 +2075,18 @@
         <v>41900</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>329</v>
       </c>
       <c r="C8" s="5">
         <v>699</v>
@@ -2009,18 +2102,18 @@
         <v>41900</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="5">
         <v>99</v>
@@ -2036,18 +2129,18 @@
         <v>9300</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C10" s="5">
         <v>129</v>
@@ -2063,16 +2156,16 @@
         <v>12900</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C11" s="5">
         <v>99</v>
@@ -2088,18 +2181,18 @@
         <v>9900</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="5">
         <v>1999</v>
@@ -2115,18 +2208,18 @@
         <v>149900</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>149</v>
@@ -2142,18 +2235,18 @@
         <v>14200</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="5">
         <v>149</v>
@@ -2169,18 +2262,18 @@
         <v>14500</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="5">
         <v>29</v>
@@ -2196,18 +2289,18 @@
         <v>2900</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="5">
         <v>39</v>
@@ -2223,18 +2316,18 @@
         <v>3900</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5">
         <v>49</v>
@@ -2250,18 +2343,18 @@
         <v>4900</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="5">
         <v>89</v>
@@ -2277,18 +2370,18 @@
         <v>8900</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="5">
         <v>229</v>
@@ -2304,18 +2397,18 @@
         <v>22900</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5">
         <v>89</v>
@@ -2331,18 +2424,18 @@
         <v>8900</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="5">
         <v>299</v>
@@ -2358,18 +2451,18 @@
         <v>29900</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5">
         <v>89</v>
@@ -2385,18 +2478,18 @@
         <v>8900</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C23" s="5">
         <v>39.9</v>
@@ -2412,18 +2505,18 @@
         <v>3990</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C24" s="5">
         <v>99</v>
@@ -2439,18 +2532,18 @@
         <v>9900</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>327</v>
       </c>
       <c r="C25" s="5">
         <v>129</v>
@@ -2466,18 +2559,18 @@
         <v>12900</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5">
         <v>269</v>
@@ -2493,18 +2586,18 @@
         <v>26900</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="5">
         <v>559</v>
@@ -2520,18 +2613,18 @@
         <v>55900</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5">
         <v>559</v>
@@ -2547,18 +2640,18 @@
         <v>55900</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5">
         <v>469</v>
@@ -2574,18 +2667,18 @@
         <v>44900</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5">
         <v>2099</v>
@@ -2601,18 +2694,18 @@
         <v>119900</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="5">
         <v>2699</v>
@@ -2628,18 +2721,18 @@
         <v>169900</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5">
         <v>135</v>
@@ -2655,18 +2748,18 @@
         <v>10900</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5">
         <v>799</v>
@@ -2682,18 +2775,18 @@
         <v>59900</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="5">
         <v>159</v>
@@ -2709,18 +2802,18 @@
         <v>15600</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="5">
         <v>1199</v>
@@ -2736,16 +2829,18 @@
         <v>59900</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="5">
         <v>199</v>
@@ -2761,16 +2856,18 @@
         <v>16900</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5">
         <v>162</v>
@@ -2786,16 +2883,18 @@
         <v>11500</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" s="5">
         <v>159</v>
@@ -2811,16 +2910,18 @@
         <v>15600</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="5">
         <v>169</v>
@@ -2836,16 +2937,18 @@
         <v>16600</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="5">
         <v>499</v>
@@ -2861,16 +2964,18 @@
         <v>49900</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="5">
         <v>18.5</v>
@@ -2886,16 +2991,18 @@
         <v>1850</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="5">
         <v>16.899999999999999</v>
@@ -2911,16 +3018,18 @@
         <v>1690</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" s="5">
         <v>11.9</v>
@@ -2936,16 +3045,18 @@
         <v>1190</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="5">
         <v>3.5</v>
@@ -2961,16 +3072,18 @@
         <v>350</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H44" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" s="5">
         <v>2.6</v>
@@ -2986,16 +3099,18 @@
         <v>260</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5">
         <v>5.7</v>
@@ -3011,16 +3126,18 @@
         <v>570</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" s="5">
         <v>4.5</v>
@@ -3036,16 +3153,18 @@
         <v>450</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48" s="5">
         <v>14.4</v>
@@ -3061,16 +3180,18 @@
         <v>1440</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H48" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C49" s="5">
         <v>9.1</v>
@@ -3086,16 +3207,18 @@
         <v>910</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H49" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" s="5">
         <v>8.1</v>
@@ -3111,16 +3234,18 @@
         <v>810</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C51" s="5">
         <v>9.9</v>
@@ -3136,16 +3261,18 @@
         <v>990</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" s="5">
         <v>7.9</v>
@@ -3161,16 +3288,18 @@
         <v>790</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" s="5">
         <v>16.5</v>
@@ -3186,16 +3315,18 @@
         <v>1650</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C54" s="5">
         <v>8.6</v>
@@ -3211,16 +3342,18 @@
         <v>860</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H54" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" s="5">
         <v>18.5</v>
@@ -3236,16 +3369,18 @@
         <v>1850</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C56" s="5">
         <v>15.5</v>
@@ -3261,16 +3396,18 @@
         <v>1550</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H56" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C57" s="5">
         <v>3.3</v>
@@ -3286,16 +3423,18 @@
         <v>330</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H57" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>354</v>
       </c>
       <c r="C58" s="5">
         <v>8</v>
@@ -3311,16 +3450,18 @@
         <v>800</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H58" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>124</v>
+        <v>355</v>
       </c>
       <c r="C59" s="5">
         <v>8</v>
@@ -3336,16 +3477,18 @@
         <v>800</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H59" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>126</v>
+        <v>357</v>
       </c>
       <c r="C60" s="5">
         <v>8</v>
@@ -3361,16 +3504,18 @@
         <v>800</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H60" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C61" s="22">
         <v>11.5</v>
@@ -3386,16 +3531,18 @@
         <v>1150</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H61" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C62" s="5">
         <v>18</v>
@@ -3411,16 +3558,18 @@
         <v>1800</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H62" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C63" s="12">
         <v>106</v>
@@ -3436,16 +3585,18 @@
         <v>10400</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H63" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
       <c r="A64" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C64" s="12">
         <v>106</v>
@@ -3461,16 +3612,18 @@
         <v>10400</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C65" s="5">
         <v>369</v>
@@ -3486,16 +3639,16 @@
         <v>14900</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" ht="15.75">
       <c r="A66" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C66" s="5">
         <v>439</v>
@@ -3511,16 +3664,16 @@
         <v>16900</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C67" s="5">
         <v>489</v>
@@ -3536,16 +3689,16 @@
         <v>18900</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C68" s="12">
         <v>86</v>
@@ -3561,16 +3714,16 @@
         <v>8400</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C69" s="5">
         <v>499</v>
@@ -3586,16 +3739,16 @@
         <v>19900</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C70" s="12">
         <v>106</v>
@@ -3611,16 +3764,16 @@
         <v>10400</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C71" s="5">
         <v>459</v>
@@ -3636,16 +3789,16 @@
         <v>16900</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C72" s="5">
         <v>459</v>
@@ -3661,16 +3814,16 @@
         <v>16900</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H72" s="9"/>
     </row>
     <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C73" s="5">
         <v>519</v>
@@ -3686,16 +3839,16 @@
         <v>18900</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C74" s="5">
         <v>519</v>
@@ -3711,16 +3864,16 @@
         <v>18900</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C75" s="5">
         <v>639</v>
@@ -3736,16 +3889,16 @@
         <v>23900</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C76" s="5">
         <v>639</v>
@@ -3761,16 +3914,16 @@
         <v>23900</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C77" s="5">
         <v>639</v>
@@ -3786,16 +3939,16 @@
         <v>23900</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C78" s="12">
         <v>69</v>
@@ -3811,16 +3964,16 @@
         <v>6900</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H78" s="9"/>
     </row>
     <row r="79" spans="1:8" ht="15.75">
       <c r="A79" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C79" s="12">
         <v>69</v>
@@ -3836,16 +3989,16 @@
         <v>6900</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8" ht="15.75">
       <c r="A80" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C80" s="12">
         <v>69</v>
@@ -3861,16 +4014,16 @@
         <v>6900</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8" ht="15.75">
       <c r="A81" s="27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C81" s="5">
         <v>1499</v>
@@ -3886,16 +4039,16 @@
         <v>104900</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8" ht="15.75">
       <c r="A82" s="17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C82" s="5">
         <v>1299</v>
@@ -3911,16 +4064,16 @@
         <v>87900</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C83" s="12">
         <v>119</v>
@@ -3936,16 +4089,16 @@
         <v>9900</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8" ht="15.75">
       <c r="A84" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C84" s="12">
         <v>99</v>
@@ -3961,16 +4114,16 @@
         <v>9700</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H84" s="9"/>
     </row>
     <row r="85" spans="1:8" ht="15.75">
       <c r="A85" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C85" s="5">
         <v>15.5</v>
@@ -3986,16 +4139,16 @@
         <v>1550</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H85" s="9"/>
     </row>
     <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C86" s="12">
         <v>109</v>
@@ -4011,16 +4164,16 @@
         <v>10900</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C87" s="12">
         <v>259</v>
@@ -4036,16 +4189,16 @@
         <v>25900</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8" ht="15.75">
       <c r="A88" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C88" s="5">
         <v>409</v>
@@ -4061,16 +4214,16 @@
         <v>15900</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8" ht="15.75">
       <c r="A89" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C89" s="5">
         <v>499</v>
@@ -4086,16 +4239,16 @@
         <v>19900</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C90" s="5">
         <v>209</v>
@@ -4111,16 +4264,16 @@
         <v>18900</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C91" s="5">
         <v>159</v>
@@ -4136,16 +4289,16 @@
         <v>10000</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H91" s="9"/>
     </row>
     <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C92" s="5">
         <v>147</v>
@@ -4161,16 +4314,16 @@
         <v>12200</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C93" s="5">
         <v>208</v>
@@ -4186,16 +4339,16 @@
         <v>14800</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C94" s="5">
         <v>279</v>
@@ -4211,16 +4364,16 @@
         <v>19900</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H94" s="9"/>
     </row>
     <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C95" s="5">
         <v>99</v>
@@ -4236,16 +4389,16 @@
         <v>8500</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C96" s="5">
         <v>99</v>
@@ -4261,16 +4414,16 @@
         <v>7900</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C97" s="5">
         <v>229</v>
@@ -4286,16 +4439,16 @@
         <v>16500</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C98" s="5">
         <v>131</v>
@@ -4311,16 +4464,16 @@
         <v>12100</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H98" s="9"/>
     </row>
     <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C99" s="5">
         <v>127</v>
@@ -4336,16 +4489,16 @@
         <v>9500</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C100" s="5">
         <v>289</v>
@@ -4361,16 +4514,16 @@
         <v>22900</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C101" s="5">
         <v>449</v>
@@ -4386,16 +4539,16 @@
         <v>29900</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C102" s="12">
         <v>27.9</v>
@@ -4411,16 +4564,16 @@
         <v>2790</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C103" s="12">
         <v>27.9</v>
@@ -4436,16 +4589,16 @@
         <v>2790</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C104" s="12">
         <v>87.7</v>
@@ -4461,18 +4614,18 @@
         <v>6900</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H104" s="29" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C105" s="12">
         <v>32.9</v>
@@ -4488,16 +4641,16 @@
         <v>2300</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H105" s="9"/>
     </row>
     <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C106" s="12">
         <v>20.9</v>
@@ -4513,16 +4666,16 @@
         <v>2090</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H106" s="9"/>
     </row>
     <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C107" s="12">
         <v>499</v>
@@ -4538,16 +4691,16 @@
         <v>18900</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="28" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C108" s="12">
         <v>55</v>
@@ -4563,16 +4716,16 @@
         <v>4900</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C109" s="12">
         <v>129</v>
@@ -4588,16 +4741,16 @@
         <v>12500</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C110" s="12">
         <v>499</v>
@@ -4613,16 +4766,16 @@
         <v>19900</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H110" s="9"/>
     </row>
     <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C111" s="12">
         <v>399</v>
@@ -4638,16 +4791,16 @@
         <v>19900</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H111" s="9"/>
     </row>
     <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C112" s="12">
         <v>439</v>
@@ -4663,16 +4816,16 @@
         <v>16900</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C113" s="12">
         <v>479</v>
@@ -4688,16 +4841,16 @@
         <v>18900</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C114" s="12">
         <v>599</v>
@@ -4713,16 +4866,16 @@
         <v>18900</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H114" s="9"/>
     </row>
     <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C115" s="12">
         <v>669</v>
@@ -4738,16 +4891,16 @@
         <v>25900</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H115" s="9"/>
     </row>
     <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C116" s="12">
         <v>106</v>
@@ -4763,16 +4916,16 @@
         <v>10400</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C117" s="12">
         <v>699</v>
@@ -4788,16 +4941,16 @@
         <v>49900</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C118" s="12">
         <v>79</v>
@@ -4813,16 +4966,16 @@
         <v>5500</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H118" s="9"/>
     </row>
     <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C119" s="12">
         <v>289</v>
@@ -4838,16 +4991,16 @@
         <v>27900</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H119" s="9"/>
     </row>
     <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="17" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C120" s="5">
         <v>159</v>
@@ -4863,16 +5016,16 @@
         <v>9900</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H120" s="9"/>
     </row>
     <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C121" s="5">
         <v>111</v>
@@ -4888,16 +5041,16 @@
         <v>8900</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="15.75">
       <c r="A122" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C122" s="12">
         <v>699</v>
@@ -4913,16 +5066,16 @@
         <v>31900</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H122" s="9"/>
     </row>
     <row r="123" spans="1:8" ht="15.75">
       <c r="A123" s="10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C123" s="12">
         <v>559</v>
@@ -4938,16 +5091,16 @@
         <v>32900</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H123" s="9"/>
     </row>
     <row r="124" spans="1:8" ht="15.75">
       <c r="A124" s="17" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C124" s="5">
         <v>449</v>
@@ -4963,16 +5116,16 @@
         <v>39900</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H124" s="9"/>
     </row>
     <row r="125" spans="1:8" ht="15.75">
       <c r="A125" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C125" s="12">
         <v>949</v>
@@ -4988,16 +5141,16 @@
         <v>49900</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="15.75">
       <c r="A126" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C126" s="5">
         <v>86</v>
@@ -5013,16 +5166,16 @@
         <v>8400</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H126" s="9"/>
     </row>
     <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C127" s="5">
         <v>86</v>
@@ -5038,16 +5191,16 @@
         <v>8400</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H127" s="9"/>
     </row>
     <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C128" s="5">
         <v>86</v>
@@ -5063,16 +5216,16 @@
         <v>8400</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H128" s="9"/>
     </row>
     <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C129" s="12">
         <v>239</v>
@@ -5088,16 +5241,16 @@
         <v>12900</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C130" s="12">
         <v>529</v>
@@ -5113,16 +5266,16 @@
         <v>25900</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H130" s="9"/>
     </row>
     <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C131" s="5">
         <v>409</v>
@@ -5138,16 +5291,16 @@
         <v>29900</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H131" s="9"/>
     </row>
     <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C132" s="5">
         <v>219</v>
@@ -5163,16 +5316,16 @@
         <v>16900</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H132" s="9"/>
     </row>
     <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C133" s="5">
         <v>209</v>
@@ -5188,16 +5341,16 @@
         <v>18900</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C134" s="5">
         <v>121</v>
@@ -5213,16 +5366,16 @@
         <v>10400</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H134" s="9"/>
     </row>
     <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C135" s="12">
         <v>1049</v>
@@ -5238,16 +5391,16 @@
         <v>85900</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C136" s="12">
         <v>809</v>
@@ -5263,16 +5416,16 @@
         <v>69900</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H136" s="9"/>
     </row>
     <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C137" s="12">
         <v>79</v>
@@ -5288,16 +5441,16 @@
         <v>7900</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H137" s="9"/>
     </row>
     <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C138" s="12">
         <v>159</v>
@@ -5313,16 +5466,16 @@
         <v>15900</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H138" s="9"/>
     </row>
     <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C139" s="12">
         <v>159</v>
@@ -5338,16 +5491,16 @@
         <v>15900</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H139" s="9"/>
     </row>
     <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C140" s="12">
         <v>159</v>
@@ -5363,16 +5516,16 @@
         <v>15900</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H140" s="9"/>
     </row>
     <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C141" s="12">
         <v>159</v>
@@ -5388,16 +5541,16 @@
         <v>15900</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H141" s="9"/>
     </row>
     <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C142" s="12">
         <v>79</v>
@@ -5413,16 +5566,16 @@
         <v>7900</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H142" s="9"/>
     </row>
     <row r="143" spans="1:8" ht="15.75">
       <c r="A143" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C143" s="12">
         <v>79</v>
@@ -5438,16 +5591,16 @@
         <v>7900</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H143" s="9"/>
     </row>
     <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C144" s="12">
         <v>89</v>
@@ -5463,16 +5616,16 @@
         <v>8900</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H144" s="9"/>
     </row>
     <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C145" s="12">
         <v>89</v>
@@ -5488,16 +5641,16 @@
         <v>8900</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H145" s="9"/>
     </row>
     <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C146" s="12">
         <v>89</v>
@@ -5513,16 +5666,16 @@
         <v>8900</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H146" s="9"/>
     </row>
     <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C147" s="12">
         <v>89</v>
@@ -5538,16 +5691,16 @@
         <v>8900</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H147" s="9"/>
     </row>
     <row r="148" spans="1:8" ht="15.75">
       <c r="A148" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C148" s="5">
         <v>119</v>
@@ -5563,16 +5716,16 @@
         <v>7900</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H148" s="9"/>
     </row>
     <row r="149" spans="1:8" ht="15.75">
       <c r="A149" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C149" s="5">
         <v>119</v>
@@ -5588,16 +5741,16 @@
         <v>7900</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H149" s="9"/>
     </row>
     <row r="150" spans="1:8" ht="15.75">
       <c r="A150" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C150" s="5">
         <v>12.5</v>
@@ -5613,7 +5766,7 @@
         <v>1250</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H150" s="9"/>
     </row>
@@ -5645,13 +5798,41 @@
     <hyperlink ref="H16" r:id="rId24" xr:uid="{4933627B-2BCD-4570-A6A9-60B49E269547}"/>
     <hyperlink ref="H17" r:id="rId25" xr:uid="{45D8684E-8E5B-43FC-8992-D09509676D2F}"/>
     <hyperlink ref="H12" r:id="rId26" xr:uid="{EBDCCE59-783D-4B53-94F7-2BB9889F9D10}"/>
-    <hyperlink ref="H11" r:id="rId27" xr:uid="{2B1060E7-2E59-4CCD-A7E8-D0148EAC3702}"/>
-    <hyperlink ref="H29" r:id="rId28" xr:uid="{7826FFE3-EC7A-40D7-A45B-5D99AF7E4556}"/>
-    <hyperlink ref="H30" r:id="rId29" xr:uid="{28608F9D-016D-4FC5-9343-E31DA4F62C0B}"/>
-    <hyperlink ref="H31" r:id="rId30" xr:uid="{F6199302-674E-44EB-B8C0-8C85C1DAD826}"/>
-    <hyperlink ref="H32" r:id="rId31" xr:uid="{42705635-3CC3-49C5-A354-10A6B0AD8A3F}"/>
-    <hyperlink ref="H33" r:id="rId32" xr:uid="{A03BA77E-759F-4086-9421-4FAB47B56CF4}"/>
-    <hyperlink ref="H34" r:id="rId33" xr:uid="{75506291-F652-4D36-AB3F-3559D726503B}"/>
+    <hyperlink ref="H29" r:id="rId27" xr:uid="{7826FFE3-EC7A-40D7-A45B-5D99AF7E4556}"/>
+    <hyperlink ref="H30" r:id="rId28" xr:uid="{28608F9D-016D-4FC5-9343-E31DA4F62C0B}"/>
+    <hyperlink ref="H31" r:id="rId29" xr:uid="{F6199302-674E-44EB-B8C0-8C85C1DAD826}"/>
+    <hyperlink ref="H32" r:id="rId30" xr:uid="{42705635-3CC3-49C5-A354-10A6B0AD8A3F}"/>
+    <hyperlink ref="H33" r:id="rId31" xr:uid="{A03BA77E-759F-4086-9421-4FAB47B56CF4}"/>
+    <hyperlink ref="H35" r:id="rId32" xr:uid="{EA6DF7F3-2915-4680-B69B-10A4B211A213}"/>
+    <hyperlink ref="H36" r:id="rId33" xr:uid="{D86C600B-0BBA-4EB7-9058-17880D541D3C}"/>
+    <hyperlink ref="H37" r:id="rId34" xr:uid="{0E740694-2163-429D-9BC0-3A286EF3C1C6}"/>
+    <hyperlink ref="H38" r:id="rId35" xr:uid="{76CC0834-A640-4753-AC38-0FE1A4A7B80D}"/>
+    <hyperlink ref="H39" r:id="rId36" xr:uid="{6D72C4D5-8729-4526-845A-36310B108A40}"/>
+    <hyperlink ref="H40" r:id="rId37" xr:uid="{A17B235E-2BB3-4A99-A271-A1CA09DF5E90}"/>
+    <hyperlink ref="H41" r:id="rId38" xr:uid="{5CE3455F-275F-41CE-8927-C447F03B19D3}"/>
+    <hyperlink ref="H42" r:id="rId39" xr:uid="{16CE8CEE-2135-4592-B513-E03D7B1CA77E}"/>
+    <hyperlink ref="H43" r:id="rId40" xr:uid="{2F5DC153-D6CD-409E-967D-C6720C7371D3}"/>
+    <hyperlink ref="H44" r:id="rId41" xr:uid="{5CF153B9-DE04-4C8C-84B1-00134B791C40}"/>
+    <hyperlink ref="H45" r:id="rId42" xr:uid="{6CF6C114-7E9E-4D7B-BF90-15CC9D0A430C}"/>
+    <hyperlink ref="H46" r:id="rId43" xr:uid="{21DD17E8-B277-4951-A97A-FA9FB6BF9A71}"/>
+    <hyperlink ref="H47" r:id="rId44" xr:uid="{F1A97F95-7AC4-41E4-98E2-7798B6E9D427}"/>
+    <hyperlink ref="H48" r:id="rId45" xr:uid="{D2818351-F691-44CE-9013-C90C19D8F2D9}"/>
+    <hyperlink ref="H49" r:id="rId46" xr:uid="{1690D9AE-1A66-4132-B8E3-41C330121C73}"/>
+    <hyperlink ref="H50" r:id="rId47" xr:uid="{A0848FF4-2B5A-4877-9314-1CACFE93C812}"/>
+    <hyperlink ref="H51" r:id="rId48" xr:uid="{F409BA16-373D-4293-8E7E-64BA730906D1}"/>
+    <hyperlink ref="H52" r:id="rId49" xr:uid="{F883125E-8F16-41D4-8175-060307273AB1}"/>
+    <hyperlink ref="H53" r:id="rId50" xr:uid="{15B15651-E2A3-4D81-BE60-C299C7DEBBE3}"/>
+    <hyperlink ref="H54" r:id="rId51" xr:uid="{3FBB781A-9D39-43E3-9B21-E4FA2F3E19A9}"/>
+    <hyperlink ref="H55" r:id="rId52" xr:uid="{96C7C0CE-6491-431A-8706-B31300DEBF27}"/>
+    <hyperlink ref="H56" r:id="rId53" xr:uid="{BBAD4FFF-DFBE-453C-B979-7ADF7D976CF3}"/>
+    <hyperlink ref="H57" r:id="rId54" xr:uid="{ABF6DFA8-38BA-447A-BA98-0299498F9632}"/>
+    <hyperlink ref="H59" r:id="rId55" xr:uid="{363D8063-14EB-42D9-ABCF-9219C60C8CB1}"/>
+    <hyperlink ref="H58" r:id="rId56" xr:uid="{C879739E-18A1-4BF3-9A5C-AA65EDEE3B44}"/>
+    <hyperlink ref="H60" r:id="rId57" xr:uid="{42E9C338-9D3E-4C01-8C68-0F697B822E9A}"/>
+    <hyperlink ref="H61" r:id="rId58" xr:uid="{80AA8919-3EA8-4A60-A493-4279ED5FC739}"/>
+    <hyperlink ref="H62" r:id="rId59" xr:uid="{7E0330A3-F4F6-490E-A499-793C30B49607}"/>
+    <hyperlink ref="H63" r:id="rId60" xr:uid="{5F82C90B-F078-4A9B-ACDD-467E711FE374}"/>
+    <hyperlink ref="H64" r:id="rId61" xr:uid="{DCFE5ABE-50E1-4943-A56F-AE0E3B8C5F84}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3328C-4993-4AF9-A98D-CBCD2D7819F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B01CC2-A7D5-4B08-ADDA-81EB4E2D0E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1353,9 +1353,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1377,13 +1374,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1920,1748 +1920,1670 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5">
-        <v>179</v>
-      </c>
-      <c r="D2" s="5">
-        <v>149</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
+      <c r="A2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="12">
+        <v>27.9</v>
+      </c>
+      <c r="D2" s="12">
+        <v>27.9</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F65" si="0">D2*100</f>
-        <v>14900</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>293</v>
-      </c>
+        <f>D2*100</f>
+        <v>2790</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5">
-        <v>209</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="A3" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
+      <c r="B3" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="12">
+        <v>27.9</v>
+      </c>
+      <c r="D3" s="12">
+        <v>27.9</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
-        <v>19900</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>294</v>
-      </c>
+        <f>D3*100</f>
+        <v>2790</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5">
-        <v>299</v>
-      </c>
-      <c r="D4" s="5">
-        <v>229</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
+      <c r="A4" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="12">
+        <v>87.7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>69</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>22900</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>314</v>
+        <f>D4*100</f>
+        <v>6900</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>205</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>206</v>
       </c>
       <c r="C5" s="12">
-        <v>24.9</v>
+        <v>32.9</v>
       </c>
       <c r="D5" s="12">
-        <v>24.9</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>2490</v>
+        <f>D5*100</f>
+        <v>2300</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>295</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5">
-        <v>299</v>
+        <v>15.5</v>
       </c>
       <c r="D6" s="5">
-        <v>183</v>
+        <v>15.5</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>18300</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>296</v>
-      </c>
+        <f>D6*100</f>
+        <v>1550</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="12">
-        <v>699</v>
+      <c r="A7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="5">
+        <v>12.5</v>
       </c>
       <c r="D7" s="5">
-        <v>419</v>
+        <v>12.5</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>41900</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>297</v>
-      </c>
+        <f>D7*100</f>
+        <v>1250</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>329</v>
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="5">
-        <v>699</v>
+        <v>149</v>
       </c>
       <c r="D8" s="5">
-        <v>419</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>41900</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>298</v>
+        <f>D8*100</f>
+        <v>14500</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="10" t="s">
-        <v>25</v>
+      <c r="A9" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5">
-        <v>99</v>
+        <v>559</v>
       </c>
       <c r="D9" s="5">
-        <v>93</v>
+        <v>559</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>9300</v>
+        <f>D9*100</f>
+        <v>55900</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>316</v>
+      <c r="H9" s="27" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="10" t="s">
-        <v>28</v>
+      <c r="A10" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5">
-        <v>129</v>
+        <v>559</v>
       </c>
       <c r="D10" s="5">
-        <v>129</v>
+        <v>559</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>12900</v>
+        <f>D10*100</f>
+        <v>55900</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="27" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="A11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="12">
         <v>99</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="12">
+        <v>97</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f>D11*100</f>
+        <v>9700</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5">
         <v>99</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>9900</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1999</v>
-      </c>
       <c r="D12" s="5">
-        <v>1499</v>
+        <v>93</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>149900</v>
+        <f>D12*100</f>
+        <v>9300</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>319</v>
+      <c r="H12" s="27" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="5">
-        <v>149</v>
-      </c>
-      <c r="D13" s="5">
-        <v>142</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
+      <c r="A13" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="12">
+        <v>129</v>
+      </c>
+      <c r="D13" s="12">
+        <v>125</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>14200</v>
+        <f>D13*100</f>
+        <v>12500</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>300</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5">
-        <v>149</v>
-      </c>
-      <c r="D14" s="5">
-        <v>145</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
+      <c r="A14" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="12">
+        <v>79</v>
+      </c>
+      <c r="D14" s="12">
+        <v>55</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>14500</v>
+        <f>D14*100</f>
+        <v>5500</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>301</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="5">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5">
-        <v>29</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
+      <c r="A15" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="12">
+        <v>55</v>
+      </c>
+      <c r="D15" s="12">
+        <v>49</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>2900</v>
+        <f>D15*100</f>
+        <v>4900</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>302</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C16" s="5">
-        <v>39</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D16" s="5">
-        <v>39</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>3900</v>
+        <f>D16*100</f>
+        <v>1689.9999999999998</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>317</v>
+        <v>86</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C17" s="5">
-        <v>49</v>
+        <v>15.5</v>
       </c>
       <c r="D17" s="5">
-        <v>49</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
+        <v>15.5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>4900</v>
+        <f>D17*100</f>
+        <v>1550</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>318</v>
+        <v>86</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C18" s="5">
-        <v>89</v>
+        <v>14.4</v>
       </c>
       <c r="D18" s="5">
-        <v>89</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>10</v>
+        <v>14.4</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <f>D18*100</f>
+        <v>1440</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>303</v>
+        <v>86</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C19" s="5">
-        <v>229</v>
+        <v>9.9</v>
       </c>
       <c r="D19" s="5">
-        <v>229</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
+        <v>9.9</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>22900</v>
+        <f>D19*100</f>
+        <v>990</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>307</v>
+        <v>86</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="C20" s="5">
-        <v>89</v>
+        <v>459</v>
       </c>
       <c r="D20" s="5">
-        <v>89</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
+        <v>169</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <f>D20*100</f>
+        <v>16900</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>304</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="C21" s="5">
-        <v>299</v>
+        <v>459</v>
       </c>
       <c r="D21" s="5">
-        <v>299</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>10</v>
+        <v>169</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>29900</v>
+        <f>D21*100</f>
+        <v>16900</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>308</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="5">
-        <v>89</v>
-      </c>
-      <c r="D22" s="5">
-        <v>89</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
+      <c r="A22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="12">
+        <v>399</v>
+      </c>
+      <c r="D22" s="12">
+        <v>199</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <f>D22*100</f>
+        <v>19900</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>305</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="5">
-        <v>39.9</v>
-      </c>
-      <c r="D23" s="5">
-        <v>39.9</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
+      <c r="A23" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="12">
+        <v>439</v>
+      </c>
+      <c r="D23" s="12">
+        <v>169</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>3990</v>
+        <f>D23*100</f>
+        <v>16900</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>306</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="5">
-        <v>99</v>
-      </c>
-      <c r="D24" s="5">
-        <v>99</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
+      <c r="A24" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="12">
+        <v>479</v>
+      </c>
+      <c r="D24" s="12">
+        <v>189</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <f>D24*100</f>
+        <v>18900</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>309</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>327</v>
+        <v>171</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="C25" s="5">
-        <v>129</v>
+        <v>409</v>
       </c>
       <c r="D25" s="5">
-        <v>129</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
+        <v>159</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>12900</v>
+        <f>D25*100</f>
+        <v>15900</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>310</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="5">
-        <v>269</v>
-      </c>
-      <c r="D26" s="5">
-        <v>269</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
+      <c r="A26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="12">
+        <v>499</v>
+      </c>
+      <c r="D26" s="12">
+        <v>189</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>26900</v>
+        <f>D26*100</f>
+        <v>18900</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>311</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="5">
-        <v>559</v>
-      </c>
-      <c r="D27" s="5">
-        <v>559</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>10</v>
+      <c r="A27" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="12">
+        <v>599</v>
+      </c>
+      <c r="D27" s="12">
+        <v>189</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>55900</v>
+        <f>D27*100</f>
+        <v>18900</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>312</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="C28" s="5">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="D28" s="5">
-        <v>559</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>10</v>
+        <v>189</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>55900</v>
+        <f>D28*100</f>
+        <v>18900</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>313</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="C29" s="5">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="D29" s="5">
-        <v>449</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>10</v>
+        <v>189</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>44900</v>
+        <f>D29*100</f>
+        <v>18900</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>321</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2099</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1199</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>10</v>
+      <c r="A30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="12">
+        <v>949</v>
+      </c>
+      <c r="D30" s="12">
+        <v>499</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>119900</v>
+        <f>D30*100</f>
+        <v>49900</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>322</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="3" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C31" s="5">
-        <v>2699</v>
+        <v>369</v>
       </c>
       <c r="D31" s="5">
-        <v>1699</v>
+        <v>149</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>169900</v>
+        <f>D31*100</f>
+        <v>14900</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>323</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C32" s="5">
-        <v>135</v>
+        <v>439</v>
       </c>
       <c r="D32" s="5">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>10900</v>
+        <f>D32*100</f>
+        <v>16900</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>324</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C33" s="5">
-        <v>799</v>
+        <v>489</v>
       </c>
       <c r="D33" s="5">
-        <v>599</v>
+        <v>189</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>59900</v>
+        <f>D33*100</f>
+        <v>18900</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>325</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="C34" s="5">
-        <v>159</v>
+        <v>639</v>
       </c>
       <c r="D34" s="5">
-        <v>156</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>10</v>
+        <v>239</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>15600</v>
+        <f>D34*100</f>
+        <v>23900</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>326</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="C35" s="5">
-        <v>1199</v>
+        <v>639</v>
       </c>
       <c r="D35" s="5">
-        <v>599</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>10</v>
+        <v>239</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>59900</v>
+        <f>D35*100</f>
+        <v>23900</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>330</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C36" s="5">
-        <v>199</v>
+        <v>639</v>
       </c>
       <c r="D36" s="5">
-        <v>169</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>10</v>
+        <v>239</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>16900</v>
+        <f>D36*100</f>
+        <v>23900</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>331</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="5">
-        <v>162</v>
-      </c>
-      <c r="D37" s="5">
-        <v>115</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>10</v>
+      <c r="A37" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="12">
+        <v>669</v>
+      </c>
+      <c r="D37" s="12">
+        <v>259</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>11500</v>
+        <f>D37*100</f>
+        <v>25900</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>332</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>79</v>
+        <v>173</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="C38" s="5">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="D38" s="5">
-        <v>156</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>10</v>
+        <v>199</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>15600</v>
+        <f>D38*100</f>
+        <v>19900</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>333</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C39" s="5">
-        <v>169</v>
+        <v>499</v>
       </c>
       <c r="D39" s="5">
-        <v>166</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>10</v>
+        <v>199</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>16600</v>
+        <f>D39*100</f>
+        <v>19900</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>334</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="A40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="12">
         <v>499</v>
       </c>
-      <c r="D40" s="5">
-        <v>499</v>
+      <c r="D40" s="12">
+        <v>199</v>
       </c>
       <c r="E40" s="13">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>49900</v>
+        <f>D40*100</f>
+        <v>19900</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>336</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="5">
-        <v>18.5</v>
-      </c>
-      <c r="D41" s="5">
-        <v>18.5</v>
+      <c r="A41" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="12">
+        <v>699</v>
+      </c>
+      <c r="D41" s="12">
+        <v>319</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>1850</v>
+        <f>D41*100</f>
+        <v>31900</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>337</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C42" s="5">
-        <v>16.899999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="D42" s="5">
-        <v>16.899999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="E42" s="13">
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>1690</v>
+        <f>D42*100</f>
+        <v>1850</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="29" t="s">
-        <v>338</v>
+      <c r="H42" s="27" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="5">
-        <v>11.9</v>
-      </c>
-      <c r="D43" s="5">
-        <v>11.9</v>
+        <v>263</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1049</v>
+      </c>
+      <c r="D43" s="23">
+        <v>859</v>
       </c>
       <c r="E43" s="13">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>1190</v>
+        <f>D43*100</f>
+        <v>85900</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>339</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="3" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D44" s="5">
-        <v>3.5</v>
+        <v>263</v>
+      </c>
+      <c r="C44" s="12">
+        <v>809</v>
+      </c>
+      <c r="D44" s="23">
+        <v>699</v>
       </c>
       <c r="E44" s="13">
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f>D44*100</f>
+        <v>69900</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>340</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="3" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="C45" s="5">
-        <v>2.6</v>
+        <v>39</v>
       </c>
       <c r="D45" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="E45" s="13">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <f>D45*100</f>
+        <v>3900</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>341</v>
+        <v>27</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C46" s="5">
-        <v>5.7</v>
+        <v>49</v>
       </c>
       <c r="D46" s="5">
-        <v>5.7</v>
-      </c>
-      <c r="E46" s="13">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="0"/>
-        <v>570</v>
+        <f>D46*100</f>
+        <v>4900</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>342</v>
+        <v>27</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="D47" s="5">
-        <v>4.5</v>
+      <c r="A47" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="12">
+        <v>20.9</v>
+      </c>
+      <c r="D47" s="12">
+        <v>20.9</v>
       </c>
       <c r="E47" s="13">
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
-        <v>450</v>
+        <f>D47*100</f>
+        <v>2090</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>343</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="5">
-        <v>14.4</v>
-      </c>
-      <c r="D48" s="5">
-        <v>14.4</v>
+      <c r="A48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="12">
+        <v>24.9</v>
+      </c>
+      <c r="D48" s="12">
+        <v>24.9</v>
       </c>
       <c r="E48" s="13">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>1440</v>
+        <f>D48*100</f>
+        <v>2490</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>344</v>
+        <v>18</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="3" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C49" s="5">
-        <v>9.1</v>
+        <v>29</v>
       </c>
       <c r="D49" s="5">
-        <v>9.1</v>
-      </c>
-      <c r="E49" s="13">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="0"/>
-        <v>910</v>
+        <f>D49*100</f>
+        <v>2900</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>345</v>
+        <v>27</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5">
-        <v>8.1</v>
+        <v>162</v>
       </c>
       <c r="D50" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="E50" s="13">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="0"/>
-        <v>810</v>
+        <f>D50*100</f>
+        <v>11500</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>346</v>
+        <v>27</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="3" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="C51" s="5">
-        <v>9.9</v>
+        <v>409</v>
       </c>
       <c r="D51" s="5">
-        <v>9.9</v>
-      </c>
-      <c r="E51" s="13">
-        <v>0</v>
+        <v>299</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="0"/>
-        <v>990</v>
+        <f>D51*100</f>
+        <v>29900</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>347</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>108</v>
+        <v>236</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="C52" s="5">
-        <v>7.9</v>
+        <v>111</v>
       </c>
       <c r="D52" s="5">
-        <v>7.9</v>
-      </c>
-      <c r="E52" s="13">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="0"/>
-        <v>790</v>
+        <f>D52*100</f>
+        <v>8900</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>348</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C53" s="5">
-        <v>16.5</v>
+        <v>11.9</v>
       </c>
       <c r="D53" s="5">
-        <v>16.5</v>
+        <v>11.9</v>
       </c>
       <c r="E53" s="13">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="0"/>
-        <v>1650</v>
+        <f>D53*100</f>
+        <v>1190</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="29" t="s">
-        <v>349</v>
+      <c r="H53" s="27" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="3" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="C54" s="5">
-        <v>8.6</v>
+        <v>99</v>
       </c>
       <c r="D54" s="5">
-        <v>8.6</v>
-      </c>
-      <c r="E54" s="13">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="0"/>
-        <v>860</v>
+        <f>D54*100</f>
+        <v>9900</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>350</v>
+        <v>27</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="3" t="s">
-        <v>113</v>
+      <c r="A55" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="C55" s="5">
-        <v>18.5</v>
+        <v>129</v>
       </c>
       <c r="D55" s="5">
-        <v>18.5</v>
-      </c>
-      <c r="E55" s="13">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="0"/>
-        <v>1850</v>
+        <f>D55*100</f>
+        <v>12900</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H55" s="29" t="s">
-        <v>351</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="19" t="s">
-        <v>115</v>
+      <c r="A56" s="29" t="s">
+        <v>279</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="5">
-        <v>15.5</v>
+        <v>280</v>
+      </c>
+      <c r="C56" s="12">
+        <v>89</v>
       </c>
       <c r="D56" s="5">
-        <v>15.5</v>
-      </c>
-      <c r="E56" s="13">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="0"/>
-        <v>1550</v>
+        <f>D56*100</f>
+        <v>8900</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>352</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="3" t="s">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="5">
-        <v>3.3</v>
+        <v>282</v>
+      </c>
+      <c r="C57" s="12">
+        <v>89</v>
       </c>
       <c r="D57" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="E57" s="13">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="0"/>
-        <v>330</v>
+        <f>D57*100</f>
+        <v>8900</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>353</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C58" s="5">
-        <v>8</v>
+        <v>284</v>
+      </c>
+      <c r="C58" s="12">
+        <v>89</v>
       </c>
       <c r="D58" s="5">
-        <v>8</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <f>D58*100</f>
+        <v>8900</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>353</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C59" s="5">
-        <v>8</v>
+        <v>286</v>
+      </c>
+      <c r="C59" s="12">
+        <v>89</v>
       </c>
       <c r="D59" s="5">
-        <v>8</v>
-      </c>
-      <c r="E59" s="13">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <f>D59*100</f>
+        <v>8900</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>356</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="3" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>357</v>
+        <v>85</v>
       </c>
       <c r="C60" s="5">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="D60" s="5">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="E60" s="13">
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <f>D60*100</f>
+        <v>1850</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H60" s="29" t="s">
-        <v>358</v>
+      <c r="H60" s="27" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="22">
-        <v>11.5</v>
-      </c>
-      <c r="D61" s="22">
-        <v>11.5</v>
-      </c>
-      <c r="E61" s="23">
+      <c r="A61" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="21">
+        <v>18</v>
+      </c>
+      <c r="D61" s="21">
+        <v>18</v>
+      </c>
+      <c r="E61" s="22">
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="0"/>
-        <v>1150</v>
+        <f>D61*100</f>
+        <v>1800</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H61" s="29" t="s">
-        <v>359</v>
+      <c r="H61" s="27" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="3" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C62" s="5">
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="D62" s="5">
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="E62" s="13">
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="0"/>
-        <v>1800</v>
+        <f>D62*100</f>
+        <v>450</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H62" s="29" t="s">
-        <v>360</v>
+      <c r="H62" s="27" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="12">
-        <v>106</v>
-      </c>
-      <c r="D63" s="24">
-        <v>104</v>
+      <c r="A63" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5.7</v>
       </c>
       <c r="E63" s="13">
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="0"/>
-        <v>10400</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>361</v>
+        <f>D63*100</f>
+        <v>570</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="12">
-        <v>106</v>
-      </c>
-      <c r="D64" s="24">
-        <v>104</v>
+      <c r="A64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3.5</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="0"/>
-        <v>10400</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>362</v>
+        <f>D64*100</f>
+        <v>350</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="3" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C65" s="5">
-        <v>369</v>
+        <v>2099</v>
       </c>
       <c r="D65" s="5">
-        <v>149</v>
+        <v>1199</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="0"/>
-        <v>14900</v>
+        <f>D65*100</f>
+        <v>119900</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H65" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="5">
-        <v>439</v>
-      </c>
-      <c r="D66" s="5">
-        <v>169</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>10</v>
+      <c r="A66" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="12">
+        <v>699</v>
+      </c>
+      <c r="D66" s="12">
+        <v>499</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" ref="F66:F129" si="1">D66*100</f>
-        <v>16900</v>
+        <f>D66*100</f>
+        <v>49900</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>132</v>
@@ -3670,73 +3592,77 @@
     </row>
     <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="3" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C67" s="5">
-        <v>489</v>
+        <v>799</v>
       </c>
       <c r="D67" s="5">
-        <v>189</v>
+        <v>599</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="1"/>
-        <v>18900</v>
+        <f>D67*100</f>
+        <v>59900</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="12">
-        <v>86</v>
-      </c>
-      <c r="D68" s="24">
-        <v>84</v>
-      </c>
-      <c r="E68" s="13">
-        <v>0</v>
+      <c r="A68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1199</v>
+      </c>
+      <c r="D68" s="5">
+        <v>599</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="1"/>
-        <v>8400</v>
+        <f>D68*100</f>
+        <v>59900</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H68" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="3" t="s">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
       <c r="C69" s="5">
-        <v>499</v>
+        <v>119</v>
       </c>
       <c r="D69" s="5">
-        <v>199</v>
-      </c>
-      <c r="E69" s="13">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="1"/>
-        <v>19900</v>
+        <f>D69*100</f>
+        <v>7900</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>132</v>
@@ -3744,24 +3670,24 @@
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="10" t="s">
-        <v>141</v>
+      <c r="A70" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="12">
-        <v>106</v>
-      </c>
-      <c r="D70" s="24">
-        <v>104</v>
-      </c>
-      <c r="E70" s="13">
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="C70" s="5">
+        <v>119</v>
+      </c>
+      <c r="D70" s="5">
+        <v>79</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="1"/>
-        <v>10400</v>
+        <f>D70*100</f>
+        <v>7900</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>132</v>
@@ -3770,73 +3696,77 @@
     </row>
     <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="3" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C71" s="5">
-        <v>459</v>
+        <v>2699</v>
       </c>
       <c r="D71" s="5">
-        <v>169</v>
-      </c>
-      <c r="E71" s="13">
-        <v>0</v>
+        <v>1699</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="1"/>
-        <v>16900</v>
+        <f>D71*100</f>
+        <v>169900</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H71" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="3" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="C72" s="5">
-        <v>459</v>
+        <v>99</v>
       </c>
       <c r="D72" s="5">
-        <v>169</v>
-      </c>
-      <c r="E72" s="13">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="1"/>
-        <v>16900</v>
+        <f>D72*100</f>
+        <v>9900</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="5">
-        <v>519</v>
-      </c>
-      <c r="D73" s="5">
-        <v>189</v>
+      <c r="A73" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="12">
+        <v>109</v>
+      </c>
+      <c r="D73" s="12">
+        <v>109</v>
       </c>
       <c r="E73" s="13">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="1"/>
-        <v>18900</v>
+        <f>D73*100</f>
+        <v>10900</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>132</v>
@@ -3845,23 +3775,23 @@
     </row>
     <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>189</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="C74" s="5">
-        <v>519</v>
+        <v>229</v>
       </c>
       <c r="D74" s="5">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E74" s="13">
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="1"/>
-        <v>18900</v>
+        <f>D74*100</f>
+        <v>16500</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>132</v>
@@ -3870,23 +3800,23 @@
     </row>
     <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>151</v>
+        <v>183</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="C75" s="5">
-        <v>639</v>
+        <v>279</v>
       </c>
       <c r="D75" s="5">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="E75" s="13">
         <v>0</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="1"/>
-        <v>23900</v>
+        <f>D75*100</f>
+        <v>19900</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>132</v>
@@ -3895,23 +3825,23 @@
     </row>
     <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>151</v>
+        <v>187</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="C76" s="5">
-        <v>639</v>
+        <v>99</v>
       </c>
       <c r="D76" s="5">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="E76" s="13">
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="1"/>
-        <v>23900</v>
+        <f>D76*100</f>
+        <v>7900</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>132</v>
@@ -3920,23 +3850,23 @@
     </row>
     <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>177</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="C77" s="5">
-        <v>639</v>
+        <v>159</v>
       </c>
       <c r="D77" s="5">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="E77" s="13">
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="1"/>
-        <v>23900</v>
+        <f>D77*100</f>
+        <v>10000</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>132</v>
@@ -3945,23 +3875,23 @@
     </row>
     <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" s="12">
-        <v>69</v>
-      </c>
-      <c r="D78" s="24">
-        <v>69</v>
+        <v>181</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="5">
+        <v>208</v>
+      </c>
+      <c r="D78" s="5">
+        <v>148</v>
       </c>
       <c r="E78" s="13">
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="1"/>
-        <v>6900</v>
+        <f>D78*100</f>
+        <v>14800</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>132</v>
@@ -3969,24 +3899,24 @@
       <c r="H78" s="9"/>
     </row>
     <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>155</v>
+      <c r="A79" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="C79" s="12">
-        <v>69</v>
-      </c>
-      <c r="D79" s="24">
-        <v>69</v>
+        <v>559</v>
+      </c>
+      <c r="D79" s="12">
+        <v>329</v>
       </c>
       <c r="E79" s="13">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="1"/>
-        <v>6900</v>
+        <f>D79*100</f>
+        <v>32900</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>132</v>
@@ -3994,74 +3924,78 @@
       <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>155</v>
+      <c r="A80" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="C80" s="12">
-        <v>69</v>
-      </c>
-      <c r="D80" s="24">
-        <v>69</v>
+        <v>699</v>
+      </c>
+      <c r="D80" s="5">
+        <v>419</v>
       </c>
       <c r="E80" s="13">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="1"/>
-        <v>6900</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H80" s="9"/>
+        <f>D80*100</f>
+        <v>41900</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
-      <c r="A81" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>159</v>
+      <c r="A81" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C81" s="5">
-        <v>1499</v>
+        <v>699</v>
       </c>
       <c r="D81" s="5">
-        <v>1049</v>
+        <v>419</v>
       </c>
       <c r="E81" s="13">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="1"/>
-        <v>104900</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H81" s="9"/>
+        <f>D81*100</f>
+        <v>41900</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C82" s="5">
-        <v>1299</v>
-      </c>
-      <c r="D82" s="5">
-        <v>879</v>
+      <c r="A82" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="12">
+        <v>119</v>
+      </c>
+      <c r="D82" s="12">
+        <v>99</v>
       </c>
       <c r="E82" s="13">
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="1"/>
-        <v>87900</v>
+        <f>D82*100</f>
+        <v>9900</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>132</v>
@@ -4069,24 +4003,24 @@
       <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="12">
-        <v>119</v>
-      </c>
-      <c r="D83" s="12">
-        <v>99</v>
-      </c>
-      <c r="E83" s="13">
-        <v>0</v>
+      <c r="A83" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="5">
+        <v>209</v>
+      </c>
+      <c r="D83" s="5">
+        <v>189</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="1"/>
-        <v>9900</v>
+        <f>D83*100</f>
+        <v>18900</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>132</v>
@@ -4094,99 +4028,105 @@
       <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" s="12">
-        <v>99</v>
-      </c>
-      <c r="D84" s="12">
-        <v>97</v>
-      </c>
-      <c r="E84" s="13">
-        <v>0</v>
+      <c r="A84" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="5">
+        <v>135</v>
+      </c>
+      <c r="D84" s="5">
+        <v>109</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="1"/>
-        <v>9700</v>
+        <f>D84*100</f>
+        <v>10900</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H84" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="5">
-        <v>15.5</v>
-      </c>
-      <c r="D85" s="5">
-        <v>15.5</v>
+      <c r="A85" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="12">
+        <v>106</v>
+      </c>
+      <c r="D85" s="23">
+        <v>104</v>
       </c>
       <c r="E85" s="13">
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="1"/>
-        <v>1550</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H85" s="9"/>
+        <f>D85*100</f>
+        <v>10400</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>168</v>
+        <v>129</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C86" s="12">
-        <v>109</v>
-      </c>
-      <c r="D86" s="12">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="D86" s="23">
+        <v>104</v>
       </c>
       <c r="E86" s="13">
         <v>0</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="1"/>
-        <v>10900</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H86" s="9"/>
+        <f>D86*100</f>
+        <v>10400</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>170</v>
+        <v>141</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C87" s="12">
-        <v>259</v>
-      </c>
-      <c r="D87" s="12">
-        <v>259</v>
+        <v>106</v>
+      </c>
+      <c r="D87" s="23">
+        <v>104</v>
       </c>
       <c r="E87" s="13">
         <v>0</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="1"/>
-        <v>25900</v>
+        <f>D87*100</f>
+        <v>10400</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>132</v>
@@ -4194,24 +4134,24 @@
       <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" s="5">
-        <v>409</v>
-      </c>
-      <c r="D88" s="5">
-        <v>159</v>
+      <c r="A88" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="12">
+        <v>106</v>
+      </c>
+      <c r="D88" s="23">
+        <v>104</v>
       </c>
       <c r="E88" s="13">
         <v>0</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="1"/>
-        <v>15900</v>
+        <f>D88*100</f>
+        <v>10400</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>132</v>
@@ -4219,24 +4159,24 @@
       <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" s="5">
-        <v>499</v>
-      </c>
-      <c r="D89" s="5">
-        <v>199</v>
+      <c r="A89" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="12">
+        <v>86</v>
+      </c>
+      <c r="D89" s="23">
+        <v>84</v>
       </c>
       <c r="E89" s="13">
         <v>0</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" si="1"/>
-        <v>19900</v>
+        <f>D89*100</f>
+        <v>8400</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>132</v>
@@ -4245,23 +4185,23 @@
     </row>
     <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>176</v>
+        <v>246</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="C90" s="5">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="D90" s="5">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="E90" s="13">
         <v>0</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" si="1"/>
-        <v>18900</v>
+        <f>D90*100</f>
+        <v>8400</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>132</v>
@@ -4270,23 +4210,23 @@
     </row>
     <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>178</v>
+        <v>248</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="C91" s="5">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="D91" s="5">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E91" s="13">
         <v>0</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f>D91*100</f>
+        <v>8400</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>132</v>
@@ -4295,23 +4235,23 @@
     </row>
     <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>180</v>
+        <v>249</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="C92" s="5">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="D92" s="5">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E92" s="13">
         <v>0</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="1"/>
-        <v>12200</v>
+        <f>D92*100</f>
+        <v>8400</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>132</v>
@@ -4320,650 +4260,670 @@
     </row>
     <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>182</v>
+        <v>121</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C93" s="5">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="D93" s="5">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="E93" s="13">
         <v>0</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="1"/>
-        <v>14800</v>
+        <f>D93*100</f>
+        <v>800</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H93" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H93" s="27" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>184</v>
+        <v>120</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C94" s="5">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D94" s="5">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="E94" s="13">
         <v>0</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="1"/>
-        <v>19900</v>
+        <f>D94*100</f>
+        <v>800</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H94" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>186</v>
+        <v>119</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="C95" s="5">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D95" s="5">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E95" s="13">
         <v>0</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" si="1"/>
-        <v>8500</v>
+        <f>D95*100</f>
+        <v>800</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H95" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H95" s="27" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>188</v>
+        <v>111</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C96" s="5">
-        <v>99</v>
+        <v>8.6</v>
       </c>
       <c r="D96" s="5">
-        <v>79</v>
+        <v>8.6</v>
       </c>
       <c r="E96" s="13">
         <v>0</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" si="1"/>
-        <v>7900</v>
+        <f>D96*100</f>
+        <v>860</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H96" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H96" s="27" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>190</v>
+        <v>50</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C97" s="5">
-        <v>229</v>
+        <v>39.9</v>
       </c>
       <c r="D97" s="5">
-        <v>165</v>
-      </c>
-      <c r="E97" s="13">
-        <v>0</v>
+        <v>39.9</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="1"/>
-        <v>16500</v>
+        <f>D97*100</f>
+        <v>3990</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H97" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H97" s="27" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>192</v>
+        <v>41</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C98" s="5">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D98" s="5">
-        <v>121</v>
-      </c>
-      <c r="E98" s="13">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" si="1"/>
-        <v>12100</v>
+        <f>D98*100</f>
+        <v>8900</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H98" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H98" s="27" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>194</v>
+        <v>46</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C99" s="5">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D99" s="5">
-        <v>95</v>
-      </c>
-      <c r="E99" s="13">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="1"/>
-        <v>9500</v>
+        <f>D99*100</f>
+        <v>8900</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H99" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H99" s="27" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>196</v>
+        <v>49</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C100" s="5">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="D100" s="5">
-        <v>229</v>
-      </c>
-      <c r="E100" s="13">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="1"/>
-        <v>22900</v>
+        <f>D100*100</f>
+        <v>8900</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H100" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C101" s="5">
+        <v>154</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101" s="12">
+        <v>69</v>
+      </c>
+      <c r="D101" s="23">
+        <v>69</v>
+      </c>
+      <c r="E101" s="13">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7">
+        <f>D101*100</f>
+        <v>6900</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.75">
+      <c r="A102" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="12">
+        <v>69</v>
+      </c>
+      <c r="D102" s="23">
+        <v>69</v>
+      </c>
+      <c r="E102" s="13">
+        <v>0</v>
+      </c>
+      <c r="F102" s="7">
+        <f>D102*100</f>
+        <v>6900</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H102" s="9"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.75">
+      <c r="A103" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="12">
+        <v>69</v>
+      </c>
+      <c r="D103" s="23">
+        <v>69</v>
+      </c>
+      <c r="E103" s="13">
+        <v>0</v>
+      </c>
+      <c r="F103" s="7">
+        <f>D103*100</f>
+        <v>6900</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75">
+      <c r="A104" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="5">
+        <v>469</v>
+      </c>
+      <c r="D104" s="5">
         <v>449</v>
       </c>
-      <c r="D101" s="5">
-        <v>299</v>
-      </c>
-      <c r="E101" s="13">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <f t="shared" si="1"/>
-        <v>29900</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.75">
-      <c r="A102" s="10" t="s">
+      <c r="E104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="7">
+        <f>D104*100</f>
+        <v>44900</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75">
+      <c r="A105" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="12">
+        <v>159</v>
+      </c>
+      <c r="D105" s="5">
+        <v>159</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="7">
+        <f>D105*100</f>
+        <v>15900</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.75">
+      <c r="A106" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="12">
+        <v>159</v>
+      </c>
+      <c r="D106" s="5">
+        <v>159</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="7">
+        <f>D106*100</f>
+        <v>15900</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H106" s="9"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.75">
+      <c r="A107" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" s="12">
+        <v>159</v>
+      </c>
+      <c r="D107" s="5">
+        <v>159</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="7">
+        <f>D107*100</f>
+        <v>15900</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.75">
+      <c r="A108" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" s="12">
+        <v>159</v>
+      </c>
+      <c r="D108" s="5">
+        <v>159</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="7">
+        <f>D108*100</f>
+        <v>15900</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.75">
+      <c r="A109" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" s="12">
+        <v>79</v>
+      </c>
+      <c r="D109" s="5">
+        <v>79</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="7">
+        <f>D109*100</f>
+        <v>7900</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75">
+      <c r="A110" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" s="5">
+        <v>121</v>
+      </c>
+      <c r="D110" s="5">
+        <v>104</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="7">
+        <f>D110*100</f>
+        <v>10400</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.75">
+      <c r="A111" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="5">
+        <v>99</v>
+      </c>
+      <c r="D111" s="5">
+        <v>85</v>
+      </c>
+      <c r="E111" s="13">
+        <v>0</v>
+      </c>
+      <c r="F111" s="7">
+        <f>D111*100</f>
+        <v>8500</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="1:8" ht="15.75">
+      <c r="A112" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" s="5">
+        <v>131</v>
+      </c>
+      <c r="D112" s="5">
+        <v>121</v>
+      </c>
+      <c r="E112" s="13">
+        <v>0</v>
+      </c>
+      <c r="F112" s="7">
+        <f>D112*100</f>
+        <v>12100</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H112" s="9"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.75">
+      <c r="A113" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" s="5">
+        <v>147</v>
+      </c>
+      <c r="D113" s="5">
+        <v>122</v>
+      </c>
+      <c r="E113" s="13">
+        <v>0</v>
+      </c>
+      <c r="F113" s="7">
+        <f>D113*100</f>
+        <v>12200</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H113" s="9"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.75">
+      <c r="A114" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" s="5">
+        <v>289</v>
+      </c>
+      <c r="D114" s="5">
+        <v>229</v>
+      </c>
+      <c r="E114" s="13">
+        <v>0</v>
+      </c>
+      <c r="F114" s="7">
+        <f>D114*100</f>
+        <v>22900</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H114" s="9"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.75">
+      <c r="A115" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="5">
+        <v>127</v>
+      </c>
+      <c r="D115" s="5">
+        <v>95</v>
+      </c>
+      <c r="E115" s="13">
+        <v>0</v>
+      </c>
+      <c r="F115" s="7">
+        <f>D115*100</f>
+        <v>9500</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H115" s="9"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.75">
+      <c r="A116" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="5">
         <v>199</v>
       </c>
-      <c r="B102" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" s="12">
-        <v>27.9</v>
-      </c>
-      <c r="D102" s="12">
-        <v>27.9</v>
-      </c>
-      <c r="E102" s="13">
-        <v>0</v>
-      </c>
-      <c r="F102" s="7">
-        <f t="shared" si="1"/>
-        <v>2790</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H102" s="9"/>
-    </row>
-    <row r="103" spans="1:8" ht="15.75">
-      <c r="A103" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="12">
-        <v>27.9</v>
-      </c>
-      <c r="D103" s="12">
-        <v>27.9</v>
-      </c>
-      <c r="E103" s="13">
-        <v>0</v>
-      </c>
-      <c r="F103" s="7">
-        <f t="shared" si="1"/>
-        <v>2790</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H103" s="9"/>
-    </row>
-    <row r="104" spans="1:8" ht="15.75">
-      <c r="A104" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C104" s="12">
-        <v>87.7</v>
-      </c>
-      <c r="D104" s="12">
-        <v>69</v>
-      </c>
-      <c r="E104" s="13">
-        <v>0</v>
-      </c>
-      <c r="F104" s="7">
-        <f t="shared" si="1"/>
-        <v>6900</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H104" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75">
-      <c r="A105" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C105" s="12">
-        <v>32.9</v>
-      </c>
-      <c r="D105" s="12">
-        <v>23</v>
-      </c>
-      <c r="E105" s="13">
-        <v>0</v>
-      </c>
-      <c r="F105" s="7">
-        <f t="shared" si="1"/>
-        <v>2300</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H105" s="9"/>
-    </row>
-    <row r="106" spans="1:8" ht="15.75">
-      <c r="A106" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C106" s="12">
-        <v>20.9</v>
-      </c>
-      <c r="D106" s="12">
-        <v>20.9</v>
-      </c>
-      <c r="E106" s="13">
-        <v>0</v>
-      </c>
-      <c r="F106" s="7">
-        <f t="shared" si="1"/>
-        <v>2090</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H106" s="9"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.75">
-      <c r="A107" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C107" s="12">
-        <v>499</v>
-      </c>
-      <c r="D107" s="12">
-        <v>189</v>
-      </c>
-      <c r="E107" s="13">
-        <v>0</v>
-      </c>
-      <c r="F107" s="7">
-        <f t="shared" si="1"/>
-        <v>18900</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H107" s="9"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.75">
-      <c r="A108" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" s="12">
-        <v>55</v>
-      </c>
-      <c r="D108" s="12">
-        <v>49</v>
-      </c>
-      <c r="E108" s="13">
-        <v>0</v>
-      </c>
-      <c r="F108" s="7">
-        <f t="shared" si="1"/>
-        <v>4900</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H108" s="9"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.75">
-      <c r="A109" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C109" s="12">
-        <v>129</v>
-      </c>
-      <c r="D109" s="12">
-        <v>125</v>
-      </c>
-      <c r="E109" s="13">
-        <v>0</v>
-      </c>
-      <c r="F109" s="7">
-        <f t="shared" si="1"/>
-        <v>12500</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H109" s="9"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75">
-      <c r="A110" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C110" s="12">
-        <v>499</v>
-      </c>
-      <c r="D110" s="12">
-        <v>199</v>
-      </c>
-      <c r="E110" s="13">
-        <v>0</v>
-      </c>
-      <c r="F110" s="7">
-        <f t="shared" si="1"/>
-        <v>19900</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H110" s="9"/>
-    </row>
-    <row r="111" spans="1:8" ht="15.75">
-      <c r="A111" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C111" s="12">
-        <v>399</v>
-      </c>
-      <c r="D111" s="12">
-        <v>199</v>
-      </c>
-      <c r="E111" s="13">
-        <v>0</v>
-      </c>
-      <c r="F111" s="7">
-        <f t="shared" si="1"/>
-        <v>19900</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H111" s="9"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.75">
-      <c r="A112" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="12">
-        <v>439</v>
-      </c>
-      <c r="D112" s="12">
+      <c r="D116" s="5">
         <v>169</v>
       </c>
-      <c r="E112" s="13">
-        <v>0</v>
-      </c>
-      <c r="F112" s="7">
-        <f t="shared" si="1"/>
+      <c r="E116" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="7">
+        <f>D116*100</f>
         <v>16900</v>
       </c>
-      <c r="G112" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H112" s="9"/>
-    </row>
-    <row r="113" spans="1:8" ht="15.75">
-      <c r="A113" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="12">
-        <v>479</v>
-      </c>
-      <c r="D113" s="12">
-        <v>189</v>
-      </c>
-      <c r="E113" s="13">
-        <v>0</v>
-      </c>
-      <c r="F113" s="7">
-        <f t="shared" si="1"/>
-        <v>18900</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H113" s="9"/>
-    </row>
-    <row r="114" spans="1:8" ht="15.75">
-      <c r="A114" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C114" s="12">
-        <v>599</v>
-      </c>
-      <c r="D114" s="12">
-        <v>189</v>
-      </c>
-      <c r="E114" s="13">
-        <v>0</v>
-      </c>
-      <c r="F114" s="7">
-        <f t="shared" si="1"/>
-        <v>18900</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H114" s="9"/>
-    </row>
-    <row r="115" spans="1:8" ht="15.75">
-      <c r="A115" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C115" s="12">
-        <v>669</v>
-      </c>
-      <c r="D115" s="12">
-        <v>259</v>
-      </c>
-      <c r="E115" s="13">
-        <v>0</v>
-      </c>
-      <c r="F115" s="7">
-        <f t="shared" si="1"/>
-        <v>25900</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H115" s="9"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.75">
-      <c r="A116" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B116" s="11" t="s">
+      <c r="G116" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" s="27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75">
+      <c r="A117" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="5">
+        <v>149</v>
+      </c>
+      <c r="D117" s="5">
         <v>142</v>
       </c>
-      <c r="C116" s="12">
-        <v>106</v>
-      </c>
-      <c r="D116" s="24">
-        <v>104</v>
-      </c>
-      <c r="E116" s="13">
-        <v>0</v>
-      </c>
-      <c r="F116" s="7">
-        <f t="shared" si="1"/>
-        <v>10400</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H116" s="9"/>
-    </row>
-    <row r="117" spans="1:8" ht="15.75">
-      <c r="A117" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C117" s="12">
-        <v>699</v>
-      </c>
-      <c r="D117" s="12">
-        <v>499</v>
-      </c>
-      <c r="E117" s="13">
-        <v>0</v>
+      <c r="E117" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F117" s="7">
-        <f t="shared" si="1"/>
-        <v>49900</v>
+        <f>D117*100</f>
+        <v>14200</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H117" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H117" s="27" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C118" s="12">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="D118" s="12">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="E118" s="13">
         <v>0</v>
       </c>
       <c r="F118" s="7">
-        <f t="shared" si="1"/>
-        <v>5500</v>
+        <f>D118*100</f>
+        <v>27900</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>132</v>
@@ -4971,24 +4931,24 @@
       <c r="H118" s="9"/>
     </row>
     <row r="119" spans="1:8" ht="15.75">
-      <c r="A119" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C119" s="12">
-        <v>289</v>
-      </c>
-      <c r="D119" s="12">
-        <v>279</v>
+      <c r="A119" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" s="5">
+        <v>209</v>
+      </c>
+      <c r="D119" s="5">
+        <v>189</v>
       </c>
       <c r="E119" s="13">
         <v>0</v>
       </c>
       <c r="F119" s="7">
-        <f t="shared" si="1"/>
-        <v>27900</v>
+        <f>D119*100</f>
+        <v>18900</v>
       </c>
       <c r="G119" s="14" t="s">
         <v>132</v>
@@ -4996,174 +4956,184 @@
       <c r="H119" s="9"/>
     </row>
     <row r="120" spans="1:8" ht="15.75">
-      <c r="A120" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>235</v>
+      <c r="A120" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C120" s="5">
-        <v>159</v>
+        <v>3.3</v>
       </c>
       <c r="D120" s="5">
-        <v>99</v>
+        <v>3.3</v>
       </c>
       <c r="E120" s="13">
         <v>0</v>
       </c>
       <c r="F120" s="7">
-        <f t="shared" si="1"/>
-        <v>9900</v>
+        <f>D120*100</f>
+        <v>330</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H120" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H120" s="27" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>237</v>
+        <v>122</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C121" s="5">
-        <v>111</v>
+        <v>11.5</v>
       </c>
       <c r="D121" s="5">
-        <v>89</v>
-      </c>
-      <c r="E121" s="6" t="s">
+        <v>11.5</v>
+      </c>
+      <c r="E121" s="13">
+        <v>0</v>
+      </c>
+      <c r="F121" s="7">
+        <f>D121*100</f>
+        <v>1150</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H121" s="27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75">
+      <c r="A122" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="D122" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E122" s="13">
+        <v>0</v>
+      </c>
+      <c r="F122" s="7">
+        <f>D122*100</f>
+        <v>810</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H122" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75">
+      <c r="A123" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="5">
+        <v>449</v>
+      </c>
+      <c r="D123" s="5">
+        <v>399</v>
+      </c>
+      <c r="E123" s="13">
+        <v>0</v>
+      </c>
+      <c r="F123" s="7">
+        <f>D123*100</f>
+        <v>39900</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H123" s="9"/>
+    </row>
+    <row r="124" spans="1:8" ht="15.75">
+      <c r="A124" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="E124" s="13">
+        <v>0</v>
+      </c>
+      <c r="F124" s="7">
+        <f>D124*100</f>
+        <v>260</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H124" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75">
+      <c r="A125" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C125" s="5">
+        <v>129</v>
+      </c>
+      <c r="D125" s="5">
+        <v>129</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="7">
-        <f t="shared" si="1"/>
-        <v>8900</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H121" s="9"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.75">
-      <c r="A122" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C122" s="12">
-        <v>699</v>
-      </c>
-      <c r="D122" s="12">
-        <v>319</v>
-      </c>
-      <c r="E122" s="13">
-        <v>0</v>
-      </c>
-      <c r="F122" s="7">
-        <f t="shared" si="1"/>
-        <v>31900</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H122" s="9"/>
-    </row>
-    <row r="123" spans="1:8" ht="15.75">
-      <c r="A123" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C123" s="12">
-        <v>559</v>
-      </c>
-      <c r="D123" s="12">
-        <v>329</v>
-      </c>
-      <c r="E123" s="13">
-        <v>0</v>
-      </c>
-      <c r="F123" s="7">
-        <f t="shared" si="1"/>
-        <v>32900</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H123" s="9"/>
-    </row>
-    <row r="124" spans="1:8" ht="15.75">
-      <c r="A124" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C124" s="5">
-        <v>449</v>
-      </c>
-      <c r="D124" s="5">
-        <v>399</v>
-      </c>
-      <c r="E124" s="13">
-        <v>0</v>
-      </c>
-      <c r="F124" s="7">
-        <f t="shared" si="1"/>
-        <v>39900</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H124" s="9"/>
-    </row>
-    <row r="125" spans="1:8" ht="15.75">
-      <c r="A125" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C125" s="12">
-        <v>949</v>
-      </c>
-      <c r="D125" s="12">
-        <v>499</v>
-      </c>
-      <c r="E125" s="13">
-        <v>0</v>
-      </c>
       <c r="F125" s="7">
-        <f t="shared" si="1"/>
-        <v>49900</v>
+        <f>D125*100</f>
+        <v>12900</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H125" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H125" s="27" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
-      <c r="A126" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C126" s="5">
-        <v>86</v>
-      </c>
-      <c r="D126" s="5">
-        <v>84</v>
+      <c r="A126" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="12">
+        <v>259</v>
+      </c>
+      <c r="D126" s="12">
+        <v>259</v>
       </c>
       <c r="E126" s="13">
         <v>0</v>
       </c>
       <c r="F126" s="7">
-        <f t="shared" si="1"/>
-        <v>8400</v>
+        <f>D126*100</f>
+        <v>25900</v>
       </c>
       <c r="G126" s="14" t="s">
         <v>132</v>
@@ -5172,73 +5142,77 @@
     </row>
     <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="3" t="s">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="C127" s="5">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="D127" s="5">
-        <v>84</v>
-      </c>
-      <c r="E127" s="13">
-        <v>0</v>
+        <v>269</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F127" s="7">
-        <f t="shared" si="1"/>
-        <v>8400</v>
+        <f>D127*100</f>
+        <v>26900</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H127" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H127" s="27" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="3" t="s">
-        <v>249</v>
+        <v>8</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
       <c r="C128" s="5">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="D128" s="5">
-        <v>84</v>
-      </c>
-      <c r="E128" s="13">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F128" s="7">
-        <f t="shared" si="1"/>
-        <v>8400</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H128" s="9"/>
+        <f>D128*100</f>
+        <v>14900</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="27" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="3" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C129" s="12">
-        <v>239</v>
-      </c>
-      <c r="D129" s="24">
-        <v>129</v>
-      </c>
-      <c r="E129" s="13">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="D129" s="5">
+        <v>79</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F129" s="7">
-        <f t="shared" si="1"/>
-        <v>12900</v>
+        <f>D129*100</f>
+        <v>7900</v>
       </c>
       <c r="G129" s="14" t="s">
         <v>132</v>
@@ -5247,23 +5221,23 @@
     </row>
     <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="3" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C130" s="12">
-        <v>529</v>
-      </c>
-      <c r="D130" s="24">
-        <v>259</v>
-      </c>
-      <c r="E130" s="13">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="D130" s="5">
+        <v>79</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F130" s="7">
-        <f t="shared" ref="F130:F150" si="2">D130*100</f>
-        <v>25900</v>
+        <f>D130*100</f>
+        <v>7900</v>
       </c>
       <c r="G130" s="14" t="s">
         <v>132</v>
@@ -5272,248 +5246,266 @@
     </row>
     <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="3" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="C131" s="5">
-        <v>409</v>
+        <v>1999</v>
       </c>
       <c r="D131" s="5">
-        <v>299</v>
+        <v>1499</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F131" s="7">
-        <f t="shared" si="2"/>
-        <v>29900</v>
+        <f>D131*100</f>
+        <v>149900</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H131" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H131" s="27" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="3" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="C132" s="5">
-        <v>219</v>
+        <v>9.1</v>
       </c>
       <c r="D132" s="5">
-        <v>169</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>10</v>
+        <v>9.1</v>
+      </c>
+      <c r="E132" s="13">
+        <v>0</v>
       </c>
       <c r="F132" s="7">
-        <f t="shared" si="2"/>
-        <v>16900</v>
+        <f>D132*100</f>
+        <v>910</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H132" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H132" s="27" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="3" t="s">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>259</v>
+        <v>110</v>
       </c>
       <c r="C133" s="5">
-        <v>209</v>
+        <v>16.5</v>
       </c>
       <c r="D133" s="5">
-        <v>189</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>10</v>
+        <v>16.5</v>
+      </c>
+      <c r="E133" s="13">
+        <v>0</v>
       </c>
       <c r="F133" s="7">
-        <f t="shared" si="2"/>
-        <v>18900</v>
+        <f>D133*100</f>
+        <v>1650</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H133" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H133" s="27" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="3" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="C134" s="5">
-        <v>121</v>
+        <v>7.9</v>
       </c>
       <c r="D134" s="5">
-        <v>104</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>10</v>
+        <v>7.9</v>
+      </c>
+      <c r="E134" s="13">
+        <v>0</v>
       </c>
       <c r="F134" s="7">
-        <f t="shared" si="2"/>
-        <v>10400</v>
+        <f>D134*100</f>
+        <v>790</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H134" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H134" s="27" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="3" t="s">
-        <v>262</v>
+        <v>47</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C135" s="12">
-        <v>1049</v>
-      </c>
-      <c r="D135" s="24">
-        <v>859</v>
-      </c>
-      <c r="E135" s="13">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C135" s="5">
+        <v>299</v>
+      </c>
+      <c r="D135" s="5">
+        <v>299</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F135" s="7">
-        <f t="shared" si="2"/>
-        <v>85900</v>
+        <f>D135*100</f>
+        <v>29900</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H135" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H135" s="27" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="3" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C136" s="12">
-        <v>809</v>
-      </c>
-      <c r="D136" s="24">
-        <v>699</v>
-      </c>
-      <c r="E136" s="13">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="C136" s="5">
+        <v>229</v>
+      </c>
+      <c r="D136" s="5">
+        <v>229</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F136" s="7">
-        <f t="shared" si="2"/>
-        <v>69900</v>
+        <f>D136*100</f>
+        <v>22900</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H136" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="H136" s="27" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="3" t="s">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C137" s="12">
         <v>79</v>
       </c>
+      <c r="C137" s="5">
+        <v>159</v>
+      </c>
       <c r="D137" s="5">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="7">
-        <f t="shared" si="2"/>
-        <v>7900</v>
+        <f>D137*100</f>
+        <v>15600</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H137" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H137" s="27" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="3" t="s">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C138" s="12">
+        <v>71</v>
+      </c>
+      <c r="C138" s="5">
         <v>159</v>
       </c>
       <c r="D138" s="5">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="7">
-        <f t="shared" si="2"/>
-        <v>15900</v>
+        <f>D138*100</f>
+        <v>15600</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H138" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H138" s="27" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="3" t="s">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C139" s="12">
-        <v>159</v>
+        <v>81</v>
+      </c>
+      <c r="C139" s="5">
+        <v>169</v>
       </c>
       <c r="D139" s="5">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="7">
-        <f t="shared" si="2"/>
-        <v>15900</v>
+        <f>D139*100</f>
+        <v>16600</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H139" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H139" s="27" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C140" s="12">
-        <v>159</v>
+        <v>197</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" s="5">
+        <v>449</v>
       </c>
       <c r="D140" s="5">
-        <v>159</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>10</v>
+        <v>299</v>
+      </c>
+      <c r="E140" s="13">
+        <v>0</v>
       </c>
       <c r="F140" s="7">
-        <f t="shared" si="2"/>
-        <v>15900</v>
+        <f>D140*100</f>
+        <v>29900</v>
       </c>
       <c r="G140" s="14" t="s">
         <v>132</v>
@@ -5522,23 +5514,23 @@
     </row>
     <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="3" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C141" s="12">
-        <v>159</v>
+        <v>257</v>
+      </c>
+      <c r="C141" s="5">
+        <v>219</v>
       </c>
       <c r="D141" s="5">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F141" s="7">
-        <f t="shared" si="2"/>
-        <v>15900</v>
+        <f>D141*100</f>
+        <v>16900</v>
       </c>
       <c r="G141" s="14" t="s">
         <v>132</v>
@@ -5547,23 +5539,23 @@
     </row>
     <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="3" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C142" s="12">
-        <v>79</v>
-      </c>
-      <c r="D142" s="5">
-        <v>79</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>10</v>
+        <v>239</v>
+      </c>
+      <c r="D142" s="23">
+        <v>129</v>
+      </c>
+      <c r="E142" s="13">
+        <v>0</v>
       </c>
       <c r="F142" s="7">
-        <f t="shared" si="2"/>
-        <v>7900</v>
+        <f>D142*100</f>
+        <v>12900</v>
       </c>
       <c r="G142" s="14" t="s">
         <v>132</v>
@@ -5571,24 +5563,24 @@
       <c r="H142" s="9"/>
     </row>
     <row r="143" spans="1:8" ht="15.75">
-      <c r="A143" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C143" s="12">
-        <v>79</v>
+      <c r="A143" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C143" s="5">
+        <v>159</v>
       </c>
       <c r="D143" s="5">
-        <v>79</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="E143" s="13">
+        <v>0</v>
       </c>
       <c r="F143" s="7">
-        <f t="shared" si="2"/>
-        <v>7900</v>
+        <f>D143*100</f>
+        <v>9900</v>
       </c>
       <c r="G143" s="14" t="s">
         <v>132</v>
@@ -5597,48 +5589,50 @@
     </row>
     <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="3" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C144" s="12">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="C144" s="5">
+        <v>209</v>
       </c>
       <c r="D144" s="5">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="7">
-        <f t="shared" si="2"/>
-        <v>8900</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H144" s="9"/>
+        <f>D144*100</f>
+        <v>19900</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="27" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="3" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C145" s="12">
-        <v>89</v>
-      </c>
-      <c r="D145" s="5">
-        <v>89</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>10</v>
+        <v>529</v>
+      </c>
+      <c r="D145" s="23">
+        <v>259</v>
+      </c>
+      <c r="E145" s="13">
+        <v>0</v>
       </c>
       <c r="F145" s="7">
-        <f t="shared" si="2"/>
-        <v>8900</v>
+        <f>D145*100</f>
+        <v>25900</v>
       </c>
       <c r="G145" s="14" t="s">
         <v>132</v>
@@ -5647,73 +5641,77 @@
     </row>
     <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="3" t="s">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C146" s="12">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="C146" s="5">
+        <v>299</v>
       </c>
       <c r="D146" s="5">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F146" s="7">
-        <f t="shared" si="2"/>
-        <v>8900</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H146" s="9"/>
+        <f>D146*100</f>
+        <v>22900</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" s="27" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="3" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C147" s="12">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="C147" s="5">
+        <v>299</v>
       </c>
       <c r="D147" s="5">
-        <v>89</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>10</v>
+        <v>183</v>
+      </c>
+      <c r="E147" s="13">
+        <v>0</v>
       </c>
       <c r="F147" s="7">
-        <f t="shared" si="2"/>
-        <v>8900</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H147" s="9"/>
+        <f>D147*100</f>
+        <v>18300</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" s="27" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="148" spans="1:8" ht="15.75">
-      <c r="A148" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>288</v>
+      <c r="A148" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="C148" s="5">
-        <v>119</v>
+        <v>1499</v>
       </c>
       <c r="D148" s="5">
-        <v>79</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>10</v>
+        <v>1049</v>
+      </c>
+      <c r="E148" s="13">
+        <v>0</v>
       </c>
       <c r="F148" s="7">
-        <f t="shared" si="2"/>
-        <v>7900</v>
+        <f>D148*100</f>
+        <v>104900</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>132</v>
@@ -5721,24 +5719,24 @@
       <c r="H148" s="9"/>
     </row>
     <row r="149" spans="1:8" ht="15.75">
-      <c r="A149" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>288</v>
+      <c r="A149" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="C149" s="5">
-        <v>119</v>
+        <v>1299</v>
       </c>
       <c r="D149" s="5">
-        <v>79</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>10</v>
+        <v>879</v>
+      </c>
+      <c r="E149" s="13">
+        <v>0</v>
       </c>
       <c r="F149" s="7">
-        <f t="shared" si="2"/>
-        <v>7900</v>
+        <f>D149*100</f>
+        <v>87900</v>
       </c>
       <c r="G149" s="14" t="s">
         <v>132</v>
@@ -5746,93 +5744,98 @@
       <c r="H149" s="9"/>
     </row>
     <row r="150" spans="1:8" ht="15.75">
-      <c r="A150" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>291</v>
+      <c r="A150" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="C150" s="5">
-        <v>12.5</v>
+        <v>499</v>
       </c>
       <c r="D150" s="5">
-        <v>12.5</v>
+        <v>499</v>
       </c>
       <c r="E150" s="13">
         <v>0</v>
       </c>
       <c r="F150" s="7">
-        <f t="shared" si="2"/>
-        <v>1250</v>
+        <f>D150*100</f>
+        <v>49900</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H150" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="H150" s="27" t="s">
+        <v>336</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H150">
+    <sortCondition ref="B1:B150"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{1F662140-7E1F-4C62-8AC3-788F692F9FF9}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{0BDDF70C-CAE0-4D3A-97EE-A61CEE252528}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{0DCCCA41-03F0-4F5B-A28A-65236261E9BF}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{1F8E79C8-9F45-46CC-882E-FD5B457E52E2}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{F88B982A-7B17-45BF-B266-D7A98A63465C}"/>
-    <hyperlink ref="H8" r:id="rId6" xr:uid="{B388936A-FAE9-4420-B4B9-48FBCD95E3EA}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{3DB95A8A-38D5-4DDE-851D-109FB0072131}"/>
-    <hyperlink ref="H14" r:id="rId8" xr:uid="{12240AD6-4C35-4E3C-8A18-B9E0905E6FF7}"/>
-    <hyperlink ref="H15" r:id="rId9" xr:uid="{4EFB6327-63C9-42B5-8F0F-498FF56DE480}"/>
-    <hyperlink ref="H18" r:id="rId10" xr:uid="{12E0C8BD-9817-44E8-AA7F-555DC67C9C50}"/>
-    <hyperlink ref="H20" r:id="rId11" xr:uid="{624101B1-1D6A-486D-AEF3-A48158CBC889}"/>
-    <hyperlink ref="H22" r:id="rId12" xr:uid="{C90003EF-6495-4B95-AEAA-5ACF067B7A61}"/>
-    <hyperlink ref="H23" r:id="rId13" xr:uid="{9701BF7B-FEFA-46B5-A4CF-DD01DD2238EC}"/>
-    <hyperlink ref="H19" r:id="rId14" xr:uid="{6EC46399-923F-40A3-9878-17CCEF40D04E}"/>
-    <hyperlink ref="H21" r:id="rId15" xr:uid="{B8B61869-35E6-47C3-91FC-9FA9DA4DC486}"/>
-    <hyperlink ref="H24" r:id="rId16" xr:uid="{A515E218-830D-412B-AE61-8B1ABF5CDDA1}"/>
-    <hyperlink ref="H25" r:id="rId17" xr:uid="{24982F2D-46AF-4EFF-B3D9-82513C3AF111}"/>
-    <hyperlink ref="H26" r:id="rId18" xr:uid="{38B0D437-7C2C-47ED-8A56-D6553D764958}"/>
-    <hyperlink ref="H27" r:id="rId19" xr:uid="{DE48B831-D207-4FB3-B832-2368EC72F7EA}"/>
-    <hyperlink ref="H28" r:id="rId20" xr:uid="{067B0C5B-941A-4D92-BB6B-1F64CA4C32BC}"/>
-    <hyperlink ref="H4" r:id="rId21" xr:uid="{166242A6-84AF-4177-8CFF-AF4E04E121B6}"/>
-    <hyperlink ref="H104" r:id="rId22" xr:uid="{E9F847FB-4000-4834-8307-7CD6580EB201}"/>
-    <hyperlink ref="H9" r:id="rId23" xr:uid="{56DE5FF6-6968-40E2-8944-AC47B62E508E}"/>
-    <hyperlink ref="H16" r:id="rId24" xr:uid="{4933627B-2BCD-4570-A6A9-60B49E269547}"/>
-    <hyperlink ref="H17" r:id="rId25" xr:uid="{45D8684E-8E5B-43FC-8992-D09509676D2F}"/>
-    <hyperlink ref="H12" r:id="rId26" xr:uid="{EBDCCE59-783D-4B53-94F7-2BB9889F9D10}"/>
-    <hyperlink ref="H29" r:id="rId27" xr:uid="{7826FFE3-EC7A-40D7-A45B-5D99AF7E4556}"/>
-    <hyperlink ref="H30" r:id="rId28" xr:uid="{28608F9D-016D-4FC5-9343-E31DA4F62C0B}"/>
-    <hyperlink ref="H31" r:id="rId29" xr:uid="{F6199302-674E-44EB-B8C0-8C85C1DAD826}"/>
-    <hyperlink ref="H32" r:id="rId30" xr:uid="{42705635-3CC3-49C5-A354-10A6B0AD8A3F}"/>
-    <hyperlink ref="H33" r:id="rId31" xr:uid="{A03BA77E-759F-4086-9421-4FAB47B56CF4}"/>
-    <hyperlink ref="H35" r:id="rId32" xr:uid="{EA6DF7F3-2915-4680-B69B-10A4B211A213}"/>
-    <hyperlink ref="H36" r:id="rId33" xr:uid="{D86C600B-0BBA-4EB7-9058-17880D541D3C}"/>
-    <hyperlink ref="H37" r:id="rId34" xr:uid="{0E740694-2163-429D-9BC0-3A286EF3C1C6}"/>
-    <hyperlink ref="H38" r:id="rId35" xr:uid="{76CC0834-A640-4753-AC38-0FE1A4A7B80D}"/>
-    <hyperlink ref="H39" r:id="rId36" xr:uid="{6D72C4D5-8729-4526-845A-36310B108A40}"/>
-    <hyperlink ref="H40" r:id="rId37" xr:uid="{A17B235E-2BB3-4A99-A271-A1CA09DF5E90}"/>
-    <hyperlink ref="H41" r:id="rId38" xr:uid="{5CE3455F-275F-41CE-8927-C447F03B19D3}"/>
-    <hyperlink ref="H42" r:id="rId39" xr:uid="{16CE8CEE-2135-4592-B513-E03D7B1CA77E}"/>
-    <hyperlink ref="H43" r:id="rId40" xr:uid="{2F5DC153-D6CD-409E-967D-C6720C7371D3}"/>
-    <hyperlink ref="H44" r:id="rId41" xr:uid="{5CF153B9-DE04-4C8C-84B1-00134B791C40}"/>
-    <hyperlink ref="H45" r:id="rId42" xr:uid="{6CF6C114-7E9E-4D7B-BF90-15CC9D0A430C}"/>
-    <hyperlink ref="H46" r:id="rId43" xr:uid="{21DD17E8-B277-4951-A97A-FA9FB6BF9A71}"/>
-    <hyperlink ref="H47" r:id="rId44" xr:uid="{F1A97F95-7AC4-41E4-98E2-7798B6E9D427}"/>
-    <hyperlink ref="H48" r:id="rId45" xr:uid="{D2818351-F691-44CE-9013-C90C19D8F2D9}"/>
-    <hyperlink ref="H49" r:id="rId46" xr:uid="{1690D9AE-1A66-4132-B8E3-41C330121C73}"/>
-    <hyperlink ref="H50" r:id="rId47" xr:uid="{A0848FF4-2B5A-4877-9314-1CACFE93C812}"/>
-    <hyperlink ref="H51" r:id="rId48" xr:uid="{F409BA16-373D-4293-8E7E-64BA730906D1}"/>
-    <hyperlink ref="H52" r:id="rId49" xr:uid="{F883125E-8F16-41D4-8175-060307273AB1}"/>
-    <hyperlink ref="H53" r:id="rId50" xr:uid="{15B15651-E2A3-4D81-BE60-C299C7DEBBE3}"/>
-    <hyperlink ref="H54" r:id="rId51" xr:uid="{3FBB781A-9D39-43E3-9B21-E4FA2F3E19A9}"/>
-    <hyperlink ref="H55" r:id="rId52" xr:uid="{96C7C0CE-6491-431A-8706-B31300DEBF27}"/>
-    <hyperlink ref="H56" r:id="rId53" xr:uid="{BBAD4FFF-DFBE-453C-B979-7ADF7D976CF3}"/>
-    <hyperlink ref="H57" r:id="rId54" xr:uid="{ABF6DFA8-38BA-447A-BA98-0299498F9632}"/>
-    <hyperlink ref="H59" r:id="rId55" xr:uid="{363D8063-14EB-42D9-ABCF-9219C60C8CB1}"/>
-    <hyperlink ref="H58" r:id="rId56" xr:uid="{C879739E-18A1-4BF3-9A5C-AA65EDEE3B44}"/>
-    <hyperlink ref="H60" r:id="rId57" xr:uid="{42E9C338-9D3E-4C01-8C68-0F697B822E9A}"/>
-    <hyperlink ref="H61" r:id="rId58" xr:uid="{80AA8919-3EA8-4A60-A493-4279ED5FC739}"/>
-    <hyperlink ref="H62" r:id="rId59" xr:uid="{7E0330A3-F4F6-490E-A499-793C30B49607}"/>
-    <hyperlink ref="H63" r:id="rId60" xr:uid="{5F82C90B-F078-4A9B-ACDD-467E711FE374}"/>
-    <hyperlink ref="H64" r:id="rId61" xr:uid="{DCFE5ABE-50E1-4943-A56F-AE0E3B8C5F84}"/>
+    <hyperlink ref="H128" r:id="rId1" xr:uid="{1F662140-7E1F-4C62-8AC3-788F692F9FF9}"/>
+    <hyperlink ref="H144" r:id="rId2" xr:uid="{0BDDF70C-CAE0-4D3A-97EE-A61CEE252528}"/>
+    <hyperlink ref="H48" r:id="rId3" xr:uid="{0DCCCA41-03F0-4F5B-A28A-65236261E9BF}"/>
+    <hyperlink ref="H147" r:id="rId4" xr:uid="{1F8E79C8-9F45-46CC-882E-FD5B457E52E2}"/>
+    <hyperlink ref="H80" r:id="rId5" xr:uid="{F88B982A-7B17-45BF-B266-D7A98A63465C}"/>
+    <hyperlink ref="H81" r:id="rId6" xr:uid="{B388936A-FAE9-4420-B4B9-48FBCD95E3EA}"/>
+    <hyperlink ref="H117" r:id="rId7" xr:uid="{3DB95A8A-38D5-4DDE-851D-109FB0072131}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{12240AD6-4C35-4E3C-8A18-B9E0905E6FF7}"/>
+    <hyperlink ref="H49" r:id="rId9" xr:uid="{4EFB6327-63C9-42B5-8F0F-498FF56DE480}"/>
+    <hyperlink ref="H98" r:id="rId10" xr:uid="{12E0C8BD-9817-44E8-AA7F-555DC67C9C50}"/>
+    <hyperlink ref="H99" r:id="rId11" xr:uid="{624101B1-1D6A-486D-AEF3-A48158CBC889}"/>
+    <hyperlink ref="H100" r:id="rId12" xr:uid="{C90003EF-6495-4B95-AEAA-5ACF067B7A61}"/>
+    <hyperlink ref="H97" r:id="rId13" xr:uid="{9701BF7B-FEFA-46B5-A4CF-DD01DD2238EC}"/>
+    <hyperlink ref="H136" r:id="rId14" xr:uid="{6EC46399-923F-40A3-9878-17CCEF40D04E}"/>
+    <hyperlink ref="H135" r:id="rId15" xr:uid="{B8B61869-35E6-47C3-91FC-9FA9DA4DC486}"/>
+    <hyperlink ref="H72" r:id="rId16" xr:uid="{A515E218-830D-412B-AE61-8B1ABF5CDDA1}"/>
+    <hyperlink ref="H125" r:id="rId17" xr:uid="{24982F2D-46AF-4EFF-B3D9-82513C3AF111}"/>
+    <hyperlink ref="H127" r:id="rId18" xr:uid="{38B0D437-7C2C-47ED-8A56-D6553D764958}"/>
+    <hyperlink ref="H9" r:id="rId19" xr:uid="{DE48B831-D207-4FB3-B832-2368EC72F7EA}"/>
+    <hyperlink ref="H10" r:id="rId20" xr:uid="{067B0C5B-941A-4D92-BB6B-1F64CA4C32BC}"/>
+    <hyperlink ref="H146" r:id="rId21" xr:uid="{166242A6-84AF-4177-8CFF-AF4E04E121B6}"/>
+    <hyperlink ref="H4" r:id="rId22" xr:uid="{E9F847FB-4000-4834-8307-7CD6580EB201}"/>
+    <hyperlink ref="H12" r:id="rId23" xr:uid="{56DE5FF6-6968-40E2-8944-AC47B62E508E}"/>
+    <hyperlink ref="H45" r:id="rId24" xr:uid="{4933627B-2BCD-4570-A6A9-60B49E269547}"/>
+    <hyperlink ref="H46" r:id="rId25" xr:uid="{45D8684E-8E5B-43FC-8992-D09509676D2F}"/>
+    <hyperlink ref="H131" r:id="rId26" xr:uid="{EBDCCE59-783D-4B53-94F7-2BB9889F9D10}"/>
+    <hyperlink ref="H104" r:id="rId27" xr:uid="{7826FFE3-EC7A-40D7-A45B-5D99AF7E4556}"/>
+    <hyperlink ref="H65" r:id="rId28" xr:uid="{28608F9D-016D-4FC5-9343-E31DA4F62C0B}"/>
+    <hyperlink ref="H71" r:id="rId29" xr:uid="{F6199302-674E-44EB-B8C0-8C85C1DAD826}"/>
+    <hyperlink ref="H84" r:id="rId30" xr:uid="{42705635-3CC3-49C5-A354-10A6B0AD8A3F}"/>
+    <hyperlink ref="H67" r:id="rId31" xr:uid="{A03BA77E-759F-4086-9421-4FAB47B56CF4}"/>
+    <hyperlink ref="H68" r:id="rId32" xr:uid="{EA6DF7F3-2915-4680-B69B-10A4B211A213}"/>
+    <hyperlink ref="H116" r:id="rId33" xr:uid="{D86C600B-0BBA-4EB7-9058-17880D541D3C}"/>
+    <hyperlink ref="H50" r:id="rId34" xr:uid="{0E740694-2163-429D-9BC0-3A286EF3C1C6}"/>
+    <hyperlink ref="H137" r:id="rId35" xr:uid="{76CC0834-A640-4753-AC38-0FE1A4A7B80D}"/>
+    <hyperlink ref="H139" r:id="rId36" xr:uid="{6D72C4D5-8729-4526-845A-36310B108A40}"/>
+    <hyperlink ref="H150" r:id="rId37" xr:uid="{A17B235E-2BB3-4A99-A271-A1CA09DF5E90}"/>
+    <hyperlink ref="H60" r:id="rId38" xr:uid="{5CE3455F-275F-41CE-8927-C447F03B19D3}"/>
+    <hyperlink ref="H16" r:id="rId39" xr:uid="{16CE8CEE-2135-4592-B513-E03D7B1CA77E}"/>
+    <hyperlink ref="H53" r:id="rId40" xr:uid="{2F5DC153-D6CD-409E-967D-C6720C7371D3}"/>
+    <hyperlink ref="H64" r:id="rId41" xr:uid="{5CF153B9-DE04-4C8C-84B1-00134B791C40}"/>
+    <hyperlink ref="H124" r:id="rId42" xr:uid="{6CF6C114-7E9E-4D7B-BF90-15CC9D0A430C}"/>
+    <hyperlink ref="H63" r:id="rId43" xr:uid="{21DD17E8-B277-4951-A97A-FA9FB6BF9A71}"/>
+    <hyperlink ref="H62" r:id="rId44" xr:uid="{F1A97F95-7AC4-41E4-98E2-7798B6E9D427}"/>
+    <hyperlink ref="H18" r:id="rId45" xr:uid="{D2818351-F691-44CE-9013-C90C19D8F2D9}"/>
+    <hyperlink ref="H132" r:id="rId46" xr:uid="{1690D9AE-1A66-4132-B8E3-41C330121C73}"/>
+    <hyperlink ref="H122" r:id="rId47" xr:uid="{A0848FF4-2B5A-4877-9314-1CACFE93C812}"/>
+    <hyperlink ref="H19" r:id="rId48" xr:uid="{F409BA16-373D-4293-8E7E-64BA730906D1}"/>
+    <hyperlink ref="H134" r:id="rId49" xr:uid="{F883125E-8F16-41D4-8175-060307273AB1}"/>
+    <hyperlink ref="H133" r:id="rId50" xr:uid="{15B15651-E2A3-4D81-BE60-C299C7DEBBE3}"/>
+    <hyperlink ref="H96" r:id="rId51" xr:uid="{3FBB781A-9D39-43E3-9B21-E4FA2F3E19A9}"/>
+    <hyperlink ref="H42" r:id="rId52" xr:uid="{96C7C0CE-6491-431A-8706-B31300DEBF27}"/>
+    <hyperlink ref="H17" r:id="rId53" xr:uid="{BBAD4FFF-DFBE-453C-B979-7ADF7D976CF3}"/>
+    <hyperlink ref="H120" r:id="rId54" xr:uid="{ABF6DFA8-38BA-447A-BA98-0299498F9632}"/>
+    <hyperlink ref="H94" r:id="rId55" xr:uid="{363D8063-14EB-42D9-ABCF-9219C60C8CB1}"/>
+    <hyperlink ref="H95" r:id="rId56" xr:uid="{C879739E-18A1-4BF3-9A5C-AA65EDEE3B44}"/>
+    <hyperlink ref="H93" r:id="rId57" xr:uid="{42E9C338-9D3E-4C01-8C68-0F697B822E9A}"/>
+    <hyperlink ref="H121" r:id="rId58" xr:uid="{80AA8919-3EA8-4A60-A493-4279ED5FC739}"/>
+    <hyperlink ref="H61" r:id="rId59" xr:uid="{7E0330A3-F4F6-490E-A499-793C30B49607}"/>
+    <hyperlink ref="H85" r:id="rId60" xr:uid="{5F82C90B-F078-4A9B-ACDD-467E711FE374}"/>
+    <hyperlink ref="H86" r:id="rId61" xr:uid="{DCFE5ABE-50E1-4943-A56F-AE0E3B8C5F84}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="439">
   <si>
     <t>SCF</t>
   </si>
@@ -789,9 +789,6 @@
   </si>
   <si>
     <t>Montigo ACE WATER BOTTLE 32OZ</t>
-  </si>
-  <si>
-    <t>Stop 15.1.2025</t>
   </si>
   <si>
     <t>https://i.postimg.cc/90J55QDP/Montigo-ACE-WATER-BOTTLE-32-OZ-DARK-TEAL.webp</t>
@@ -1564,7 +1561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,12 +1679,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2033,55 +2024,55 @@
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2713,8 +2704,8 @@
   <sheetPr/>
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -4007,14 +3998,14 @@
         <v>24.9</v>
       </c>
       <c r="D48" s="5">
-        <v>24.9</v>
+        <v>29.9</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
         <f t="shared" si="0"/>
-        <v>2490</v>
+        <v>2990</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>145</v>
@@ -4869,14 +4860,14 @@
         <v>699</v>
       </c>
       <c r="D80" s="13">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
         <f t="shared" si="1"/>
-        <v>41900</v>
+        <v>45900</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>238</v>
@@ -4896,14 +4887,14 @@
         <v>699</v>
       </c>
       <c r="D81" s="13">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
         <f t="shared" si="1"/>
-        <v>41900</v>
+        <v>45900</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>238</v>
@@ -5013,16 +5004,14 @@
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="25"/>
+      <c r="H85" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>253</v>
@@ -5040,19 +5029,17 @@
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="G86" s="25" t="s">
-        <v>254</v>
-      </c>
+      <c r="G86" s="25"/>
       <c r="H86" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="C87" s="5">
         <v>106</v>
@@ -5071,15 +5058,15 @@
         <v>10</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C88" s="5">
         <v>106</v>
@@ -5098,15 +5085,15 @@
         <v>10</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="C89" s="5">
         <v>86</v>
@@ -5125,15 +5112,15 @@
         <v>10</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>267</v>
       </c>
       <c r="C90" s="13">
         <v>86</v>
@@ -5152,15 +5139,15 @@
         <v>10</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C91" s="13">
         <v>86</v>
@@ -5179,15 +5166,15 @@
         <v>10</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C92" s="13">
         <v>86</v>
@@ -5206,15 +5193,15 @@
         <v>10</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>272</v>
       </c>
       <c r="C93" s="13">
         <v>8</v>
@@ -5233,15 +5220,15 @@
         <v>55</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="C94" s="13">
         <v>8</v>
@@ -5260,15 +5247,15 @@
         <v>55</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="C95" s="13">
         <v>8</v>
@@ -5287,15 +5274,15 @@
         <v>55</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>281</v>
       </c>
       <c r="C96" s="13">
         <v>8.6</v>
@@ -5314,15 +5301,15 @@
         <v>55</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>283</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>284</v>
       </c>
       <c r="C97" s="13">
         <v>39.9</v>
@@ -5341,15 +5328,15 @@
         <v>31</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="C98" s="13">
         <v>89</v>
@@ -5368,15 +5355,15 @@
         <v>31</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C99" s="13">
         <v>89</v>
@@ -5395,15 +5382,15 @@
         <v>31</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C100" s="13">
         <v>89</v>
@@ -5422,15 +5409,15 @@
         <v>31</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="C101" s="5">
         <v>69</v>
@@ -5449,15 +5436,15 @@
         <v>10</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C102" s="5">
         <v>69</v>
@@ -5476,15 +5463,15 @@
         <v>10</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C103" s="5">
         <v>69</v>
@@ -5503,15 +5490,15 @@
         <v>10</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>299</v>
       </c>
       <c r="C104" s="13">
         <v>469</v>
@@ -5530,15 +5517,15 @@
         <v>31</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="C105" s="5">
         <v>159</v>
@@ -5557,15 +5544,15 @@
         <v>10</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="C106" s="5">
         <v>159</v>
@@ -5584,15 +5571,15 @@
         <v>10</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>308</v>
       </c>
       <c r="C107" s="5">
         <v>159</v>
@@ -5611,15 +5598,15 @@
         <v>10</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="C108" s="5">
         <v>159</v>
@@ -5638,15 +5625,15 @@
         <v>10</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>314</v>
       </c>
       <c r="C109" s="5">
         <v>79</v>
@@ -5665,15 +5652,15 @@
         <v>10</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="C110" s="13">
         <v>121</v>
@@ -5692,15 +5679,15 @@
         <v>10</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="C111" s="13">
         <v>99</v>
@@ -5719,15 +5706,15 @@
         <v>10</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="C112" s="13">
         <v>131</v>
@@ -5746,15 +5733,15 @@
         <v>10</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="C113" s="13">
         <v>147</v>
@@ -5773,15 +5760,15 @@
         <v>10</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="C114" s="13">
         <v>289</v>
@@ -5800,15 +5787,15 @@
         <v>10</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="C115" s="13">
         <v>127</v>
@@ -5827,15 +5814,15 @@
         <v>10</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>334</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>335</v>
       </c>
       <c r="C116" s="13">
         <v>199</v>
@@ -5854,15 +5841,15 @@
         <v>31</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>338</v>
       </c>
       <c r="C117" s="13">
         <v>149</v>
@@ -5881,15 +5868,15 @@
         <v>31</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" ht="15.6" spans="1:8">
       <c r="A118" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118" s="16" t="s">
         <v>340</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>341</v>
       </c>
       <c r="C118" s="5">
         <v>289</v>
@@ -5908,15 +5895,15 @@
         <v>10</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" ht="15.6" spans="1:8">
       <c r="A119" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="C119" s="13">
         <v>209</v>
@@ -5935,15 +5922,15 @@
         <v>10</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" ht="15.6" spans="1:8">
       <c r="A120" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>347</v>
       </c>
       <c r="C120" s="13">
         <v>3.3</v>
@@ -5962,15 +5949,15 @@
         <v>55</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" ht="15.6" spans="1:8">
       <c r="A121" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="C121" s="13">
         <v>11.5</v>
@@ -5989,15 +5976,15 @@
         <v>55</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" ht="15.6" spans="1:8">
       <c r="A122" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>352</v>
       </c>
       <c r="C122" s="13">
         <v>8.1</v>
@@ -6016,15 +6003,15 @@
         <v>55</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" ht="15.6" spans="1:8">
       <c r="A123" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="B123" s="16" t="s">
         <v>354</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>355</v>
       </c>
       <c r="C123" s="13">
         <v>449</v>
@@ -6043,15 +6030,15 @@
         <v>10</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" ht="15.6" spans="1:8">
       <c r="A124" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B124" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>358</v>
       </c>
       <c r="C124" s="13">
         <v>2.6</v>
@@ -6070,15 +6057,15 @@
         <v>55</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:8">
       <c r="A125" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B125" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>361</v>
       </c>
       <c r="C125" s="13">
         <v>129</v>
@@ -6097,15 +6084,15 @@
         <v>31</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" ht="15.6" spans="1:8">
       <c r="A126" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="C126" s="5">
         <v>259</v>
@@ -6124,15 +6111,15 @@
         <v>10</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" ht="15.6" spans="1:8">
       <c r="A127" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="C127" s="13">
         <v>269</v>
@@ -6151,15 +6138,15 @@
         <v>31</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128" ht="15.6" spans="1:8">
       <c r="A128" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="C128" s="13">
         <v>179</v>
@@ -6175,18 +6162,18 @@
         <v>14900</v>
       </c>
       <c r="G128" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="H128" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="129" ht="15.6" spans="1:8">
       <c r="A129" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>374</v>
       </c>
       <c r="C129" s="5">
         <v>79</v>
@@ -6205,15 +6192,15 @@
         <v>10</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:8">
       <c r="A130" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>377</v>
       </c>
       <c r="C130" s="5">
         <v>79</v>
@@ -6232,15 +6219,15 @@
         <v>10</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" ht="15.6" spans="1:8">
       <c r="A131" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>379</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="C131" s="13">
         <v>1999</v>
@@ -6259,15 +6246,15 @@
         <v>31</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:8">
       <c r="A132" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="C132" s="13">
         <v>9.1</v>
@@ -6286,15 +6273,15 @@
         <v>55</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" ht="15.6" spans="1:8">
       <c r="A133" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>386</v>
       </c>
       <c r="C133" s="13">
         <v>16.5</v>
@@ -6313,15 +6300,15 @@
         <v>55</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" ht="15.6" spans="1:8">
       <c r="A134" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B134" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="C134" s="13">
         <v>7.9</v>
@@ -6340,15 +6327,15 @@
         <v>55</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="135" ht="15.6" spans="1:8">
       <c r="A135" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B135" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="C135" s="13">
         <v>299</v>
@@ -6367,15 +6354,15 @@
         <v>31</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="136" ht="15.6" spans="1:8">
       <c r="A136" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B136" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>395</v>
       </c>
       <c r="C136" s="13">
         <v>229</v>
@@ -6391,18 +6378,18 @@
         <v>22900</v>
       </c>
       <c r="G136" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="H136" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="137" ht="15.6" spans="1:8">
       <c r="A137" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B137" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>399</v>
       </c>
       <c r="C137" s="13">
         <v>159</v>
@@ -6421,15 +6408,15 @@
         <v>31</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:8">
       <c r="A138" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B138" s="12" t="s">
         <v>401</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>402</v>
       </c>
       <c r="C138" s="13">
         <v>159</v>
@@ -6448,15 +6435,15 @@
         <v>31</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:8">
       <c r="A139" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B139" s="12" t="s">
         <v>404</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>405</v>
       </c>
       <c r="C139" s="13">
         <v>169</v>
@@ -6475,15 +6462,15 @@
         <v>31</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:8">
       <c r="A140" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="C140" s="13">
         <v>449</v>
@@ -6502,15 +6489,15 @@
         <v>10</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:8">
       <c r="A141" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>411</v>
       </c>
       <c r="C141" s="13">
         <v>219</v>
@@ -6529,15 +6516,15 @@
         <v>10</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" ht="15.6" spans="1:8">
       <c r="A142" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B142" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>414</v>
       </c>
       <c r="C142" s="5">
         <v>239</v>
@@ -6556,15 +6543,15 @@
         <v>10</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:8">
       <c r="A143" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B143" s="16" t="s">
         <v>416</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>417</v>
       </c>
       <c r="C143" s="13">
         <v>159</v>
@@ -6583,15 +6570,15 @@
         <v>10</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" ht="15.6" spans="1:8">
       <c r="A144" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B144" s="12" t="s">
         <v>419</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>420</v>
       </c>
       <c r="C144" s="13">
         <v>209</v>
@@ -6607,18 +6594,18 @@
         <v>19900</v>
       </c>
       <c r="G144" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:8">
       <c r="A145" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B145" s="12" t="s">
         <v>422</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>423</v>
       </c>
       <c r="C145" s="5">
         <v>529</v>
@@ -6637,15 +6624,15 @@
         <v>10</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:8">
       <c r="A146" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B146" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>426</v>
       </c>
       <c r="C146" s="13">
         <v>299</v>
@@ -6661,45 +6648,45 @@
         <v>22900</v>
       </c>
       <c r="G146" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:8">
       <c r="A147" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>429</v>
       </c>
       <c r="C147" s="13">
         <v>299</v>
       </c>
       <c r="D147" s="13">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
       </c>
       <c r="F147" s="7">
         <f t="shared" si="2"/>
-        <v>18300</v>
+        <v>19900</v>
       </c>
       <c r="G147" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="H147" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:8">
       <c r="A148" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B148" s="29" t="s">
         <v>432</v>
-      </c>
-      <c r="B148" s="29" t="s">
-        <v>433</v>
       </c>
       <c r="C148" s="13">
         <v>1499</v>
@@ -6718,15 +6705,15 @@
         <v>10</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:8">
       <c r="A149" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C149" s="13">
         <v>1299</v>
@@ -6745,15 +6732,15 @@
         <v>10</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:8">
       <c r="A150" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="B150" s="29" t="s">
         <v>437</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>438</v>
       </c>
       <c r="C150" s="13">
         <v>499</v>
@@ -6772,7 +6759,7 @@
         <v>31</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="440">
   <si>
     <t>SCF</t>
   </si>
@@ -530,6 +530,9 @@
     <t>FELIZTRIP TR-606-P35 TRAVEL ADAPTOR. 2x USB C and 2X USB A Fast Charging PD 35W</t>
   </si>
   <si>
+    <t>http://www.feliztrip.com/images_new/TR-606-P35/02.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.CAS3478</t>
   </si>
   <si>
@@ -1112,7 +1115,7 @@
     <t>Riversong Magnetic Wireless Power Bank 5000mAh</t>
   </si>
   <si>
-    <t>https://cutt.cx/6E6w4</t>
+    <t>https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png</t>
   </si>
   <si>
     <t>SCF-100.MAGSPEED10PRO</t>
@@ -2704,8 +2707,8 @@
   <sheetPr/>
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -4199,14 +4202,16 @@
       <c r="G55" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="10"/>
+      <c r="H55" s="9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C56" s="5">
         <v>89</v>
@@ -4225,15 +4230,15 @@
         <v>10</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C57" s="5">
         <v>89</v>
@@ -4252,15 +4257,15 @@
         <v>10</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" s="5">
         <v>89</v>
@@ -4279,15 +4284,15 @@
         <v>10</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C59" s="5">
         <v>89</v>
@@ -4306,15 +4311,15 @@
         <v>10</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C60" s="13">
         <v>18.5</v>
@@ -4333,15 +4338,15 @@
         <v>55</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C61" s="21">
         <v>18</v>
@@ -4360,15 +4365,15 @@
         <v>55</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C62" s="13">
         <v>4.5</v>
@@ -4387,15 +4392,15 @@
         <v>55</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C63" s="13">
         <v>5.7</v>
@@ -4414,15 +4419,15 @@
         <v>55</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C64" s="13">
         <v>3.5</v>
@@ -4441,15 +4446,15 @@
         <v>55</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C65" s="13">
         <v>2099</v>
@@ -4468,15 +4473,15 @@
         <v>31</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C66" s="5">
         <v>699</v>
@@ -4495,15 +4500,15 @@
         <v>10</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C67" s="13">
         <v>799</v>
@@ -4522,15 +4527,15 @@
         <v>31</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C68" s="13">
         <v>1199</v>
@@ -4549,15 +4554,15 @@
         <v>31</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C69" s="13">
         <v>119</v>
@@ -4576,15 +4581,15 @@
         <v>10</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C70" s="13">
         <v>119</v>
@@ -4603,15 +4608,15 @@
         <v>10</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C71" s="13">
         <v>2699</v>
@@ -4630,15 +4635,15 @@
         <v>31</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C72" s="13">
         <v>99</v>
@@ -4657,15 +4662,15 @@
         <v>31</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C73" s="5">
         <v>109</v>
@@ -4684,15 +4689,15 @@
         <v>10</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C74" s="13">
         <v>229</v>
@@ -4711,15 +4716,15 @@
         <v>10</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C75" s="13">
         <v>279</v>
@@ -4738,15 +4743,15 @@
         <v>10</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C76" s="13">
         <v>99</v>
@@ -4765,15 +4770,15 @@
         <v>10</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C77" s="13">
         <v>159</v>
@@ -4792,15 +4797,15 @@
         <v>10</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C78" s="13">
         <v>208</v>
@@ -4819,15 +4824,15 @@
         <v>10</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C79" s="5">
         <v>559</v>
@@ -4846,15 +4851,15 @@
         <v>10</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C80" s="5">
         <v>699</v>
@@ -4870,18 +4875,18 @@
         <v>45900</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C81" s="13">
         <v>699</v>
@@ -4897,18 +4902,18 @@
         <v>45900</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C82" s="5">
         <v>119</v>
@@ -4927,15 +4932,15 @@
         <v>10</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C83" s="13">
         <v>209</v>
@@ -4954,15 +4959,15 @@
         <v>10</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C84" s="13">
         <v>135</v>
@@ -4981,15 +4986,15 @@
         <v>31</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C85" s="5">
         <v>106</v>
@@ -5006,15 +5011,15 @@
       </c>
       <c r="G85" s="25"/>
       <c r="H85" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C86" s="5">
         <v>106</v>
@@ -5031,15 +5036,15 @@
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C87" s="5">
         <v>106</v>
@@ -5058,15 +5063,15 @@
         <v>10</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C88" s="5">
         <v>106</v>
@@ -5085,15 +5090,15 @@
         <v>10</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C89" s="5">
         <v>86</v>
@@ -5112,15 +5117,15 @@
         <v>10</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C90" s="13">
         <v>86</v>
@@ -5139,15 +5144,15 @@
         <v>10</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C91" s="13">
         <v>86</v>
@@ -5166,15 +5171,15 @@
         <v>10</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C92" s="13">
         <v>86</v>
@@ -5193,15 +5198,15 @@
         <v>10</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C93" s="13">
         <v>8</v>
@@ -5220,15 +5225,15 @@
         <v>55</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C94" s="13">
         <v>8</v>
@@ -5247,15 +5252,15 @@
         <v>55</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C95" s="13">
         <v>8</v>
@@ -5274,15 +5279,15 @@
         <v>55</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C96" s="13">
         <v>8.6</v>
@@ -5301,15 +5306,15 @@
         <v>55</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C97" s="13">
         <v>39.9</v>
@@ -5328,15 +5333,15 @@
         <v>31</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C98" s="13">
         <v>89</v>
@@ -5355,15 +5360,15 @@
         <v>31</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C99" s="13">
         <v>89</v>
@@ -5382,15 +5387,15 @@
         <v>31</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C100" s="13">
         <v>89</v>
@@ -5409,15 +5414,15 @@
         <v>31</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C101" s="5">
         <v>69</v>
@@ -5436,15 +5441,15 @@
         <v>10</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C102" s="5">
         <v>69</v>
@@ -5463,15 +5468,15 @@
         <v>10</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C103" s="5">
         <v>69</v>
@@ -5490,15 +5495,15 @@
         <v>10</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C104" s="13">
         <v>469</v>
@@ -5517,15 +5522,15 @@
         <v>31</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C105" s="5">
         <v>159</v>
@@ -5544,15 +5549,15 @@
         <v>10</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C106" s="5">
         <v>159</v>
@@ -5571,15 +5576,15 @@
         <v>10</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C107" s="5">
         <v>159</v>
@@ -5598,15 +5603,15 @@
         <v>10</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C108" s="5">
         <v>159</v>
@@ -5625,15 +5630,15 @@
         <v>10</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C109" s="5">
         <v>79</v>
@@ -5652,15 +5657,15 @@
         <v>10</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C110" s="13">
         <v>121</v>
@@ -5679,15 +5684,15 @@
         <v>10</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C111" s="13">
         <v>99</v>
@@ -5706,15 +5711,15 @@
         <v>10</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C112" s="13">
         <v>131</v>
@@ -5733,15 +5738,15 @@
         <v>10</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C113" s="13">
         <v>147</v>
@@ -5760,15 +5765,15 @@
         <v>10</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C114" s="13">
         <v>289</v>
@@ -5787,15 +5792,15 @@
         <v>10</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C115" s="13">
         <v>127</v>
@@ -5814,15 +5819,15 @@
         <v>10</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C116" s="13">
         <v>199</v>
@@ -5841,15 +5846,15 @@
         <v>31</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C117" s="13">
         <v>149</v>
@@ -5868,15 +5873,15 @@
         <v>31</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" ht="15.6" spans="1:8">
       <c r="A118" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C118" s="5">
         <v>289</v>
@@ -5895,15 +5900,15 @@
         <v>10</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" ht="15.6" spans="1:8">
       <c r="A119" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C119" s="13">
         <v>209</v>
@@ -5922,15 +5927,15 @@
         <v>10</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" ht="15.6" spans="1:8">
       <c r="A120" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C120" s="13">
         <v>3.3</v>
@@ -5949,15 +5954,15 @@
         <v>55</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" ht="15.6" spans="1:8">
       <c r="A121" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C121" s="13">
         <v>11.5</v>
@@ -5976,15 +5981,15 @@
         <v>55</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" ht="15.6" spans="1:8">
       <c r="A122" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C122" s="13">
         <v>8.1</v>
@@ -6003,15 +6008,15 @@
         <v>55</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" ht="15.6" spans="1:8">
       <c r="A123" s="26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C123" s="13">
         <v>449</v>
@@ -6030,15 +6035,15 @@
         <v>10</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="124" ht="15.6" spans="1:8">
       <c r="A124" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C124" s="13">
         <v>2.6</v>
@@ -6057,15 +6062,15 @@
         <v>55</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:8">
       <c r="A125" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C125" s="13">
         <v>129</v>
@@ -6084,15 +6089,15 @@
         <v>31</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" ht="15.6" spans="1:8">
       <c r="A126" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C126" s="5">
         <v>259</v>
@@ -6111,15 +6116,15 @@
         <v>10</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="127" ht="15.6" spans="1:8">
       <c r="A127" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C127" s="13">
         <v>269</v>
@@ -6138,15 +6143,15 @@
         <v>31</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128" ht="15.6" spans="1:8">
       <c r="A128" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C128" s="13">
         <v>179</v>
@@ -6162,18 +6167,18 @@
         <v>14900</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" ht="15.6" spans="1:8">
       <c r="A129" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C129" s="5">
         <v>79</v>
@@ -6192,15 +6197,15 @@
         <v>10</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:8">
       <c r="A130" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C130" s="5">
         <v>79</v>
@@ -6219,15 +6224,15 @@
         <v>10</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" ht="15.6" spans="1:8">
       <c r="A131" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C131" s="13">
         <v>1999</v>
@@ -6246,15 +6251,15 @@
         <v>31</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:8">
       <c r="A132" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C132" s="13">
         <v>9.1</v>
@@ -6273,15 +6278,15 @@
         <v>55</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" ht="15.6" spans="1:8">
       <c r="A133" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C133" s="13">
         <v>16.5</v>
@@ -6300,15 +6305,15 @@
         <v>55</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" ht="15.6" spans="1:8">
       <c r="A134" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C134" s="13">
         <v>7.9</v>
@@ -6327,15 +6332,15 @@
         <v>55</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" ht="15.6" spans="1:8">
       <c r="A135" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C135" s="13">
         <v>299</v>
@@ -6354,15 +6359,15 @@
         <v>31</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136" ht="15.6" spans="1:8">
       <c r="A136" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C136" s="13">
         <v>229</v>
@@ -6378,18 +6383,18 @@
         <v>22900</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" ht="15.6" spans="1:8">
       <c r="A137" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C137" s="13">
         <v>159</v>
@@ -6408,15 +6413,15 @@
         <v>31</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:8">
       <c r="A138" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C138" s="13">
         <v>159</v>
@@ -6435,15 +6440,15 @@
         <v>31</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:8">
       <c r="A139" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C139" s="13">
         <v>169</v>
@@ -6462,15 +6467,15 @@
         <v>31</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:8">
       <c r="A140" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C140" s="13">
         <v>449</v>
@@ -6489,15 +6494,15 @@
         <v>10</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:8">
       <c r="A141" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C141" s="13">
         <v>219</v>
@@ -6516,15 +6521,15 @@
         <v>10</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" ht="15.6" spans="1:8">
       <c r="A142" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C142" s="5">
         <v>239</v>
@@ -6543,15 +6548,15 @@
         <v>10</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:8">
       <c r="A143" s="26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C143" s="13">
         <v>159</v>
@@ -6570,15 +6575,15 @@
         <v>10</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" ht="15.6" spans="1:8">
       <c r="A144" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C144" s="13">
         <v>209</v>
@@ -6594,18 +6599,18 @@
         <v>19900</v>
       </c>
       <c r="G144" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:8">
       <c r="A145" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C145" s="5">
         <v>529</v>
@@ -6624,15 +6629,15 @@
         <v>10</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:8">
       <c r="A146" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C146" s="13">
         <v>299</v>
@@ -6648,18 +6653,18 @@
         <v>22900</v>
       </c>
       <c r="G146" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:8">
       <c r="A147" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C147" s="13">
         <v>299</v>
@@ -6675,18 +6680,18 @@
         <v>19900</v>
       </c>
       <c r="G147" s="28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:8">
       <c r="A148" s="26" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C148" s="13">
         <v>1499</v>
@@ -6705,15 +6710,15 @@
         <v>10</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:8">
       <c r="A149" s="26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C149" s="13">
         <v>1299</v>
@@ -6732,15 +6737,15 @@
         <v>10</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:8">
       <c r="A150" s="26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C150" s="13">
         <v>499</v>
@@ -6759,7 +6764,7 @@
         <v>31</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -6783,53 +6788,53 @@
     <hyperlink ref="H136" r:id="rId14" display="https://cutt.cx/Tgjju"/>
     <hyperlink ref="H135" r:id="rId15" display="https://cutt.cx/D4uDK"/>
     <hyperlink ref="H72" r:id="rId16" display="https://cutt.cx/Y4oit"/>
-    <hyperlink ref="H125" r:id="rId17" display="https://cutt.cx/6E6w4"/>
-    <hyperlink ref="H127" r:id="rId18" display="https://cutt.cx/wghz"/>
-    <hyperlink ref="H9" r:id="rId19" display="https://cutt.cx/gaE"/>
-    <hyperlink ref="H10" r:id="rId20" display="https://cutt.cx/dsIs7"/>
-    <hyperlink ref="H146" r:id="rId21" display="https://cutt.cx/rdF"/>
-    <hyperlink ref="H4" r:id="rId22" display="https://i.ibb.co/F82DCWK/New-Project-2.png"/>
-    <hyperlink ref="H12" r:id="rId23" display="https://i.postimg.cc/5ySm0HJG/Watermark.jpg"/>
-    <hyperlink ref="H45" r:id="rId24" display="https://i.postimg.cc/tgLT12CZ/bb1f697dcc5270c0556c893dc8b6a064.jpg"/>
-    <hyperlink ref="H46" r:id="rId25" display="https://i.postimg.cc/DzbfKLd2/20220120-192454.png"/>
-    <hyperlink ref="H131" r:id="rId26" display="https://i.postimg.cc/T1TTmS8w/Samsung-162912926-sg-music-frame-hw-ls60d-hw-ls60d-xs-540309625-Download-Source-zoom.webp"/>
-    <hyperlink ref="H104" r:id="rId27" display="https://i.postimg.cc/jSBKvCVB/DLAR15-DWM-T1-1000x1000.jpg"/>
-    <hyperlink ref="H65" r:id="rId28" display="https://i.postimg.cc/qRxTkLtd/HW9.jpg"/>
-    <hyperlink ref="H71" r:id="rId29" display="https://i.postimg.cc/SRZb9x7T/HW9PRO.jpg"/>
-    <hyperlink ref="H84" r:id="rId30" display="https://i.postimg.cc/m2Dss7B0/MFG150-M0-APB.jpg"/>
-    <hyperlink ref="H67" r:id="rId31" display="https://i.postimg.cc/2SLNqmqG/BX6.jpg"/>
-    <hyperlink ref="H68" r:id="rId32" display="https://i.postimg.cc/ZqJHGxhN/F6.png"/>
-    <hyperlink ref="H116" r:id="rId33" display="https://i.postimg.cc/X7FT3Lt1/HD3008.webp"/>
-    <hyperlink ref="H50" r:id="rId34" display="https://i.postimg.cc/2yWXkj9L/FMC1508-WH.jpg"/>
-    <hyperlink ref="H137" r:id="rId35" display="https://i.postimg.cc/7ZwQ4k3b/SVMISVZ4.jpg"/>
-    <hyperlink ref="H139" r:id="rId36" display="https://i.postimg.cc/kXdTNmhw/SVPSRBS9.jpg"/>
-    <hyperlink ref="H150" r:id="rId37" display="https://i.postimg.cc/8cwfrM02/TACTWP05-BLK.jpg"/>
-    <hyperlink ref="H60" r:id="rId38" display="https://i.postimg.cc/q7fqq17t/GLADE-SCENT-GEL-TWINPACK-LAVENDAR.jpg"/>
-    <hyperlink ref="H16" r:id="rId39" display="https://i.postimg.cc/jjz57yWM/COLGATE-TWINPACK-GREAT-RE-FLAVOUR.jpg"/>
-    <hyperlink ref="H53" r:id="rId40" display="https://i.postimg.cc/FRpHPmVc/FEBREEZE-370-ML-ANTI-BACTERIA.jpg"/>
-    <hyperlink ref="H64" r:id="rId41" display="https://i.postimg.cc/0jN2F3V4/HOMESOY-SOYA-MILK-1-L-DRINK.webp"/>
-    <hyperlink ref="H124" r:id="rId42" display="https://i.postimg.cc/rsYFkJbw/Ribena-Blackcurrant-300ml.jpg"/>
-    <hyperlink ref="H63" r:id="rId43" display="https://i.postimg.cc/yxWsvRd4/GLO-LIME-800-ML.webp"/>
-    <hyperlink ref="H62" r:id="rId44" display="https://i.postimg.cc/BbysyvL8/GLo-800-ML-Lemon.webp"/>
-    <hyperlink ref="H18" r:id="rId45" display="https://i.postimg.cc/bNDqn1W1/COLGATE-ZIG-ZAG-TOOTHBRUSH-5-S.jpg"/>
-    <hyperlink ref="H132" r:id="rId46" display="https://i.postimg.cc/4d2T7318/Scotch-Brite-4-1-kitchen-sponge.jpg"/>
-    <hyperlink ref="H122" r:id="rId47" display="https://i.postimg.cc/6q7xdNjB/Premier-Tissue-Box-4x100s.jpg"/>
-    <hyperlink ref="H19" r:id="rId48" display="https://i.postimg.cc/76WpPWxd/Darlie-175g.jpg"/>
-    <hyperlink ref="H134" r:id="rId49" display="https://i.postimg.cc/kDrzKRRy/SOFTLAN-1-6-FLORAL-FANTASY.jpg"/>
-    <hyperlink ref="H133" r:id="rId50" display="https://i.postimg.cc/fW3b7403/SCOTT-EXTRA-BT-REGULAR.png"/>
-    <hyperlink ref="H96" r:id="rId51" display="https://i.postimg.cc/dQzV4W85/Mr-Muscle-Floor-Cleaner-1-L.jpg"/>
-    <hyperlink ref="H42" r:id="rId52" display="https://i.postimg.cc/MpYZZqgL/DYNAMO-REFILL-1-44-KG.jpg"/>
-    <hyperlink ref="H17" r:id="rId53" display="https://i.postimg.cc/YSqrhTHC/COLGATE-ZIG-ZAG-CHARCOAL.jpg"/>
-    <hyperlink ref="H120" r:id="rId54" display="https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp"/>
-    <hyperlink ref="H94" r:id="rId55" display="https://i.postimg.cc/yxwxRjTr/MR-MUSLE-TOILET-BOWL-CLEANER-MARINE.jpg"/>
-    <hyperlink ref="H95" r:id="rId54" display="https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp"/>
-    <hyperlink ref="H93" r:id="rId56" display="https://i.postimg.cc/h4wfN4qb/MR-MUSLE-TOILET-BOWL-CLEANER-CITRUS.jpg"/>
-    <hyperlink ref="H121" r:id="rId57" display="https://i.postimg.cc/cL7CKQtX/Premier-Tissue-90s-x-5.jpg"/>
-    <hyperlink ref="H61" r:id="rId58" display="https://i.postimg.cc/GtshbY1P/Glade-Scent-Gel-Twin-Pack-Lemon.webp"/>
-    <hyperlink ref="H85" r:id="rId59" display="https://i.postimg.cc/90J55QDP/Montigo-ACE-WATER-BOTTLE-32-OZ-DARK-TEAL.webp"/>
-    <hyperlink ref="H86" r:id="rId60" display="https://i.postimg.cc/gk2by87g/Montigo-ACE-WATER-BOTTLE-32-OZ-STONE-GREY.webp"/>
-    <hyperlink ref="H2" r:id="rId61" display="https://images2.imgbox.com/b8/58/kejuAf3M_o.jpg"/>
-    <hyperlink ref="H3" r:id="rId62" display="https://down-my.img.susercontent.com/file/7879923c53b4f9d1e9190b9a9f25e37f"/>
+    <hyperlink ref="H127" r:id="rId17" display="https://cutt.cx/wghz"/>
+    <hyperlink ref="H9" r:id="rId18" display="https://cutt.cx/gaE"/>
+    <hyperlink ref="H10" r:id="rId19" display="https://cutt.cx/dsIs7"/>
+    <hyperlink ref="H146" r:id="rId20" display="https://cutt.cx/rdF"/>
+    <hyperlink ref="H4" r:id="rId21" display="https://i.ibb.co/F82DCWK/New-Project-2.png"/>
+    <hyperlink ref="H12" r:id="rId22" display="https://i.postimg.cc/5ySm0HJG/Watermark.jpg"/>
+    <hyperlink ref="H45" r:id="rId23" display="https://i.postimg.cc/tgLT12CZ/bb1f697dcc5270c0556c893dc8b6a064.jpg"/>
+    <hyperlink ref="H46" r:id="rId24" display="https://i.postimg.cc/DzbfKLd2/20220120-192454.png"/>
+    <hyperlink ref="H131" r:id="rId25" display="https://i.postimg.cc/T1TTmS8w/Samsung-162912926-sg-music-frame-hw-ls60d-hw-ls60d-xs-540309625-Download-Source-zoom.webp"/>
+    <hyperlink ref="H104" r:id="rId26" display="https://i.postimg.cc/jSBKvCVB/DLAR15-DWM-T1-1000x1000.jpg"/>
+    <hyperlink ref="H65" r:id="rId27" display="https://i.postimg.cc/qRxTkLtd/HW9.jpg"/>
+    <hyperlink ref="H71" r:id="rId28" display="https://i.postimg.cc/SRZb9x7T/HW9PRO.jpg"/>
+    <hyperlink ref="H84" r:id="rId29" display="https://i.postimg.cc/m2Dss7B0/MFG150-M0-APB.jpg"/>
+    <hyperlink ref="H67" r:id="rId30" display="https://i.postimg.cc/2SLNqmqG/BX6.jpg"/>
+    <hyperlink ref="H68" r:id="rId31" display="https://i.postimg.cc/ZqJHGxhN/F6.png"/>
+    <hyperlink ref="H116" r:id="rId32" display="https://i.postimg.cc/X7FT3Lt1/HD3008.webp"/>
+    <hyperlink ref="H50" r:id="rId33" display="https://i.postimg.cc/2yWXkj9L/FMC1508-WH.jpg"/>
+    <hyperlink ref="H137" r:id="rId34" display="https://i.postimg.cc/7ZwQ4k3b/SVMISVZ4.jpg"/>
+    <hyperlink ref="H139" r:id="rId35" display="https://i.postimg.cc/kXdTNmhw/SVPSRBS9.jpg"/>
+    <hyperlink ref="H150" r:id="rId36" display="https://i.postimg.cc/8cwfrM02/TACTWP05-BLK.jpg"/>
+    <hyperlink ref="H60" r:id="rId37" display="https://i.postimg.cc/q7fqq17t/GLADE-SCENT-GEL-TWINPACK-LAVENDAR.jpg"/>
+    <hyperlink ref="H16" r:id="rId38" display="https://i.postimg.cc/jjz57yWM/COLGATE-TWINPACK-GREAT-RE-FLAVOUR.jpg"/>
+    <hyperlink ref="H53" r:id="rId39" display="https://i.postimg.cc/FRpHPmVc/FEBREEZE-370-ML-ANTI-BACTERIA.jpg"/>
+    <hyperlink ref="H64" r:id="rId40" display="https://i.postimg.cc/0jN2F3V4/HOMESOY-SOYA-MILK-1-L-DRINK.webp"/>
+    <hyperlink ref="H124" r:id="rId41" display="https://i.postimg.cc/rsYFkJbw/Ribena-Blackcurrant-300ml.jpg"/>
+    <hyperlink ref="H63" r:id="rId42" display="https://i.postimg.cc/yxWsvRd4/GLO-LIME-800-ML.webp"/>
+    <hyperlink ref="H62" r:id="rId43" display="https://i.postimg.cc/BbysyvL8/GLo-800-ML-Lemon.webp"/>
+    <hyperlink ref="H18" r:id="rId44" display="https://i.postimg.cc/bNDqn1W1/COLGATE-ZIG-ZAG-TOOTHBRUSH-5-S.jpg"/>
+    <hyperlink ref="H132" r:id="rId45" display="https://i.postimg.cc/4d2T7318/Scotch-Brite-4-1-kitchen-sponge.jpg"/>
+    <hyperlink ref="H122" r:id="rId46" display="https://i.postimg.cc/6q7xdNjB/Premier-Tissue-Box-4x100s.jpg"/>
+    <hyperlink ref="H19" r:id="rId47" display="https://i.postimg.cc/76WpPWxd/Darlie-175g.jpg"/>
+    <hyperlink ref="H134" r:id="rId48" display="https://i.postimg.cc/kDrzKRRy/SOFTLAN-1-6-FLORAL-FANTASY.jpg"/>
+    <hyperlink ref="H133" r:id="rId49" display="https://i.postimg.cc/fW3b7403/SCOTT-EXTRA-BT-REGULAR.png"/>
+    <hyperlink ref="H96" r:id="rId50" display="https://i.postimg.cc/dQzV4W85/Mr-Muscle-Floor-Cleaner-1-L.jpg"/>
+    <hyperlink ref="H42" r:id="rId51" display="https://i.postimg.cc/MpYZZqgL/DYNAMO-REFILL-1-44-KG.jpg"/>
+    <hyperlink ref="H17" r:id="rId52" display="https://i.postimg.cc/YSqrhTHC/COLGATE-ZIG-ZAG-CHARCOAL.jpg"/>
+    <hyperlink ref="H120" r:id="rId53" display="https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp"/>
+    <hyperlink ref="H94" r:id="rId54" display="https://i.postimg.cc/yxwxRjTr/MR-MUSLE-TOILET-BOWL-CLEANER-MARINE.jpg"/>
+    <hyperlink ref="H95" r:id="rId53" display="https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp"/>
+    <hyperlink ref="H93" r:id="rId55" display="https://i.postimg.cc/h4wfN4qb/MR-MUSLE-TOILET-BOWL-CLEANER-CITRUS.jpg"/>
+    <hyperlink ref="H121" r:id="rId56" display="https://i.postimg.cc/cL7CKQtX/Premier-Tissue-90s-x-5.jpg"/>
+    <hyperlink ref="H61" r:id="rId57" display="https://i.postimg.cc/GtshbY1P/Glade-Scent-Gel-Twin-Pack-Lemon.webp"/>
+    <hyperlink ref="H85" r:id="rId58" display="https://i.postimg.cc/90J55QDP/Montigo-ACE-WATER-BOTTLE-32-OZ-DARK-TEAL.webp"/>
+    <hyperlink ref="H86" r:id="rId59" display="https://i.postimg.cc/gk2by87g/Montigo-ACE-WATER-BOTTLE-32-OZ-STONE-GREY.webp"/>
+    <hyperlink ref="H2" r:id="rId60" display="https://images2.imgbox.com/b8/58/kejuAf3M_o.jpg"/>
+    <hyperlink ref="H3" r:id="rId61" display="https://down-my.img.susercontent.com/file/7879923c53b4f9d1e9190b9a9f25e37f"/>
+    <hyperlink ref="H55" r:id="rId62" display="http://www.feliztrip.com/images_new/TR-606-P35/02.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -530,7 +530,7 @@
     <t>FELIZTRIP TR-606-P35 TRAVEL ADAPTOR. 2x USB C and 2X USB A Fast Charging PD 35W</t>
   </si>
   <si>
-    <t>http://www.feliztrip.com/images_new/TR-606-P35/02.jpg</t>
+    <t>https://i.ibb.co/XxjQdHzN/02.jpg</t>
   </si>
   <si>
     <t>SCF-100.CAS3478</t>
@@ -1346,7 +1346,7 @@
     <t>THULE TACT WAISTPACK 5L-BLACK</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/8cwfrM02/TACTWP05-BLK.jpg</t>
+    <t>https://i.ibb.co/DDc4t8YB/thule-3737-9426082-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -2707,8 +2707,8 @@
   <sheetPr/>
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I133" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2719,7 +2719,7 @@
     <col min="5" max="5" width="5.85185185185185" customWidth="1"/>
     <col min="6" max="6" width="14.5740740740741" customWidth="1"/>
     <col min="7" max="7" width="46.712962962963" customWidth="1"/>
-    <col min="8" max="8" width="20.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="255.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
@@ -6807,34 +6807,34 @@
     <hyperlink ref="H50" r:id="rId33" display="https://i.postimg.cc/2yWXkj9L/FMC1508-WH.jpg"/>
     <hyperlink ref="H137" r:id="rId34" display="https://i.postimg.cc/7ZwQ4k3b/SVMISVZ4.jpg"/>
     <hyperlink ref="H139" r:id="rId35" display="https://i.postimg.cc/kXdTNmhw/SVPSRBS9.jpg"/>
-    <hyperlink ref="H150" r:id="rId36" display="https://i.postimg.cc/8cwfrM02/TACTWP05-BLK.jpg"/>
-    <hyperlink ref="H60" r:id="rId37" display="https://i.postimg.cc/q7fqq17t/GLADE-SCENT-GEL-TWINPACK-LAVENDAR.jpg"/>
-    <hyperlink ref="H16" r:id="rId38" display="https://i.postimg.cc/jjz57yWM/COLGATE-TWINPACK-GREAT-RE-FLAVOUR.jpg"/>
-    <hyperlink ref="H53" r:id="rId39" display="https://i.postimg.cc/FRpHPmVc/FEBREEZE-370-ML-ANTI-BACTERIA.jpg"/>
-    <hyperlink ref="H64" r:id="rId40" display="https://i.postimg.cc/0jN2F3V4/HOMESOY-SOYA-MILK-1-L-DRINK.webp"/>
-    <hyperlink ref="H124" r:id="rId41" display="https://i.postimg.cc/rsYFkJbw/Ribena-Blackcurrant-300ml.jpg"/>
-    <hyperlink ref="H63" r:id="rId42" display="https://i.postimg.cc/yxWsvRd4/GLO-LIME-800-ML.webp"/>
-    <hyperlink ref="H62" r:id="rId43" display="https://i.postimg.cc/BbysyvL8/GLo-800-ML-Lemon.webp"/>
-    <hyperlink ref="H18" r:id="rId44" display="https://i.postimg.cc/bNDqn1W1/COLGATE-ZIG-ZAG-TOOTHBRUSH-5-S.jpg"/>
-    <hyperlink ref="H132" r:id="rId45" display="https://i.postimg.cc/4d2T7318/Scotch-Brite-4-1-kitchen-sponge.jpg"/>
-    <hyperlink ref="H122" r:id="rId46" display="https://i.postimg.cc/6q7xdNjB/Premier-Tissue-Box-4x100s.jpg"/>
-    <hyperlink ref="H19" r:id="rId47" display="https://i.postimg.cc/76WpPWxd/Darlie-175g.jpg"/>
-    <hyperlink ref="H134" r:id="rId48" display="https://i.postimg.cc/kDrzKRRy/SOFTLAN-1-6-FLORAL-FANTASY.jpg"/>
-    <hyperlink ref="H133" r:id="rId49" display="https://i.postimg.cc/fW3b7403/SCOTT-EXTRA-BT-REGULAR.png"/>
-    <hyperlink ref="H96" r:id="rId50" display="https://i.postimg.cc/dQzV4W85/Mr-Muscle-Floor-Cleaner-1-L.jpg"/>
-    <hyperlink ref="H42" r:id="rId51" display="https://i.postimg.cc/MpYZZqgL/DYNAMO-REFILL-1-44-KG.jpg"/>
-    <hyperlink ref="H17" r:id="rId52" display="https://i.postimg.cc/YSqrhTHC/COLGATE-ZIG-ZAG-CHARCOAL.jpg"/>
-    <hyperlink ref="H120" r:id="rId53" display="https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp"/>
-    <hyperlink ref="H94" r:id="rId54" display="https://i.postimg.cc/yxwxRjTr/MR-MUSLE-TOILET-BOWL-CLEANER-MARINE.jpg"/>
-    <hyperlink ref="H95" r:id="rId53" display="https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp"/>
-    <hyperlink ref="H93" r:id="rId55" display="https://i.postimg.cc/h4wfN4qb/MR-MUSLE-TOILET-BOWL-CLEANER-CITRUS.jpg"/>
-    <hyperlink ref="H121" r:id="rId56" display="https://i.postimg.cc/cL7CKQtX/Premier-Tissue-90s-x-5.jpg"/>
-    <hyperlink ref="H61" r:id="rId57" display="https://i.postimg.cc/GtshbY1P/Glade-Scent-Gel-Twin-Pack-Lemon.webp"/>
-    <hyperlink ref="H85" r:id="rId58" display="https://i.postimg.cc/90J55QDP/Montigo-ACE-WATER-BOTTLE-32-OZ-DARK-TEAL.webp"/>
-    <hyperlink ref="H86" r:id="rId59" display="https://i.postimg.cc/gk2by87g/Montigo-ACE-WATER-BOTTLE-32-OZ-STONE-GREY.webp"/>
-    <hyperlink ref="H2" r:id="rId60" display="https://images2.imgbox.com/b8/58/kejuAf3M_o.jpg"/>
-    <hyperlink ref="H3" r:id="rId61" display="https://down-my.img.susercontent.com/file/7879923c53b4f9d1e9190b9a9f25e37f"/>
-    <hyperlink ref="H55" r:id="rId62" display="http://www.feliztrip.com/images_new/TR-606-P35/02.jpg"/>
+    <hyperlink ref="H60" r:id="rId36" display="https://i.postimg.cc/q7fqq17t/GLADE-SCENT-GEL-TWINPACK-LAVENDAR.jpg"/>
+    <hyperlink ref="H16" r:id="rId37" display="https://i.postimg.cc/jjz57yWM/COLGATE-TWINPACK-GREAT-RE-FLAVOUR.jpg"/>
+    <hyperlink ref="H53" r:id="rId38" display="https://i.postimg.cc/FRpHPmVc/FEBREEZE-370-ML-ANTI-BACTERIA.jpg"/>
+    <hyperlink ref="H64" r:id="rId39" display="https://i.postimg.cc/0jN2F3V4/HOMESOY-SOYA-MILK-1-L-DRINK.webp"/>
+    <hyperlink ref="H124" r:id="rId40" display="https://i.postimg.cc/rsYFkJbw/Ribena-Blackcurrant-300ml.jpg"/>
+    <hyperlink ref="H63" r:id="rId41" display="https://i.postimg.cc/yxWsvRd4/GLO-LIME-800-ML.webp"/>
+    <hyperlink ref="H62" r:id="rId42" display="https://i.postimg.cc/BbysyvL8/GLo-800-ML-Lemon.webp"/>
+    <hyperlink ref="H18" r:id="rId43" display="https://i.postimg.cc/bNDqn1W1/COLGATE-ZIG-ZAG-TOOTHBRUSH-5-S.jpg"/>
+    <hyperlink ref="H132" r:id="rId44" display="https://i.postimg.cc/4d2T7318/Scotch-Brite-4-1-kitchen-sponge.jpg"/>
+    <hyperlink ref="H122" r:id="rId45" display="https://i.postimg.cc/6q7xdNjB/Premier-Tissue-Box-4x100s.jpg"/>
+    <hyperlink ref="H19" r:id="rId46" display="https://i.postimg.cc/76WpPWxd/Darlie-175g.jpg"/>
+    <hyperlink ref="H134" r:id="rId47" display="https://i.postimg.cc/kDrzKRRy/SOFTLAN-1-6-FLORAL-FANTASY.jpg"/>
+    <hyperlink ref="H133" r:id="rId48" display="https://i.postimg.cc/fW3b7403/SCOTT-EXTRA-BT-REGULAR.png"/>
+    <hyperlink ref="H96" r:id="rId49" display="https://i.postimg.cc/dQzV4W85/Mr-Muscle-Floor-Cleaner-1-L.jpg"/>
+    <hyperlink ref="H42" r:id="rId50" display="https://i.postimg.cc/MpYZZqgL/DYNAMO-REFILL-1-44-KG.jpg"/>
+    <hyperlink ref="H17" r:id="rId51" display="https://i.postimg.cc/YSqrhTHC/COLGATE-ZIG-ZAG-CHARCOAL.jpg"/>
+    <hyperlink ref="H120" r:id="rId52" display="https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp"/>
+    <hyperlink ref="H94" r:id="rId53" display="https://i.postimg.cc/yxwxRjTr/MR-MUSLE-TOILET-BOWL-CLEANER-MARINE.jpg"/>
+    <hyperlink ref="H95" r:id="rId52" display="https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp"/>
+    <hyperlink ref="H93" r:id="rId54" display="https://i.postimg.cc/h4wfN4qb/MR-MUSLE-TOILET-BOWL-CLEANER-CITRUS.jpg"/>
+    <hyperlink ref="H121" r:id="rId55" display="https://i.postimg.cc/cL7CKQtX/Premier-Tissue-90s-x-5.jpg"/>
+    <hyperlink ref="H61" r:id="rId56" display="https://i.postimg.cc/GtshbY1P/Glade-Scent-Gel-Twin-Pack-Lemon.webp"/>
+    <hyperlink ref="H85" r:id="rId57" display="https://i.postimg.cc/90J55QDP/Montigo-ACE-WATER-BOTTLE-32-OZ-DARK-TEAL.webp"/>
+    <hyperlink ref="H86" r:id="rId58" display="https://i.postimg.cc/gk2by87g/Montigo-ACE-WATER-BOTTLE-32-OZ-STONE-GREY.webp"/>
+    <hyperlink ref="H2" r:id="rId59" display="https://images2.imgbox.com/b8/58/kejuAf3M_o.jpg"/>
+    <hyperlink ref="H3" r:id="rId60" display="https://down-my.img.susercontent.com/file/7879923c53b4f9d1e9190b9a9f25e37f"/>
+    <hyperlink ref="H55" r:id="rId61" display="https://i.ibb.co/XxjQdHzN/02.jpg"/>
+    <hyperlink ref="H150" r:id="rId62" display="https://i.ibb.co/DDc4t8YB/thule-3737-9426082-2.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -86,7 +86,7 @@
     <t>SCF-100.PRO8340</t>
   </si>
   <si>
-    <t>Astonish6 IN 1 ASTONISH BODY &amp; SOUL MINI SHOWER GEL GIFT PACK</t>
+    <t>Astonish 6in1 ASTONISH BODY &amp; SOUL MINI SHOWER GEL GIFT PACK</t>
   </si>
   <si>
     <t>https://images2.imgbox.com/69/d6/5zKLMbKT_o.jpeg</t>
@@ -95,7 +95,7 @@
     <t>SCF-SCRC-BASKIN.KING</t>
   </si>
   <si>
-    <t>Baskin Robbin Single King Scoop</t>
+    <t>BaskinRobbin Single King Scoop</t>
   </si>
   <si>
     <t>https://my-test-11.slatic.net/p/37f6b90429bbba17b8bf6b2ba48a17d5.jpg</t>
@@ -104,7 +104,7 @@
     <t>SCF-SCRC-BASKIN.R</t>
   </si>
   <si>
-    <t>Baskin Robbin Single Regular Scoop</t>
+    <t>BaskinRobbin Single Regular Scoop</t>
   </si>
   <si>
     <t>untill 25.05.2025</t>
@@ -155,7 +155,7 @@
     <t>SCF-100.ETX9807</t>
   </si>
   <si>
-    <t>Cento 2 Way Heavy Cable Reel W/Sirim 7 Meter</t>
+    <t>Cento 2 Way Heavy Cable Reel 7m</t>
   </si>
   <si>
     <t>https://i.postimg.cc/5ySm0HJG/Watermark.jpg</t>
@@ -182,7 +182,7 @@
     <t>SCF-100.ECOGS231REC</t>
   </si>
   <si>
-    <t>Cento Ecocen ECOCEN GLASS STORAGE</t>
+    <t>Cento Ecocen GLASS STORAGE</t>
   </si>
   <si>
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/750/1075088/447x447/15072024_1075088$Imagex1.jpg</t>
@@ -527,7 +527,7 @@
     <t>SCF-100.TR606P35</t>
   </si>
   <si>
-    <t>FELIZTRIP TR-606-P35 TRAVEL ADAPTOR. 2x USB C and 2X USB A Fast Charging PD 35W</t>
+    <t>FELIZTRIP TRAVEL ADAPTOR. 2x USB C and 2X USB A Fast Charging PD 35W</t>
   </si>
   <si>
     <t>https://i.ibb.co/XxjQdHzN/02.jpg</t>
@@ -575,7 +575,7 @@
     <t>SCF-100.GLADELEMON_T/P_MD</t>
   </si>
   <si>
-    <t>Glade Scent Gel TwinPack Lemon</t>
+    <t>GLADE Scent Gel TwinPack Lemon</t>
   </si>
   <si>
     <t>https://i.postimg.cc/GtshbY1P/Glade-Scent-Gel-Twin-Pack-Lemon.webp</t>
@@ -584,7 +584,7 @@
     <t>SCF-100.GLO800ML_LEMON</t>
   </si>
   <si>
-    <t>GLo 800ML Lemon</t>
+    <t>GLO 800ML Lemon</t>
   </si>
   <si>
     <t>https://i.postimg.cc/BbysyvL8/GLo-800-ML-Lemon.webp</t>
@@ -620,7 +620,7 @@
     <t>SCF-100.WB55</t>
   </si>
   <si>
-    <t>Jimmy DUST MITE KILLER</t>
+    <t>JIMMY DUST MITE KILLER</t>
   </si>
   <si>
     <t>https://my-test-11.slatic.net/p/da6fd0b03ae17c92defdd2e9c1b76ca9.jpg</t>
@@ -647,7 +647,7 @@
     <t>SCF-100.VACUUMSTAND</t>
   </si>
   <si>
-    <t>Jimmy VACUUM STAND</t>
+    <t>JIMMY VACUUM STAND</t>
   </si>
   <si>
     <t>https://airbot.sg/cdn/shop/products/blackvacuumstadnnobg.png?v=1656041196</t>
@@ -689,7 +689,7 @@
     <t>SCF-100.BLC129</t>
   </si>
   <si>
-    <t>Khind500W FOOD PROCESSOR</t>
+    <t>Khind 500W FOOD PROCESSOR</t>
   </si>
   <si>
     <t>https://www.khind.com.my/image/cache/data/theme/products/image/product/Small%20Appliances/Kitchen%20Helpers/multi%20blender%20chopper/BLC129_KOL_wholeset-600x600_0.jpg</t>
@@ -698,7 +698,7 @@
     <t>SCF-100.CF683DC</t>
   </si>
   <si>
-    <t>KhindCEILING FAN</t>
+    <t>Khind CEILING FAN</t>
   </si>
   <si>
     <t>https://images2.imgbox.com/23/6d/M58Xi7Vz_o.jpeg</t>
@@ -707,7 +707,7 @@
     <t>SCF-100.FPC900</t>
   </si>
   <si>
-    <t>KhindCHOPPER</t>
+    <t>Khind CHOPPER</t>
   </si>
   <si>
     <t>https://www.khind.com.my/image/cache/data/theme/products/image/product/Small%20Appliances/Kitchen%20Helpers/Food%20Chopper/FPC900_cover_KOL_WH-500x500_0.jpg</t>
@@ -845,7 +845,7 @@
     <t>SCF-100.MRMUSLE_CITRUS</t>
   </si>
   <si>
-    <t>MR MUSLE TOILET BOWL CLEANER - CITRUS</t>
+    <t>Mr.Muscle TOILET BOWL CLEANER - CITRUS</t>
   </si>
   <si>
     <t>https://i.postimg.cc/h4wfN4qb/MR-MUSLE-TOILET-BOWL-CLEANER-CITRUS.jpg</t>
@@ -854,7 +854,7 @@
     <t>SCF-100.MRMUSLE_MAR</t>
   </si>
   <si>
-    <t>MR MUSLE TOILET BOWL CLEANER - MARINE</t>
+    <t>Mr.Muscle TOILET BOWL CLEANER - MARINE</t>
   </si>
   <si>
     <t>https://i.postimg.cc/yxwxRjTr/MR-MUSLE-TOILET-BOWL-CLEANER-MARINE.jpg</t>
@@ -863,7 +863,7 @@
     <t>SCF-100.MRMUSLE_PINE</t>
   </si>
   <si>
-    <t>MR MUSLE TOILET BOWL CLEANER - PINE</t>
+    <t>Mr.Muscle TOILET BOWL CLEANER - PINE</t>
   </si>
   <si>
     <t>https://i.postimg.cc/vmM1XPwJ/MR-MUSLE-PINE.webp</t>
@@ -1016,7 +1016,7 @@
     <t>SCF-100.HD3064/62</t>
   </si>
   <si>
-    <t>Philips 0.54Lit RICE COOKER</t>
+    <t>Philips 0.54L RICE COOKER</t>
   </si>
   <si>
     <t>https://www.snfonline.com.my/cdn/shop/files/p2eYaWLp6537463d033e6_1698121277_800x.jpg?v=1708412069</t>
@@ -1139,7 +1139,7 @@
     <t>SCF-100.T3</t>
   </si>
   <si>
-    <t>Russell Taylors Digital Bread Toaster</t>
+    <t>RussellTaylors Digital Bread Toaster</t>
   </si>
   <si>
     <t>Extended till 31.01.2025 for Clear Stock</t>
@@ -1151,7 +1151,7 @@
     <t>SCF-100.SAFE95587</t>
   </si>
   <si>
-    <t>SAFE Apple iPhone 2023 6.1" Pro UWF</t>
+    <t>PanzerGlass SAFE Apple iPhone 2023 6.1" Pro UWF</t>
   </si>
   <si>
     <t>https://panzerglass.com/cdn/shop/products/safe95149_02.jpg?v=1671635681&amp;width=1770&amp;crop=center</t>
@@ -1160,7 +1160,7 @@
     <t>SCF-100.SAFE95589</t>
   </si>
   <si>
-    <t>SAFE Apple iPhone 2023 6.7" Pro UWF</t>
+    <t>PanzerGlass SAFE Apple iPhone 2023 6.7" Pro UWF</t>
   </si>
   <si>
     <t>https://panzerglass.com/cdn/shop/products/safe95537_02.jpg?v=1696512985</t>
@@ -2707,8 +2707,8 @@
   <sheetPr/>
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I133" sqref="I$1:I$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="487">
   <si>
     <t>SCF</t>
   </si>
@@ -1052,7 +1052,10 @@
     <t>PANASONIC</t>
   </si>
   <si>
-    <t>BIDET</t>
+    <t>Hygienic EzyClean DL-AR15DWM – D-Shape</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png</t>
   </si>
   <si>
     <t>SCF-100.1137</t>
@@ -1109,12 +1112,18 @@
     <t>HAIR STYLER</t>
   </si>
   <si>
+    <t>https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250</t>
+  </si>
+  <si>
     <t>SCF-100.HD3008</t>
   </si>
   <si>
     <t>1.8L Rice Cooker</t>
   </si>
   <si>
+    <t>https://images.philips.com/is/image/philipsconsumer/vrs_355f9354f057212fc1d06226af17d2a2a8d537ee?$pnglarge$&amp;wid=1250</t>
+  </si>
+  <si>
     <t>SCF-100.PRMTISSUE4x100s</t>
   </si>
   <si>
@@ -1124,18 +1133,27 @@
     <t>Premier Tissue Box 4x100s</t>
   </si>
   <si>
+    <t>https://vfa.bites.com.my/cdn/shop/products/1646831305870_4035.png?v=1692943552</t>
+  </si>
+  <si>
     <t>SCF-100.PREMIER.PTMD</t>
   </si>
   <si>
     <t>PREMIER POCKET TISSUE</t>
   </si>
   <si>
+    <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.PRMBOX5x90_MD</t>
   </si>
   <si>
     <t>Premier Tissue 90s x 5</t>
   </si>
   <si>
+    <t>https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png</t>
+  </si>
+  <si>
     <t>SCF-100.RH188</t>
   </si>
   <si>
@@ -1145,6 +1163,9 @@
     <t>WATER HEATER</t>
   </si>
   <si>
+    <t>https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
+  </si>
+  <si>
     <t>SCF-100.RIBENA300MD</t>
   </si>
   <si>
@@ -1154,6 +1175,9 @@
     <t>Ribena Blackcurrant (300ml)</t>
   </si>
   <si>
+    <t>https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.MAGSPEED10PRO</t>
   </si>
   <si>
@@ -1163,18 +1187,27 @@
     <t>MagSpeed 10 Pro 10W Wireless Charge</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/my-11134207-7rasg-m0scjdos7o63b4</t>
+  </si>
+  <si>
     <t>SCF-100.KUB-G100</t>
   </si>
   <si>
     <t>Riversong PowerKub G100</t>
   </si>
   <si>
+    <t>https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2403/08/products/PowerKubG100-8a18.png?x-oss-process=image/format,webp/quality,q_100</t>
+  </si>
+  <si>
     <t>SCF-100.MAGNANO05</t>
   </si>
   <si>
     <t>Magnano 05 - Magnetic Wireless Power Bank 5000mAh (Purple/Gray)</t>
   </si>
   <si>
+    <t>https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png?x-oss-process=image/format,webp/quality,q_100</t>
+  </si>
+  <si>
     <t>SCF-100.HWLS60D</t>
   </si>
   <si>
@@ -1184,6 +1217,9 @@
     <t>DOLBY ATMOS MUSIC FRAME</t>
   </si>
   <si>
+    <t>https://shop.tbm.com.my/cdn/shop/files/samsung-smart-speaker-hw-ls60dxm-tbm-online-802131.jpg?v=1721415920&amp;width=1080</t>
+  </si>
+  <si>
     <t>SCF-100.SB5+1MD</t>
   </si>
   <si>
@@ -1193,6 +1229,9 @@
     <t>Scotch Brite 4+1 kitchen sponge</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/df9c6d70e531e7b383831cd716853b4b</t>
+  </si>
+  <si>
     <t>SCF-100.SCOTT_EXTRA</t>
   </si>
   <si>
@@ -1202,6 +1241,9 @@
     <t>SCOTT EXTRA BT REGULAR</t>
   </si>
   <si>
+    <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png</t>
+  </si>
+  <si>
     <t>SCF-100.COVID19.BOOK</t>
   </si>
   <si>
@@ -1217,6 +1259,9 @@
     <t>SH CORPORATE CULTURE CHINESE</t>
   </si>
   <si>
+    <t>https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/3/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.C.CULTURE/E</t>
   </si>
   <si>
@@ -1229,30 +1274,45 @@
     <t>DIGITAL JOURNEY CHINESE BOOK</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/9ab5613a755966c2f6e4d02054c433fa.webp</t>
+  </si>
+  <si>
     <t>SCF-100.DIGITAL.JOURNEY</t>
   </si>
   <si>
     <t>DIGITAL JOURNEY BOOK</t>
   </si>
   <si>
+    <t>https://mphonline.com/cdn/shop/products/9789671883105_grande.jpg?v=1614918070</t>
+  </si>
+  <si>
     <t>SCF-100.NEWRETAIL.BOOK</t>
   </si>
   <si>
     <t>SENHENG NEW RETAIL BOOK</t>
   </si>
   <si>
+    <t>https://book.goldenhouse.com.my/wp-content/uploads/2023/03/9789674192761-820x820.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.NEWRETAIL.ENG</t>
   </si>
   <si>
     <t>NEW RETAIL BOOK ENGLISH</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/a96998fb0a4852458f3f0586a26879e6.webp</t>
+  </si>
+  <si>
     <t>SCF-100.DZG</t>
   </si>
   <si>
     <t>DI ZI GUI BOOK</t>
   </si>
   <si>
+    <t>https://is3-ssl.mzstatic.com/image/thumb/Purple71/v4/34/4a/d5/344ad58a-eeea-89da-b5f9-4045ad64afc2/source/512x512bb.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.SOFTLAN1.6L_FLO</t>
   </si>
   <si>
@@ -1262,6 +1322,9 @@
     <t>SOFTLAN 1.6 FLORAL FANTASY</t>
   </si>
   <si>
+    <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/111177_04122023160642-550x550.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.WFC510</t>
   </si>
   <si>
@@ -1271,39 +1334,66 @@
     <t>Sony Wireless Earbuds</t>
   </si>
   <si>
+    <t>https://store.sony.com.my/cdn/shop/files/Black_3_1200x.png?v=1725875367</t>
+  </si>
+  <si>
     <t>SCF-100.WHCH520</t>
   </si>
   <si>
     <t>Sony Wireless Headphones</t>
   </si>
   <si>
+    <t>https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha</t>
+  </si>
+  <si>
     <t>SCF-100.MINISTYLER(BK)</t>
   </si>
   <si>
     <t>STRYV</t>
   </si>
   <si>
+    <t>stryv MiniStyler [black]</t>
+  </si>
+  <si>
+    <t>https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770</t>
+  </si>
+  <si>
     <t>SCF-100.PROSTYLER</t>
   </si>
   <si>
+    <t>stryv pro styler</t>
+  </si>
+  <si>
+    <t>https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987</t>
+  </si>
+  <si>
     <t>SCF-100.SVMISVZ4</t>
   </si>
   <si>
     <t>Mini Shaver</t>
   </si>
   <si>
+    <t>https://medias.watsons.com.my/publishing/WTCMY-1006572-back-thumbnail.jpg?version=1734763174</t>
+  </si>
+  <si>
     <t>SCF-100.SVMSBDO2</t>
   </si>
   <si>
     <t>Multishave Trimmer</t>
   </si>
   <si>
+    <t>https://stryv.my/cdn/shop/files/product_img_4_104ca71a-a713-4ef8-a6e1-4051b2333717.jpg?v=1704944460</t>
+  </si>
+  <si>
     <t>SCF-100.SVPSRBS9</t>
   </si>
   <si>
     <t>SHAVER</t>
   </si>
   <si>
+    <t>https://www.gaincity.com/media/catalog/product/cache/6c6c50d4c233a553cee4f0d7353c6a74/t/0/t0193461-svpsrbs9-01.png</t>
+  </si>
+  <si>
     <t>SCF-100.G143S4</t>
   </si>
   <si>
@@ -1313,6 +1403,9 @@
     <t>Cookware DBD 4pc Set</t>
   </si>
   <si>
+    <t>https://cdn.homepro.com.my/ART_IMAGE/10/632/1063236/447x447/05082022_1063236$Imagex1.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.S6</t>
   </si>
   <si>
@@ -1322,39 +1415,69 @@
     <t>ROBOTIC WITH MOP</t>
   </si>
   <si>
+    <t>https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.AF74CS1TRMY(H)</t>
   </si>
   <si>
+    <t>TOSHIBA</t>
+  </si>
+  <si>
     <t>7.4L Digital Air Fryer</t>
   </si>
   <si>
+    <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/air-fryer/-af-74cs1trmy(h)---7-4l-digital-air-fryer/AF-74CS1TRMY-H-FrontLeft.png/jcr:content/renditions/cq5dam.compression.png</t>
+  </si>
+  <si>
     <t>SCF-100.BL70PR2NMY</t>
   </si>
   <si>
     <t>2.0L Plastic Jug Blender with Grinder</t>
   </si>
   <si>
+    <t>https://cdn1.npcdn.net/images/3a143ca14f81879847ea675d0bf01893_1718007770.webp?md5id=a6cff0397725a493ba4047565693f84a&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1717063294&amp;from=png&amp;type=1</t>
+  </si>
+  <si>
     <t>SCF-100.FSYA10(G)MY</t>
   </si>
   <si>
+    <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/air-treatment/fan/16-inch-stand-fan-f-sya10-g-my/gallery2.png/jcr:content/renditions/cq5dam.compression.png</t>
+  </si>
+  <si>
     <t>SCF-100.FTSA20(G)MY</t>
   </si>
   <si>
+    <t>16" TABLE FAN</t>
+  </si>
+  <si>
+    <t>https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001</t>
+  </si>
+  <si>
     <t>SCF-100.RC18DR1NMY</t>
   </si>
   <si>
     <t>1.8L DIGITAL RICE COOKER</t>
   </si>
   <si>
+    <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/1-8l-digital-rice-cooker-rc-18dr1nmy/gallery2.png</t>
+  </si>
+  <si>
     <t>SCF-100.A1</t>
   </si>
   <si>
     <t>ROBOTIC VACUUM</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.X500PRO</t>
   </si>
   <si>
+    <t>https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg</t>
+  </si>
+  <si>
     <t>SCF-TACTWP05/BLK</t>
   </si>
   <si>
@@ -1362,6 +1485,9 @@
   </si>
   <si>
     <t>THULE TACT WAISTPACK 5L-BLACK</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/612whrpX5FL._AC_UF1000,1000_QL80_.jpg</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,12 +1792,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1751,12 +1871,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,78 +2138,78 @@
     <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2184,6 +2298,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2728,8 +2845,8 @@
   <sheetPr/>
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -2741,7 +2858,7 @@
     <col min="6" max="6" width="5.85185185185185" customWidth="1"/>
     <col min="7" max="7" width="14.5740740740741" customWidth="1"/>
     <col min="8" max="8" width="46.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="107.888888888889" customWidth="1"/>
+    <col min="9" max="9" width="255.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:9">
@@ -2793,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="8">
-        <f>E2*100</f>
+        <f t="shared" ref="G2:G65" si="0">E2*100</f>
         <v>27900</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="30" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2823,13 +2940,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <f>E3*100</f>
+        <f t="shared" si="0"/>
         <v>2790</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2853,17 +2970,17 @@
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f>E4*100</f>
+        <f t="shared" si="0"/>
         <v>2790</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:8">
+    <row r="5" ht="15.6" spans="1:9">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -2883,12 +3000,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <f>E5*100</f>
+        <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" ht="15.6" spans="1:9">
       <c r="A6" s="10" t="s">
@@ -2910,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f>E6*100</f>
+        <f t="shared" si="0"/>
         <v>2300</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2940,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f>E7*100</f>
+        <f t="shared" si="0"/>
         <v>9700</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="30" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2970,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <f>E8*100</f>
+        <f t="shared" si="0"/>
         <v>36900</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3000,13 +3118,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="8">
-        <f>E9*100</f>
+        <f t="shared" si="0"/>
         <v>36900</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3030,13 +3148,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <f>E10*100</f>
+        <f t="shared" si="0"/>
         <v>28900</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3060,13 +3178,13 @@
         <v>41</v>
       </c>
       <c r="G11" s="8">
-        <f>E11*100</f>
+        <f t="shared" si="0"/>
         <v>14500</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3090,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <f>E12*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3120,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <f>E13*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3150,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <f>E14*100</f>
+        <f t="shared" si="0"/>
         <v>34900</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3180,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <f>E15*100</f>
+        <f t="shared" si="0"/>
         <v>34900</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3210,13 +3328,13 @@
         <v>41</v>
       </c>
       <c r="G16" s="8">
-        <f>E16*100</f>
+        <f t="shared" si="0"/>
         <v>55900</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="30" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3240,13 +3358,13 @@
         <v>41</v>
       </c>
       <c r="G17" s="8">
-        <f>E17*100</f>
+        <f t="shared" si="0"/>
         <v>55900</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3270,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="8">
-        <f>E18*100</f>
+        <f t="shared" si="0"/>
         <v>49900</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="30" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3300,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f>E19*100</f>
+        <f t="shared" si="0"/>
         <v>49900</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3330,13 +3448,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <f>E20*100</f>
+        <f t="shared" si="0"/>
         <v>79900</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3360,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f>E21*100</f>
+        <f t="shared" si="0"/>
         <v>79900</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3390,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="8">
-        <f>E22*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="30" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3420,13 +3538,13 @@
         <v>12</v>
       </c>
       <c r="G23" s="8">
-        <f>E23*100</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="30" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3450,13 +3568,13 @@
         <v>13</v>
       </c>
       <c r="G24" s="8">
-        <f>E24*100</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="30" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3480,13 +3598,13 @@
         <v>14</v>
       </c>
       <c r="G25" s="8">
-        <f>E25*100</f>
+        <f t="shared" si="0"/>
         <v>3900</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="30" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3510,13 +3628,13 @@
         <v>15</v>
       </c>
       <c r="G26" s="8">
-        <f>E26*100</f>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="30" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3540,13 +3658,13 @@
         <v>16</v>
       </c>
       <c r="G27" s="8">
-        <f>E27*100</f>
+        <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="30" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3570,13 +3688,13 @@
         <v>17</v>
       </c>
       <c r="G28" s="8">
-        <f>E28*100</f>
+        <f t="shared" si="0"/>
         <v>7900</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="30" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3600,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="8">
-        <f>E29*100</f>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3630,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="8">
-        <f>E30*100</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="30" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3660,13 +3778,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f>E31*100</f>
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="30" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3690,13 +3808,13 @@
         <v>41</v>
       </c>
       <c r="G32" s="8">
-        <f>E32*100</f>
+        <f t="shared" si="0"/>
         <v>9300</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="30" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3720,13 +3838,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="8">
-        <f>E33*100</f>
+        <f t="shared" si="0"/>
         <v>1690</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="30" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3750,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="8">
-        <f>E34*100</f>
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3780,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f>E35*100</f>
+        <f t="shared" si="0"/>
         <v>1550</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="30" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3810,13 +3928,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="8">
-        <f>E36*100</f>
+        <f t="shared" si="0"/>
         <v>47900</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="30" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3840,17 +3958,17 @@
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f>E37*100</f>
+        <f t="shared" si="0"/>
         <v>990</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:8">
+    <row r="38" ht="15.6" spans="1:9">
       <c r="A38" s="3" t="s">
         <v>121</v>
       </c>
@@ -3870,14 +3988,15 @@
         <v>0</v>
       </c>
       <c r="G38" s="8">
-        <f>E38*100</f>
+        <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" ht="15.6" spans="1:8">
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" ht="15.6" spans="1:9">
       <c r="A39" s="3" t="s">
         <v>124</v>
       </c>
@@ -3897,14 +4016,15 @@
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <f>E39*100</f>
+        <f t="shared" si="0"/>
         <v>31900</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" ht="15.6" spans="1:8">
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" ht="15.6" spans="1:9">
       <c r="A40" s="3" t="s">
         <v>126</v>
       </c>
@@ -3924,14 +4044,15 @@
         <v>0</v>
       </c>
       <c r="G40" s="8">
-        <f>E40*100</f>
+        <f t="shared" si="0"/>
         <v>31900</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" ht="15.6" spans="1:8">
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" ht="15.6" spans="1:9">
       <c r="A41" s="22" t="s">
         <v>128</v>
       </c>
@@ -3951,14 +4072,15 @@
         <v>0</v>
       </c>
       <c r="G41" s="8">
-        <f>E41*100</f>
+        <f t="shared" si="0"/>
         <v>17900</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" ht="15.6" spans="1:8">
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" ht="15.6" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>130</v>
       </c>
@@ -3978,14 +4100,15 @@
         <v>0</v>
       </c>
       <c r="G42" s="8">
-        <f>E42*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" ht="15.6" spans="1:8">
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" ht="15.6" spans="1:9">
       <c r="A43" s="3" t="s">
         <v>132</v>
       </c>
@@ -4005,14 +4128,15 @@
         <v>0</v>
       </c>
       <c r="G43" s="8">
-        <f>E43*100</f>
+        <f t="shared" si="0"/>
         <v>21900</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" ht="15.6" spans="1:8">
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" ht="15.6" spans="1:9">
       <c r="A44" s="3" t="s">
         <v>134</v>
       </c>
@@ -4032,14 +4156,15 @@
         <v>0</v>
       </c>
       <c r="G44" s="8">
-        <f>E44*100</f>
+        <f t="shared" si="0"/>
         <v>14900</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" ht="15.6" spans="1:8">
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" ht="15.6" spans="1:9">
       <c r="A45" s="18" t="s">
         <v>136</v>
       </c>
@@ -4059,14 +4184,15 @@
         <v>0</v>
       </c>
       <c r="G45" s="8">
-        <f>E45*100</f>
+        <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" ht="15.6" spans="1:8">
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" ht="15.6" spans="1:9">
       <c r="A46" s="10" t="s">
         <v>138</v>
       </c>
@@ -4086,14 +4212,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="8">
-        <f>E46*100</f>
+        <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" ht="15.6" spans="1:8">
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" ht="15.6" spans="1:9">
       <c r="A47" s="10" t="s">
         <v>140</v>
       </c>
@@ -4113,14 +4240,15 @@
         <v>0</v>
       </c>
       <c r="G47" s="8">
-        <f>E47*100</f>
+        <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" ht="15.6" spans="1:8">
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" ht="15.6" spans="1:9">
       <c r="A48" s="18" t="s">
         <v>142</v>
       </c>
@@ -4140,14 +4268,15 @@
         <v>0</v>
       </c>
       <c r="G48" s="8">
-        <f>E48*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" ht="15.6" spans="1:8">
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" ht="15.6" spans="1:9">
       <c r="A49" s="18" t="s">
         <v>144</v>
       </c>
@@ -4167,14 +4296,15 @@
         <v>0</v>
       </c>
       <c r="G49" s="8">
-        <f>E49*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" ht="15.6" spans="1:8">
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" ht="15.6" spans="1:9">
       <c r="A50" s="10" t="s">
         <v>146</v>
       </c>
@@ -4194,14 +4324,15 @@
         <v>0</v>
       </c>
       <c r="G50" s="8">
-        <f>E50*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" ht="15.6" spans="1:8">
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" ht="15.6" spans="1:9">
       <c r="A51" s="10" t="s">
         <v>147</v>
       </c>
@@ -4221,14 +4352,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="8">
-        <f>E51*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" ht="15.6" spans="1:8">
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" ht="15.6" spans="1:9">
       <c r="A52" s="18" t="s">
         <v>149</v>
       </c>
@@ -4248,14 +4380,15 @@
         <v>0</v>
       </c>
       <c r="G52" s="8">
-        <f>E52*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" ht="15.6" spans="1:8">
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" ht="15.6" spans="1:9">
       <c r="A53" s="10" t="s">
         <v>150</v>
       </c>
@@ -4275,14 +4408,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="8">
-        <f>E53*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" ht="15.6" spans="1:8">
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" ht="15.6" spans="1:9">
       <c r="A54" s="18" t="s">
         <v>152</v>
       </c>
@@ -4302,14 +4436,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="8">
-        <f>E54*100</f>
+        <f t="shared" si="0"/>
         <v>23900</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" ht="15.6" spans="1:8">
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" ht="15.6" spans="1:9">
       <c r="A55" s="18" t="s">
         <v>154</v>
       </c>
@@ -4329,14 +4464,15 @@
         <v>0</v>
       </c>
       <c r="G55" s="8">
-        <f>E55*100</f>
+        <f t="shared" si="0"/>
         <v>23900</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" ht="15.6" spans="1:8">
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" ht="15.6" spans="1:9">
       <c r="A56" s="18" t="s">
         <v>155</v>
       </c>
@@ -4356,14 +4492,15 @@
         <v>0</v>
       </c>
       <c r="G56" s="8">
-        <f>E56*100</f>
+        <f t="shared" si="0"/>
         <v>23900</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" ht="15.6" spans="1:8">
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" ht="15.6" spans="1:9">
       <c r="A57" s="24" t="s">
         <v>156</v>
       </c>
@@ -4383,14 +4520,15 @@
         <v>0</v>
       </c>
       <c r="G57" s="8">
-        <f>E57*100</f>
+        <f t="shared" si="0"/>
         <v>25900</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" ht="15.6" spans="1:8">
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" ht="15.6" spans="1:9">
       <c r="A58" s="18" t="s">
         <v>158</v>
       </c>
@@ -4410,14 +4548,15 @@
         <v>41</v>
       </c>
       <c r="G58" s="8">
-        <f>E58*100</f>
+        <f t="shared" si="0"/>
         <v>14900</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" ht="15.6" spans="1:8">
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" ht="15.6" spans="1:9">
       <c r="A59" s="18" t="s">
         <v>160</v>
       </c>
@@ -4437,14 +4576,15 @@
         <v>41</v>
       </c>
       <c r="G59" s="8">
-        <f>E59*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" ht="15.6" spans="1:8">
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" ht="15.6" spans="1:9">
       <c r="A60" s="18" t="s">
         <v>162</v>
       </c>
@@ -4464,14 +4604,15 @@
         <v>41</v>
       </c>
       <c r="G60" s="8">
-        <f>E60*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" ht="15.6" spans="1:8">
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" ht="15.6" spans="1:9">
       <c r="A61" s="18" t="s">
         <v>164</v>
       </c>
@@ -4491,14 +4632,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="8">
-        <f>E61*100</f>
+        <f t="shared" si="0"/>
         <v>15900</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" ht="15.6" spans="1:8">
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" ht="15.6" spans="1:9">
       <c r="A62" s="25" t="s">
         <v>166</v>
       </c>
@@ -4518,12 +4660,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="8">
-        <f>E62*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" ht="15.6" spans="1:9">
       <c r="A63" s="10" t="s">
@@ -4545,13 +4688,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="8">
-        <f>E63*100</f>
+        <f t="shared" si="0"/>
         <v>31900</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="30" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4575,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="8">
-        <f>E64*100</f>
+        <f t="shared" si="0"/>
         <v>49900</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="30" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4605,13 +4748,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="8">
-        <f>E65*100</f>
+        <f t="shared" si="0"/>
         <v>1850</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="30" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4635,17 +4778,17 @@
         <v>0</v>
       </c>
       <c r="G66" s="8">
-        <f>E66*100</f>
+        <f t="shared" ref="G66:G129" si="1">E66*100</f>
         <v>27900</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:8">
+    <row r="67" ht="15.6" spans="1:9">
       <c r="A67" s="18" t="s">
         <v>182</v>
       </c>
@@ -4665,14 +4808,15 @@
         <v>41</v>
       </c>
       <c r="G67" s="8">
-        <f>E67*100</f>
+        <f t="shared" si="1"/>
         <v>3900</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" ht="15.6" spans="1:8">
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" ht="15.6" spans="1:9">
       <c r="A68" s="18" t="s">
         <v>185</v>
       </c>
@@ -4692,14 +4836,15 @@
         <v>41</v>
       </c>
       <c r="G68" s="8">
-        <f>E68*100</f>
+        <f t="shared" si="1"/>
         <v>4900</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" ht="15.6" spans="1:8">
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" ht="15.6" spans="1:9">
       <c r="A69" s="18" t="s">
         <v>186</v>
       </c>
@@ -4719,14 +4864,15 @@
         <v>41</v>
       </c>
       <c r="G69" s="8">
-        <f>E69*100</f>
+        <f t="shared" si="1"/>
         <v>2900</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" ht="15.6" spans="1:8">
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" ht="15.6" spans="1:9">
       <c r="A70" s="10" t="s">
         <v>188</v>
       </c>
@@ -4746,14 +4892,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="8">
-        <f>E70*100</f>
+        <f t="shared" si="1"/>
         <v>2490</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" ht="15.6" spans="1:8">
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" ht="15.6" spans="1:9">
       <c r="A71" s="10" t="s">
         <v>190</v>
       </c>
@@ -4773,12 +4920,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="8">
-        <f>E71*100</f>
+        <f t="shared" si="1"/>
         <v>2090</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="I71" s="30"/>
     </row>
     <row r="72" ht="15.6" spans="1:9">
       <c r="A72" s="3" t="s">
@@ -4800,13 +4948,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="8">
-        <f>E72*100</f>
+        <f t="shared" si="1"/>
         <v>11500</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="30" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4830,13 +4978,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="8">
-        <f>E73*100</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="30" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4860,13 +5008,13 @@
         <v>41</v>
       </c>
       <c r="G74" s="8">
-        <f>E74*100</f>
+        <f t="shared" si="1"/>
         <v>11500</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="30" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4890,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="8">
-        <f>E75*100</f>
+        <f t="shared" si="1"/>
         <v>1190</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="30" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4920,13 +5068,13 @@
         <v>41</v>
       </c>
       <c r="G76" s="8">
-        <f>E76*100</f>
+        <f t="shared" si="1"/>
         <v>12900</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="30" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4950,17 +5098,17 @@
         <v>41</v>
       </c>
       <c r="G77" s="8">
-        <f>E77*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="30" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="78" ht="15.6" spans="1:8">
+    <row r="78" ht="15.6" spans="1:9">
       <c r="A78" s="18" t="s">
         <v>213</v>
       </c>
@@ -4980,14 +5128,15 @@
         <v>41</v>
       </c>
       <c r="G78" s="8">
-        <f>E78*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" ht="15.6" spans="1:8">
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" ht="15.6" spans="1:9">
       <c r="A79" s="18" t="s">
         <v>216</v>
       </c>
@@ -5007,14 +5156,15 @@
         <v>41</v>
       </c>
       <c r="G79" s="8">
-        <f>E79*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" ht="15.6" spans="1:8">
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" ht="15.6" spans="1:9">
       <c r="A80" s="18" t="s">
         <v>218</v>
       </c>
@@ -5034,14 +5184,15 @@
         <v>41</v>
       </c>
       <c r="G80" s="8">
-        <f>E80*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" ht="15.6" spans="1:8">
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" ht="15.6" spans="1:9">
       <c r="A81" s="18" t="s">
         <v>220</v>
       </c>
@@ -5061,12 +5212,13 @@
         <v>41</v>
       </c>
       <c r="G81" s="8">
-        <f>E81*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" ht="15.6" spans="1:9">
       <c r="A82" s="18" t="s">
@@ -5088,13 +5240,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="8">
-        <f>E82*100</f>
+        <f t="shared" si="1"/>
         <v>1850</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="30" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5118,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="8">
-        <f>E83*100</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="30" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5148,13 +5300,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="8">
-        <f>E84*100</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="H84" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="30" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5178,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="8">
-        <f>E85*100</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="30" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5208,13 +5360,13 @@
         <v>0</v>
       </c>
       <c r="G86" s="8">
-        <f>E86*100</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="30" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5238,13 +5390,13 @@
         <v>0</v>
       </c>
       <c r="G87" s="8">
-        <f>E87*100</f>
+        <f t="shared" si="1"/>
         <v>76900</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="30" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5268,13 +5420,13 @@
         <v>41</v>
       </c>
       <c r="G88" s="8">
-        <f>E88*100</f>
+        <f t="shared" si="1"/>
         <v>59900</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="30" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5298,13 +5450,13 @@
         <v>41</v>
       </c>
       <c r="G89" s="8">
-        <f>E89*100</f>
+        <f t="shared" si="1"/>
         <v>59900</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="30" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5328,13 +5480,13 @@
         <v>41</v>
       </c>
       <c r="G90" s="8">
-        <f>E90*100</f>
+        <f t="shared" si="1"/>
         <v>119900</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="30" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5358,17 +5510,17 @@
         <v>41</v>
       </c>
       <c r="G91" s="8">
-        <f>E91*100</f>
+        <f t="shared" si="1"/>
         <v>169900</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="30" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="92" ht="15.6" spans="1:8">
+    <row r="92" ht="15.6" spans="1:9">
       <c r="A92" s="18" t="s">
         <v>255</v>
       </c>
@@ -5388,14 +5540,15 @@
         <v>41</v>
       </c>
       <c r="G92" s="8">
-        <f>E92*100</f>
+        <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H92" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" ht="15.6" spans="1:8">
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" ht="15.6" spans="1:9">
       <c r="A93" s="18" t="s">
         <v>257</v>
       </c>
@@ -5415,14 +5568,15 @@
         <v>41</v>
       </c>
       <c r="G93" s="8">
-        <f>E93*100</f>
+        <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H93" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" ht="15.6" spans="1:8">
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" ht="15.6" spans="1:9">
       <c r="A94" s="10" t="s">
         <v>259</v>
       </c>
@@ -5442,15 +5596,16 @@
         <v>0</v>
       </c>
       <c r="G94" s="8">
-        <f>E94*100</f>
+        <f t="shared" si="1"/>
         <v>10900</v>
       </c>
       <c r="H94" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" ht="15.6" spans="1:8">
-      <c r="A95" s="30" t="s">
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" ht="15.6" spans="1:9">
+      <c r="A95" s="31" t="s">
         <v>262</v>
       </c>
       <c r="B95" s="14" t="s">
@@ -5469,14 +5624,15 @@
         <v>41</v>
       </c>
       <c r="G95" s="8">
-        <f>E95*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H95" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" ht="15.6" spans="1:8">
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" ht="15.6" spans="1:9">
       <c r="A96" s="3" t="s">
         <v>264</v>
       </c>
@@ -5496,14 +5652,15 @@
         <v>0</v>
       </c>
       <c r="G96" s="8">
-        <f>E96*100</f>
+        <f t="shared" si="1"/>
         <v>16900</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" ht="15.6" spans="1:8">
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" ht="15.6" spans="1:9">
       <c r="A97" s="3" t="s">
         <v>267</v>
       </c>
@@ -5523,14 +5680,15 @@
         <v>0</v>
       </c>
       <c r="G97" s="8">
-        <f>E97*100</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" ht="15.6" spans="1:8">
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" ht="15.6" spans="1:9">
       <c r="A98" s="3" t="s">
         <v>269</v>
       </c>
@@ -5550,14 +5708,15 @@
         <v>0</v>
       </c>
       <c r="G98" s="8">
-        <f>E98*100</f>
+        <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" ht="15.6" spans="1:8">
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" ht="15.6" spans="1:9">
       <c r="A99" s="3" t="s">
         <v>271</v>
       </c>
@@ -5577,12 +5736,13 @@
         <v>0</v>
       </c>
       <c r="G99" s="8">
-        <f>E99*100</f>
+        <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="I99" s="30"/>
     </row>
     <row r="100" ht="15.6" spans="1:9">
       <c r="A100" s="3" t="s">
@@ -5604,17 +5764,17 @@
         <v>0</v>
       </c>
       <c r="G100" s="8">
-        <f>E100*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="30" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="101" ht="15.6" spans="1:8">
+    <row r="101" ht="15.6" spans="1:9">
       <c r="A101" s="3" t="s">
         <v>276</v>
       </c>
@@ -5634,14 +5794,15 @@
         <v>0</v>
       </c>
       <c r="G101" s="8">
-        <f>E101*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" ht="15.6" spans="1:8">
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" ht="15.6" spans="1:9">
       <c r="A102" s="3" t="s">
         <v>278</v>
       </c>
@@ -5661,14 +5822,15 @@
         <v>0</v>
       </c>
       <c r="G102" s="8">
-        <f>E102*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" ht="15.6" spans="1:8">
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" ht="15.6" spans="1:9">
       <c r="A103" s="3" t="s">
         <v>280</v>
       </c>
@@ -5688,14 +5850,15 @@
         <v>0</v>
       </c>
       <c r="G103" s="8">
-        <f>E103*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" ht="15.6" spans="1:8">
+      <c r="I103" s="30"/>
+    </row>
+    <row r="104" ht="15.6" spans="1:9">
       <c r="A104" s="3" t="s">
         <v>282</v>
       </c>
@@ -5715,14 +5878,15 @@
         <v>0</v>
       </c>
       <c r="G104" s="8">
-        <f>E104*100</f>
+        <f t="shared" si="1"/>
         <v>17700</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" ht="15.6" spans="1:8">
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" ht="15.6" spans="1:9">
       <c r="A105" s="10" t="s">
         <v>285</v>
       </c>
@@ -5742,14 +5906,15 @@
         <v>0</v>
       </c>
       <c r="G105" s="8">
-        <f>E105*100</f>
+        <f t="shared" si="1"/>
         <v>32900</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" ht="15.6" spans="1:8">
+      <c r="I105" s="30"/>
+    </row>
+    <row r="106" ht="15.6" spans="1:9">
       <c r="A106" s="10" t="s">
         <v>288</v>
       </c>
@@ -5769,14 +5934,15 @@
         <v>0</v>
       </c>
       <c r="G106" s="8">
-        <f>E106*100</f>
+        <f t="shared" si="1"/>
         <v>45900</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" ht="15.6" spans="1:8">
+      <c r="I106" s="30"/>
+    </row>
+    <row r="107" ht="15.6" spans="1:9">
       <c r="A107" s="18" t="s">
         <v>290</v>
       </c>
@@ -5796,14 +5962,15 @@
         <v>0</v>
       </c>
       <c r="G107" s="8">
-        <f>E107*100</f>
+        <f t="shared" si="1"/>
         <v>45900</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" ht="15.6" spans="1:8">
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" ht="15.6" spans="1:9">
       <c r="A108" s="10" t="s">
         <v>292</v>
       </c>
@@ -5823,14 +5990,15 @@
         <v>0</v>
       </c>
       <c r="G108" s="8">
-        <f>E108*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" ht="15.6" spans="1:8">
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" ht="15.6" spans="1:9">
       <c r="A109" s="3" t="s">
         <v>295</v>
       </c>
@@ -5850,14 +6018,15 @@
         <v>0</v>
       </c>
       <c r="G109" s="8">
-        <f>E109*100</f>
+        <f t="shared" si="1"/>
         <v>20900</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" ht="15.6" spans="1:8">
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" ht="15.6" spans="1:9">
       <c r="A110" s="18" t="s">
         <v>298</v>
       </c>
@@ -5877,14 +6046,15 @@
         <v>41</v>
       </c>
       <c r="G110" s="8">
-        <f>E110*100</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
       <c r="H110" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" ht="15.6" spans="1:8">
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" ht="15.6" spans="1:9">
       <c r="A111" s="18" t="s">
         <v>300</v>
       </c>
@@ -5904,14 +6074,15 @@
         <v>41</v>
       </c>
       <c r="G111" s="8">
-        <f>E111*100</f>
+        <f t="shared" si="1"/>
         <v>10900</v>
       </c>
       <c r="H111" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" ht="15.6" spans="1:8">
+      <c r="I111" s="30"/>
+    </row>
+    <row r="112" ht="15.6" spans="1:9">
       <c r="A112" s="3" t="s">
         <v>302</v>
       </c>
@@ -5931,14 +6102,15 @@
         <v>0</v>
       </c>
       <c r="G112" s="8">
-        <f>E112*100</f>
+        <f t="shared" si="1"/>
         <v>10500</v>
       </c>
       <c r="H112" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" ht="15.6" spans="1:8">
+      <c r="I112" s="30"/>
+    </row>
+    <row r="113" ht="15.6" spans="1:9">
       <c r="A113" s="18" t="s">
         <v>305</v>
       </c>
@@ -5958,14 +6130,15 @@
         <v>0</v>
       </c>
       <c r="G113" s="8">
-        <f>E113*100</f>
+        <f t="shared" si="1"/>
         <v>8400</v>
       </c>
       <c r="H113" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" ht="15.6" spans="1:8">
+      <c r="I113" s="30"/>
+    </row>
+    <row r="114" ht="15.6" spans="1:9">
       <c r="A114" s="18" t="s">
         <v>307</v>
       </c>
@@ -5985,14 +6158,15 @@
         <v>0</v>
       </c>
       <c r="G114" s="8">
-        <f>E114*100</f>
+        <f t="shared" si="1"/>
         <v>8400</v>
       </c>
       <c r="H114" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" ht="15.6" spans="1:8">
+      <c r="I114" s="30"/>
+    </row>
+    <row r="115" ht="15.6" spans="1:9">
       <c r="A115" s="18" t="s">
         <v>309</v>
       </c>
@@ -6012,14 +6186,15 @@
         <v>0</v>
       </c>
       <c r="G115" s="8">
-        <f>E115*100</f>
+        <f t="shared" si="1"/>
         <v>8400</v>
       </c>
       <c r="H115" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" ht="15.6" spans="1:8">
+      <c r="I115" s="30"/>
+    </row>
+    <row r="116" ht="15.6" spans="1:9">
       <c r="A116" s="10" t="s">
         <v>311</v>
       </c>
@@ -6032,21 +6207,22 @@
       <c r="D116" s="13">
         <v>106</v>
       </c>
-      <c r="E116" s="31">
+      <c r="E116" s="32">
         <v>104</v>
       </c>
       <c r="F116" s="7">
         <v>0</v>
       </c>
       <c r="G116" s="8">
-        <f>E116*100</f>
+        <f t="shared" si="1"/>
         <v>10400</v>
       </c>
       <c r="H116" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="117" ht="15.6" spans="1:8">
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" ht="15.6" spans="1:9">
       <c r="A117" s="18" t="s">
         <v>313</v>
       </c>
@@ -6066,14 +6242,15 @@
         <v>0</v>
       </c>
       <c r="G117" s="8">
-        <f>E117*100</f>
+        <f t="shared" si="1"/>
         <v>860</v>
       </c>
       <c r="H117" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" ht="15.6" spans="1:8">
+      <c r="I117" s="30"/>
+    </row>
+    <row r="118" ht="15.6" spans="1:9">
       <c r="A118" s="18" t="s">
         <v>316</v>
       </c>
@@ -6093,14 +6270,15 @@
         <v>0</v>
       </c>
       <c r="G118" s="8">
-        <f>E118*100</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="H118" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="119" ht="15.6" spans="1:8">
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" ht="15.6" spans="1:9">
       <c r="A119" s="18" t="s">
         <v>318</v>
       </c>
@@ -6120,14 +6298,15 @@
         <v>0</v>
       </c>
       <c r="G119" s="8">
-        <f>E119*100</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" ht="15.6" spans="1:8">
+      <c r="I119" s="30"/>
+    </row>
+    <row r="120" ht="15.6" spans="1:9">
       <c r="A120" s="18" t="s">
         <v>320</v>
       </c>
@@ -6147,14 +6326,15 @@
         <v>0</v>
       </c>
       <c r="G120" s="8">
-        <f>E120*100</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" ht="15.6" spans="1:8">
+      <c r="I120" s="30"/>
+    </row>
+    <row r="121" ht="15.6" spans="1:9">
       <c r="A121" s="18" t="s">
         <v>322</v>
       </c>
@@ -6174,14 +6354,15 @@
         <v>0</v>
       </c>
       <c r="G121" s="8">
-        <f>E121*100</f>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="H121" s="14" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="122" ht="15.6" spans="1:8">
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" ht="15.6" spans="1:9">
       <c r="A122" s="18" t="s">
         <v>326</v>
       </c>
@@ -6194,21 +6375,22 @@
       <c r="D122" s="13">
         <v>69</v>
       </c>
-      <c r="E122" s="31">
+      <c r="E122" s="32">
         <v>69</v>
       </c>
       <c r="F122" s="7">
         <v>0</v>
       </c>
       <c r="G122" s="8">
-        <f>E122*100</f>
+        <f t="shared" si="1"/>
         <v>6900</v>
       </c>
       <c r="H122" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" ht="15.6" spans="1:8">
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" ht="15.6" spans="1:9">
       <c r="A123" s="18" t="s">
         <v>329</v>
       </c>
@@ -6221,21 +6403,22 @@
       <c r="D123" s="13">
         <v>69</v>
       </c>
-      <c r="E123" s="31">
+      <c r="E123" s="32">
         <v>69</v>
       </c>
       <c r="F123" s="7">
         <v>0</v>
       </c>
       <c r="G123" s="8">
-        <f>E123*100</f>
+        <f t="shared" si="1"/>
         <v>6900</v>
       </c>
       <c r="H123" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" ht="15.6" spans="1:8">
+      <c r="I123" s="30"/>
+    </row>
+    <row r="124" ht="15.6" spans="1:9">
       <c r="A124" s="18" t="s">
         <v>331</v>
       </c>
@@ -6248,21 +6431,22 @@
       <c r="D124" s="13">
         <v>69</v>
       </c>
-      <c r="E124" s="31">
+      <c r="E124" s="32">
         <v>69</v>
       </c>
       <c r="F124" s="7">
         <v>0</v>
       </c>
       <c r="G124" s="8">
-        <f>E124*100</f>
+        <f t="shared" si="1"/>
         <v>6900</v>
       </c>
       <c r="H124" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" ht="15.6" spans="1:8">
+      <c r="I124" s="30"/>
+    </row>
+    <row r="125" ht="15.6" spans="1:9">
       <c r="A125" s="18" t="s">
         <v>333</v>
       </c>
@@ -6282,14 +6466,15 @@
         <v>41</v>
       </c>
       <c r="G125" s="8">
-        <f>E125*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H125" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="126" ht="15.6" spans="1:8">
+      <c r="I125" s="30"/>
+    </row>
+    <row r="126" ht="15.6" spans="1:9">
       <c r="A126" s="18" t="s">
         <v>335</v>
       </c>
@@ -6309,14 +6494,15 @@
         <v>41</v>
       </c>
       <c r="G126" s="8">
-        <f>E126*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H126" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="127" ht="15.6" spans="1:8">
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" ht="15.6" spans="1:9">
       <c r="A127" s="18" t="s">
         <v>336</v>
       </c>
@@ -6336,14 +6522,15 @@
         <v>41</v>
       </c>
       <c r="G127" s="8">
-        <f>E127*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H127" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" ht="15.6" spans="1:8">
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" ht="15.6" spans="1:9">
       <c r="A128" s="18" t="s">
         <v>337</v>
       </c>
@@ -6363,14 +6550,15 @@
         <v>41</v>
       </c>
       <c r="G128" s="8">
-        <f>E128*100</f>
+        <f t="shared" si="1"/>
         <v>3990</v>
       </c>
       <c r="H128" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="129" ht="15.6" spans="1:8">
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" ht="15.6" spans="1:9">
       <c r="A129" s="18" t="s">
         <v>339</v>
       </c>
@@ -6390,22 +6578,25 @@
         <v>41</v>
       </c>
       <c r="G129" s="8">
-        <f>E129*100</f>
+        <f t="shared" si="1"/>
         <v>44900</v>
       </c>
       <c r="H129" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="130" ht="15.6" spans="1:8">
+      <c r="I129" s="30" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="130" ht="15.6" spans="1:9">
       <c r="A130" s="18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D130" s="13">
         <v>79</v>
@@ -6417,22 +6608,23 @@
         <v>41</v>
       </c>
       <c r="G130" s="8">
-        <f>E130*100</f>
+        <f t="shared" ref="G130:G175" si="2">E130*100</f>
         <v>7900</v>
       </c>
       <c r="H130" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="131" ht="15.6" spans="1:8">
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" ht="15.6" spans="1:9">
       <c r="A131" s="18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D131" s="13">
         <v>159</v>
@@ -6444,22 +6636,23 @@
         <v>41</v>
       </c>
       <c r="G131" s="8">
-        <f>E131*100</f>
+        <f t="shared" si="2"/>
         <v>15900</v>
       </c>
       <c r="H131" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" ht="15.6" spans="1:8">
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" ht="15.6" spans="1:9">
       <c r="A132" s="18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D132" s="13">
         <v>159</v>
@@ -6471,22 +6664,23 @@
         <v>41</v>
       </c>
       <c r="G132" s="8">
-        <f>E132*100</f>
+        <f t="shared" si="2"/>
         <v>15900</v>
       </c>
       <c r="H132" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" ht="15.6" spans="1:8">
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" ht="15.6" spans="1:9">
       <c r="A133" s="18" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D133" s="13">
         <v>159</v>
@@ -6498,22 +6692,23 @@
         <v>41</v>
       </c>
       <c r="G133" s="8">
-        <f>E133*100</f>
+        <f t="shared" si="2"/>
         <v>15900</v>
       </c>
       <c r="H133" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" ht="15.6" spans="1:8">
+      <c r="I133" s="30"/>
+    </row>
+    <row r="134" ht="15.6" spans="1:9">
       <c r="A134" s="18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D134" s="13">
         <v>159</v>
@@ -6525,22 +6720,23 @@
         <v>41</v>
       </c>
       <c r="G134" s="8">
-        <f>E134*100</f>
+        <f t="shared" si="2"/>
         <v>15900</v>
       </c>
       <c r="H134" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="135" ht="15.6" spans="1:8">
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" ht="15.6" spans="1:9">
       <c r="A135" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D135" s="13">
         <v>79</v>
@@ -6552,22 +6748,23 @@
         <v>41</v>
       </c>
       <c r="G135" s="8">
-        <f>E135*100</f>
+        <f t="shared" si="2"/>
         <v>7900</v>
       </c>
       <c r="H135" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="136" ht="15.6" spans="1:8">
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" ht="15.6" spans="1:9">
       <c r="A136" s="18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D136" s="13">
         <v>79</v>
@@ -6579,22 +6776,23 @@
         <v>41</v>
       </c>
       <c r="G136" s="8">
-        <f>E136*100</f>
+        <f t="shared" si="2"/>
         <v>7900</v>
       </c>
       <c r="H136" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" ht="15.6" spans="1:8">
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" ht="15.6" spans="1:9">
       <c r="A137" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D137" s="13">
         <v>289</v>
@@ -6606,22 +6804,25 @@
         <v>0</v>
       </c>
       <c r="G137" s="8">
-        <f>E137*100</f>
+        <f t="shared" si="2"/>
         <v>27900</v>
       </c>
       <c r="H137" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" ht="15.6" spans="1:8">
+      <c r="I137" s="30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" ht="15.6" spans="1:9">
       <c r="A138" s="18" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D138" s="6">
         <v>199</v>
@@ -6633,22 +6834,25 @@
         <v>41</v>
       </c>
       <c r="G138" s="8">
-        <f>E138*100</f>
+        <f t="shared" si="2"/>
         <v>16900</v>
       </c>
       <c r="H138" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="139" ht="15.6" spans="1:8">
+      <c r="I138" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" ht="15.6" spans="1:9">
       <c r="A139" s="18" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D139" s="6">
         <v>8.1</v>
@@ -6660,22 +6864,25 @@
         <v>0</v>
       </c>
       <c r="G139" s="8">
-        <f>E139*100</f>
+        <f t="shared" si="2"/>
         <v>810</v>
       </c>
       <c r="H139" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" ht="15.6" spans="1:8">
+      <c r="I139" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" ht="15.6" spans="1:9">
       <c r="A140" s="18" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D140" s="6">
         <v>3.3</v>
@@ -6687,22 +6894,25 @@
         <v>0</v>
       </c>
       <c r="G140" s="8">
-        <f>E140*100</f>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="H140" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" ht="15.6" spans="1:8">
+      <c r="I140" s="30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" ht="15.6" spans="1:9">
       <c r="A141" s="18" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D141" s="6">
         <v>11.5</v>
@@ -6714,22 +6924,25 @@
         <v>0</v>
       </c>
       <c r="G141" s="8">
-        <f>E141*100</f>
+        <f t="shared" si="2"/>
         <v>1150</v>
       </c>
       <c r="H141" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" ht="15.6" spans="1:8">
+      <c r="I141" s="30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="142" ht="15.6" spans="1:9">
       <c r="A142" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D142" s="6">
         <v>449</v>
@@ -6741,22 +6954,25 @@
         <v>0</v>
       </c>
       <c r="G142" s="8">
-        <f>E142*100</f>
+        <f t="shared" si="2"/>
         <v>39900</v>
       </c>
       <c r="H142" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="143" ht="15.6" spans="1:8">
+      <c r="I142" s="30" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="143" ht="15.6" spans="1:9">
       <c r="A143" s="18" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D143" s="6">
         <v>2.6</v>
@@ -6768,22 +6984,25 @@
         <v>0</v>
       </c>
       <c r="G143" s="8">
-        <f>E143*100</f>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="H143" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" ht="15.6" spans="1:8">
+      <c r="I143" s="30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="144" ht="15.6" spans="1:9">
       <c r="A144" s="10" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D144" s="13">
         <v>259</v>
@@ -6795,22 +7014,25 @@
         <v>0</v>
       </c>
       <c r="G144" s="8">
-        <f>E144*100</f>
+        <f t="shared" si="2"/>
         <v>25900</v>
       </c>
       <c r="H144" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" ht="15.6" spans="1:8">
+      <c r="I144" s="30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="145" ht="15.6" spans="1:9">
       <c r="A145" s="18" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D145" s="6">
         <v>269</v>
@@ -6822,22 +7044,25 @@
         <v>41</v>
       </c>
       <c r="G145" s="8">
-        <f>E145*100</f>
+        <f t="shared" si="2"/>
         <v>26900</v>
       </c>
       <c r="H145" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" ht="15.6" spans="1:8">
+      <c r="I145" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" ht="15.6" spans="1:9">
       <c r="A146" s="18" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D146" s="6">
         <v>129</v>
@@ -6849,22 +7074,25 @@
         <v>41</v>
       </c>
       <c r="G146" s="8">
-        <f>E146*100</f>
+        <f t="shared" si="2"/>
         <v>12900</v>
       </c>
       <c r="H146" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" ht="15.6" spans="1:8">
+      <c r="I146" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="147" ht="15.6" spans="1:9">
       <c r="A147" s="18" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D147" s="6">
         <v>1999</v>
@@ -6876,22 +7104,25 @@
         <v>41</v>
       </c>
       <c r="G147" s="8">
-        <f>E147*100</f>
+        <f t="shared" si="2"/>
         <v>149900</v>
       </c>
       <c r="H147" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="148" ht="15.6" spans="1:8">
+      <c r="I147" s="30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="148" ht="15.6" spans="1:9">
       <c r="A148" s="18" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D148" s="6">
         <v>9.1</v>
@@ -6903,22 +7134,25 @@
         <v>0</v>
       </c>
       <c r="G148" s="8">
-        <f>E148*100</f>
+        <f t="shared" si="2"/>
         <v>910</v>
       </c>
       <c r="H148" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" ht="15.6" spans="1:8">
+      <c r="I148" s="30" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149" ht="15.6" spans="1:9">
       <c r="A149" s="18" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D149" s="6">
         <v>16.5</v>
@@ -6930,22 +7164,25 @@
         <v>0</v>
       </c>
       <c r="G149" s="8">
-        <f>E149*100</f>
+        <f t="shared" si="2"/>
         <v>1650</v>
       </c>
       <c r="H149" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" ht="15.6" spans="1:8">
+      <c r="I149" s="30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="150" ht="15.6" spans="1:9">
       <c r="A150" s="16" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D150" s="6">
         <v>18.9</v>
@@ -6957,22 +7194,23 @@
         <v>0</v>
       </c>
       <c r="G150" s="8">
-        <f>E150*100</f>
+        <f t="shared" si="2"/>
         <v>1890</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" ht="15.6" spans="1:8">
+      <c r="I150" s="30"/>
+    </row>
+    <row r="151" ht="15.6" spans="1:9">
       <c r="A151" s="16" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D151" s="6">
         <v>30</v>
@@ -6984,22 +7222,25 @@
         <v>0</v>
       </c>
       <c r="G151" s="8">
-        <f>E151*100</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" ht="15.6" spans="1:8">
+      <c r="I151" s="30" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="152" ht="15.6" spans="1:9">
       <c r="A152" s="16" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D152" s="6">
         <v>36</v>
@@ -7011,22 +7252,23 @@
         <v>0</v>
       </c>
       <c r="G152" s="8">
-        <f>E152*100</f>
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" ht="15.6" spans="1:8">
+      <c r="I152" s="30"/>
+    </row>
+    <row r="153" ht="15.6" spans="1:9">
       <c r="A153" s="16" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D153" s="6">
         <v>35</v>
@@ -7038,22 +7280,25 @@
         <v>0</v>
       </c>
       <c r="G153" s="8">
-        <f>E153*100</f>
+        <f t="shared" si="2"/>
         <v>3500</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" ht="15.6" spans="1:8">
+      <c r="I153" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="154" ht="15.6" spans="1:9">
       <c r="A154" s="16" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="D154" s="6">
         <v>35</v>
@@ -7065,22 +7310,25 @@
         <v>0</v>
       </c>
       <c r="G154" s="8">
-        <f>E154*100</f>
+        <f t="shared" si="2"/>
         <v>3500</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" ht="15.6" spans="1:8">
+      <c r="I154" s="30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="155" ht="15.6" spans="1:9">
       <c r="A155" s="16" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="D155" s="6">
         <v>40</v>
@@ -7092,22 +7340,25 @@
         <v>0</v>
       </c>
       <c r="G155" s="8">
-        <f>E155*100</f>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" ht="15.6" spans="1:8">
+      <c r="I155" s="30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="156" ht="15.6" spans="1:9">
       <c r="A156" s="16" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D156" s="6">
         <v>50</v>
@@ -7119,22 +7370,25 @@
         <v>0</v>
       </c>
       <c r="G156" s="8">
-        <f>E156*100</f>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="157" ht="15.6" spans="1:8">
+      <c r="I156" s="30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="157" ht="15.6" spans="1:9">
       <c r="A157" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="C157" s="17" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="D157" s="6">
         <v>15</v>
@@ -7146,22 +7400,25 @@
         <v>0</v>
       </c>
       <c r="G157" s="8">
-        <f>E157*100</f>
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="H157" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" ht="15.6" spans="1:8">
+      <c r="I157" s="30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" ht="15.6" spans="1:9">
       <c r="A158" s="18" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="D158" s="6">
         <v>7.9</v>
@@ -7173,22 +7430,25 @@
         <v>0</v>
       </c>
       <c r="G158" s="8">
-        <f>E158*100</f>
+        <f t="shared" si="2"/>
         <v>790</v>
       </c>
       <c r="H158" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="159" ht="15.6" spans="1:8">
+      <c r="I158" s="30" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="159" ht="15.6" spans="1:9">
       <c r="A159" s="18" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="D159" s="6">
         <v>299</v>
@@ -7200,22 +7460,25 @@
         <v>41</v>
       </c>
       <c r="G159" s="8">
-        <f>E159*100</f>
+        <f t="shared" si="2"/>
         <v>29900</v>
       </c>
       <c r="H159" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="160" ht="15.6" spans="1:8">
+      <c r="I159" s="30" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="160" ht="15.6" spans="1:9">
       <c r="A160" s="18" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D160" s="6">
         <v>229</v>
@@ -7227,21 +7490,26 @@
         <v>41</v>
       </c>
       <c r="G160" s="8">
-        <f>E160*100</f>
+        <f t="shared" si="2"/>
         <v>22900</v>
       </c>
       <c r="H160" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="161" ht="15.6" spans="1:8">
+      <c r="I160" s="30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="161" ht="15.6" spans="1:9">
       <c r="A161" s="3" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C161" s="5"/>
+        <v>440</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>441</v>
+      </c>
       <c r="D161" s="6">
         <v>309</v>
       </c>
@@ -7252,21 +7520,26 @@
         <v>0</v>
       </c>
       <c r="G161" s="8">
-        <f>E161*100</f>
+        <f t="shared" si="2"/>
         <v>29900</v>
       </c>
       <c r="H161" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="162" ht="15.6" spans="1:8">
+      <c r="I161" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="162" ht="15.6" spans="1:9">
       <c r="A162" s="3" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C162" s="5"/>
+        <v>440</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="D162" s="6">
         <v>339</v>
       </c>
@@ -7277,22 +7550,25 @@
         <v>0</v>
       </c>
       <c r="G162" s="8">
-        <f>E162*100</f>
+        <f t="shared" si="2"/>
         <v>32900</v>
       </c>
       <c r="H162" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="163" ht="15.6" spans="1:8">
+      <c r="I162" s="30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="163" ht="15.6" spans="1:9">
       <c r="A163" s="18" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="D163" s="6">
         <v>159</v>
@@ -7304,22 +7580,25 @@
         <v>41</v>
       </c>
       <c r="G163" s="8">
-        <f>E163*100</f>
+        <f t="shared" si="2"/>
         <v>15600</v>
       </c>
       <c r="H163" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="164" ht="15.6" spans="1:8">
+      <c r="I163" s="30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="164" ht="15.6" spans="1:9">
       <c r="A164" s="18" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="D164" s="6">
         <v>159</v>
@@ -7331,22 +7610,25 @@
         <v>41</v>
       </c>
       <c r="G164" s="8">
-        <f>E164*100</f>
+        <f t="shared" si="2"/>
         <v>15600</v>
       </c>
       <c r="H164" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" ht="15.6" spans="1:8">
+      <c r="I164" s="30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="165" ht="15.6" spans="1:9">
       <c r="A165" s="18" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="D165" s="6">
         <v>169</v>
@@ -7358,22 +7640,25 @@
         <v>41</v>
       </c>
       <c r="G165" s="8">
-        <f>E165*100</f>
+        <f t="shared" si="2"/>
         <v>16600</v>
       </c>
       <c r="H165" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="166" ht="15.6" spans="1:8">
+      <c r="I165" s="30" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="166" ht="15.6" spans="1:9">
       <c r="A166" s="3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="D166" s="6">
         <v>299</v>
@@ -7385,22 +7670,25 @@
         <v>0</v>
       </c>
       <c r="G166" s="8">
-        <f>E166*100</f>
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
       <c r="H166" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="167" ht="15.6" spans="1:8">
+      <c r="I166" s="30" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="167" ht="15.6" spans="1:9">
       <c r="A167" s="3" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="D167" s="6">
         <v>1899</v>
@@ -7412,22 +7700,25 @@
         <v>0</v>
       </c>
       <c r="G167" s="8">
-        <f>E167*100</f>
+        <f t="shared" si="2"/>
         <v>139900</v>
       </c>
       <c r="H167" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="168" ht="15.6" spans="1:8">
+      <c r="I167" s="30" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="168" ht="15.6" spans="1:9">
       <c r="A168" s="3" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="D168" s="6">
         <v>699</v>
@@ -7439,22 +7730,25 @@
         <v>0</v>
       </c>
       <c r="G168" s="8">
-        <f>E168*100</f>
+        <f t="shared" si="2"/>
         <v>49900</v>
       </c>
       <c r="H168" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="169" ht="15.6" spans="1:8">
+      <c r="I168" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="169" ht="15.6" spans="1:9">
       <c r="A169" s="3" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="D169" s="6">
         <v>299</v>
@@ -7466,19 +7760,22 @@
         <v>0</v>
       </c>
       <c r="G169" s="8">
-        <f>E169*100</f>
+        <f t="shared" si="2"/>
         <v>26900</v>
       </c>
       <c r="H169" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="170" ht="15.6" spans="1:8">
+      <c r="I169" s="30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="170" ht="15.6" spans="1:9">
       <c r="A170" s="3" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>11</v>
@@ -7493,22 +7790,25 @@
         <v>0</v>
       </c>
       <c r="G170" s="8">
-        <f>E170*100</f>
+        <f t="shared" si="2"/>
         <v>20900</v>
       </c>
       <c r="H170" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="171" ht="15.6" spans="1:8">
+      <c r="I170" s="30" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="171" ht="15.6" spans="1:9">
       <c r="A171" s="3" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>11</v>
+        <v>473</v>
       </c>
       <c r="D171" s="6">
         <v>179</v>
@@ -7520,22 +7820,25 @@
         <v>0</v>
       </c>
       <c r="G171" s="8">
-        <f>E171*100</f>
+        <f t="shared" si="2"/>
         <v>13900</v>
       </c>
       <c r="H171" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="172" ht="15.6" spans="1:8">
+      <c r="I171" s="30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="172" ht="15.6" spans="1:9">
       <c r="A172" s="3" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="D172" s="6">
         <v>439</v>
@@ -7547,22 +7850,25 @@
         <v>0</v>
       </c>
       <c r="G172" s="8">
-        <f>E172*100</f>
+        <f t="shared" si="2"/>
         <v>37900</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="173" ht="15.6" spans="1:8">
+      <c r="I172" s="30" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="173" ht="15.6" spans="1:9">
       <c r="A173" s="3" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="D173" s="6">
         <v>1299</v>
@@ -7574,22 +7880,25 @@
         <v>0</v>
       </c>
       <c r="G173" s="8">
-        <f>E173*100</f>
+        <f t="shared" si="2"/>
         <v>87900</v>
       </c>
       <c r="H173" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="174" ht="15.6" spans="1:8">
+      <c r="I173" s="30" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" ht="15.6" spans="1:9">
       <c r="A174" s="3" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="D174" s="6">
         <v>1499</v>
@@ -7601,22 +7910,25 @@
         <v>0</v>
       </c>
       <c r="G174" s="8">
-        <f>E174*100</f>
+        <f t="shared" si="2"/>
         <v>104900</v>
       </c>
       <c r="H174" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="175" ht="15.6" spans="1:8">
+      <c r="I174" s="30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="175" ht="15.6" spans="1:9">
       <c r="A175" s="3" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="D175" s="6">
         <v>499</v>
@@ -7628,11 +7940,14 @@
         <v>0</v>
       </c>
       <c r="G175" s="8">
-        <f>E175*100</f>
+        <f t="shared" si="2"/>
         <v>49900</v>
       </c>
       <c r="H175" s="14" t="s">
         <v>17</v>
+      </c>
+      <c r="I175" s="30" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\SCRC FEB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750E3B5-1B87-4D19-9437-901583562980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="556">
   <si>
     <t>SCF</t>
   </si>
@@ -68,6 +62,9 @@
     <t>ACERPURE</t>
   </si>
   <si>
+    <t>Acerpure Cozy | Acerpure SF1 AF374-20K DC Stand Fan (Black)</t>
+  </si>
+  <si>
     <t>Start Effective 1/2/2025</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
     <t>PREMIUM PACK PRO1 (C8600+C9630+C1441)</t>
   </si>
   <si>
+    <t>https://i.ibb.co/TxfL8mYs/New-Project-2.png</t>
+  </si>
+  <si>
     <t>SCF-100.PRO8340</t>
   </si>
   <si>
@@ -728,12 +728,21 @@
     <t>FELIZTRIP</t>
   </si>
   <si>
+    <t>FELIZTRIP PD35W Multi-Nation &amp; USB Travel Adapter</t>
+  </si>
+  <si>
     <t>https://i.ibb.co/LX1ZZbTt/02-1.jpg</t>
   </si>
   <si>
     <t>SCF-100.TRP216GY</t>
   </si>
   <si>
+    <t>FELIZTRIP Premium Memory Foam Neck Pillow.</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/bDz5dDR/TRP216GY.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.CAS3478</t>
   </si>
   <si>
@@ -743,12 +752,18 @@
     <t>Ghostek MagSafe Covert7 Ultra-Thin Clear Case for Apple iPhone 2023 6.1 Pro- Clear</t>
   </si>
   <si>
+    <t>https://ghostek.com/cdn/shop/files/COVERT6-IPHONE-15-PRO-MAX-02-CLEAR_cddfaffb-877a-4c97-a65e-2b4a96ff89b6_823x823.jpg?v=1694903045</t>
+  </si>
+  <si>
     <t>SCF-100.CAS3480</t>
   </si>
   <si>
     <t>Ghostek MagSafe Covert7 Ultra-Thin Clear Case for Apple iPhone 2023 6.1 Pro- Smoke</t>
   </si>
   <si>
+    <t>https://ghostek.com/cdn/shop/files/COVERT6-IPHONE-15-PRO-MAX-02-SMOKE_823x823.jpg?v=1694903045</t>
+  </si>
+  <si>
     <t>SCF-100.CAS3487</t>
   </si>
   <si>
@@ -767,6 +782,9 @@
     <t>GLADE</t>
   </si>
   <si>
+    <t>Glade Scent Gel TwinPack Lavender</t>
+  </si>
+  <si>
     <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/9555222602590-550x550w.jpg</t>
   </si>
   <si>
@@ -785,12 +803,18 @@
     <t>GLO</t>
   </si>
   <si>
+    <t>GLO Lime 800ml</t>
+  </si>
+  <si>
     <t>https://down-my.img.susercontent.com/file/my-11134207-23030-r204efh9zcov6e</t>
   </si>
   <si>
     <t>SCF-100.GLO800ML_LEMON</t>
   </si>
   <si>
+    <t>GLO Lemon 800ml</t>
+  </si>
+  <si>
     <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118534_1-glo-lemon-dishwash-liquid-800ml.png</t>
   </si>
   <si>
@@ -845,6 +869,9 @@
     <t>SCF-100.HW9PRO</t>
   </si>
   <si>
+    <t>CORDLESS VACUUM &amp; WASHER | Voice Assistant &amp; Brushroll Air-drying</t>
+  </si>
+  <si>
     <t>https://my-test-11.slatic.net/p/0732d76666de3df160b75fbe732cb839.jpg</t>
   </si>
   <si>
@@ -893,12 +920,18 @@
     <t>1.5L HEALTHY KETTLE</t>
   </si>
   <si>
+    <t>https://ae01.alicdn.com/kf/S9b646100a4694a2795d022cc38431297C.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.JK15K50</t>
   </si>
   <si>
     <t>RETRO KETTLE 1.5L</t>
   </si>
   <si>
+    <t>https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.JVC45V91(P)</t>
   </si>
   <si>
@@ -935,12 +968,18 @@
     <t>Vacuum Straw Tumbler 800ml Blue</t>
   </si>
   <si>
+    <t>https://www.imghippo.com/i/jRLt5792sH.webp</t>
+  </si>
+  <si>
     <t>SCF-100.JVC80V26(P)</t>
   </si>
   <si>
     <t>Vacuum Straw Tumbler 800ml Pink</t>
   </si>
   <si>
+    <t>https://www.imghippo.com/i/Kpdo6122ks.webp</t>
+  </si>
+  <si>
     <t>SCF-100.SMP84.C0WH</t>
   </si>
   <si>
@@ -959,12 +998,18 @@
     <t>LAIFEN</t>
   </si>
   <si>
+    <t>Smart Electric ABS Toothbrush Wave with IPX7</t>
+  </si>
+  <si>
     <t>https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg</t>
   </si>
   <si>
     <t>SCF-100.MINI(G)</t>
   </si>
   <si>
+    <t>Laifen Mini High-Speed Hair Dryer</t>
+  </si>
+  <si>
     <t>https://www.tmt.my/data/editor/sc-product/17734/LAIFEN-MINI-HAIR-DRYER-1.jpg</t>
   </si>
   <si>
@@ -998,12 +1043,18 @@
     <t>SCF-100.C21RT103B</t>
   </si>
   <si>
+    <t>2100W Induction Cooker</t>
+  </si>
+  <si>
     <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/c/2/c21rt103b_1.jpg</t>
   </si>
   <si>
     <t>SCF-100.MFG150M0APB</t>
   </si>
   <si>
+    <t>Table Circulation Fan (6") 3 Blade</t>
+  </si>
+  <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/id/MFG150M0APB-7.png/jcr:content/renditions/MFG150M0APB-7.webp</t>
   </si>
   <si>
@@ -1016,30 +1067,45 @@
     <t>ACE WATER BOTTLE 32OZ - MATCHA LATTE</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958</t>
+  </si>
+  <si>
     <t>SCF-100.ACE/VGRN18OZ</t>
   </si>
   <si>
     <t>VELVET ACE BOTTLE 18OZ GREEN</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404</t>
+  </si>
+  <si>
     <t>SCF-100.ACE/VPINK18OZ</t>
   </si>
   <si>
     <t>VELVET ACE BOTTLE 18OZ PURPLE</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404</t>
+  </si>
+  <si>
     <t>SCF-100.ACE/VYELL18OZ</t>
   </si>
   <si>
     <t>VELVET ACE BOTTLE 18OZ YELLOW</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404</t>
+  </si>
+  <si>
     <t>SCF-100.ACE2/BLK32OZ</t>
   </si>
   <si>
     <t>ACE WATER BOTTLE 32OZ - BLACK</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965</t>
+  </si>
+  <si>
     <t>SCF-100.MR.MF.C1LMD</t>
   </si>
   <si>
@@ -1055,24 +1121,36 @@
     <t>SCF-100.MRMUSLE_PINE</t>
   </si>
   <si>
+    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) PINE</t>
+  </si>
+  <si>
     <t>https://klec.jayagrocer.com/cdn/shop/files/012073-1-1.jpg?v=1726143318</t>
   </si>
   <si>
     <t>SCF-100.MRMUSLE_MAR</t>
   </si>
   <si>
+    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) MARINE</t>
+  </si>
+  <si>
     <t>https://www.mycs.com.my/media/catalog/product/cache/309b0699a74d76e0528e3f5ac801b2c4/m/r/mr_muscle_deep_action_gel_toilet_cleaner_marine_2x500ml_side.png</t>
   </si>
   <si>
     <t>SCF-100.MRMUSLE_CITRUS</t>
   </si>
   <si>
+    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) CITRUS</t>
+  </si>
+  <si>
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg</t>
   </si>
   <si>
     <t>SCF-SCRC-BASKIN.R</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>Baskin Robbin Single Regular Scoop</t>
   </si>
   <si>
@@ -1091,36 +1169,57 @@
     <t>OXWHITE TOWEL LYOCELL 27x52IN ,340G,BLUE</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg?v=1692715125</t>
+  </si>
+  <si>
     <t>SCF-100.CB1085OXKH</t>
   </si>
   <si>
     <t>OXWHITE TOWEL LYOCELL 27x52IN ,340G,KHAKI</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg?v=1692715125</t>
+  </si>
+  <si>
     <t>SCF-100.CB1085OXPN</t>
   </si>
   <si>
     <t>OXWHITE TOWEL LYOCELL 27x52IN ,340G,PINK</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg?v=1692715125</t>
+  </si>
+  <si>
     <t>SCF-100.CB987OXKH</t>
   </si>
   <si>
     <t>Oxwhite Towel .Heavy cotton .27in x 54in</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986</t>
+  </si>
+  <si>
     <t>SCF-100.CB987OXNB</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768</t>
+  </si>
+  <si>
     <t>SCF-100.CB987OXWH</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989</t>
+  </si>
+  <si>
     <t>SCF-100.CH987OXKH</t>
   </si>
   <si>
     <t>Oxwhite 2in1 Face and Hand Towel. Heavy Cotton</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/c757081366451cf01c121aceb32a171c</t>
+  </si>
+  <si>
     <t>SCF-100.DLAR15DWM</t>
   </si>
   <si>
@@ -1142,30 +1241,63 @@
     <t>PanzerGlass Camera Protector Apple iPhone 2023 6.1" Pro/6.7" Pro</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61fIa23Va+L.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.2810</t>
   </si>
   <si>
+    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF (iPhone 15 Pro)</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/2810_02_c680e242-69e8-4b77-8ad6-bcdc05c41ee5.webp?v=1715669530&amp;width=823</t>
+  </si>
+  <si>
     <t>SCF-100.2812</t>
   </si>
   <si>
+    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF (iPhone 15 Pro Max)</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/2816_02_8611d9dd-6e90-45d8-b1f9-d42509491a90.webp?v=1715671375&amp;width=823</t>
+  </si>
+  <si>
     <t>SCF-100.P2810</t>
   </si>
   <si>
+    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF Privacy (iPhone 15 Pro)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61n-1Kr60BL.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.P2812</t>
   </si>
   <si>
+    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF Privacy (iPhone 15 Pro Max)</t>
+  </si>
+  <si>
+    <t>https://ufostorekh.com/wp-content/uploads/2023/09/64fa8963-5f9c-43fc-b285-68100a8a002e_1000x1000.jpeg</t>
+  </si>
+  <si>
     <t>SCF-100.SAFE95587</t>
   </si>
   <si>
     <t>SAFE Apple iPhone 2023 6.1" Pro UWF</t>
   </si>
   <si>
+    <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955358_3.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.SAFE95589</t>
   </si>
   <si>
     <t>SAFE Apple iPhone 2023 6.7" Pro UWF</t>
   </si>
   <si>
+    <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955372_3.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.BHH822</t>
   </si>
   <si>
@@ -1223,6 +1355,9 @@
     <t>RHEEM</t>
   </si>
   <si>
+    <t>Electric Instant Water Heater</t>
+  </si>
+  <si>
     <t>https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
   </si>
   <si>
@@ -1274,6 +1409,9 @@
     <t>SAMSUNG</t>
   </si>
   <si>
+    <t>Music Frame HW-LS60D Frame Design Wireless Speaker (2024)</t>
+  </si>
+  <si>
     <t>https://shop.tbm.com.my/cdn/shop/files/samsung-smart-speaker-hw-ls60dxm-tbm-online-802131.jpg?v=1721415920&amp;width=1080</t>
   </si>
   <si>
@@ -1295,6 +1433,9 @@
     <t>SCOTT</t>
   </si>
   <si>
+    <t>Scott Extra Regular Bath Tissue 2Ply 20 rolls</t>
+  </si>
+  <si>
     <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png</t>
   </si>
   <si>
@@ -1307,15 +1448,27 @@
     <t>COVID-19 PRECAUTIONS BOOK</t>
   </si>
   <si>
+    <t>https://static.vecteezy.com/system/resources/previews/002/219/582/non_2x/illustration-of-book-icon-free-vector.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.C.CULTURE/C</t>
   </si>
   <si>
+    <t>SH CORPORATE CULTURE BOOK - CHINESE</t>
+  </si>
+  <si>
     <t>https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/3/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg</t>
   </si>
   <si>
     <t>SCF-100.C.CULTURE/E</t>
   </si>
   <si>
+    <t>SH CORPORATE CULTURE BOOK - ENGLISH</t>
+  </si>
+  <si>
+    <t>https://bci.kinokuniya.com/jsp/images/book-img/97898/97898337/9789833789290.JPG</t>
+  </si>
+  <si>
     <t>SCF-100.DIGITAL.CHINESE</t>
   </si>
   <si>
@@ -1379,12 +1532,18 @@
     <t>SONY</t>
   </si>
   <si>
+    <t>WF-C510 Truly Wireless Headphones</t>
+  </si>
+  <si>
     <t>https://store.sony.com.my/cdn/shop/files/Black_3_1200x.png?v=1725875367</t>
   </si>
   <si>
     <t>SCF-100.WHCH520</t>
   </si>
   <si>
+    <t>WH-CH520 Wireless Headphones</t>
+  </si>
+  <si>
     <t>https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha</t>
   </si>
   <si>
@@ -1412,18 +1571,27 @@
     <t>SCF-100.SVMISVZ4</t>
   </si>
   <si>
+    <t>stryv Mini Shaver</t>
+  </si>
+  <si>
     <t>https://medias.watsons.com.my/publishing/WTCMY-1006572-back-thumbnail.jpg?version=1734763174</t>
   </si>
   <si>
     <t>SCF-100.SVMSBDO2</t>
   </si>
   <si>
+    <t>stryv Multishave Trimmer</t>
+  </si>
+  <si>
     <t>https://stryv.my/cdn/shop/files/product_img_4_104ca71a-a713-4ef8-a6e1-4051b2333717.jpg?v=1704944460</t>
   </si>
   <si>
     <t>SCF-100.SVPSRBS9</t>
   </si>
   <si>
+    <t>stryv ProShave - IPX7 Waterproof Shaver</t>
+  </si>
+  <si>
     <t>https://www.gaincity.com/media/catalog/product/cache/6c6c50d4c233a553cee4f0d7353c6a74/t/0/t0193461-svpsrbs9-01.png</t>
   </si>
   <si>
@@ -1433,6 +1601,9 @@
     <t>TEFAL</t>
   </si>
   <si>
+    <t>Tefal Day by Day 4-Piece Set (FP24cm+SCP18cm+Small Spatula)</t>
+  </si>
+  <si>
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/632/1063236/447x447/05082022_1063236$Imagex1.jpg</t>
   </si>
   <si>
@@ -1442,271 +1613,104 @@
     <t>TESVOR</t>
   </si>
   <si>
+    <t>Tesvor S6 Robot Vacuum with Mop</t>
+  </si>
+  <si>
     <t>https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg</t>
   </si>
   <si>
+    <t>SCF-100.A1</t>
+  </si>
+  <si>
+    <t>Tesvor A1 2-in-1 Robot Vacuum | Vacuum &amp; Mop</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>SCF-100.X500PRO</t>
+  </si>
+  <si>
+    <t>Tesvor X500 Pro Hybrid 2-in-1 Robot Vacuum</t>
+  </si>
+  <si>
+    <t>https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg</t>
+  </si>
+  <si>
+    <t>SCF-TACTWP05/BLK</t>
+  </si>
+  <si>
+    <t>THULE</t>
+  </si>
+  <si>
+    <t>Thule Tact Crossbody Bag - 5L Black</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/612whrpX5FL._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.AF74CS1TRMY(H)</t>
   </si>
   <si>
     <t>TOSHIBA</t>
   </si>
   <si>
+    <t>Menu-IQ 7.4L Digital Air Fryer</t>
+  </si>
+  <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/air-fryer/-af-74cs1trmy(h)---7-4l-digital-air-fryer/AF-74CS1TRMY-H-FrontLeft.png/jcr:content/renditions/cq5dam.compression.png</t>
   </si>
   <si>
     <t>SCF-100.BL70PR2NMY</t>
   </si>
   <si>
+    <t>700W Multifunction Blender - 2.0L</t>
+  </si>
+  <si>
     <t>https://cdn1.npcdn.net/images/3a143ca14f81879847ea675d0bf01893_1718007770.webp?md5id=a6cff0397725a493ba4047565693f84a&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1717063294&amp;from=png&amp;type=1</t>
   </si>
   <si>
     <t>SCF-100.FSYA10(G)MY</t>
   </si>
   <si>
+    <t>16inch Stand Fan | 5 Fan Blades Design</t>
+  </si>
+  <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/air-treatment/fan/16-inch-stand-fan-f-sya10-g-my/gallery2.png/jcr:content/renditions/cq5dam.compression.png</t>
   </si>
   <si>
     <t>SCF-100.FTSA20(G)MY</t>
   </si>
   <si>
+    <t>16inch Table Fan | 5 Fan Blades Design</t>
+  </si>
+  <si>
     <t>https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001</t>
   </si>
   <si>
     <t>SCF-100.RC18DR1NMY</t>
   </si>
   <si>
+    <t>1.8L Digital Rice Cooker - Gold</t>
+  </si>
+  <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/1-8l-digital-rice-cooker-rc-18dr1nmy/gallery2.png</t>
-  </si>
-  <si>
-    <t>SCF-100.A1</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_UF1000,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>SCF-100.X500PRO</t>
-  </si>
-  <si>
-    <t>https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg</t>
-  </si>
-  <si>
-    <t>SCF-TACTWP05/BLK</t>
-  </si>
-  <si>
-    <t>THULE</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/612whrpX5FL._AC_UF1000,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>https://static.vecteezy.com/system/resources/previews/002/219/582/non_2x/illustration-of-book-icon-free-vector.jpg</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61fIa23Va+L.jpg</t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/2810_02_c680e242-69e8-4b77-8ad6-bcdc05c41ee5.webp?v=1715669530&amp;width=823</t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/2816_02_8611d9dd-6e90-45d8-b1f9-d42509491a90.webp?v=1715671375&amp;width=823</t>
-  </si>
-  <si>
-    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF (iPhone 15 Pro)</t>
-  </si>
-  <si>
-    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF (iPhone 15 Pro Max)</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61n-1Kr60BL.jpg</t>
-  </si>
-  <si>
-    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF Privacy (iPhone 15 Pro)</t>
-  </si>
-  <si>
-    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF Privacy (iPhone 15 Pro Max)</t>
-  </si>
-  <si>
-    <t>https://ufostorekh.com/wp-content/uploads/2023/09/64fa8963-5f9c-43fc-b285-68100a8a002e_1000x1000.jpeg</t>
-  </si>
-  <si>
-    <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955358_3.jpg</t>
-  </si>
-  <si>
-    <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955372_3.jpg</t>
-  </si>
-  <si>
-    <t>https://down-my.img.susercontent.com/file/c757081366451cf01c121aceb32a171c</t>
-  </si>
-  <si>
-    <t>https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768</t>
-  </si>
-  <si>
-    <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989</t>
-  </si>
-  <si>
-    <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986</t>
-  </si>
-  <si>
-    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg?v=1692715125</t>
-  </si>
-  <si>
-    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg?v=1692715125</t>
-  </si>
-  <si>
-    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg?v=1692715125</t>
-  </si>
-  <si>
-    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965</t>
-  </si>
-  <si>
-    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404</t>
-  </si>
-  <si>
-    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404</t>
-  </si>
-  <si>
-    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404</t>
-  </si>
-  <si>
-    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg</t>
-  </si>
-  <si>
-    <t>https://ae01.alicdn.com/kf/S9b646100a4694a2795d022cc38431297C.jpg</t>
-  </si>
-  <si>
-    <t>https://ghostek.com/cdn/shop/files/COVERT6-IPHONE-15-PRO-MAX-02-CLEAR_cddfaffb-877a-4c97-a65e-2b4a96ff89b6_823x823.jpg?v=1694903045</t>
-  </si>
-  <si>
-    <t>https://ghostek.com/cdn/shop/files/COVERT6-IPHONE-15-PRO-MAX-02-SMOKE_823x823.jpg?v=1694903045</t>
-  </si>
-  <si>
-    <t>https://bci.kinokuniya.com/jsp/images/book-img/97898/97898337/9789833789290.JPG</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/TxfL8mYs/New-Project-2.png</t>
-  </si>
-  <si>
-    <t>Acerpure Cozy | Acerpure SF1 AF374-20K DC Stand Fan (Black)</t>
-  </si>
-  <si>
-    <t>GLO Lemon 800ml</t>
-  </si>
-  <si>
-    <t>GLO Lime 800ml</t>
-  </si>
-  <si>
-    <t>CORDLESS VACUUM &amp; WASHER | Voice Assistant &amp; Brushroll Air-drying</t>
-  </si>
-  <si>
-    <t>Smart Electric ABS Toothbrush Wave with IPX7</t>
-  </si>
-  <si>
-    <t>Laifen Mini High-Speed Hair Dryer</t>
-  </si>
-  <si>
-    <t>2100W Induction Cooker</t>
-  </si>
-  <si>
-    <t>Table Circulation Fan (6") 3 Blade</t>
-  </si>
-  <si>
-    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) PINE</t>
-  </si>
-  <si>
-    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) MARINE</t>
-  </si>
-  <si>
-    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) CITRUS</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>Electric Instant Water Heater</t>
-  </si>
-  <si>
-    <t>Music Frame HW-LS60D Frame Design Wireless Speaker (2024)</t>
-  </si>
-  <si>
-    <t>Scott Extra Regular Bath Tissue 2Ply 20 rolls</t>
-  </si>
-  <si>
-    <t>SH CORPORATE CULTURE BOOK - CHINESE</t>
-  </si>
-  <si>
-    <t>SH CORPORATE CULTURE BOOK - ENGLISH</t>
-  </si>
-  <si>
-    <t>WF-C510 Truly Wireless Headphones</t>
-  </si>
-  <si>
-    <t>WH-CH520 Wireless Headphones</t>
-  </si>
-  <si>
-    <t>stryv Mini Shaver</t>
-  </si>
-  <si>
-    <t>stryv Multishave Trimmer</t>
-  </si>
-  <si>
-    <t>stryv ProShave - IPX7 Waterproof Shaver</t>
-  </si>
-  <si>
-    <t>Tefal Day by Day 4-Piece Set (FP24cm+SCP18cm+Small Spatula)</t>
-  </si>
-  <si>
-    <t>Tesvor S6 Robot Vacuum with Mop</t>
-  </si>
-  <si>
-    <t>Menu-IQ 7.4L Digital Air Fryer</t>
-  </si>
-  <si>
-    <t>700W Multifunction Blender - 2.0L</t>
-  </si>
-  <si>
-    <t>16inch Stand Fan | 5 Fan Blades Design</t>
-  </si>
-  <si>
-    <t>16inch Table Fan | 5 Fan Blades Design</t>
-  </si>
-  <si>
-    <t>1.8L Digital Rice Cooker - Gold</t>
-  </si>
-  <si>
-    <t>Tesvor A1 2-in-1 Robot Vacuum | Vacuum &amp; Mop</t>
-  </si>
-  <si>
-    <t>Tesvor X500 Pro Hybrid 2-in-1 Robot Vacuum</t>
-  </si>
-  <si>
-    <t>Thule Tact Crossbody Bag - 5L Black</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/bDz5dDR/TRP216GY.jpg</t>
-  </si>
-  <si>
-    <t>FELIZTRIP PD35W Multi-Nation &amp; USB Travel Adapter</t>
-  </si>
-  <si>
-    <t>FELIZTRIP Premium Memory Foam Neck Pillow.</t>
-  </si>
-  <si>
-    <t>Glade Scent Gel TwinPack Lavender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$RM-4409]#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$RM-4409]#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="[$RM-4409]#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="[$RM-4409]#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1772,14 +1776,143 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1788,13 +1921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,12 +1945,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1866,17 +2185,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1892,10 +2450,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,7 +2471,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1955,10 +2513,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1970,167 +2528,100 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma 137" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Comma 137" xfId="49"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -2141,7 +2632,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2169,40 +2660,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2460,31 +3065,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="15.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="80.712962962963" customWidth="1"/>
+    <col min="4" max="5" width="12.8518518518519" customWidth="1"/>
+    <col min="6" max="6" width="5.85185185185185" customWidth="1"/>
+    <col min="7" max="7" width="14.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="46.712962962963" customWidth="1"/>
     <col min="9" max="9" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" ht="15.6" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +3118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" ht="15.6" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2521,7 +3126,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5">
         <v>349</v>
@@ -2533,25 +3138,25 @@
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <f>E2*100</f>
+        <f t="shared" ref="G2:G65" si="0">E2*100</f>
         <v>27900</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="12">
         <v>27.9</v>
@@ -2563,25 +3168,25 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f>E3*100</f>
+        <f t="shared" si="0"/>
         <v>2790</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="12">
         <v>27.9</v>
@@ -2593,25 +3198,25 @@
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <f>E4*100</f>
+        <f t="shared" si="0"/>
         <v>2790</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="12">
         <v>87.7</v>
@@ -2623,25 +3228,25 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f>E5*100</f>
+        <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12">
         <v>32.9</v>
@@ -2653,25 +3258,25 @@
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f>E6*100</f>
+        <f t="shared" si="0"/>
         <v>2300</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="12">
         <v>99</v>
@@ -2683,25 +3288,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f>E7*100</f>
+        <f t="shared" si="0"/>
         <v>9700</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5">
         <v>369</v>
@@ -2713,25 +3318,25 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <f>E8*100</f>
+        <f t="shared" si="0"/>
         <v>36900</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:9">
       <c r="A9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="5">
         <v>369</v>
@@ -2743,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f>E9*100</f>
+        <f t="shared" si="0"/>
         <v>36900</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:9">
       <c r="A10" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5">
         <v>289</v>
@@ -2773,25 +3378,25 @@
         <v>0</v>
       </c>
       <c r="G10" s="7">
-        <f>E10*100</f>
+        <f t="shared" si="0"/>
         <v>28900</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:9">
       <c r="A11" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5">
         <v>149</v>
@@ -2800,28 +3405,28 @@
         <v>145</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7">
-        <f>E11*100</f>
+        <f t="shared" si="0"/>
         <v>14500</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:9">
       <c r="A12" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5">
         <v>169</v>
@@ -2833,25 +3438,25 @@
         <v>0</v>
       </c>
       <c r="G12" s="7">
-        <f>E12*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:9">
       <c r="A13" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5">
         <v>169</v>
@@ -2863,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f>E13*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:9">
       <c r="A14" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="5">
         <v>349</v>
@@ -2893,25 +3498,25 @@
         <v>0</v>
       </c>
       <c r="G14" s="7">
-        <f>E14*100</f>
+        <f t="shared" si="0"/>
         <v>34900</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:9">
       <c r="A15" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5">
         <v>349</v>
@@ -2923,25 +3528,25 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f>E15*100</f>
+        <f t="shared" si="0"/>
         <v>34900</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:9">
       <c r="A16" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5">
         <v>559</v>
@@ -2950,28 +3555,28 @@
         <v>559</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7">
-        <f>E16*100</f>
+        <f t="shared" si="0"/>
         <v>55900</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:9">
       <c r="A17" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5">
         <v>559</v>
@@ -2980,28 +3585,28 @@
         <v>559</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7">
-        <f>E17*100</f>
+        <f t="shared" si="0"/>
         <v>55900</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:9">
       <c r="A18" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5">
         <v>499</v>
@@ -3013,25 +3618,25 @@
         <v>0</v>
       </c>
       <c r="G18" s="7">
-        <f>E18*100</f>
+        <f t="shared" si="0"/>
         <v>49900</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:9">
       <c r="A19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="D19" s="5">
         <v>499</v>
@@ -3043,25 +3648,25 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f>E19*100</f>
+        <f t="shared" si="0"/>
         <v>49900</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:9">
       <c r="A20" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5">
         <v>799</v>
@@ -3073,25 +3678,25 @@
         <v>0</v>
       </c>
       <c r="G20" s="7">
-        <f>E20*100</f>
+        <f t="shared" si="0"/>
         <v>79900</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:9">
       <c r="A21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="5">
         <v>799</v>
@@ -3103,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f>E21*100</f>
+        <f t="shared" si="0"/>
         <v>79900</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="5">
         <v>179</v>
@@ -3133,25 +3738,25 @@
         <v>0</v>
       </c>
       <c r="G22" s="7">
-        <f>E22*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="5">
         <v>59</v>
@@ -3163,25 +3768,25 @@
         <v>12</v>
       </c>
       <c r="G23" s="7">
-        <f>E23*100</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="5">
         <v>59</v>
@@ -3193,25 +3798,25 @@
         <v>13</v>
       </c>
       <c r="G24" s="7">
-        <f>E24*100</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="5">
         <v>49</v>
@@ -3223,25 +3828,25 @@
         <v>14</v>
       </c>
       <c r="G25" s="7">
-        <f>E25*100</f>
+        <f t="shared" si="0"/>
         <v>3900</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="5">
         <v>69</v>
@@ -3253,25 +3858,25 @@
         <v>15</v>
       </c>
       <c r="G26" s="7">
-        <f>E26*100</f>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="5">
         <v>89</v>
@@ -3283,25 +3888,25 @@
         <v>16</v>
       </c>
       <c r="G27" s="7">
-        <f>E27*100</f>
+        <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="5">
         <v>99</v>
@@ -3313,25 +3918,25 @@
         <v>17</v>
       </c>
       <c r="G28" s="7">
-        <f>E28*100</f>
+        <f t="shared" si="0"/>
         <v>7900</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:9">
       <c r="A29" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="12">
         <v>79</v>
@@ -3343,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="G29" s="7">
-        <f>E29*100</f>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:9">
       <c r="A30" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="12">
         <v>55</v>
@@ -3373,25 +3978,25 @@
         <v>0</v>
       </c>
       <c r="G30" s="7">
-        <f>E30*100</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:9">
       <c r="A31" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="12">
         <v>129</v>
@@ -3403,25 +4008,25 @@
         <v>0</v>
       </c>
       <c r="G31" s="7">
-        <f>E31*100</f>
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="1:9">
       <c r="A32" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="5">
         <v>99</v>
@@ -3430,58 +4035,58 @@
         <v>93</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7">
-        <f>E32*100</f>
+        <f t="shared" si="0"/>
         <v>9300</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:9">
       <c r="A33" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="5">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="E33" s="5">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
       <c r="G33" s="7">
-        <f>E33*100</f>
-        <v>1689.9999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1690</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:9">
+      <c r="A34" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C34" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="5">
         <v>14.4</v>
@@ -3493,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="G34" s="7">
-        <f>E34*100</f>
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="1:9">
       <c r="A35" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5">
         <v>15.5</v>
@@ -3523,25 +4128,25 @@
         <v>0</v>
       </c>
       <c r="G35" s="7">
-        <f>E35*100</f>
+        <f t="shared" si="0"/>
         <v>1550</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="5">
         <v>714</v>
@@ -3553,25 +4158,25 @@
         <v>0</v>
       </c>
       <c r="G36" s="7">
-        <f>E36*100</f>
+        <f t="shared" si="0"/>
         <v>47900</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:9">
       <c r="A37" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="5">
         <v>9.9</v>
@@ -3583,25 +4188,25 @@
         <v>0</v>
       </c>
       <c r="G37" s="7">
-        <f>E37*100</f>
+        <f t="shared" si="0"/>
         <v>990</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" s="5">
         <v>549</v>
@@ -3613,25 +4218,25 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <f>E38*100</f>
+        <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="1:9">
+      <c r="A39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" s="5">
         <v>599</v>
@@ -3643,25 +4248,25 @@
         <v>0</v>
       </c>
       <c r="G39" s="7">
-        <f>E39*100</f>
+        <f t="shared" si="0"/>
         <v>31900</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" ht="15.6" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="5">
         <v>599</v>
@@ -3673,25 +4278,25 @@
         <v>0</v>
       </c>
       <c r="G40" s="7">
-        <f>E40*100</f>
+        <f t="shared" si="0"/>
         <v>31900</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" ht="15.6" spans="1:9">
       <c r="A41" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="5">
         <v>439</v>
@@ -3703,25 +4308,25 @@
         <v>0</v>
       </c>
       <c r="G41" s="7">
-        <f>E41*100</f>
+        <f t="shared" si="0"/>
         <v>17900</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" ht="15.6" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="5">
         <v>519</v>
@@ -3733,25 +4338,25 @@
         <v>0</v>
       </c>
       <c r="G42" s="7">
-        <f>E42*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" ht="15.6" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43" s="5">
         <v>579</v>
@@ -3763,25 +4368,25 @@
         <v>0</v>
       </c>
       <c r="G43" s="7">
-        <f>E43*100</f>
+        <f t="shared" si="0"/>
         <v>21900</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" ht="15.6" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D44" s="5">
         <v>349</v>
@@ -3793,25 +4398,25 @@
         <v>0</v>
       </c>
       <c r="G44" s="7">
-        <f>E44*100</f>
+        <f t="shared" si="0"/>
         <v>14900</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" ht="15.6" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" s="5">
         <v>499</v>
@@ -3823,25 +4428,25 @@
         <v>0</v>
       </c>
       <c r="G45" s="7">
-        <f>E45*100</f>
+        <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" ht="15.6" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" s="12">
         <v>499</v>
@@ -3853,25 +4458,25 @@
         <v>0</v>
       </c>
       <c r="G46" s="7">
-        <f>E46*100</f>
+        <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D47" s="12">
         <v>399</v>
@@ -3883,25 +4488,25 @@
         <v>0</v>
       </c>
       <c r="G47" s="7">
-        <f>E47*100</f>
+        <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="1:9">
       <c r="A48" s="17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D48" s="5">
         <v>459</v>
@@ -3913,25 +4518,25 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f>E48*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" ht="15.6" spans="1:9">
       <c r="A49" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D49" s="5">
         <v>459</v>
@@ -3943,25 +4548,25 @@
         <v>0</v>
       </c>
       <c r="G49" s="7">
-        <f>E49*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" ht="15.6" spans="1:9">
       <c r="A50" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D50" s="12">
         <v>439</v>
@@ -3973,25 +4578,25 @@
         <v>0</v>
       </c>
       <c r="G50" s="7">
-        <f>E50*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" ht="15.6" spans="1:9">
       <c r="A51" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D51" s="12">
         <v>479</v>
@@ -4003,25 +4608,25 @@
         <v>0</v>
       </c>
       <c r="G51" s="7">
-        <f>E51*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" ht="15.6" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D52" s="5">
         <v>519</v>
@@ -4033,25 +4638,25 @@
         <v>0</v>
       </c>
       <c r="G52" s="7">
-        <f>E52*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" ht="15.6" spans="1:9">
       <c r="A53" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="12">
         <v>599</v>
@@ -4063,25 +4668,25 @@
         <v>0</v>
       </c>
       <c r="G53" s="7">
-        <f>E53*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" ht="15.6" spans="1:9">
       <c r="A54" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" s="5">
         <v>639</v>
@@ -4093,25 +4698,25 @@
         <v>0</v>
       </c>
       <c r="G54" s="7">
-        <f>E54*100</f>
+        <f t="shared" si="0"/>
         <v>23900</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" ht="15.6" spans="1:9">
       <c r="A55" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="D55" s="5">
         <v>639</v>
@@ -4123,25 +4728,25 @@
         <v>0</v>
       </c>
       <c r="G55" s="7">
-        <f>E55*100</f>
+        <f t="shared" si="0"/>
         <v>23900</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" ht="15.6" spans="1:9">
       <c r="A56" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="5">
         <v>639</v>
@@ -4153,25 +4758,25 @@
         <v>0</v>
       </c>
       <c r="G56" s="7">
-        <f>E56*100</f>
+        <f t="shared" si="0"/>
         <v>23900</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" ht="15.6" spans="1:9">
       <c r="A57" s="23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="12">
         <v>669</v>
@@ -4183,25 +4788,25 @@
         <v>0</v>
       </c>
       <c r="G57" s="7">
-        <f>E57*100</f>
+        <f t="shared" si="0"/>
         <v>25900</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" ht="15.6" spans="1:9">
       <c r="A58" s="17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" s="5">
         <v>369</v>
@@ -4210,28 +4815,28 @@
         <v>149</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G58" s="7">
-        <f>E58*100</f>
+        <f t="shared" si="0"/>
         <v>14900</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" ht="15.6" spans="1:9">
       <c r="A59" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" s="5">
         <v>439</v>
@@ -4240,28 +4845,28 @@
         <v>169</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G59" s="7">
-        <f>E59*100</f>
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" ht="15.6" spans="1:9">
       <c r="A60" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="5">
         <v>489</v>
@@ -4270,28 +4875,28 @@
         <v>189</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G60" s="7">
-        <f>E60*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" ht="15.6" spans="1:9">
       <c r="A61" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="5">
         <v>409</v>
@@ -4303,25 +4908,25 @@
         <v>0</v>
       </c>
       <c r="G61" s="7">
-        <f>E61*100</f>
+        <f t="shared" si="0"/>
         <v>15900</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I61" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" ht="15.6" spans="1:9">
       <c r="A62" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="26">
         <v>499</v>
@@ -4333,25 +4938,25 @@
         <v>0</v>
       </c>
       <c r="G62" s="7">
-        <f>E62*100</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I62" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" ht="15.6" spans="1:9">
       <c r="A63" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="12">
         <v>699</v>
@@ -4363,25 +4968,25 @@
         <v>0</v>
       </c>
       <c r="G63" s="7">
-        <f>E63*100</f>
+        <f t="shared" si="0"/>
         <v>31900</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" ht="15.6" spans="1:9">
       <c r="A64" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="12">
         <v>949</v>
@@ -4393,25 +4998,25 @@
         <v>0</v>
       </c>
       <c r="G64" s="7">
-        <f>E64*100</f>
+        <f t="shared" si="0"/>
         <v>49900</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" ht="15.6" spans="1:9">
       <c r="A65" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="5">
         <v>18.5</v>
@@ -4423,25 +5028,25 @@
         <v>0</v>
       </c>
       <c r="G65" s="7">
-        <f>E65*100</f>
+        <f t="shared" si="0"/>
         <v>1850</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" ht="15.6" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="5">
         <v>319</v>
@@ -4453,25 +5058,25 @@
         <v>0</v>
       </c>
       <c r="G66" s="7">
-        <f>E66*100</f>
+        <f t="shared" ref="G66:G129" si="1">E66*100</f>
         <v>27900</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" ht="15.6" spans="1:9">
       <c r="A67" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D67" s="5">
         <v>39</v>
@@ -4480,26 +5085,26 @@
         <v>39</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G67" s="7">
-        <f>E67*100</f>
+        <f t="shared" si="1"/>
         <v>3900</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I67" s="29"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75">
+    <row r="68" ht="15.6" spans="1:9">
       <c r="A68" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>203</v>
-      </c>
       <c r="C68" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="5">
         <v>49</v>
@@ -4508,26 +5113,26 @@
         <v>49</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G68" s="7">
-        <f>E68*100</f>
+        <f t="shared" si="1"/>
         <v>4900</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I68" s="29"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75">
+    <row r="69" ht="15.6" spans="1:9">
       <c r="A69" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="5">
         <v>29</v>
@@ -4536,28 +5141,28 @@
         <v>29</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G69" s="7">
-        <f>E69*100</f>
+        <f t="shared" si="1"/>
         <v>2900</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" ht="15.6" spans="1:9">
       <c r="A70" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="12">
         <v>24.9</v>
@@ -4569,25 +5174,25 @@
         <v>0</v>
       </c>
       <c r="G70" s="7">
-        <f>E70*100</f>
+        <f t="shared" si="1"/>
         <v>2490</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" ht="15.6" spans="1:9">
       <c r="A71" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D71" s="12">
         <v>20.9</v>
@@ -4599,25 +5204,25 @@
         <v>0</v>
       </c>
       <c r="G71" s="7">
-        <f>E71*100</f>
+        <f t="shared" si="1"/>
         <v>2090</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" ht="15.6" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" s="5">
         <v>210</v>
@@ -4629,25 +5234,25 @@
         <v>0</v>
       </c>
       <c r="G72" s="7">
-        <f>E72*100</f>
+        <f t="shared" si="1"/>
         <v>11500</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I72" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" ht="15.6" spans="1:9">
+      <c r="A73" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="5">
         <v>228</v>
@@ -4659,25 +5264,25 @@
         <v>0</v>
       </c>
       <c r="G73" s="7">
-        <f>E73*100</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" ht="15.6" spans="1:9">
       <c r="A74" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D74" s="5">
         <v>162</v>
@@ -4686,28 +5291,28 @@
         <v>115</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G74" s="7">
-        <f>E74*100</f>
+        <f t="shared" si="1"/>
         <v>11500</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" ht="15.6" spans="1:9">
       <c r="A75" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D75" s="5">
         <v>11.9</v>
@@ -4719,25 +5324,25 @@
         <v>0</v>
       </c>
       <c r="G75" s="7">
-        <f>E75*100</f>
+        <f t="shared" si="1"/>
         <v>1190</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" ht="15.6" spans="1:9">
       <c r="A76" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>551</v>
+        <v>233</v>
       </c>
       <c r="D76" s="5">
         <v>129</v>
@@ -4746,28 +5351,28 @@
         <v>129</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G76" s="7">
-        <f>E76*100</f>
+        <f t="shared" si="1"/>
         <v>12900</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" ht="15.6" spans="1:9">
       <c r="A77" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="C77" s="16" t="s">
-        <v>552</v>
+        <v>236</v>
       </c>
       <c r="D77" s="5">
         <v>99</v>
@@ -4776,28 +5381,28 @@
         <v>99</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G77" s="7">
-        <f>E77*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I77" s="32" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" ht="15.6" spans="1:9">
       <c r="A78" s="17" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D78" s="12">
         <v>89</v>
@@ -4806,28 +5411,28 @@
         <v>89</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G78" s="7">
-        <f>E78*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" ht="15.6" spans="1:9">
       <c r="A79" s="17" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D79" s="12">
         <v>89</v>
@@ -4836,28 +5441,28 @@
         <v>89</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G79" s="7">
-        <f>E79*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I79" s="29" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" ht="15.6" spans="1:9">
       <c r="A80" s="17" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D80" s="12">
         <v>89</v>
@@ -4866,28 +5471,28 @@
         <v>89</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G80" s="7">
-        <f>E80*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" ht="15.6" spans="1:9">
       <c r="A81" s="17" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D81" s="12">
         <v>89</v>
@@ -4896,28 +5501,28 @@
         <v>89</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G81" s="7">
-        <f>E81*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I81" s="29" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" ht="15.6" spans="1:9">
       <c r="A82" s="17" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>553</v>
+        <v>251</v>
       </c>
       <c r="D82" s="5">
         <v>18.5</v>
@@ -4929,25 +5534,25 @@
         <v>0</v>
       </c>
       <c r="G82" s="7">
-        <f>E82*100</f>
+        <f t="shared" si="1"/>
         <v>1850</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I82" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" ht="15.6" spans="1:9">
       <c r="A83" s="17" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D83" s="5">
         <v>18</v>
@@ -4959,25 +5564,25 @@
         <v>0</v>
       </c>
       <c r="G83" s="7">
-        <f>E83*100</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I83" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" ht="15.6" spans="1:9">
       <c r="A84" s="17" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>520</v>
+        <v>258</v>
       </c>
       <c r="D84" s="5">
         <v>5.7</v>
@@ -4989,25 +5594,25 @@
         <v>0</v>
       </c>
       <c r="G84" s="7">
-        <f>E84*100</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I84" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" ht="15.6" spans="1:9">
       <c r="A85" s="17" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>519</v>
+        <v>261</v>
       </c>
       <c r="D85" s="5">
         <v>4.5</v>
@@ -5019,25 +5624,25 @@
         <v>0</v>
       </c>
       <c r="G85" s="7">
-        <f>E85*100</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I85" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" ht="15.6" spans="1:9">
       <c r="A86" s="17" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D86" s="5">
         <v>3.5</v>
@@ -5049,25 +5654,25 @@
         <v>0</v>
       </c>
       <c r="G86" s="7">
-        <f>E86*100</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I86" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" ht="15.6" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D87" s="5">
         <v>989</v>
@@ -5079,25 +5684,25 @@
         <v>0</v>
       </c>
       <c r="G87" s="7">
-        <f>E87*100</f>
+        <f t="shared" si="1"/>
         <v>76900</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I87" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" ht="15.6" spans="1:9">
       <c r="A88" s="17" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D88" s="5">
         <v>799</v>
@@ -5106,28 +5711,28 @@
         <v>599</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G88" s="7">
-        <f>E88*100</f>
+        <f t="shared" si="1"/>
         <v>59900</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I88" s="29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" ht="15.6" spans="1:9">
       <c r="A89" s="17" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D89" s="5">
         <v>1199</v>
@@ -5136,28 +5741,28 @@
         <v>599</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G89" s="7">
-        <f>E89*100</f>
+        <f t="shared" si="1"/>
         <v>59900</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I89" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" ht="15.6" spans="1:9">
       <c r="A90" s="17" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D90" s="5">
         <v>2099</v>
@@ -5166,28 +5771,28 @@
         <v>1199</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G90" s="7">
-        <f>E90*100</f>
+        <f t="shared" si="1"/>
         <v>119900</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I90" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" ht="15.6" spans="1:9">
+      <c r="A91" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="C91" s="16" t="s">
-        <v>521</v>
+        <v>280</v>
       </c>
       <c r="D91" s="5">
         <v>2699</v>
@@ -5196,28 +5801,28 @@
         <v>1699</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G91" s="7">
-        <f>E91*100</f>
+        <f t="shared" si="1"/>
         <v>169900</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I91" s="29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" ht="15.6" spans="1:9">
       <c r="A92" s="17" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D92" s="5">
         <v>119</v>
@@ -5226,28 +5831,28 @@
         <v>79</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G92" s="7">
-        <f>E92*100</f>
+        <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I92" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" ht="15.6" spans="1:9">
       <c r="A93" s="17" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D93" s="5">
         <v>119</v>
@@ -5256,28 +5861,28 @@
         <v>79</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G93" s="7">
-        <f>E93*100</f>
+        <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I93" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" ht="15.6" spans="1:9">
       <c r="A94" s="9" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D94" s="12">
         <v>109</v>
@@ -5289,25 +5894,25 @@
         <v>0</v>
       </c>
       <c r="G94" s="7">
-        <f>E94*100</f>
+        <f t="shared" si="1"/>
         <v>10900</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I94" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" ht="15.6" spans="1:9">
       <c r="A95" s="30" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D95" s="5">
         <v>99</v>
@@ -5316,28 +5921,28 @@
         <v>99</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G95" s="7">
-        <f>E95*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I95" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" ht="15.6" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D96" s="5">
         <v>199</v>
@@ -5349,25 +5954,25 @@
         <v>0</v>
       </c>
       <c r="G96" s="7">
-        <f>E96*100</f>
+        <f t="shared" si="1"/>
         <v>16900</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I96" s="29" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.75">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" ht="15.6" spans="1:9">
       <c r="A97" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D97" s="5">
         <v>259</v>
@@ -5379,25 +5984,25 @@
         <v>0</v>
       </c>
       <c r="G97" s="7">
-        <f>E97*100</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I97" s="29" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15.75">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" ht="15.6" spans="1:9">
       <c r="A98" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D98" s="5">
         <v>139</v>
@@ -5409,25 +6014,25 @@
         <v>0</v>
       </c>
       <c r="G98" s="7">
-        <f>E98*100</f>
+        <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I98" s="29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" ht="15.6" spans="1:9">
       <c r="A99" s="2" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D99" s="5">
         <v>139</v>
@@ -5439,25 +6044,25 @@
         <v>0</v>
       </c>
       <c r="G99" s="7">
-        <f>E99*100</f>
+        <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I99" s="29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.75">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" ht="15.6" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D100" s="5">
         <v>169</v>
@@ -5469,25 +6074,25 @@
         <v>0</v>
       </c>
       <c r="G100" s="7">
-        <f>E100*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I100" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" ht="15.6" spans="1:9">
+      <c r="A101" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="C101" s="4" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D101" s="5">
         <v>169</v>
@@ -5499,25 +6104,25 @@
         <v>0</v>
       </c>
       <c r="G101" s="7">
-        <f>E101*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I101" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="102" ht="15.6" spans="1:9">
+      <c r="A102" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D102" s="5">
         <v>169</v>
@@ -5529,23 +6134,25 @@
         <v>0</v>
       </c>
       <c r="G102" s="7">
-        <f>E102*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" s="29"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75">
+        <v>12</v>
+      </c>
+      <c r="I102" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" ht="15.6" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D103" s="5">
         <v>169</v>
@@ -5557,23 +6164,25 @@
         <v>0</v>
       </c>
       <c r="G103" s="7">
-        <f>E103*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I103" s="29"/>
-    </row>
-    <row r="104" spans="1:9" ht="15.75">
+        <v>12</v>
+      </c>
+      <c r="I103" s="33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" ht="15.6" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D104" s="5">
         <v>179</v>
@@ -5585,25 +6194,25 @@
         <v>0</v>
       </c>
       <c r="G104" s="7">
-        <f>E104*100</f>
+        <f t="shared" si="1"/>
         <v>17700</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I104" s="29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" ht="15.6" spans="1:9">
       <c r="A105" s="9" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>522</v>
+        <v>323</v>
       </c>
       <c r="D105" s="12">
         <v>559</v>
@@ -5615,25 +6224,25 @@
         <v>0</v>
       </c>
       <c r="G105" s="7">
-        <f>E105*100</f>
+        <f t="shared" si="1"/>
         <v>32900</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I105" s="29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.75">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" ht="15.6" spans="1:9">
       <c r="A106" s="9" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>523</v>
+        <v>326</v>
       </c>
       <c r="D106" s="12">
         <v>699</v>
@@ -5645,25 +6254,25 @@
         <v>0</v>
       </c>
       <c r="G106" s="7">
-        <f>E106*100</f>
+        <f t="shared" si="1"/>
         <v>45900</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I106" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" ht="15.6" spans="1:9">
       <c r="A107" s="17" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>523</v>
+        <v>326</v>
       </c>
       <c r="D107" s="5">
         <v>699</v>
@@ -5675,25 +6284,25 @@
         <v>0</v>
       </c>
       <c r="G107" s="7">
-        <f>E107*100</f>
+        <f t="shared" si="1"/>
         <v>45900</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I107" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15.75">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" ht="15.6" spans="1:9">
       <c r="A108" s="9" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D108" s="12">
         <v>119</v>
@@ -5705,25 +6314,25 @@
         <v>0</v>
       </c>
       <c r="G108" s="7">
-        <f>E108*100</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" ht="15.6" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="D109" s="5">
         <v>239</v>
@@ -5735,25 +6344,25 @@
         <v>0</v>
       </c>
       <c r="G109" s="7">
-        <f>E109*100</f>
+        <f t="shared" si="1"/>
         <v>20900</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I109" s="29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15.75">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="110" ht="15.6" spans="1:9">
       <c r="A110" s="17" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>524</v>
+        <v>338</v>
       </c>
       <c r="D110" s="5">
         <v>209</v>
@@ -5762,28 +6371,28 @@
         <v>189</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G110" s="7">
-        <f>E110*100</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I110" s="29" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.75">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" ht="15.6" spans="1:9">
       <c r="A111" s="17" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="D111" s="5">
         <v>135</v>
@@ -5792,28 +6401,28 @@
         <v>109</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G111" s="7">
-        <f>E111*100</f>
+        <f t="shared" si="1"/>
         <v>10900</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I111" s="29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.75">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="112" ht="15.6" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D112" s="5">
         <v>106</v>
@@ -5825,25 +6434,25 @@
         <v>0</v>
       </c>
       <c r="G112" s="7">
-        <f>E112*100</f>
+        <f t="shared" si="1"/>
         <v>10500</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I112" s="29" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15.75">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" ht="15.6" spans="1:9">
       <c r="A113" s="17" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D113" s="5">
         <v>86</v>
@@ -5855,25 +6464,25 @@
         <v>0</v>
       </c>
       <c r="G113" s="7">
-        <f>E113*100</f>
+        <f t="shared" si="1"/>
         <v>8400</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I113" s="29" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15.75">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="114" ht="15.6" spans="1:9">
       <c r="A114" s="17" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="D114" s="5">
         <v>86</v>
@@ -5885,25 +6494,25 @@
         <v>0</v>
       </c>
       <c r="G114" s="7">
-        <f>E114*100</f>
+        <f t="shared" si="1"/>
         <v>8400</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I114" s="29" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15.75">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" ht="15.6" spans="1:9">
       <c r="A115" s="17" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="D115" s="5">
         <v>86</v>
@@ -5915,25 +6524,25 @@
         <v>0</v>
       </c>
       <c r="G115" s="7">
-        <f>E115*100</f>
+        <f t="shared" si="1"/>
         <v>8400</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I115" s="29" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.75">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" ht="15.6" spans="1:9">
       <c r="A116" s="9" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="D116" s="12">
         <v>106</v>
@@ -5945,25 +6554,25 @@
         <v>0</v>
       </c>
       <c r="G116" s="7">
-        <f>E116*100</f>
+        <f t="shared" si="1"/>
         <v>10400</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I116" s="29" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.75">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" ht="15.6" spans="1:9">
       <c r="A117" s="17" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="D117" s="5">
         <v>8.6</v>
@@ -5975,25 +6584,25 @@
         <v>0</v>
       </c>
       <c r="G117" s="7">
-        <f>E117*100</f>
+        <f t="shared" si="1"/>
         <v>860</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I117" s="29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.75">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" ht="15.6" spans="1:9">
       <c r="A118" s="17" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>526</v>
+        <v>364</v>
       </c>
       <c r="D118" s="5">
         <v>8</v>
@@ -6005,25 +6614,25 @@
         <v>0</v>
       </c>
       <c r="G118" s="7">
-        <f>E118*100</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I118" s="29" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.75">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" ht="15.6" spans="1:9">
       <c r="A119" s="17" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>527</v>
+        <v>367</v>
       </c>
       <c r="D119" s="5">
         <v>8</v>
@@ -6035,25 +6644,25 @@
         <v>0</v>
       </c>
       <c r="G119" s="7">
-        <f>E119*100</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I119" s="29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.75">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" ht="15.6" spans="1:9">
       <c r="A120" s="17" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>528</v>
+        <v>370</v>
       </c>
       <c r="D120" s="5">
         <v>8</v>
@@ -6065,25 +6674,25 @@
         <v>0</v>
       </c>
       <c r="G120" s="7">
-        <f>E120*100</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I120" s="29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15.75">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="121" ht="15.6" spans="1:9">
       <c r="A121" s="17" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>529</v>
+        <v>373</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="D121" s="5">
         <v>12.5</v>
@@ -6095,25 +6704,25 @@
         <v>0</v>
       </c>
       <c r="G121" s="7">
-        <f>E121*100</f>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="I121" s="29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.75">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="122" ht="15.6" spans="1:9">
       <c r="A122" s="17" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="D122" s="12">
         <v>69</v>
@@ -6125,25 +6734,25 @@
         <v>0</v>
       </c>
       <c r="G122" s="7">
-        <f>E122*100</f>
+        <f t="shared" si="1"/>
         <v>6900</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I122" s="29" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="15.75">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="123" ht="15.6" spans="1:9">
       <c r="A123" s="17" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="D123" s="12">
         <v>69</v>
@@ -6155,25 +6764,25 @@
         <v>0</v>
       </c>
       <c r="G123" s="7">
-        <f>E123*100</f>
+        <f t="shared" si="1"/>
         <v>6900</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I123" s="29" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" ht="15.6" spans="1:9">
       <c r="A124" s="17" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="D124" s="12">
         <v>69</v>
@@ -6185,25 +6794,25 @@
         <v>0</v>
       </c>
       <c r="G124" s="7">
-        <f>E124*100</f>
+        <f t="shared" si="1"/>
         <v>6900</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I124" s="29" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15.75">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="125" ht="15.6" spans="1:9">
       <c r="A125" s="17" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="D125" s="5">
         <v>89</v>
@@ -6212,28 +6821,28 @@
         <v>89</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G125" s="7">
-        <f>E125*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I125" s="29" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15.75">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" ht="15.6" spans="1:9">
       <c r="A126" s="17" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="D126" s="5">
         <v>89</v>
@@ -6242,28 +6851,28 @@
         <v>89</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G126" s="7">
-        <f>E126*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I126" s="29" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15.75">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="127" ht="15.6" spans="1:9">
       <c r="A127" s="17" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="D127" s="5">
         <v>89</v>
@@ -6272,28 +6881,28 @@
         <v>89</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G127" s="7">
-        <f>E127*100</f>
+        <f t="shared" si="1"/>
         <v>8900</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I127" s="29" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15.75">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="128" ht="15.6" spans="1:9">
       <c r="A128" s="17" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="D128" s="5">
         <v>39.9</v>
@@ -6302,28 +6911,28 @@
         <v>39.9</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G128" s="7">
-        <f>E128*100</f>
+        <f t="shared" si="1"/>
         <v>3990</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I128" s="29" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15.75">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="129" ht="15.6" spans="1:9">
       <c r="A129" s="17" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="D129" s="5">
         <v>469</v>
@@ -6332,28 +6941,28 @@
         <v>449</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G129" s="7">
-        <f>E129*100</f>
+        <f t="shared" si="1"/>
         <v>44900</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I129" s="29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.75">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" ht="15.6" spans="1:9">
       <c r="A130" s="17" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="D130" s="12">
         <v>79</v>
@@ -6362,28 +6971,28 @@
         <v>79</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G130" s="7">
-        <f>E130*100</f>
+        <f t="shared" ref="G130:G175" si="2">E130*100</f>
         <v>7900</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I130" s="29" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.75">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131" ht="15.6" spans="1:9">
       <c r="A131" s="17" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="D131" s="12">
         <v>159</v>
@@ -6392,28 +7001,28 @@
         <v>159</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G131" s="7">
-        <f>E131*100</f>
+        <f t="shared" si="2"/>
         <v>15900</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I131" s="29" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15.75">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="132" ht="15.6" spans="1:9">
       <c r="A132" s="17" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>493</v>
+        <v>409</v>
       </c>
       <c r="D132" s="12">
         <v>159</v>
@@ -6422,28 +7031,28 @@
         <v>159</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G132" s="7">
-        <f>E132*100</f>
+        <f t="shared" si="2"/>
         <v>15900</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I132" s="29" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.75">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="133" ht="15.6" spans="1:9">
       <c r="A133" s="17" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="D133" s="12">
         <v>159</v>
@@ -6452,28 +7061,28 @@
         <v>159</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G133" s="7">
-        <f>E133*100</f>
+        <f t="shared" si="2"/>
         <v>15900</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I133" s="32" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.75">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="134" ht="15.6" spans="1:9">
       <c r="A134" s="17" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>496</v>
+        <v>415</v>
       </c>
       <c r="D134" s="12">
         <v>159</v>
@@ -6482,28 +7091,28 @@
         <v>159</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G134" s="7">
-        <f>E134*100</f>
+        <f t="shared" si="2"/>
         <v>15900</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I134" s="32" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.75">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="135" ht="15.6" spans="1:9">
       <c r="A135" s="17" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="D135" s="12">
         <v>79</v>
@@ -6512,28 +7121,28 @@
         <v>79</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G135" s="7">
-        <f>E135*100</f>
+        <f t="shared" si="2"/>
         <v>7900</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I135" s="32" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.75">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="136" ht="15.6" spans="1:9">
       <c r="A136" s="17" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="D136" s="12">
         <v>79</v>
@@ -6542,28 +7151,28 @@
         <v>79</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G136" s="7">
-        <f>E136*100</f>
+        <f t="shared" si="2"/>
         <v>7900</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I136" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.75">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="137" ht="15.6" spans="1:9">
       <c r="A137" s="9" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="D137" s="12">
         <v>289</v>
@@ -6575,25 +7184,25 @@
         <v>0</v>
       </c>
       <c r="G137" s="7">
-        <f>E137*100</f>
+        <f t="shared" si="2"/>
         <v>27900</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I137" s="29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15.75">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="138" ht="15.6" spans="1:9">
       <c r="A138" s="17" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="D138" s="5">
         <v>199</v>
@@ -6602,28 +7211,28 @@
         <v>169</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G138" s="7">
-        <f>E138*100</f>
+        <f t="shared" si="2"/>
         <v>16900</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I138" s="29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.75">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="139" ht="15.6" spans="1:9">
       <c r="A139" s="17" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="D139" s="5">
         <v>8.1</v>
@@ -6635,25 +7244,25 @@
         <v>0</v>
       </c>
       <c r="G139" s="7">
-        <f>E139*100</f>
+        <f t="shared" si="2"/>
         <v>810</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I139" s="29" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.75">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="140" ht="15.6" spans="1:9">
       <c r="A140" s="17" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="D140" s="5">
         <v>3.3</v>
@@ -6665,25 +7274,25 @@
         <v>0</v>
       </c>
       <c r="G140" s="7">
-        <f>E140*100</f>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I140" s="29" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.75">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="141" ht="15.6" spans="1:9">
       <c r="A141" s="17" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="D141" s="5">
         <v>11.5</v>
@@ -6695,25 +7304,25 @@
         <v>0</v>
       </c>
       <c r="G141" s="7">
-        <f>E141*100</f>
+        <f t="shared" si="2"/>
         <v>1150</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I141" s="29" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15.75">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" ht="15.6" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="D142" s="5">
         <v>449</v>
@@ -6725,25 +7334,25 @@
         <v>0</v>
       </c>
       <c r="G142" s="7">
-        <f>E142*100</f>
+        <f t="shared" si="2"/>
         <v>39900</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I142" s="29" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15.75">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" ht="15.6" spans="1:9">
       <c r="A143" s="17" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="D143" s="5">
         <v>2.6</v>
@@ -6755,25 +7364,25 @@
         <v>0</v>
       </c>
       <c r="G143" s="7">
-        <f>E143*100</f>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I143" s="29" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15.75">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="144" ht="15.6" spans="1:9">
       <c r="A144" s="9" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="D144" s="12">
         <v>259</v>
@@ -6785,25 +7394,25 @@
         <v>0</v>
       </c>
       <c r="G144" s="7">
-        <f>E144*100</f>
+        <f t="shared" si="2"/>
         <v>25900</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I144" s="29" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.75">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" ht="15.6" spans="1:9">
       <c r="A145" s="17" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="D145" s="5">
         <v>269</v>
@@ -6812,28 +7421,28 @@
         <v>269</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G145" s="7">
-        <f>E145*100</f>
+        <f t="shared" si="2"/>
         <v>26900</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I145" s="29" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.75">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="146" ht="15.6" spans="1:9">
       <c r="A146" s="17" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="D146" s="5">
         <v>129</v>
@@ -6842,28 +7451,28 @@
         <v>129</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G146" s="7">
-        <f>E146*100</f>
+        <f t="shared" si="2"/>
         <v>12900</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I146" s="29" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15.75">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="147" ht="15.6" spans="1:9">
       <c r="A147" s="17" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>531</v>
+        <v>460</v>
       </c>
       <c r="D147" s="5">
         <v>1999</v>
@@ -6872,28 +7481,28 @@
         <v>1499</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G147" s="7">
-        <f>E147*100</f>
+        <f t="shared" si="2"/>
         <v>149900</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I147" s="29" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15.75">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="148" ht="15.6" spans="1:9">
       <c r="A148" s="17" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="D148" s="5">
         <v>9.1</v>
@@ -6905,25 +7514,25 @@
         <v>0</v>
       </c>
       <c r="G148" s="7">
-        <f>E148*100</f>
+        <f t="shared" si="2"/>
         <v>910</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I148" s="29" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15.75">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="149" ht="15.6" spans="1:9">
       <c r="A149" s="17" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>532</v>
+        <v>468</v>
       </c>
       <c r="D149" s="5">
         <v>16.5</v>
@@ -6935,55 +7544,55 @@
         <v>0</v>
       </c>
       <c r="G149" s="7">
-        <f>E149*100</f>
+        <f t="shared" si="2"/>
         <v>1650</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I149" s="29" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15.75">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="150" ht="15.6" spans="1:9">
       <c r="A150" s="15" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="D150" s="5">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="E150" s="5">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="F150" s="6">
         <v>0</v>
       </c>
       <c r="G150" s="7">
-        <f>E150*100</f>
-        <v>1889.9999999999998</v>
+        <f t="shared" si="2"/>
+        <v>1890</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I150" s="29" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.75">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="151" ht="15.6" spans="1:9">
       <c r="A151" s="15" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="D151" s="5">
         <v>30</v>
@@ -6995,25 +7604,25 @@
         <v>0</v>
       </c>
       <c r="G151" s="7">
-        <f>E151*100</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I151" s="29" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15.75">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="152" ht="15.6" spans="1:9">
       <c r="A152" s="15" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="D152" s="5">
         <v>36</v>
@@ -7025,25 +7634,25 @@
         <v>0</v>
       </c>
       <c r="G152" s="7">
-        <f>E152*100</f>
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I152" s="29" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15.75">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="153" ht="15.6" spans="1:9">
       <c r="A153" s="15" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="D153" s="5">
         <v>35</v>
@@ -7055,25 +7664,25 @@
         <v>0</v>
       </c>
       <c r="G153" s="7">
-        <f>E153*100</f>
+        <f t="shared" si="2"/>
         <v>3500</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I153" s="29" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="154" ht="15.6" spans="1:9">
       <c r="A154" s="15" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="D154" s="5">
         <v>35</v>
@@ -7085,25 +7694,25 @@
         <v>0</v>
       </c>
       <c r="G154" s="7">
-        <f>E154*100</f>
+        <f t="shared" si="2"/>
         <v>3500</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I154" s="29" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.75">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="155" ht="15.6" spans="1:9">
       <c r="A155" s="15" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="D155" s="5">
         <v>40</v>
@@ -7115,25 +7724,25 @@
         <v>0</v>
       </c>
       <c r="G155" s="7">
-        <f>E155*100</f>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I155" s="29" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="15.75">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="156" ht="15.6" spans="1:9">
       <c r="A156" s="15" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="D156" s="5">
         <v>50</v>
@@ -7145,25 +7754,25 @@
         <v>0</v>
       </c>
       <c r="G156" s="7">
-        <f>E156*100</f>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I156" s="29" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="15.75">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="157" ht="15.6" spans="1:9">
       <c r="A157" s="15" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="D157" s="5">
         <v>15</v>
@@ -7175,25 +7784,25 @@
         <v>0</v>
       </c>
       <c r="G157" s="7">
-        <f>E157*100</f>
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I157" s="29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="15.75">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="158" ht="15.6" spans="1:9">
       <c r="A158" s="17" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="D158" s="5">
         <v>7.9</v>
@@ -7205,25 +7814,25 @@
         <v>0</v>
       </c>
       <c r="G158" s="7">
-        <f>E158*100</f>
+        <f t="shared" si="2"/>
         <v>790</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I158" s="29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="15.75">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="159" ht="15.6" spans="1:9">
       <c r="A159" s="17" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="D159" s="5">
         <v>299</v>
@@ -7232,28 +7841,28 @@
         <v>299</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G159" s="7">
-        <f>E159*100</f>
+        <f t="shared" si="2"/>
         <v>29900</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I159" s="29" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="15.75">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="160" ht="15.6" spans="1:9">
       <c r="A160" s="17" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="D160" s="5">
         <v>229</v>
@@ -7262,28 +7871,28 @@
         <v>229</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G160" s="7">
-        <f>E160*100</f>
+        <f t="shared" si="2"/>
         <v>22900</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I160" s="29" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="15.75">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="161" ht="15.6" spans="1:9">
       <c r="A161" s="2" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="D161" s="5">
         <v>309</v>
@@ -7295,25 +7904,25 @@
         <v>0</v>
       </c>
       <c r="G161" s="7">
-        <f>E161*100</f>
+        <f t="shared" si="2"/>
         <v>29900</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I161" s="29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="15.75">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="162" ht="15.6" spans="1:9">
       <c r="A162" s="2" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="D162" s="5">
         <v>339</v>
@@ -7325,25 +7934,25 @@
         <v>0</v>
       </c>
       <c r="G162" s="7">
-        <f>E162*100</f>
+        <f t="shared" si="2"/>
         <v>32900</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I162" s="29" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="15.75">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="163" ht="15.6" spans="1:9">
       <c r="A163" s="17" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="D163" s="5">
         <v>159</v>
@@ -7352,28 +7961,28 @@
         <v>156</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G163" s="7">
-        <f>E163*100</f>
+        <f t="shared" si="2"/>
         <v>15600</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I163" s="29" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="15.75">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="164" ht="15.6" spans="1:9">
       <c r="A164" s="17" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="D164" s="5">
         <v>159</v>
@@ -7382,28 +7991,28 @@
         <v>156</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G164" s="7">
-        <f>E164*100</f>
+        <f t="shared" si="2"/>
         <v>15600</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I164" s="29" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="15.75">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="165" ht="15.6" spans="1:9">
       <c r="A165" s="17" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="D165" s="5">
         <v>169</v>
@@ -7412,28 +8021,28 @@
         <v>166</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G165" s="7">
-        <f>E165*100</f>
+        <f t="shared" si="2"/>
         <v>16600</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I165" s="29" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="15.75">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="166" ht="15.6" spans="1:9">
       <c r="A166" s="2" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D166" s="5">
         <v>299</v>
@@ -7445,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="G166" s="7">
-        <f>E166*100</f>
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I166" s="29" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="15.75">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="167" ht="15.6" spans="1:9">
       <c r="A167" s="2" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="D167" s="5">
         <v>1899</v>
@@ -7475,25 +8084,25 @@
         <v>0</v>
       </c>
       <c r="G167" s="7">
-        <f>E167*100</f>
+        <f t="shared" si="2"/>
         <v>139900</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I167" s="29" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="15.75">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="168" ht="15.6" spans="1:9">
       <c r="A168" s="2" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="D168" s="5">
         <v>1299</v>
@@ -7505,25 +8114,25 @@
         <v>0</v>
       </c>
       <c r="G168" s="7">
-        <f>E168*100</f>
+        <f t="shared" si="2"/>
         <v>87900</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I168" s="29" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="15.75">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="169" ht="15.6" spans="1:9">
       <c r="A169" s="2" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="D169" s="5">
         <v>1499</v>
@@ -7535,25 +8144,25 @@
         <v>0</v>
       </c>
       <c r="G169" s="7">
-        <f>E169*100</f>
+        <f t="shared" si="2"/>
         <v>104900</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I169" s="29" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="15.75">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="170" ht="15.6" spans="1:9">
       <c r="A170" s="2" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D170" s="5">
         <v>499</v>
@@ -7565,22 +8174,22 @@
         <v>0</v>
       </c>
       <c r="G170" s="7">
-        <f>E170*100</f>
+        <f t="shared" si="2"/>
         <v>49900</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I170" s="29" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="15.75">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="171" ht="15.6" spans="1:9">
       <c r="A171" s="2" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>542</v>
@@ -7595,25 +8204,25 @@
         <v>0</v>
       </c>
       <c r="G171" s="7">
-        <f>E171*100</f>
+        <f t="shared" si="2"/>
         <v>49900</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I171" s="29" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="15.75">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="172" ht="15.6" spans="1:9">
       <c r="A172" s="2" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D172" s="5">
         <v>299</v>
@@ -7625,25 +8234,25 @@
         <v>0</v>
       </c>
       <c r="G172" s="7">
-        <f>E172*100</f>
+        <f t="shared" si="2"/>
         <v>26900</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I172" s="29" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="15.75">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="173" ht="15.6" spans="1:9">
       <c r="A173" s="2" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D173" s="5">
         <v>246</v>
@@ -7655,25 +8264,25 @@
         <v>0</v>
       </c>
       <c r="G173" s="7">
-        <f>E173*100</f>
+        <f t="shared" si="2"/>
         <v>20900</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I173" s="29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="15.75">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="174" ht="15.6" spans="1:9">
       <c r="A174" s="2" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D174" s="5">
         <v>179</v>
@@ -7685,25 +8294,25 @@
         <v>0</v>
       </c>
       <c r="G174" s="7">
-        <f>E174*100</f>
+        <f t="shared" si="2"/>
         <v>13900</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I174" s="29" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="15.75">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="175" ht="15.6" spans="1:9">
       <c r="A175" s="2" t="s">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D175" s="5">
         <v>439</v>
@@ -7715,27 +8324,30 @@
         <v>0</v>
       </c>
       <c r="G175" s="7">
-        <f>E175*100</f>
+        <f t="shared" si="2"/>
         <v>37900</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I175" s="29" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I175">
+  <sortState ref="A2:I175">
     <sortCondition ref="B2:B175"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I133" r:id="rId1" xr:uid="{319C9BC9-76CF-45A2-B659-D17E0CB66B3A}"/>
-    <hyperlink ref="I134" r:id="rId2" xr:uid="{61F80ABC-731C-4296-AF77-5CE92A47FFEE}"/>
-    <hyperlink ref="I135" r:id="rId3" xr:uid="{3DE10BFF-870E-4B35-92CC-28774DBF3008}"/>
-    <hyperlink ref="I136" r:id="rId4" xr:uid="{803222F2-3368-4D75-90F3-2E6BF550DC1D}"/>
+    <hyperlink ref="I133" r:id="rId1" display="https://m.media-amazon.com/images/I/61n-1Kr60BL.jpg"/>
+    <hyperlink ref="I134" r:id="rId2" display="https://ufostorekh.com/wp-content/uploads/2023/09/64fa8963-5f9c-43fc-b285-68100a8a002e_1000x1000.jpeg"/>
+    <hyperlink ref="I135" r:id="rId3" display="https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955358_3.jpg"/>
+    <hyperlink ref="I136" r:id="rId4" display="https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955372_3.jpg"/>
+    <hyperlink ref="I102" r:id="rId5" display="https://www.imghippo.com/i/jRLt5792sH.webp"/>
+    <hyperlink ref="I103" r:id="rId6" display="https://www.imghippo.com/i/Kpdo6122ks.webp"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -3073,7 +3073,7 @@
   <sheetPr/>
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
       <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -968,7 +968,7 @@
     <t>Vacuum Straw Tumbler 800ml Blue</t>
   </si>
   <si>
-    <t>https://www.imghippo.com/i/jRLt5792sH.webp</t>
+    <t>https://i.imghippo.com/files/jRLt5792sH.webp</t>
   </si>
   <si>
     <t>SCF-100.JVC80V26(P)</t>
@@ -977,7 +977,7 @@
     <t>Vacuum Straw Tumbler 800ml Pink</t>
   </si>
   <si>
-    <t>https://www.imghippo.com/i/Kpdo6122ks.webp</t>
+    <t>https://i.imghippo.com/files/Kpdo6122ks.webp</t>
   </si>
   <si>
     <t>SCF-100.SMP84.C0WH</t>
@@ -3073,8 +3073,8 @@
   <sheetPr/>
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -5990,7 +5990,7 @@
       <c r="H97" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="29" t="s">
+      <c r="I97" s="32" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8343,8 +8343,9 @@
     <hyperlink ref="I134" r:id="rId2" display="https://ufostorekh.com/wp-content/uploads/2023/09/64fa8963-5f9c-43fc-b285-68100a8a002e_1000x1000.jpeg"/>
     <hyperlink ref="I135" r:id="rId3" display="https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955358_3.jpg"/>
     <hyperlink ref="I136" r:id="rId4" display="https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955372_3.jpg"/>
-    <hyperlink ref="I102" r:id="rId5" display="https://www.imghippo.com/i/jRLt5792sH.webp"/>
-    <hyperlink ref="I103" r:id="rId6" display="https://www.imghippo.com/i/Kpdo6122ks.webp"/>
+    <hyperlink ref="I102" r:id="rId5" display="https://i.imghippo.com/files/jRLt5792sH.webp" tooltip="https://i.imghippo.com/files/jRLt5792sH.webp"/>
+    <hyperlink ref="I103" r:id="rId6" display="https://i.imghippo.com/files/Kpdo6122ks.webp" tooltip="https://i.imghippo.com/files/Kpdo6122ks.webp"/>
+    <hyperlink ref="I97" r:id="rId7" display="https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="557">
   <si>
     <t>SCF</t>
   </si>
@@ -68,7 +68,7 @@
     <t>Start Effective 1/2/2025</t>
   </si>
   <si>
-    <t>https://i.ibb.co/Y7YS61V5/front-view-zl-atstg-02d.webp</t>
+    <t>https://i.postimg.cc/pT41hXLR/acerpure.jpg</t>
   </si>
   <si>
     <t>SCF-100.C6110PE</t>
@@ -1007,13 +1007,16 @@
     <t>SCF-100.MINI(G)</t>
   </si>
   <si>
-    <t>Laifen Mini High-Speed Hair Dryer</t>
+    <t>Laifen Mini High-Speed Hair Dryer (Green)</t>
   </si>
   <si>
     <t>https://www.tmt.my/data/editor/sc-product/17734/LAIFEN-MINI-HAIR-DRYER-1.jpg</t>
   </si>
   <si>
     <t>SCF-100.MINI(P)</t>
+  </si>
+  <si>
+    <t>Laifen Mini High-Speed Hair Dryer (Pink)</t>
   </si>
   <si>
     <t>SCF-100.4131ATB</t>
@@ -2522,6 +2525,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2530,9 +2536,6 @@
     </xf>
     <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
@@ -3073,8 +3076,8 @@
   <sheetPr/>
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -3174,7 +3177,7 @@
       <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3204,7 +3207,7 @@
       <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3234,7 +3237,7 @@
       <c r="H5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="30" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3264,7 +3267,7 @@
       <c r="H6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3294,7 +3297,7 @@
       <c r="H7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3324,7 +3327,7 @@
       <c r="H8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="30" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3354,7 +3357,7 @@
       <c r="H9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3384,7 +3387,7 @@
       <c r="H10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3414,7 +3417,7 @@
       <c r="H11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3444,7 +3447,7 @@
       <c r="H12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3474,7 +3477,7 @@
       <c r="H13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3504,7 +3507,7 @@
       <c r="H14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="30" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3534,7 +3537,7 @@
       <c r="H15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="30" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3564,7 +3567,7 @@
       <c r="H16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="30" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3594,7 +3597,7 @@
       <c r="H17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3624,7 +3627,7 @@
       <c r="H18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3654,7 +3657,7 @@
       <c r="H19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3684,7 +3687,7 @@
       <c r="H20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3714,7 +3717,7 @@
       <c r="H21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="30" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3744,7 +3747,7 @@
       <c r="H22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3774,7 +3777,7 @@
       <c r="H23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="30" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3804,7 +3807,7 @@
       <c r="H24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="30" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3834,7 +3837,7 @@
       <c r="H25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="30" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3864,7 +3867,7 @@
       <c r="H26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="30" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3894,7 +3897,7 @@
       <c r="H27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="30" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3924,7 +3927,7 @@
       <c r="H28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="30" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3954,7 +3957,7 @@
       <c r="H29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="30" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3984,7 +3987,7 @@
       <c r="H30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="30" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4014,7 +4017,7 @@
       <c r="H31" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="30" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4044,7 +4047,7 @@
       <c r="H32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="30" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4074,7 +4077,7 @@
       <c r="H33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="29" t="s">
+      <c r="I33" s="30" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4104,7 +4107,7 @@
       <c r="H34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="30" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4134,7 +4137,7 @@
       <c r="H35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="30" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4164,7 +4167,7 @@
       <c r="H36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4194,7 +4197,7 @@
       <c r="H37" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4224,7 +4227,7 @@
       <c r="H38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="30" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4254,7 +4257,7 @@
       <c r="H39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="30" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4284,7 +4287,7 @@
       <c r="H40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="30" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4314,7 +4317,7 @@
       <c r="H41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="29" t="s">
+      <c r="I41" s="30" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4344,7 +4347,7 @@
       <c r="H42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="29" t="s">
+      <c r="I42" s="30" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4374,7 +4377,7 @@
       <c r="H43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="30" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4404,7 +4407,7 @@
       <c r="H44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="29" t="s">
+      <c r="I44" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4434,7 +4437,7 @@
       <c r="H45" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="29" t="s">
+      <c r="I45" s="30" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4464,7 +4467,7 @@
       <c r="H46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="29" t="s">
+      <c r="I46" s="30" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4494,7 +4497,7 @@
       <c r="H47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="29" t="s">
+      <c r="I47" s="30" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4524,7 +4527,7 @@
       <c r="H48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="29" t="s">
+      <c r="I48" s="30" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4554,7 +4557,7 @@
       <c r="H49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="29" t="s">
+      <c r="I49" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4584,7 +4587,7 @@
       <c r="H50" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="29" t="s">
+      <c r="I50" s="30" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4614,7 +4617,7 @@
       <c r="H51" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="29" t="s">
+      <c r="I51" s="30" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4644,7 +4647,7 @@
       <c r="H52" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="29" t="s">
+      <c r="I52" s="30" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4674,7 +4677,7 @@
       <c r="H53" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="30" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4704,7 +4707,7 @@
       <c r="H54" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="30" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4734,7 +4737,7 @@
       <c r="H55" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="29" t="s">
+      <c r="I55" s="30" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4764,7 +4767,7 @@
       <c r="H56" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="29" t="s">
+      <c r="I56" s="30" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4794,7 +4797,7 @@
       <c r="H57" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="29" t="s">
+      <c r="I57" s="30" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4824,7 +4827,7 @@
       <c r="H58" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="29" t="s">
+      <c r="I58" s="30" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4854,7 +4857,7 @@
       <c r="H59" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="29" t="s">
+      <c r="I59" s="30" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4884,7 +4887,7 @@
       <c r="H60" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="29" t="s">
+      <c r="I60" s="30" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4914,7 +4917,7 @@
       <c r="H61" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="29" t="s">
+      <c r="I61" s="30" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4944,7 +4947,7 @@
       <c r="H62" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="I62" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4974,7 +4977,7 @@
       <c r="H63" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I63" s="30" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5004,7 +5007,7 @@
       <c r="H64" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="30" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5034,7 +5037,7 @@
       <c r="H65" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="29" t="s">
+      <c r="I65" s="30" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5064,7 +5067,7 @@
       <c r="H66" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="29" t="s">
+      <c r="I66" s="30" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5094,7 +5097,7 @@
       <c r="H67" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="29"/>
+      <c r="I67" s="30"/>
     </row>
     <row r="68" ht="15.6" spans="1:9">
       <c r="A68" s="17" t="s">
@@ -5122,7 +5125,7 @@
       <c r="H68" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="29"/>
+      <c r="I68" s="30"/>
     </row>
     <row r="69" ht="15.6" spans="1:9">
       <c r="A69" s="17" t="s">
@@ -5150,7 +5153,7 @@
       <c r="H69" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="29" t="s">
+      <c r="I69" s="30" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5180,7 +5183,7 @@
       <c r="H70" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="30" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5210,7 +5213,7 @@
       <c r="H71" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="29" t="s">
+      <c r="I71" s="30" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5240,7 +5243,7 @@
       <c r="H72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="29" t="s">
+      <c r="I72" s="30" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5270,7 +5273,7 @@
       <c r="H73" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="I73" s="30" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5300,7 +5303,7 @@
       <c r="H74" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="29" t="s">
+      <c r="I74" s="30" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5330,7 +5333,7 @@
       <c r="H75" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="29" t="s">
+      <c r="I75" s="30" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5360,7 +5363,7 @@
       <c r="H76" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="29" t="s">
+      <c r="I76" s="30" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5390,7 +5393,7 @@
       <c r="H77" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I77" s="32" t="s">
+      <c r="I77" s="29" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5420,7 +5423,7 @@
       <c r="H78" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I78" s="29" t="s">
+      <c r="I78" s="30" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5450,7 +5453,7 @@
       <c r="H79" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I79" s="29" t="s">
+      <c r="I79" s="30" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5480,7 +5483,7 @@
       <c r="H80" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I80" s="29" t="s">
+      <c r="I80" s="30" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5510,7 +5513,7 @@
       <c r="H81" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I81" s="29" t="s">
+      <c r="I81" s="30" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5540,7 +5543,7 @@
       <c r="H82" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I82" s="29" t="s">
+      <c r="I82" s="30" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5570,7 +5573,7 @@
       <c r="H83" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I83" s="29" t="s">
+      <c r="I83" s="30" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5600,7 +5603,7 @@
       <c r="H84" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="I84" s="30" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5630,7 +5633,7 @@
       <c r="H85" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="I85" s="30" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5660,7 +5663,7 @@
       <c r="H86" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I86" s="29" t="s">
+      <c r="I86" s="30" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5690,7 +5693,7 @@
       <c r="H87" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="29" t="s">
+      <c r="I87" s="30" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5720,7 +5723,7 @@
       <c r="H88" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I88" s="29" t="s">
+      <c r="I88" s="30" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5750,7 +5753,7 @@
       <c r="H89" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I89" s="29" t="s">
+      <c r="I89" s="30" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5780,7 +5783,7 @@
       <c r="H90" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I90" s="29" t="s">
+      <c r="I90" s="30" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5810,7 +5813,7 @@
       <c r="H91" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I91" s="29" t="s">
+      <c r="I91" s="30" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5840,7 +5843,7 @@
       <c r="H92" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="29" t="s">
+      <c r="I92" s="30" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5870,7 +5873,7 @@
       <c r="H93" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="29" t="s">
+      <c r="I93" s="30" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5900,12 +5903,12 @@
       <c r="H94" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I94" s="29" t="s">
+      <c r="I94" s="30" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="95" ht="15.6" spans="1:9">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="31" t="s">
         <v>291</v>
       </c>
       <c r="B95" s="13" t="s">
@@ -5930,7 +5933,7 @@
       <c r="H95" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I95" s="29" t="s">
+      <c r="I95" s="30" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5960,7 +5963,7 @@
       <c r="H96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I96" s="29" t="s">
+      <c r="I96" s="30" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5990,7 +5993,7 @@
       <c r="H97" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="32" t="s">
+      <c r="I97" s="29" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6020,7 +6023,7 @@
       <c r="H98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I98" s="29" t="s">
+      <c r="I98" s="30" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6050,7 +6053,7 @@
       <c r="H99" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="29" t="s">
+      <c r="I99" s="30" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6080,7 +6083,7 @@
       <c r="H100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I100" s="29" t="s">
+      <c r="I100" s="30" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6110,7 +6113,7 @@
       <c r="H101" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I101" s="29" t="s">
+      <c r="I101" s="30" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6140,7 +6143,7 @@
       <c r="H102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="32" t="s">
+      <c r="I102" s="29" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6200,7 +6203,7 @@
       <c r="H104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="29" t="s">
+      <c r="I104" s="30" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6230,7 +6233,7 @@
       <c r="H105" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I105" s="29" t="s">
+      <c r="I105" s="30" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6260,7 +6263,7 @@
       <c r="H106" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I106" s="29" t="s">
+      <c r="I106" s="30" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6272,7 +6275,7 @@
         <v>322</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D107" s="5">
         <v>699</v>
@@ -6290,19 +6293,19 @@
       <c r="H107" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I107" s="29" t="s">
+      <c r="I107" s="30" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" ht="15.6" spans="1:9">
       <c r="A108" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D108" s="12">
         <v>119</v>
@@ -6320,19 +6323,19 @@
       <c r="H108" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I108" s="29" t="s">
-        <v>332</v>
+      <c r="I108" s="30" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="109" ht="15.6" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D109" s="5">
         <v>239</v>
@@ -6350,19 +6353,19 @@
       <c r="H109" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="29" t="s">
-        <v>336</v>
+      <c r="I109" s="30" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="110" ht="15.6" spans="1:9">
       <c r="A110" s="17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D110" s="5">
         <v>209</v>
@@ -6380,19 +6383,19 @@
       <c r="H110" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I110" s="29" t="s">
-        <v>339</v>
+      <c r="I110" s="30" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="111" ht="15.6" spans="1:9">
       <c r="A111" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D111" s="5">
         <v>135</v>
@@ -6410,19 +6413,19 @@
       <c r="H111" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I111" s="29" t="s">
-        <v>342</v>
+      <c r="I111" s="30" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="112" ht="15.6" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D112" s="5">
         <v>106</v>
@@ -6440,19 +6443,19 @@
       <c r="H112" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I112" s="29" t="s">
-        <v>346</v>
+      <c r="I112" s="30" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:9">
       <c r="A113" s="17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D113" s="5">
         <v>86</v>
@@ -6470,19 +6473,19 @@
       <c r="H113" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I113" s="29" t="s">
-        <v>349</v>
+      <c r="I113" s="30" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="114" ht="15.6" spans="1:9">
       <c r="A114" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D114" s="5">
         <v>86</v>
@@ -6500,19 +6503,19 @@
       <c r="H114" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I114" s="29" t="s">
-        <v>352</v>
+      <c r="I114" s="30" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="115" ht="15.6" spans="1:9">
       <c r="A115" s="17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D115" s="5">
         <v>86</v>
@@ -6530,24 +6533,24 @@
       <c r="H115" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I115" s="29" t="s">
-        <v>355</v>
+      <c r="I115" s="30" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="116" ht="15.6" spans="1:9">
       <c r="A116" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D116" s="12">
         <v>106</v>
       </c>
-      <c r="E116" s="31">
+      <c r="E116" s="32">
         <v>104</v>
       </c>
       <c r="F116" s="6">
@@ -6560,19 +6563,19 @@
       <c r="H116" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I116" s="29" t="s">
-        <v>358</v>
+      <c r="I116" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="117" ht="15.6" spans="1:9">
       <c r="A117" s="17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D117" s="5">
         <v>8.6</v>
@@ -6590,19 +6593,19 @@
       <c r="H117" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I117" s="29" t="s">
-        <v>362</v>
+      <c r="I117" s="30" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="118" ht="15.6" spans="1:9">
       <c r="A118" s="17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D118" s="5">
         <v>8</v>
@@ -6620,19 +6623,19 @@
       <c r="H118" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I118" s="29" t="s">
-        <v>365</v>
+      <c r="I118" s="30" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="119" ht="15.6" spans="1:9">
       <c r="A119" s="17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D119" s="5">
         <v>8</v>
@@ -6650,19 +6653,19 @@
       <c r="H119" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I119" s="29" t="s">
-        <v>368</v>
+      <c r="I119" s="30" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="120" ht="15.6" spans="1:9">
       <c r="A120" s="17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D120" s="5">
         <v>8</v>
@@ -6680,19 +6683,19 @@
       <c r="H120" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I120" s="29" t="s">
-        <v>371</v>
+      <c r="I120" s="30" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="121" ht="15.6" spans="1:9">
       <c r="A121" s="17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D121" s="5">
         <v>12.5</v>
@@ -6708,26 +6711,26 @@
         <v>1250</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="I121" s="29" t="s">
         <v>376</v>
+      </c>
+      <c r="I121" s="30" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="122" ht="15.6" spans="1:9">
       <c r="A122" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D122" s="12">
         <v>69</v>
       </c>
-      <c r="E122" s="31">
+      <c r="E122" s="32">
         <v>69</v>
       </c>
       <c r="F122" s="6">
@@ -6740,24 +6743,24 @@
       <c r="H122" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I122" s="29" t="s">
-        <v>380</v>
+      <c r="I122" s="30" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="123" ht="15.6" spans="1:9">
       <c r="A123" s="17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D123" s="12">
         <v>69</v>
       </c>
-      <c r="E123" s="31">
+      <c r="E123" s="32">
         <v>69</v>
       </c>
       <c r="F123" s="6">
@@ -6770,24 +6773,24 @@
       <c r="H123" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I123" s="29" t="s">
-        <v>383</v>
+      <c r="I123" s="30" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="124" ht="15.6" spans="1:9">
       <c r="A124" s="17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D124" s="12">
         <v>69</v>
       </c>
-      <c r="E124" s="31">
+      <c r="E124" s="32">
         <v>69</v>
       </c>
       <c r="F124" s="6">
@@ -6800,19 +6803,19 @@
       <c r="H124" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="29" t="s">
-        <v>386</v>
+      <c r="I124" s="30" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:9">
       <c r="A125" s="17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D125" s="5">
         <v>89</v>
@@ -6830,19 +6833,19 @@
       <c r="H125" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I125" s="29" t="s">
-        <v>389</v>
+      <c r="I125" s="30" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="126" ht="15.6" spans="1:9">
       <c r="A126" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D126" s="5">
         <v>89</v>
@@ -6860,19 +6863,19 @@
       <c r="H126" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I126" s="29" t="s">
-        <v>391</v>
+      <c r="I126" s="30" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="127" ht="15.6" spans="1:9">
       <c r="A127" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D127" s="5">
         <v>89</v>
@@ -6890,19 +6893,19 @@
       <c r="H127" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I127" s="29" t="s">
-        <v>393</v>
+      <c r="I127" s="30" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="128" ht="15.6" spans="1:9">
       <c r="A128" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D128" s="5">
         <v>39.9</v>
@@ -6920,19 +6923,19 @@
       <c r="H128" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I128" s="29" t="s">
-        <v>396</v>
+      <c r="I128" s="30" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="129" ht="15.6" spans="1:9">
       <c r="A129" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D129" s="5">
         <v>469</v>
@@ -6950,19 +6953,19 @@
       <c r="H129" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I129" s="29" t="s">
-        <v>400</v>
+      <c r="I129" s="30" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:9">
       <c r="A130" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D130" s="12">
         <v>79</v>
@@ -6980,19 +6983,19 @@
       <c r="H130" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I130" s="29" t="s">
-        <v>404</v>
+      <c r="I130" s="30" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="131" ht="15.6" spans="1:9">
       <c r="A131" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D131" s="12">
         <v>159</v>
@@ -7010,19 +7013,19 @@
       <c r="H131" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I131" s="29" t="s">
-        <v>407</v>
+      <c r="I131" s="30" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:9">
       <c r="A132" s="17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D132" s="12">
         <v>159</v>
@@ -7040,19 +7043,19 @@
       <c r="H132" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I132" s="29" t="s">
-        <v>410</v>
+      <c r="I132" s="30" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="133" ht="15.6" spans="1:9">
       <c r="A133" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D133" s="12">
         <v>159</v>
@@ -7070,19 +7073,19 @@
       <c r="H133" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I133" s="32" t="s">
-        <v>413</v>
+      <c r="I133" s="29" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="134" ht="15.6" spans="1:9">
       <c r="A134" s="17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D134" s="12">
         <v>159</v>
@@ -7100,19 +7103,19 @@
       <c r="H134" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I134" s="32" t="s">
-        <v>416</v>
+      <c r="I134" s="29" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="135" ht="15.6" spans="1:9">
       <c r="A135" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D135" s="12">
         <v>79</v>
@@ -7130,19 +7133,19 @@
       <c r="H135" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I135" s="32" t="s">
-        <v>419</v>
+      <c r="I135" s="29" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="136" ht="15.6" spans="1:9">
       <c r="A136" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D136" s="12">
         <v>79</v>
@@ -7160,19 +7163,19 @@
       <c r="H136" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I136" s="32" t="s">
-        <v>422</v>
+      <c r="I136" s="29" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="137" ht="15.6" spans="1:9">
       <c r="A137" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D137" s="12">
         <v>289</v>
@@ -7190,19 +7193,19 @@
       <c r="H137" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I137" s="29" t="s">
-        <v>426</v>
+      <c r="I137" s="30" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:9">
       <c r="A138" s="17" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D138" s="5">
         <v>199</v>
@@ -7220,19 +7223,19 @@
       <c r="H138" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I138" s="29" t="s">
-        <v>429</v>
+      <c r="I138" s="30" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:9">
       <c r="A139" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D139" s="5">
         <v>8.1</v>
@@ -7250,19 +7253,19 @@
       <c r="H139" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I139" s="29" t="s">
-        <v>433</v>
+      <c r="I139" s="30" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:9">
       <c r="A140" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D140" s="5">
         <v>3.3</v>
@@ -7280,19 +7283,19 @@
       <c r="H140" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I140" s="29" t="s">
-        <v>436</v>
+      <c r="I140" s="30" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:9">
       <c r="A141" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D141" s="5">
         <v>11.5</v>
@@ -7310,19 +7313,19 @@
       <c r="H141" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I141" s="29" t="s">
-        <v>439</v>
+      <c r="I141" s="30" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="142" ht="15.6" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D142" s="5">
         <v>449</v>
@@ -7340,19 +7343,19 @@
       <c r="H142" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I142" s="29" t="s">
-        <v>443</v>
+      <c r="I142" s="30" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:9">
       <c r="A143" s="17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D143" s="5">
         <v>2.6</v>
@@ -7370,19 +7373,19 @@
       <c r="H143" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I143" s="29" t="s">
-        <v>447</v>
+      <c r="I143" s="30" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="144" ht="15.6" spans="1:9">
       <c r="A144" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D144" s="12">
         <v>259</v>
@@ -7400,19 +7403,19 @@
       <c r="H144" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I144" s="29" t="s">
-        <v>451</v>
+      <c r="I144" s="30" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:9">
       <c r="A145" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D145" s="5">
         <v>269</v>
@@ -7430,19 +7433,19 @@
       <c r="H145" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I145" s="29" t="s">
-        <v>454</v>
+      <c r="I145" s="30" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:9">
       <c r="A146" s="17" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D146" s="5">
         <v>129</v>
@@ -7460,19 +7463,19 @@
       <c r="H146" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I146" s="29" t="s">
-        <v>457</v>
+      <c r="I146" s="30" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:9">
       <c r="A147" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D147" s="5">
         <v>1999</v>
@@ -7490,19 +7493,19 @@
       <c r="H147" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I147" s="29" t="s">
-        <v>461</v>
+      <c r="I147" s="30" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:9">
       <c r="A148" s="17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D148" s="5">
         <v>9.1</v>
@@ -7520,19 +7523,19 @@
       <c r="H148" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I148" s="29" t="s">
-        <v>465</v>
+      <c r="I148" s="30" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:9">
       <c r="A149" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D149" s="5">
         <v>16.5</v>
@@ -7550,19 +7553,19 @@
       <c r="H149" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I149" s="29" t="s">
-        <v>469</v>
+      <c r="I149" s="30" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:9">
       <c r="A150" s="15" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D150" s="5">
         <v>18.9</v>
@@ -7580,19 +7583,19 @@
       <c r="H150" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I150" s="29" t="s">
-        <v>473</v>
+      <c r="I150" s="30" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="151" ht="15.6" spans="1:9">
       <c r="A151" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D151" s="5">
         <v>30</v>
@@ -7610,19 +7613,19 @@
       <c r="H151" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I151" s="29" t="s">
-        <v>476</v>
+      <c r="I151" s="30" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="152" ht="15.6" spans="1:9">
       <c r="A152" s="15" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D152" s="5">
         <v>36</v>
@@ -7640,19 +7643,19 @@
       <c r="H152" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I152" s="29" t="s">
-        <v>479</v>
+      <c r="I152" s="30" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="153" ht="15.6" spans="1:9">
       <c r="A153" s="15" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D153" s="5">
         <v>35</v>
@@ -7670,19 +7673,19 @@
       <c r="H153" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I153" s="29" t="s">
-        <v>482</v>
+      <c r="I153" s="30" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="154" ht="15.6" spans="1:9">
       <c r="A154" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D154" s="5">
         <v>35</v>
@@ -7700,19 +7703,19 @@
       <c r="H154" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I154" s="29" t="s">
-        <v>485</v>
+      <c r="I154" s="30" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="155" ht="15.6" spans="1:9">
       <c r="A155" s="15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D155" s="5">
         <v>40</v>
@@ -7730,19 +7733,19 @@
       <c r="H155" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I155" s="29" t="s">
-        <v>488</v>
+      <c r="I155" s="30" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="156" ht="15.6" spans="1:9">
       <c r="A156" s="15" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D156" s="5">
         <v>50</v>
@@ -7760,19 +7763,19 @@
       <c r="H156" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I156" s="29" t="s">
-        <v>491</v>
+      <c r="I156" s="30" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="157" ht="15.6" spans="1:9">
       <c r="A157" s="15" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D157" s="5">
         <v>15</v>
@@ -7790,19 +7793,19 @@
       <c r="H157" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I157" s="29" t="s">
-        <v>494</v>
+      <c r="I157" s="30" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="158" ht="15.6" spans="1:9">
       <c r="A158" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D158" s="5">
         <v>7.9</v>
@@ -7820,19 +7823,19 @@
       <c r="H158" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I158" s="29" t="s">
-        <v>498</v>
+      <c r="I158" s="30" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="159" ht="15.6" spans="1:9">
       <c r="A159" s="17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D159" s="5">
         <v>299</v>
@@ -7850,19 +7853,19 @@
       <c r="H159" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I159" s="29" t="s">
-        <v>502</v>
+      <c r="I159" s="30" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="160" ht="15.6" spans="1:9">
       <c r="A160" s="17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D160" s="5">
         <v>229</v>
@@ -7880,19 +7883,19 @@
       <c r="H160" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I160" s="29" t="s">
-        <v>505</v>
+      <c r="I160" s="30" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="161" ht="15.6" spans="1:9">
       <c r="A161" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D161" s="5">
         <v>309</v>
@@ -7910,19 +7913,19 @@
       <c r="H161" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I161" s="29" t="s">
-        <v>509</v>
+      <c r="I161" s="30" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="162" ht="15.6" spans="1:9">
       <c r="A162" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D162" s="5">
         <v>339</v>
@@ -7940,19 +7943,19 @@
       <c r="H162" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I162" s="29" t="s">
-        <v>512</v>
+      <c r="I162" s="30" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="163" ht="15.6" spans="1:9">
       <c r="A163" s="17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D163" s="5">
         <v>159</v>
@@ -7970,19 +7973,19 @@
       <c r="H163" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I163" s="29" t="s">
-        <v>515</v>
+      <c r="I163" s="30" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="164" ht="15.6" spans="1:9">
       <c r="A164" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D164" s="5">
         <v>159</v>
@@ -8000,19 +8003,19 @@
       <c r="H164" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I164" s="29" t="s">
-        <v>518</v>
+      <c r="I164" s="30" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="165" ht="15.6" spans="1:9">
       <c r="A165" s="17" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D165" s="5">
         <v>169</v>
@@ -8030,19 +8033,19 @@
       <c r="H165" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I165" s="29" t="s">
-        <v>521</v>
+      <c r="I165" s="30" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="166" ht="15.6" spans="1:9">
       <c r="A166" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D166" s="5">
         <v>299</v>
@@ -8060,19 +8063,19 @@
       <c r="H166" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I166" s="29" t="s">
-        <v>525</v>
+      <c r="I166" s="30" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="167" ht="15.6" spans="1:9">
       <c r="A167" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D167" s="5">
         <v>1899</v>
@@ -8090,19 +8093,19 @@
       <c r="H167" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I167" s="29" t="s">
-        <v>529</v>
+      <c r="I167" s="30" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="168" ht="15.6" spans="1:9">
       <c r="A168" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D168" s="5">
         <v>1299</v>
@@ -8120,19 +8123,19 @@
       <c r="H168" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I168" s="29" t="s">
-        <v>532</v>
+      <c r="I168" s="30" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="169" ht="15.6" spans="1:9">
       <c r="A169" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D169" s="5">
         <v>1499</v>
@@ -8150,19 +8153,19 @@
       <c r="H169" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I169" s="29" t="s">
-        <v>535</v>
+      <c r="I169" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="170" ht="15.6" spans="1:9">
       <c r="A170" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D170" s="5">
         <v>499</v>
@@ -8180,19 +8183,19 @@
       <c r="H170" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I170" s="29" t="s">
-        <v>539</v>
+      <c r="I170" s="30" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="171" ht="15.6" spans="1:9">
       <c r="A171" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D171" s="5">
         <v>699</v>
@@ -8210,19 +8213,19 @@
       <c r="H171" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I171" s="29" t="s">
-        <v>543</v>
+      <c r="I171" s="30" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="172" ht="15.6" spans="1:9">
       <c r="A172" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D172" s="5">
         <v>299</v>
@@ -8240,19 +8243,19 @@
       <c r="H172" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I172" s="29" t="s">
-        <v>546</v>
+      <c r="I172" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="173" ht="15.6" spans="1:9">
       <c r="A173" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D173" s="5">
         <v>246</v>
@@ -8270,19 +8273,19 @@
       <c r="H173" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I173" s="29" t="s">
-        <v>549</v>
+      <c r="I173" s="30" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="174" ht="15.6" spans="1:9">
       <c r="A174" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D174" s="5">
         <v>179</v>
@@ -8300,19 +8303,19 @@
       <c r="H174" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I174" s="29" t="s">
-        <v>552</v>
+      <c r="I174" s="30" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="175" ht="15.6" spans="1:9">
       <c r="A175" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D175" s="5">
         <v>439</v>
@@ -8330,8 +8333,8 @@
       <c r="H175" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I175" s="29" t="s">
-        <v>555</v>
+      <c r="I175" s="30" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -8346,6 +8349,7 @@
     <hyperlink ref="I102" r:id="rId5" display="https://i.imghippo.com/files/jRLt5792sH.webp" tooltip="https://i.imghippo.com/files/jRLt5792sH.webp"/>
     <hyperlink ref="I103" r:id="rId6" display="https://i.imghippo.com/files/Kpdo6122ks.webp" tooltip="https://i.imghippo.com/files/Kpdo6122ks.webp"/>
     <hyperlink ref="I97" r:id="rId7" display="https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg"/>
+    <hyperlink ref="I2" r:id="rId8" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="560">
   <si>
     <t>SCF</t>
   </si>
@@ -647,10 +647,19 @@
     <t>ENBLISS</t>
   </si>
   <si>
-    <t>Enbliss Detergent Capsules</t>
+    <t>Consensus High Concentration Capsule Laundry Detergent 15g (30 pieces)</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg</t>
   </si>
   <si>
     <t>SCF-100.CSS0068</t>
+  </si>
+  <si>
+    <t>Consensus High Concentration Capsule Laundry Detergent 7.5g (60 pieces)</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg</t>
   </si>
   <si>
     <t>SCF-100.EBS4158</t>
@@ -3076,8 +3085,8 @@
   <sheetPr/>
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -5097,17 +5106,19 @@
       <c r="H67" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="30"/>
+      <c r="I67" s="30" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="68" ht="15.6" spans="1:9">
       <c r="A68" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D68" s="5">
         <v>49</v>
@@ -5125,17 +5136,19 @@
       <c r="H68" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="30"/>
+      <c r="I68" s="30" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="69" ht="15.6" spans="1:9">
       <c r="A69" s="17" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D69" s="5">
         <v>29</v>
@@ -5154,18 +5167,18 @@
         <v>17</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" ht="15.6" spans="1:9">
       <c r="A70" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D70" s="12">
         <v>24.9</v>
@@ -5184,18 +5197,18 @@
         <v>17</v>
       </c>
       <c r="I70" s="30" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" ht="15.6" spans="1:9">
       <c r="A71" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D71" s="12">
         <v>20.9</v>
@@ -5214,18 +5227,18 @@
         <v>17</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" ht="15.6" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D72" s="5">
         <v>210</v>
@@ -5244,18 +5257,18 @@
         <v>12</v>
       </c>
       <c r="I72" s="30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="1:9">
       <c r="A73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D73" s="5">
         <v>228</v>
@@ -5274,18 +5287,18 @@
         <v>12</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="1:9">
       <c r="A74" s="17" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D74" s="5">
         <v>162</v>
@@ -5304,18 +5317,18 @@
         <v>17</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="1:9">
       <c r="A75" s="17" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D75" s="5">
         <v>11.9</v>
@@ -5334,18 +5347,18 @@
         <v>17</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" ht="15.6" spans="1:9">
       <c r="A76" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D76" s="5">
         <v>129</v>
@@ -5364,18 +5377,18 @@
         <v>17</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" ht="15.6" spans="1:9">
       <c r="A77" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>232</v>
-      </c>
       <c r="C77" s="16" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D77" s="5">
         <v>99</v>
@@ -5394,18 +5407,18 @@
         <v>17</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" ht="15.6" spans="1:9">
       <c r="A78" s="17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D78" s="12">
         <v>89</v>
@@ -5424,18 +5437,18 @@
         <v>17</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" ht="15.6" spans="1:9">
       <c r="A79" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="C79" s="16" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D79" s="12">
         <v>89</v>
@@ -5454,18 +5467,18 @@
         <v>17</v>
       </c>
       <c r="I79" s="30" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" ht="15.6" spans="1:9">
       <c r="A80" s="17" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D80" s="12">
         <v>89</v>
@@ -5484,18 +5497,18 @@
         <v>17</v>
       </c>
       <c r="I80" s="30" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:9">
       <c r="A81" s="17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D81" s="12">
         <v>89</v>
@@ -5514,18 +5527,18 @@
         <v>17</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" ht="15.6" spans="1:9">
       <c r="A82" s="17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D82" s="5">
         <v>18.5</v>
@@ -5544,18 +5557,18 @@
         <v>17</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" ht="15.6" spans="1:9">
       <c r="A83" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="C83" s="16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D83" s="5">
         <v>18</v>
@@ -5574,18 +5587,18 @@
         <v>17</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" ht="15.6" spans="1:9">
       <c r="A84" s="17" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D84" s="5">
         <v>5.7</v>
@@ -5604,18 +5617,18 @@
         <v>17</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" ht="15.6" spans="1:9">
       <c r="A85" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="C85" s="16" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D85" s="5">
         <v>4.5</v>
@@ -5634,18 +5647,18 @@
         <v>17</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" ht="15.6" spans="1:9">
       <c r="A86" s="17" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D86" s="5">
         <v>3.5</v>
@@ -5664,15 +5677,15 @@
         <v>17</v>
       </c>
       <c r="I86" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" ht="15.6" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>191</v>
@@ -5694,18 +5707,18 @@
         <v>12</v>
       </c>
       <c r="I87" s="30" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:9">
       <c r="A88" s="17" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D88" s="5">
         <v>799</v>
@@ -5724,18 +5737,18 @@
         <v>17</v>
       </c>
       <c r="I88" s="30" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" ht="15.6" spans="1:9">
       <c r="A89" s="17" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D89" s="5">
         <v>1199</v>
@@ -5754,18 +5767,18 @@
         <v>17</v>
       </c>
       <c r="I89" s="30" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" ht="15.6" spans="1:9">
       <c r="A90" s="17" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D90" s="5">
         <v>2099</v>
@@ -5784,18 +5797,18 @@
         <v>17</v>
       </c>
       <c r="I90" s="30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" ht="15.6" spans="1:9">
       <c r="A91" s="17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D91" s="5">
         <v>2699</v>
@@ -5814,18 +5827,18 @@
         <v>17</v>
       </c>
       <c r="I91" s="30" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" ht="15.6" spans="1:9">
       <c r="A92" s="17" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D92" s="5">
         <v>119</v>
@@ -5844,18 +5857,18 @@
         <v>17</v>
       </c>
       <c r="I92" s="30" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" ht="15.6" spans="1:9">
       <c r="A93" s="17" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D93" s="5">
         <v>119</v>
@@ -5874,18 +5887,18 @@
         <v>17</v>
       </c>
       <c r="I93" s="30" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" ht="15.6" spans="1:9">
       <c r="A94" s="9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D94" s="12">
         <v>109</v>
@@ -5904,18 +5917,18 @@
         <v>17</v>
       </c>
       <c r="I94" s="30" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" ht="15.6" spans="1:9">
       <c r="A95" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="B95" s="13" t="s">
-        <v>288</v>
-      </c>
       <c r="C95" s="16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D95" s="5">
         <v>99</v>
@@ -5934,18 +5947,18 @@
         <v>17</v>
       </c>
       <c r="I95" s="30" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" ht="15.6" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D96" s="5">
         <v>199</v>
@@ -5964,18 +5977,18 @@
         <v>12</v>
       </c>
       <c r="I96" s="30" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" ht="15.6" spans="1:9">
       <c r="A97" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D97" s="5">
         <v>259</v>
@@ -5994,18 +6007,18 @@
         <v>12</v>
       </c>
       <c r="I97" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" ht="15.6" spans="1:9">
       <c r="A98" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D98" s="5">
         <v>139</v>
@@ -6024,18 +6037,18 @@
         <v>12</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" ht="15.6" spans="1:9">
       <c r="A99" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D99" s="5">
         <v>139</v>
@@ -6054,18 +6067,18 @@
         <v>12</v>
       </c>
       <c r="I99" s="30" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" ht="15.6" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D100" s="5">
         <v>169</v>
@@ -6084,18 +6097,18 @@
         <v>12</v>
       </c>
       <c r="I100" s="30" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" ht="15.6" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D101" s="5">
         <v>169</v>
@@ -6114,18 +6127,18 @@
         <v>12</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" ht="15.6" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D102" s="5">
         <v>169</v>
@@ -6144,18 +6157,18 @@
         <v>12</v>
       </c>
       <c r="I102" s="29" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" ht="15.6" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D103" s="5">
         <v>169</v>
@@ -6174,18 +6187,18 @@
         <v>12</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D104" s="5">
         <v>179</v>
@@ -6204,18 +6217,18 @@
         <v>12</v>
       </c>
       <c r="I104" s="30" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:9">
       <c r="A105" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D105" s="12">
         <v>559</v>
@@ -6234,18 +6247,18 @@
         <v>17</v>
       </c>
       <c r="I105" s="30" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" ht="15.6" spans="1:9">
       <c r="A106" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>322</v>
-      </c>
       <c r="C106" s="11" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D106" s="12">
         <v>699</v>
@@ -6264,18 +6277,18 @@
         <v>17</v>
       </c>
       <c r="I106" s="30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" ht="15.6" spans="1:9">
       <c r="A107" s="17" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D107" s="5">
         <v>699</v>
@@ -6294,18 +6307,18 @@
         <v>17</v>
       </c>
       <c r="I107" s="30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" ht="15.6" spans="1:9">
       <c r="A108" s="9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D108" s="12">
         <v>119</v>
@@ -6324,18 +6337,18 @@
         <v>17</v>
       </c>
       <c r="I108" s="30" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" ht="15.6" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D109" s="5">
         <v>239</v>
@@ -6354,18 +6367,18 @@
         <v>12</v>
       </c>
       <c r="I109" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" ht="15.6" spans="1:9">
       <c r="A110" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="C110" s="16" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D110" s="5">
         <v>209</v>
@@ -6384,18 +6397,18 @@
         <v>17</v>
       </c>
       <c r="I110" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" ht="15.6" spans="1:9">
       <c r="A111" s="17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D111" s="5">
         <v>135</v>
@@ -6414,18 +6427,18 @@
         <v>17</v>
       </c>
       <c r="I111" s="30" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" ht="15.6" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D112" s="5">
         <v>106</v>
@@ -6444,18 +6457,18 @@
         <v>12</v>
       </c>
       <c r="I112" s="30" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:9">
       <c r="A113" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="C113" s="16" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D113" s="5">
         <v>86</v>
@@ -6474,18 +6487,18 @@
         <v>17</v>
       </c>
       <c r="I113" s="30" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" ht="15.6" spans="1:9">
       <c r="A114" s="17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D114" s="5">
         <v>86</v>
@@ -6504,18 +6517,18 @@
         <v>17</v>
       </c>
       <c r="I114" s="30" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" ht="15.6" spans="1:9">
       <c r="A115" s="17" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D115" s="5">
         <v>86</v>
@@ -6534,18 +6547,18 @@
         <v>17</v>
       </c>
       <c r="I115" s="30" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="116" ht="15.6" spans="1:9">
       <c r="A116" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D116" s="12">
         <v>106</v>
@@ -6564,18 +6577,18 @@
         <v>17</v>
       </c>
       <c r="I116" s="30" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" ht="15.6" spans="1:9">
       <c r="A117" s="17" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D117" s="5">
         <v>8.6</v>
@@ -6594,18 +6607,18 @@
         <v>17</v>
       </c>
       <c r="I117" s="30" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" ht="15.6" spans="1:9">
       <c r="A118" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="C118" s="16" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D118" s="5">
         <v>8</v>
@@ -6624,18 +6637,18 @@
         <v>17</v>
       </c>
       <c r="I118" s="30" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" ht="15.6" spans="1:9">
       <c r="A119" s="17" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D119" s="5">
         <v>8</v>
@@ -6654,18 +6667,18 @@
         <v>17</v>
       </c>
       <c r="I119" s="30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" ht="15.6" spans="1:9">
       <c r="A120" s="17" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D120" s="5">
         <v>8</v>
@@ -6684,18 +6697,18 @@
         <v>17</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" ht="15.6" spans="1:9">
       <c r="A121" s="17" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D121" s="5">
         <v>12.5</v>
@@ -6711,21 +6724,21 @@
         <v>1250</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I121" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" ht="15.6" spans="1:9">
       <c r="A122" s="17" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D122" s="12">
         <v>69</v>
@@ -6744,18 +6757,18 @@
         <v>17</v>
       </c>
       <c r="I122" s="30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" ht="15.6" spans="1:9">
       <c r="A123" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="C123" s="14" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D123" s="12">
         <v>69</v>
@@ -6774,18 +6787,18 @@
         <v>17</v>
       </c>
       <c r="I123" s="30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" ht="15.6" spans="1:9">
       <c r="A124" s="17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D124" s="12">
         <v>69</v>
@@ -6804,18 +6817,18 @@
         <v>17</v>
       </c>
       <c r="I124" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:9">
       <c r="A125" s="17" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D125" s="5">
         <v>89</v>
@@ -6834,18 +6847,18 @@
         <v>17</v>
       </c>
       <c r="I125" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" ht="15.6" spans="1:9">
       <c r="A126" s="17" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D126" s="5">
         <v>89</v>
@@ -6864,18 +6877,18 @@
         <v>17</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" ht="15.6" spans="1:9">
       <c r="A127" s="17" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D127" s="5">
         <v>89</v>
@@ -6894,18 +6907,18 @@
         <v>17</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" ht="15.6" spans="1:9">
       <c r="A128" s="17" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D128" s="5">
         <v>39.9</v>
@@ -6924,18 +6937,18 @@
         <v>17</v>
       </c>
       <c r="I128" s="30" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" ht="15.6" spans="1:9">
       <c r="A129" s="17" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D129" s="5">
         <v>469</v>
@@ -6954,18 +6967,18 @@
         <v>17</v>
       </c>
       <c r="I129" s="30" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:9">
       <c r="A130" s="17" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D130" s="12">
         <v>79</v>
@@ -6984,18 +6997,18 @@
         <v>17</v>
       </c>
       <c r="I130" s="30" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" ht="15.6" spans="1:9">
       <c r="A131" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="C131" s="16" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D131" s="12">
         <v>159</v>
@@ -7014,18 +7027,18 @@
         <v>17</v>
       </c>
       <c r="I131" s="30" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:9">
       <c r="A132" s="17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D132" s="12">
         <v>159</v>
@@ -7044,18 +7057,18 @@
         <v>17</v>
       </c>
       <c r="I132" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" ht="15.6" spans="1:9">
       <c r="A133" s="17" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D133" s="12">
         <v>159</v>
@@ -7074,18 +7087,18 @@
         <v>17</v>
       </c>
       <c r="I133" s="29" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="134" ht="15.6" spans="1:9">
       <c r="A134" s="17" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D134" s="12">
         <v>159</v>
@@ -7104,18 +7117,18 @@
         <v>17</v>
       </c>
       <c r="I134" s="29" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" ht="15.6" spans="1:9">
       <c r="A135" s="17" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D135" s="12">
         <v>79</v>
@@ -7134,18 +7147,18 @@
         <v>17</v>
       </c>
       <c r="I135" s="29" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" ht="15.6" spans="1:9">
       <c r="A136" s="17" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D136" s="12">
         <v>79</v>
@@ -7164,18 +7177,18 @@
         <v>17</v>
       </c>
       <c r="I136" s="29" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" ht="15.6" spans="1:9">
       <c r="A137" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D137" s="12">
         <v>289</v>
@@ -7194,18 +7207,18 @@
         <v>17</v>
       </c>
       <c r="I137" s="30" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:9">
       <c r="A138" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>425</v>
-      </c>
       <c r="C138" s="16" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D138" s="5">
         <v>199</v>
@@ -7224,18 +7237,18 @@
         <v>17</v>
       </c>
       <c r="I138" s="30" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:9">
       <c r="A139" s="17" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D139" s="5">
         <v>8.1</v>
@@ -7254,18 +7267,18 @@
         <v>17</v>
       </c>
       <c r="I139" s="30" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:9">
       <c r="A140" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="C140" s="16" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D140" s="5">
         <v>3.3</v>
@@ -7284,18 +7297,18 @@
         <v>17</v>
       </c>
       <c r="I140" s="30" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:9">
       <c r="A141" s="17" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D141" s="5">
         <v>11.5</v>
@@ -7314,18 +7327,18 @@
         <v>17</v>
       </c>
       <c r="I141" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" ht="15.6" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D142" s="5">
         <v>449</v>
@@ -7344,18 +7357,18 @@
         <v>17</v>
       </c>
       <c r="I142" s="30" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:9">
       <c r="A143" s="17" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D143" s="5">
         <v>2.6</v>
@@ -7374,18 +7387,18 @@
         <v>17</v>
       </c>
       <c r="I143" s="30" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="144" ht="15.6" spans="1:9">
       <c r="A144" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D144" s="12">
         <v>259</v>
@@ -7404,18 +7417,18 @@
         <v>17</v>
       </c>
       <c r="I144" s="30" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:9">
       <c r="A145" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="B145" s="13" t="s">
-        <v>450</v>
-      </c>
       <c r="C145" s="16" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D145" s="5">
         <v>269</v>
@@ -7434,18 +7447,18 @@
         <v>17</v>
       </c>
       <c r="I145" s="30" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:9">
       <c r="A146" s="17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D146" s="5">
         <v>129</v>
@@ -7464,18 +7477,18 @@
         <v>17</v>
       </c>
       <c r="I146" s="30" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:9">
       <c r="A147" s="17" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D147" s="5">
         <v>1999</v>
@@ -7494,18 +7507,18 @@
         <v>17</v>
       </c>
       <c r="I147" s="30" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:9">
       <c r="A148" s="17" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D148" s="5">
         <v>9.1</v>
@@ -7524,18 +7537,18 @@
         <v>17</v>
       </c>
       <c r="I148" s="30" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:9">
       <c r="A149" s="17" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D149" s="5">
         <v>16.5</v>
@@ -7554,18 +7567,18 @@
         <v>17</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:9">
       <c r="A150" s="15" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D150" s="5">
         <v>18.9</v>
@@ -7584,18 +7597,18 @@
         <v>12</v>
       </c>
       <c r="I150" s="30" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" ht="15.6" spans="1:9">
       <c r="A151" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="C151" s="16" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D151" s="5">
         <v>30</v>
@@ -7614,18 +7627,18 @@
         <v>12</v>
       </c>
       <c r="I151" s="30" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" ht="15.6" spans="1:9">
       <c r="A152" s="15" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D152" s="5">
         <v>36</v>
@@ -7644,18 +7657,18 @@
         <v>12</v>
       </c>
       <c r="I152" s="30" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" ht="15.6" spans="1:9">
       <c r="A153" s="15" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D153" s="5">
         <v>35</v>
@@ -7674,18 +7687,18 @@
         <v>12</v>
       </c>
       <c r="I153" s="30" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" ht="15.6" spans="1:9">
       <c r="A154" s="15" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D154" s="5">
         <v>35</v>
@@ -7704,18 +7717,18 @@
         <v>12</v>
       </c>
       <c r="I154" s="30" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" ht="15.6" spans="1:9">
       <c r="A155" s="15" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D155" s="5">
         <v>40</v>
@@ -7734,18 +7747,18 @@
         <v>12</v>
       </c>
       <c r="I155" s="30" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" ht="15.6" spans="1:9">
       <c r="A156" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D156" s="5">
         <v>50</v>
@@ -7764,18 +7777,18 @@
         <v>12</v>
       </c>
       <c r="I156" s="30" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="157" ht="15.6" spans="1:9">
       <c r="A157" s="15" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D157" s="5">
         <v>15</v>
@@ -7794,18 +7807,18 @@
         <v>17</v>
       </c>
       <c r="I157" s="30" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" ht="15.6" spans="1:9">
       <c r="A158" s="17" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D158" s="5">
         <v>7.9</v>
@@ -7824,18 +7837,18 @@
         <v>17</v>
       </c>
       <c r="I158" s="30" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" ht="15.6" spans="1:9">
       <c r="A159" s="17" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D159" s="5">
         <v>299</v>
@@ -7854,18 +7867,18 @@
         <v>17</v>
       </c>
       <c r="I159" s="30" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="160" ht="15.6" spans="1:9">
       <c r="A160" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="B160" s="13" t="s">
-        <v>501</v>
-      </c>
       <c r="C160" s="16" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D160" s="5">
         <v>229</v>
@@ -7884,18 +7897,18 @@
         <v>17</v>
       </c>
       <c r="I160" s="30" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="161" ht="15.6" spans="1:9">
       <c r="A161" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D161" s="5">
         <v>309</v>
@@ -7914,18 +7927,18 @@
         <v>12</v>
       </c>
       <c r="I161" s="30" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="162" ht="15.6" spans="1:9">
       <c r="A162" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>508</v>
-      </c>
       <c r="C162" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D162" s="5">
         <v>339</v>
@@ -7944,18 +7957,18 @@
         <v>12</v>
       </c>
       <c r="I162" s="30" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="163" ht="15.6" spans="1:9">
       <c r="A163" s="17" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D163" s="5">
         <v>159</v>
@@ -7974,18 +7987,18 @@
         <v>17</v>
       </c>
       <c r="I163" s="30" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" ht="15.6" spans="1:9">
       <c r="A164" s="17" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D164" s="5">
         <v>159</v>
@@ -8004,18 +8017,18 @@
         <v>17</v>
       </c>
       <c r="I164" s="30" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="165" ht="15.6" spans="1:9">
       <c r="A165" s="17" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D165" s="5">
         <v>169</v>
@@ -8034,18 +8047,18 @@
         <v>17</v>
       </c>
       <c r="I165" s="30" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" ht="15.6" spans="1:9">
       <c r="A166" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D166" s="5">
         <v>299</v>
@@ -8064,18 +8077,18 @@
         <v>12</v>
       </c>
       <c r="I166" s="30" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="167" ht="15.6" spans="1:9">
       <c r="A167" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D167" s="5">
         <v>1899</v>
@@ -8094,18 +8107,18 @@
         <v>12</v>
       </c>
       <c r="I167" s="30" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" ht="15.6" spans="1:9">
       <c r="A168" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>528</v>
-      </c>
       <c r="C168" s="4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D168" s="5">
         <v>1299</v>
@@ -8124,18 +8137,18 @@
         <v>17</v>
       </c>
       <c r="I168" s="30" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="169" ht="15.6" spans="1:9">
       <c r="A169" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D169" s="5">
         <v>1499</v>
@@ -8154,18 +8167,18 @@
         <v>17</v>
       </c>
       <c r="I169" s="30" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" ht="15.6" spans="1:9">
       <c r="A170" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D170" s="5">
         <v>499</v>
@@ -8184,18 +8197,18 @@
         <v>17</v>
       </c>
       <c r="I170" s="30" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="171" ht="15.6" spans="1:9">
       <c r="A171" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D171" s="5">
         <v>699</v>
@@ -8214,18 +8227,18 @@
         <v>12</v>
       </c>
       <c r="I171" s="30" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" ht="15.6" spans="1:9">
       <c r="A172" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>542</v>
-      </c>
       <c r="C172" s="4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D172" s="5">
         <v>299</v>
@@ -8244,18 +8257,18 @@
         <v>12</v>
       </c>
       <c r="I172" s="30" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="173" ht="15.6" spans="1:9">
       <c r="A173" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D173" s="5">
         <v>246</v>
@@ -8274,18 +8287,18 @@
         <v>12</v>
       </c>
       <c r="I173" s="30" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" ht="15.6" spans="1:9">
       <c r="A174" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D174" s="5">
         <v>179</v>
@@ -8304,18 +8317,18 @@
         <v>12</v>
       </c>
       <c r="I174" s="30" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="175" ht="15.6" spans="1:9">
       <c r="A175" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D175" s="5">
         <v>439</v>
@@ -8334,7 +8347,7 @@
         <v>12</v>
       </c>
       <c r="I175" s="30" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -8349,7 +8362,7 @@
     <hyperlink ref="I102" r:id="rId5" display="https://i.imghippo.com/files/jRLt5792sH.webp" tooltip="https://i.imghippo.com/files/jRLt5792sH.webp"/>
     <hyperlink ref="I103" r:id="rId6" display="https://i.imghippo.com/files/Kpdo6122ks.webp" tooltip="https://i.imghippo.com/files/Kpdo6122ks.webp"/>
     <hyperlink ref="I97" r:id="rId7" display="https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg"/>
-    <hyperlink ref="I2" r:id="rId8" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
+    <hyperlink ref="I2" r:id="rId8" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg" tooltip="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="614">
   <si>
     <t>SCF</t>
   </si>
@@ -44,7 +44,7 @@
     <t>BLK</t>
   </si>
   <si>
-    <t>RM</t>
+    <t>SPECS</t>
   </si>
   <si>
     <t>S-COIN</t>
@@ -65,6 +65,9 @@
     <t>Acerpure Cozy | Acerpure SF1 AF374-20K DC Stand Fan (Black)</t>
   </si>
   <si>
+    <t>16"</t>
+  </si>
+  <si>
     <t>Start Effective 1/2/2025</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t>6 IN 1 ASTONISH BODY &amp; SOUL MINI SHOWER GEL GIFT PACK</t>
   </si>
   <si>
+    <t>6in1</t>
+  </si>
+  <si>
     <t>https://my-live-01.slatic.net/p/5d38512fa966f3b2b5832a2618d0611b.png</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t>HYBRID AC POWER BANK 5K PD 25W US UK EU AU+C-C CBL</t>
   </si>
   <si>
+    <t>5,000mAh</t>
+  </si>
+  <si>
     <t>https://www.belkin.com/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.png</t>
   </si>
   <si>
@@ -155,7 +164,7 @@
     <t>4-SOCKET 2M SURGEMASTER</t>
   </si>
   <si>
-    <t>RM0</t>
+    <t>2m</t>
   </si>
   <si>
     <t>https://www.belkin.com/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw2047b2ba/images/hi-res/3/3ae788f5b1e24714_F9H410sa2M.jpg</t>
@@ -338,6 +347,9 @@
     <t>Cento 2 Way Heavy Cable Reel W/Sirim 7 Meter</t>
   </si>
   <si>
+    <t>7m</t>
+  </si>
+  <si>
     <t>https://scontent.fkul8-3.fna.fbcdn.net/v/t39.30808-6/371123859_278420251607099_517726720459491382_n.jpg?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=edViCHVAGWgQ7kNvgEQGpeJ&amp;_nc_zt=23&amp;_nc_ht=scontent.fkul8-3.fna&amp;_nc_gid=AuQYESwTChwqnGSetJq2bEd&amp;oh=00_AYDAYYh-eadwGObZZb6-MEBRjfgrbr-9ndlNQOfkOZ-qGA&amp;oe=67A37774</t>
   </si>
   <si>
@@ -380,6 +392,9 @@
     <t>20 Speeds Bladeless DC Motor Stand Fan</t>
   </si>
   <si>
+    <t>35W</t>
+  </si>
+  <si>
     <t>https://www.circlezestore.com/20048/cornell-bladeless-fan-table-cbf-001dcr.jpg</t>
   </si>
   <si>
@@ -392,6 +407,9 @@
     <t>Darlie 175g</t>
   </si>
   <si>
+    <t>175g</t>
+  </si>
+  <si>
     <t>https://www.luluhypermarket.com/cdn-cgi/image/f=auto/medias/1200Wx1200H-null?context=bWFzdGVyfGltYWdlc3wyMjkwOTR8aW1hZ2UvanBlZ3xhR1F4TDJoak1TOHhOVGt3TmpBMk5EazVNREl6T0M4eE1qQXdWM2d4TWpBd1NGOXVkV3hzfDcwYTNjNmFiYTFhYzY4YmI4NDBjNjk0Zjc0NmQ3OWEzOTM0YTFjOWFlNGY4NjliYzZlM2JjYzQwNDUxYTI1YjQ</t>
   </si>
   <si>
@@ -413,6 +431,9 @@
     <t>30CM GRILL PAN-PINK</t>
   </si>
   <si>
+    <t>30cm</t>
+  </si>
+  <si>
     <t>https://my-test-11.slatic.net/p/ae0650c0a25638969b03092cea43ec6e.jpg</t>
   </si>
   <si>
@@ -431,6 +452,9 @@
     <t>Cast Iron Casserole 22cm SOUP POT</t>
   </si>
   <si>
+    <t>28cm</t>
+  </si>
+  <si>
     <t>https://down-my.img.susercontent.com/file/61819c8c31fc649ad86cffa3ca4499e0</t>
   </si>
   <si>
@@ -458,6 +482,9 @@
     <t>FRYPAN 20CM (GLOSSY)</t>
   </si>
   <si>
+    <t>20cm</t>
+  </si>
+  <si>
     <t>https://down-my.img.susercontent.com/file/9565f6ffe16e2e6937e8e34f549d7de7</t>
   </si>
   <si>
@@ -485,6 +512,9 @@
     <t>24CM LOW CASSEROLE-YELLOW</t>
   </si>
   <si>
+    <t>24cm</t>
+  </si>
+  <si>
     <t>https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
   </si>
   <si>
@@ -509,6 +539,9 @@
     <t>SCF-100.2001(OR)</t>
   </si>
   <si>
+    <t>22cm</t>
+  </si>
+  <si>
     <t>https://down-my.img.susercontent.com/file/d80f42b6ecfbb52ee514955cdcc8c003</t>
   </si>
   <si>
@@ -530,6 +563,9 @@
     <t>MOMMY POT 26CM SOUP POT</t>
   </si>
   <si>
+    <t>26cm</t>
+  </si>
+  <si>
     <t>https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe</t>
   </si>
   <si>
@@ -569,6 +605,9 @@
     <t>SAUCE PAN 14CM (ROSSY)</t>
   </si>
   <si>
+    <t>14cm</t>
+  </si>
+  <si>
     <t>https://down-my.img.susercontent.com/file/sg-11134201-22110-s3eddka5yfjvfc</t>
   </si>
   <si>
@@ -578,6 +617,9 @@
     <t>SAUCE PAN 18CM (ROSSY)</t>
   </si>
   <si>
+    <t>18cm</t>
+  </si>
+  <si>
     <t>SCF-100.3004</t>
   </si>
   <si>
@@ -626,6 +668,9 @@
     <t>DYNAMO REFILL 1.44KG</t>
   </si>
   <si>
+    <t>1.44kg</t>
+  </si>
+  <si>
     <t>https://down-my.img.susercontent.com/file/my-11134207-7r98s-llapg9g456447d</t>
   </si>
   <si>
@@ -650,6 +695,9 @@
     <t>Consensus High Concentration Capsule Laundry Detergent 15g (30 pieces)</t>
   </si>
   <si>
+    <t>15g/30pcs</t>
+  </si>
+  <si>
     <t>https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg</t>
   </si>
   <si>
@@ -659,6 +707,9 @@
     <t>Consensus High Concentration Capsule Laundry Detergent 7.5g (60 pieces)</t>
   </si>
   <si>
+    <t>7.5g/60pcs</t>
+  </si>
+  <si>
     <t>https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg</t>
   </si>
   <si>
@@ -677,6 +728,9 @@
     <t>Enbliss Laundry Detergent 2.5L</t>
   </si>
   <si>
+    <t>2.5L</t>
+  </si>
+  <si>
     <t>https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg</t>
   </si>
   <si>
@@ -686,6 +740,9 @@
     <t>Enbliss Laundry Detergent 1.8L (Refil Pack)</t>
   </si>
   <si>
+    <t>1.8L</t>
+  </si>
+  <si>
     <t>https://img2.biggo.com/spq6ATvS6GSaWME-OWLnWDLShtUiOsu4KphCusB0_FOo/https://img.srewardscentre.com.my/images/499996db-499d-4d06-b592-fa22e09476ab.jpg</t>
   </si>
   <si>
@@ -698,6 +755,9 @@
     <t>300W CHOPPER</t>
   </si>
   <si>
+    <t>300W</t>
+  </si>
+  <si>
     <t>https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg</t>
   </si>
   <si>
@@ -707,6 +767,9 @@
     <t>FABER PORTABLE FAN FPF BLISS 8inch</t>
   </si>
   <si>
+    <t>8"</t>
+  </si>
+  <si>
     <t>https://storage.bitpixel.cloud/faber/gallery/1pIGoYI0MGub1Kv4xlPUigYNtoWsq3a6aJe4bjU4.jpg</t>
   </si>
   <si>
@@ -728,6 +791,9 @@
     <t>FEBREEZE  370ML ANTI BACTERIA</t>
   </si>
   <si>
+    <t>370ml</t>
+  </si>
+  <si>
     <t>https://guardian.com.my/media/catalog/product/1/2/121111252_household_febreze_antibac_370ml.jpg?auto=webp&amp;format=pjpg&amp;width=640&amp;fit=cover</t>
   </si>
   <si>
@@ -812,7 +878,10 @@
     <t>GLO</t>
   </si>
   <si>
-    <t>GLO Lime 800ml</t>
+    <t>Glo Lime Dishwashing Liquid 800ml – Tough on Grease, Zesty Lime Freshness</t>
+  </si>
+  <si>
+    <t>800ml</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/my-11134207-23030-r204efh9zcov6e</t>
@@ -821,7 +890,7 @@
     <t>SCF-100.GLO800ML_LEMON</t>
   </si>
   <si>
-    <t>GLO Lemon 800ml</t>
+    <t>Glo Lemon Dishwashing Liquid 800ml – Powerful Grease Removal, Fresh Citrus Scent</t>
   </si>
   <si>
     <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118534_1-glo-lemon-dishwash-liquid-800ml.png</t>
@@ -833,7 +902,10 @@
     <t>HOMESOY</t>
   </si>
   <si>
-    <t>HOMESOY SOYA MILK 1L DRINK</t>
+    <t>HOMESOY Soya Milk 1L – Smooth, Creamy, and Naturally Delicious</t>
+  </si>
+  <si>
+    <t>1.0L</t>
   </si>
   <si>
     <t>https://jgcj.jayagrocer.com/cdn/shop/files/008137-1-1_049010fe-86d0-4c72-a94e-17fc06d56c1e.jpg?v=1726139224</t>
@@ -845,13 +917,16 @@
     <t>JIMMY</t>
   </si>
   <si>
+    <t>Jimmy JV51 – Lightweight Cordless Vacuum, Powerful Suction, Multi-Surface Cleaning</t>
+  </si>
+  <si>
     <t>https://sharafstore.com/web/image/product.template/14730/image_1024?unique=0508894</t>
   </si>
   <si>
     <t>SCF-100.BX6</t>
   </si>
   <si>
-    <t>PREMIUM DUST MITE KILLER</t>
+    <t>Jimmy BX6 – Powerful Anti-Mite Vacuum, UV Sterilization, Deep Cleaning</t>
   </si>
   <si>
     <t>https://www.jimmyglobal.com/upload/product/1644809591761531.jpg</t>
@@ -860,7 +935,7 @@
     <t>SCF-100.F6</t>
   </si>
   <si>
-    <t>PREMIUM HAIR DRYER</t>
+    <t>Jimmy F6 – High-Speed Hair Dryer, Ionic Care, Fast Drying</t>
   </si>
   <si>
     <t>https://www.jimmyglobal.com/upload/product/1616132806190557.png</t>
@@ -869,7 +944,7 @@
     <t>SCF-100.HW9</t>
   </si>
   <si>
-    <t>CORDLESS VACUUM &amp; WASHER</t>
+    <t>Jimmy HW9 – Lightweight Wet &amp; Dry Vacuum, Efficient Cleaning, Cordless Convenience</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/my-11134207-7r98x-lst72aeoyvav7b</t>
@@ -878,7 +953,7 @@
     <t>SCF-100.HW9PRO</t>
   </si>
   <si>
-    <t>CORDLESS VACUUM &amp; WASHER | Voice Assistant &amp; Brushroll Air-drying</t>
+    <t>Jimmy HW9 Pro – Cordless Wet &amp; Dry Vacuum, Powerful Suction, Self-Cleaning</t>
   </si>
   <si>
     <t>https://my-test-11.slatic.net/p/0732d76666de3df160b75fbe732cb839.jpg</t>
@@ -905,7 +980,10 @@
     <t>JISULIFE</t>
   </si>
   <si>
-    <t>Jisulife Handheld Fan Life9 (3600Mah) (Mixed Color)</t>
+    <t>Jisulife Life9 – 3600mAh Handheld Fan, Mixed Color</t>
+  </si>
+  <si>
+    <t>3,600mAh</t>
   </si>
   <si>
     <t>https://www.mobicares.com/image/cache/catalog/products/JISULIFE/FAN/JIS-FAN-LIFE9/Main_01-700x700.jpg</t>
@@ -914,7 +992,10 @@
     <t>SCF-100.FA43-60</t>
   </si>
   <si>
-    <t>Jisulife FA43 Life5 Plus (6000mAh) Handheld Fan (Mixed Color)</t>
+    <t>Jisulife Life5 Plus FA43 – 6000mAh Handheld Fan, Mixed Color</t>
+  </si>
+  <si>
+    <t>6,000mAh</t>
   </si>
   <si>
     <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/j/i/jisulife_fa43_brown_3.png</t>
@@ -929,6 +1010,9 @@
     <t>1.5L HEALTHY KETTLE</t>
   </si>
   <si>
+    <t>1.5L</t>
+  </si>
+  <si>
     <t>https://ae01.alicdn.com/kf/S9b646100a4694a2795d022cc38431297C.jpg</t>
   </si>
   <si>
@@ -947,6 +1031,9 @@
     <t>Minimalist 304 Vacuum Bottle 450ml Pink</t>
   </si>
   <si>
+    <t>450ml</t>
+  </si>
+  <si>
     <t>https://i.ibb.co/rRL1pmXF/jvc-45v9.png</t>
   </si>
   <si>
@@ -962,6 +1049,9 @@
     <t>Vacuum Coffee Cup 490ml Tank</t>
   </si>
   <si>
+    <t>490ml</t>
+  </si>
+  <si>
     <t>https://i.ibb.co/35WTN7ZC/Untitled.png</t>
   </si>
   <si>
@@ -995,7 +1085,7 @@
     <t>KENWOOD</t>
   </si>
   <si>
-    <t>SANDWICH MAKER</t>
+    <t>Kenwood 3-in-1 Sandwich, Waffle, and Grill Maker – SMP84.C0WH</t>
   </si>
   <si>
     <t>https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg</t>
@@ -1007,7 +1097,7 @@
     <t>LAIFEN</t>
   </si>
   <si>
-    <t>Smart Electric ABS Toothbrush Wave with IPX7</t>
+    <t>Laifen Wave Electric Toothbrush – 60° Oscillation, 66,000 VPM, IPX7 Waterproof</t>
   </si>
   <si>
     <t>https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg</t>
@@ -1016,7 +1106,7 @@
     <t>SCF-100.MINI(G)</t>
   </si>
   <si>
-    <t>Laifen Mini High-Speed Hair Dryer (Green)</t>
+    <t>Laifen Mini High-Speed Hair Dryer – 110,000 RPM, 299g, Child-Friendly Mode - Green</t>
   </si>
   <si>
     <t>https://www.tmt.my/data/editor/sc-product/17734/LAIFEN-MINI-HAIR-DRYER-1.jpg</t>
@@ -1025,7 +1115,7 @@
     <t>SCF-100.MINI(P)</t>
   </si>
   <si>
-    <t>Laifen Mini High-Speed Hair Dryer (Pink)</t>
+    <t>Laifen Mini High-Speed Hair Dryer – 110,000 RPM, 299g, Child-Friendly Mode - Pink</t>
   </si>
   <si>
     <t>SCF-100.4131ATB</t>
@@ -1046,7 +1136,7 @@
     <t>MIDEA</t>
   </si>
   <si>
-    <t>1.8L Digital Rice Cooker</t>
+    <t>Midea 1.8L Digital Rice Cooker – 7 Preset Menus, AI Multi-Heating Control</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6</t>
@@ -1055,7 +1145,10 @@
     <t>SCF-100.C21RT103B</t>
   </si>
   <si>
-    <t>2100W Induction Cooker</t>
+    <t>Midea 2100W Induction Cooker – 10 Power Levels, Touch Control, 3-Hour Timer</t>
+  </si>
+  <si>
+    <t>2100W</t>
   </si>
   <si>
     <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/c/2/c21rt103b_1.jpg</t>
@@ -1064,7 +1157,10 @@
     <t>SCF-100.MFG150M0APB</t>
   </si>
   <si>
-    <t>Table Circulation Fan (6") 3 Blade</t>
+    <t>Midea 6" Table Circulation Fan – 3-Speed, Dual Oscillation, Quiet Operation</t>
+  </si>
+  <si>
+    <t>6"</t>
   </si>
   <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/id/MFG150M0APB-7.png/jcr:content/renditions/MFG150M0APB-7.webp</t>
@@ -1124,7 +1220,7 @@
     <t>MR MUSCLE</t>
   </si>
   <si>
-    <t>Mr.Muscle Floor Cleaner 1L</t>
+    <t>Mr Muscle Floor Cleaner 1L</t>
   </si>
   <si>
     <t>https://assets.myboxed.com.my/1680212165434.jpg</t>
@@ -1133,7 +1229,10 @@
     <t>SCF-100.MRMUSLE_PINE</t>
   </si>
   <si>
-    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) PINE</t>
+    <t>Mr Muscle Toilet Bowl Cleaner – Pine, 500ml</t>
+  </si>
+  <si>
+    <t>500ml</t>
   </si>
   <si>
     <t>https://klec.jayagrocer.com/cdn/shop/files/012073-1-1.jpg?v=1726143318</t>
@@ -1142,7 +1241,7 @@
     <t>SCF-100.MRMUSLE_MAR</t>
   </si>
   <si>
-    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) MARINE</t>
+    <t>Mr Muscle Toilet Bowl Cleaner – Marine, 500ml</t>
   </si>
   <si>
     <t>https://www.mycs.com.my/media/catalog/product/cache/309b0699a74d76e0528e3f5ac801b2c4/m/r/mr_muscle_deep_action_gel_toilet_cleaner_marine_2x500ml_side.png</t>
@@ -1151,7 +1250,7 @@
     <t>SCF-100.MRMUSLE_CITRUS</t>
   </si>
   <si>
-    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) CITRUS</t>
+    <t>Mr Muscle Toilet Bowl Cleaner – Citrus, 500ml</t>
   </si>
   <si>
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg</t>
@@ -1238,7 +1337,7 @@
     <t>PANASONIC</t>
   </si>
   <si>
-    <t>Hygienic EzyClean DL-AR15DWM – D-Shape</t>
+    <t>Panasonic Hygienic EzyClean Bidet Toilet Seat – D-Shape, Soft Closing, Ag+ Antibacterial</t>
   </si>
   <si>
     <t>https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png</t>
@@ -1316,7 +1415,7 @@
     <t>PHILIPS</t>
   </si>
   <si>
-    <t>HAIR STYLER</t>
+    <t>Philips StyleCare Multi-Styler BHH822 – 15 Attachments, 2 Temperature Settings, Quick Styling</t>
   </si>
   <si>
     <t>https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250</t>
@@ -1325,7 +1424,7 @@
     <t>SCF-100.HD3008</t>
   </si>
   <si>
-    <t>1.8L Rice Cooker</t>
+    <t>Philips 1000 Series 1.8L Rice Cooker – 3D Heating, 10-Cup Capacity, Cook, Steam &amp; Keep Warm Functions</t>
   </si>
   <si>
     <t>https://images.philips.com/is/image/philipsconsumer/vrs_355f9354f057212fc1d06226af17d2a2a8d537ee?$pnglarge$&amp;wid=1250</t>
@@ -1358,6 +1457,9 @@
     <t>Premier Tissue 90s x 5</t>
   </si>
   <si>
+    <t>2Ply</t>
+  </si>
+  <si>
     <t>https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png</t>
   </si>
   <si>
@@ -1367,7 +1469,10 @@
     <t>RHEEM</t>
   </si>
   <si>
-    <t>Electric Instant Water Heater</t>
+    <t>Rheem RH188 Electric Instant Water Heater – 3 Shower Modes, Power Surge Protection</t>
+  </si>
+  <si>
+    <t>Non-Pump</t>
   </si>
   <si>
     <t>https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
@@ -1379,7 +1484,10 @@
     <t>RIBENA</t>
   </si>
   <si>
-    <t>Ribena Blackcurrant (300ml)</t>
+    <t>Ribena Blackcurrant Juice – 300ml</t>
+  </si>
+  <si>
+    <t>300ml</t>
   </si>
   <si>
     <t>https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg</t>
@@ -1394,6 +1502,9 @@
     <t>MagSpeed 10 Pro 10W Wireless Charge</t>
   </si>
   <si>
+    <t>10,000mAh</t>
+  </si>
+  <si>
     <t>https://down-my.img.susercontent.com/file/my-11134207-7rasg-m0scjdos7o63b4</t>
   </si>
   <si>
@@ -1421,7 +1532,7 @@
     <t>SAMSUNG</t>
   </si>
   <si>
-    <t>Music Frame HW-LS60D Frame Design Wireless Speaker (2024)</t>
+    <t>Samsung HW-LS60D Music Frame Wireless Speaker – 2.0 Channel, Dolby Atmos</t>
   </si>
   <si>
     <t>https://shop.tbm.com.my/cdn/shop/files/samsung-smart-speaker-hw-ls60dxm-tbm-online-802131.jpg?v=1721415920&amp;width=1080</t>
@@ -1436,6 +1547,9 @@
     <t>Scotch Brite 4+1 kitchen sponge</t>
   </si>
   <si>
+    <t>4+1</t>
+  </si>
+  <si>
     <t>https://down-my.img.susercontent.com/file/df9c6d70e531e7b383831cd716853b4b</t>
   </si>
   <si>
@@ -1532,7 +1646,10 @@
     <t>SOFTLAN</t>
   </si>
   <si>
-    <t>SOFTLAN 1.6 FLORAL FANTASY</t>
+    <t>Softlan Anti-Wrinkle Floral Fantasy Fabric Softener Refill – 1.6L</t>
+  </si>
+  <si>
+    <t>1.6L</t>
   </si>
   <si>
     <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/111177_04122023160642-550x550.jpg</t>
@@ -1544,7 +1661,7 @@
     <t>SONY</t>
   </si>
   <si>
-    <t>WF-C510 Truly Wireless Headphones</t>
+    <t>Sony WF-C510 Truly Wireless Earbuds – 11-Hour Battery, Multipoint Connection, Ambient Sound Mode</t>
   </si>
   <si>
     <t>https://store.sony.com.my/cdn/shop/files/Black_3_1200x.png?v=1725875367</t>
@@ -1553,7 +1670,7 @@
     <t>SCF-100.WHCH520</t>
   </si>
   <si>
-    <t>WH-CH520 Wireless Headphones</t>
+    <t>Sony WH-CH520 Wireless On-Ear Headphones – 50-Hour Battery, Quick Charge, Customizable Sound</t>
   </si>
   <si>
     <t>https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha</t>
@@ -1565,7 +1682,7 @@
     <t>STRYV</t>
   </si>
   <si>
-    <t>stryv MiniStyler [black]</t>
+    <t>Stryv MiniStyler – Wireless, Travel-Friendly Hair Straightener, 9 Heat Settings, Anti-Scald Bristles</t>
   </si>
   <si>
     <t>https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770</t>
@@ -1574,7 +1691,7 @@
     <t>SCF-100.PROSTYLER</t>
   </si>
   <si>
-    <t>stryv pro styler</t>
+    <t>Stryv ProStyler Hair Straightener – 180°C in 16s, Ceramic-Coated Plates, 3D Floating Technology, Auto-Sleep Mode</t>
   </si>
   <si>
     <t>https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987</t>
@@ -1583,7 +1700,7 @@
     <t>SCF-100.SVMISVZ4</t>
   </si>
   <si>
-    <t>stryv Mini Shaver</t>
+    <t>Stryv MiniShave – Pocket-Sized Electric Razor, Waterproof, Quick-Charging, On-the-Go Grooming</t>
   </si>
   <si>
     <t>https://medias.watsons.com.my/publishing/WTCMY-1006572-back-thumbnail.jpg?version=1734763174</t>
@@ -1592,7 +1709,7 @@
     <t>SCF-100.SVMSBDO2</t>
   </si>
   <si>
-    <t>stryv Multishave Trimmer</t>
+    <t>Stryv MultiShave Body Groomer – 8000rpm Motor, StryvSafe Blades, 90 Days Runtime</t>
   </si>
   <si>
     <t>https://stryv.my/cdn/shop/files/product_img_4_104ca71a-a713-4ef8-a6e1-4051b2333717.jpg?v=1704944460</t>
@@ -1601,7 +1718,7 @@
     <t>SCF-100.SVPSRBS9</t>
   </si>
   <si>
-    <t>stryv ProShave - IPX7 Waterproof Shaver</t>
+    <t>Stryv ProShave Electric Razor – 360° Floating Precision, Waterproof, German Blades</t>
   </si>
   <si>
     <t>https://www.gaincity.com/media/catalog/product/cache/6c6c50d4c233a553cee4f0d7353c6a74/t/0/t0193461-svpsrbs9-01.png</t>
@@ -1625,7 +1742,7 @@
     <t>TESVOR</t>
   </si>
   <si>
-    <t>Tesvor S6 Robot Vacuum with Mop</t>
+    <t>Tesvor S6 Robot Vacuum - Laser Mapping, Alexa &amp; Google Assistant, Wet Mopping, Anti-Drop</t>
   </si>
   <si>
     <t>https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg</t>
@@ -1634,7 +1751,7 @@
     <t>SCF-100.A1</t>
   </si>
   <si>
-    <t>Tesvor A1 2-in-1 Robot Vacuum | Vacuum &amp; Mop</t>
+    <t>Tesvor A1 Robot Vacuum &amp; Mop – 2-in-1, Alexa Compatible, Ultra Slim, Ideal for Pet Hair &amp; Hard Floors.</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_UF1000,1000_QL80_.jpg</t>
@@ -1643,7 +1760,7 @@
     <t>SCF-100.X500PRO</t>
   </si>
   <si>
-    <t>Tesvor X500 Pro Hybrid 2-in-1 Robot Vacuum</t>
+    <t>Tesvor X500 Pro Robot Vacuum &amp; Mop – 2-in-1 Hybrid, Gyroscope Navigation, App &amp; Alexa Control.</t>
   </si>
   <si>
     <t>https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg</t>
@@ -1655,7 +1772,10 @@
     <t>THULE</t>
   </si>
   <si>
-    <t>Thule Tact Crossbody Bag - 5L Black</t>
+    <t>Thule Tact 5L Crossbody Bag – RFID Blocking, Anti-Theft, Recycled Materials, Adjustable Fit</t>
+  </si>
+  <si>
+    <t>5L</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/612whrpX5FL._AC_UF1000,1000_QL80_.jpg</t>
@@ -1667,7 +1787,10 @@
     <t>TOSHIBA</t>
   </si>
   <si>
-    <t>Menu-IQ 7.4L Digital Air Fryer</t>
+    <t>Toshiba Menu-IQ 7.4L Digital Air Fryer – 12 Preset Menus, Precision Temperature, Rapid Air Circulation</t>
+  </si>
+  <si>
+    <t>7.4L</t>
   </si>
   <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/air-fryer/-af-74cs1trmy(h)---7-4l-digital-air-fryer/AF-74CS1TRMY-H-FrontLeft.png/jcr:content/renditions/cq5dam.compression.png</t>
@@ -1676,7 +1799,10 @@
     <t>SCF-100.BL70PR2NMY</t>
   </si>
   <si>
-    <t>700W Multifunction Blender - 2.0L</t>
+    <t>Toshiba BL-70PR2NMY 700W Blender – 3-Speed, Ice Crush, 2.0L Jug, Grinder &amp; Mincer</t>
+  </si>
+  <si>
+    <t>700W</t>
   </si>
   <si>
     <t>https://cdn1.npcdn.net/images/3a143ca14f81879847ea675d0bf01893_1718007770.webp?md5id=a6cff0397725a493ba4047565693f84a&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1717063294&amp;from=png&amp;type=1</t>
@@ -1685,7 +1811,7 @@
     <t>SCF-100.FSYA10(G)MY</t>
   </si>
   <si>
-    <t>16inch Stand Fan | 5 Fan Blades Design</t>
+    <t>Toshiba F-SYA10(G)MY 16” Stand Fan – Dual-Channel Air, Powerful Motor, 80° Oscillation</t>
   </si>
   <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/air-treatment/fan/16-inch-stand-fan-f-sya10-g-my/gallery2.png/jcr:content/renditions/cq5dam.compression.png</t>
@@ -1694,7 +1820,7 @@
     <t>SCF-100.FTSA20(G)MY</t>
   </si>
   <si>
-    <t>16inch Table Fan | 5 Fan Blades Design</t>
+    <t>Toshiba F-TSA20(G)MY 16” Table Fan – Dual-Channel Airflow, 11m Distance, 80° Swing</t>
   </si>
   <si>
     <t>https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001</t>
@@ -1703,26 +1829,61 @@
     <t>SCF-100.RC18DR1NMY</t>
   </si>
   <si>
-    <t>1.8L Digital Rice Cooker - Gold</t>
+    <t>Toshiba RC-18DR1NMY 1.8L Digital Rice Cooker – Binchotan Charcoal, 11 Auto Menus, Quick Cook</t>
   </si>
   <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/1-8l-digital-rice-cooker-rc-18dr1nmy/gallery2.png</t>
+  </si>
+  <si>
+    <t>SCF-100.KITCHENWARE5PCS</t>
+  </si>
+  <si>
+    <t>Tefal 5-Piece Kitchenware Set – Chef Knife, Kitchen Shears, Ladle Spatula, Wok Spatula &amp; Whisk.</t>
+  </si>
+  <si>
+    <t>5pcs</t>
+  </si>
+  <si>
+    <t>Add effective 6th Feb 2025</t>
+  </si>
+  <si>
+    <t>https://dam.groupeseb.com/m/28b617914f9a5ca2/digital-Tefal-Kitchenware-5pc-Set.png?timestamp=20230830115600&amp;width=640&amp;height=800</t>
+  </si>
+  <si>
+    <t>SCF-100.RK736B</t>
+  </si>
+  <si>
+    <t>Tefal Easy Rice RK736B Fuzzy Logic Rice Cooker – 1.8L (10-Cup Capacity)</t>
+  </si>
+  <si>
+    <t>https://etsound.com.sg/cdn/shop/files/1_3dad9e3c-e26e-456e-baa2-3fd9b46e1396.jpg?v=1691243149&amp;width=1214</t>
+  </si>
+  <si>
+    <t>SCF-100.G14398</t>
+  </si>
+  <si>
+    <t>Tefal Day By Day 32cm Wokpan with Lid – Non-Stick, All Hobs + Induction, Thermo-Signal™ Technology</t>
+  </si>
+  <si>
+    <t>32cm</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/image/e526ced590e34e94a2d7916f8c9eb422.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$RM-4409]#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[$RM-4409]#,##0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1732,6 +1893,19 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1783,6 +1957,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1924,7 +2113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1933,13 +2122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="5" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="8" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,7 +2146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2315,238 +2516,283 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3083,5271 +3329,5163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33.5740740740741" customWidth="1"/>
-    <col min="2" max="2" width="15.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="15.4259259259259" style="1" customWidth="1"/>
     <col min="3" max="3" width="80.712962962963" customWidth="1"/>
     <col min="4" max="5" width="12.8518518518519" customWidth="1"/>
-    <col min="6" max="6" width="5.85185185185185" customWidth="1"/>
+    <col min="6" max="6" width="11.287037037037" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.5740740740741" customWidth="1"/>
     <col min="8" max="8" width="46.712962962963" customWidth="1"/>
     <col min="9" max="9" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>349</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>279</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10">
         <f t="shared" ref="G2:G65" si="0">E2*100</f>
         <v>27900</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="I2" s="33" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" ht="15.6" spans="1:9">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12">
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="15">
         <v>27.9</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="15">
         <v>27.9</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="16"/>
+      <c r="G3" s="10">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>18</v>
+      <c r="H3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:9">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12">
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="15">
         <v>27.9</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="15">
         <v>27.9</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="16"/>
+      <c r="G4" s="10">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>21</v>
+      <c r="H4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:9">
-      <c r="A5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12">
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="15">
         <v>87.7</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="15">
         <v>69</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="16"/>
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>24</v>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:9">
-      <c r="A6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="12">
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="15">
         <v>32.9</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>23</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>27</v>
+      <c r="H6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:9">
-      <c r="A7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12">
+      <c r="B7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15">
         <v>99</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="15">
         <v>97</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="16"/>
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>9700</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="30" t="s">
+      <c r="H7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8">
         <v>369</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>369</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>36900</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>34</v>
+      <c r="H8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>369</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>369</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>36900</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:9">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8">
+        <v>289</v>
+      </c>
+      <c r="E10" s="8">
+        <v>289</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:9">
-      <c r="A10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="5">
-        <v>289</v>
-      </c>
-      <c r="E10" s="5">
-        <v>289</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>28900</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>39</v>
+      <c r="H10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:9">
-      <c r="A11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="A11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="8">
         <v>149</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>145</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>43</v>
+      <c r="H11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:9">
-      <c r="A12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="A12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8">
         <v>169</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>169</v>
       </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="16"/>
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>46</v>
+      <c r="H12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:9">
-      <c r="A13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="A13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="8">
         <v>169</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
         <v>169</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="16"/>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>49</v>
+      <c r="H13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:9">
-      <c r="A14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="A14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="8">
         <v>349</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>349</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="16"/>
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>52</v>
+      <c r="H14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:9">
-      <c r="A15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="A15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="8">
         <v>349</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <v>349</v>
       </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="16"/>
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>55</v>
+      <c r="H15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:9">
-      <c r="A16" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="A16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="8">
         <v>559</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>559</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="16"/>
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>58</v>
+      <c r="H16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:9">
-      <c r="A17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="A17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="8">
         <v>559</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>559</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="16"/>
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>61</v>
+      <c r="H17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:9">
-      <c r="A18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="A18" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8">
         <v>499</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>499</v>
       </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="16"/>
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>64</v>
+      <c r="H18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:9">
-      <c r="A19" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="A19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="8">
         <v>499</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="8">
         <v>499</v>
       </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="16"/>
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>66</v>
+      <c r="H19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:9">
-      <c r="A20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="A20" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="8">
         <v>799</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>799</v>
       </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="16"/>
+      <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>69</v>
+      <c r="H20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:9">
-      <c r="A21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="A21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="8">
         <v>799</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="8">
         <v>799</v>
       </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="16"/>
+      <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>71</v>
+      <c r="H21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:9">
-      <c r="A22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="A22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="8">
         <v>179</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <v>169</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="16"/>
+      <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>75</v>
+      <c r="H22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:9">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="8">
         <v>59</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
         <v>49</v>
       </c>
-      <c r="F23" s="6">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="16"/>
+      <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>78</v>
+      <c r="H23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:9">
-      <c r="A24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="8">
         <v>59</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
         <v>49</v>
       </c>
-      <c r="F24" s="6">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="16"/>
+      <c r="G24" s="10">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>81</v>
+      <c r="H24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="1:9">
-      <c r="A25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="A25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="8">
         <v>49</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
         <v>39</v>
       </c>
-      <c r="F25" s="6">
-        <v>14</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25" s="16"/>
+      <c r="G25" s="10">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>84</v>
+      <c r="H25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="A26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="8">
         <v>69</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <v>55</v>
       </c>
-      <c r="F26" s="6">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="16"/>
+      <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>87</v>
+      <c r="H26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:9">
-      <c r="A27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="8">
         <v>89</v>
       </c>
-      <c r="D27" s="5">
-        <v>89</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="E27" s="8">
         <v>69</v>
       </c>
-      <c r="F27" s="6">
-        <v>16</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="16"/>
+      <c r="G27" s="10">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>87</v>
+      <c r="H27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:9">
-      <c r="A28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="A28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="8">
         <v>99</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="8">
         <v>79</v>
       </c>
-      <c r="F28" s="6">
-        <v>17</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="16"/>
+      <c r="G28" s="10">
         <f t="shared" si="0"/>
         <v>7900</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>87</v>
+      <c r="H28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="1:9">
-      <c r="A29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="A29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="15">
         <v>79</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="15">
         <v>55</v>
       </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="F29" s="16"/>
+      <c r="G29" s="10">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>94</v>
+      <c r="H29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:9">
-      <c r="A30" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="A30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="15">
         <v>55</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="15">
         <v>49</v>
       </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="16"/>
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>97</v>
+      <c r="H30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:9">
-      <c r="A31" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="A31" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="15">
         <v>129</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="15">
         <v>125</v>
       </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="16"/>
+      <c r="G31" s="10">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>100</v>
+      <c r="H31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:9">
-      <c r="A32" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="A32" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="8">
         <v>99</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="8">
         <v>93</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="F32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="10">
         <f t="shared" si="0"/>
         <v>9300</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>103</v>
+      <c r="H32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:9">
-      <c r="A33" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="A33" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="8">
         <v>16.9</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="8">
         <v>16.9</v>
       </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="16"/>
+      <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>1690</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>107</v>
+      <c r="H33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:9">
-      <c r="A34" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="A34" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="5">
+      <c r="C34" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="8">
         <v>14.4</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="8">
         <v>14.4</v>
       </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F34" s="16"/>
+      <c r="G34" s="10">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>110</v>
+      <c r="H34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" ht="15.6" spans="1:9">
-      <c r="A35" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="A35" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="8">
         <v>15.5</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="8">
         <v>15.5</v>
       </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="16"/>
+      <c r="G35" s="10">
         <f t="shared" si="0"/>
         <v>1550</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>113</v>
+      <c r="H35" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="1:9">
-      <c r="A36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="A36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="8">
         <v>714</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="8">
         <v>479</v>
       </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="10">
         <f t="shared" si="0"/>
         <v>47900</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>117</v>
+      <c r="H36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="1:9">
-      <c r="A37" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="A37" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="8">
         <v>9.9</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="8">
         <v>9.9</v>
       </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="10">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>121</v>
+      <c r="H37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:9">
-      <c r="A38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="A38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="8">
         <v>549</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="8">
         <v>199</v>
       </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F38" s="16"/>
+      <c r="G38" s="10">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>125</v>
+      <c r="H38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="1:9">
-      <c r="A39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="A39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="8">
         <v>599</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="8">
         <v>319</v>
       </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="F39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="10">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="30" t="s">
-        <v>128</v>
+      <c r="H39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="1:9">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="8">
         <v>599</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="8">
         <v>319</v>
       </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="F40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="10">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>131</v>
+      <c r="H40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:9">
-      <c r="A41" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="A41" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="8">
         <v>439</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="8">
         <v>179</v>
       </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="F41" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="10">
         <f t="shared" si="0"/>
         <v>17900</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="30" t="s">
-        <v>134</v>
+      <c r="H41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:9">
-      <c r="A42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="A42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="8">
         <v>519</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="8">
         <v>189</v>
       </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="F42" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="10">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>137</v>
+      <c r="H42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="43" ht="15.6" spans="1:9">
-      <c r="A43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="A43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="8">
         <v>579</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="8">
         <v>219</v>
       </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7">
+      <c r="F43" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="10">
         <f t="shared" si="0"/>
         <v>21900</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>140</v>
+      <c r="H43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="1:9">
-      <c r="A44" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="A44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="8">
         <v>349</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="8">
         <v>149</v>
       </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="F44" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="10">
         <f t="shared" si="0"/>
         <v>14900</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="30" t="s">
-        <v>143</v>
+      <c r="H44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="1:9">
-      <c r="A45" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="A45" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="8">
         <v>499</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="8">
         <v>199</v>
       </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="F45" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="10">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="30" t="s">
-        <v>146</v>
+      <c r="H45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="46" ht="15.6" spans="1:9">
-      <c r="A46" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="12">
+      <c r="A46" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="15">
         <v>499</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="15">
         <v>199</v>
       </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-      <c r="G46" s="7">
+      <c r="F46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="10">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>149</v>
+      <c r="H46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" ht="15.6" spans="1:9">
-      <c r="A47" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="12">
+      <c r="A47" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="15">
         <v>399</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="15">
         <v>199</v>
       </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="7">
+      <c r="F47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="10">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="30" t="s">
-        <v>152</v>
+      <c r="H47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="48" ht="15.6" spans="1:9">
-      <c r="A48" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="A48" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="8">
         <v>459</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="8">
         <v>169</v>
       </c>
-      <c r="F48" s="6">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="F48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="30" t="s">
-        <v>155</v>
+      <c r="H48" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="49" ht="15.6" spans="1:9">
-      <c r="A49" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="A49" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="8">
         <v>459</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="8">
         <v>169</v>
       </c>
-      <c r="F49" s="6">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="F49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="30" t="s">
-        <v>158</v>
+      <c r="H49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="50" ht="15.6" spans="1:9">
-      <c r="A50" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="A50" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="15">
         <v>439</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="15">
         <v>169</v>
       </c>
-      <c r="F50" s="6">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="F50" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>160</v>
+      <c r="H50" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="51" ht="15.6" spans="1:9">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="15">
+        <v>479</v>
+      </c>
+      <c r="E51" s="15">
+        <v>189</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="12">
-        <v>479</v>
-      </c>
-      <c r="E51" s="12">
-        <v>189</v>
-      </c>
-      <c r="F51" s="6">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
+      <c r="G51" s="10">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>160</v>
+      <c r="H51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="52" ht="15.6" spans="1:9">
-      <c r="A52" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="A52" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="8">
         <v>519</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="8">
         <v>189</v>
       </c>
-      <c r="F52" s="6">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7">
+      <c r="F52" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="10">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="30" t="s">
-        <v>164</v>
+      <c r="H52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="53" ht="15.6" spans="1:9">
-      <c r="A53" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="12">
+      <c r="A53" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="15">
         <v>599</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="15">
         <v>189</v>
       </c>
-      <c r="F53" s="6">
-        <v>0</v>
-      </c>
-      <c r="G53" s="7">
+      <c r="F53" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="10">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="30" t="s">
-        <v>167</v>
+      <c r="H53" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="54" ht="15.6" spans="1:9">
-      <c r="A54" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="A54" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="8">
         <v>639</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="8">
         <v>239</v>
       </c>
-      <c r="F54" s="6">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7">
+      <c r="F54" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="10">
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="30" t="s">
-        <v>170</v>
+      <c r="H54" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="55" ht="15.6" spans="1:9">
-      <c r="A55" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="A55" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="8">
         <v>639</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="8">
         <v>239</v>
       </c>
-      <c r="F55" s="6">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7">
+      <c r="F55" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="10">
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="30" t="s">
-        <v>172</v>
+      <c r="H55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="56" ht="15.6" spans="1:9">
-      <c r="A56" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="A56" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="8">
         <v>639</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="8">
         <v>239</v>
       </c>
-      <c r="F56" s="6">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7">
+      <c r="F56" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="10">
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="30" t="s">
-        <v>174</v>
+      <c r="H56" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="57" ht="15.6" spans="1:9">
-      <c r="A57" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="12">
+      <c r="A57" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="15">
         <v>669</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="15">
         <v>259</v>
       </c>
-      <c r="F57" s="6">
-        <v>0</v>
-      </c>
-      <c r="G57" s="7">
+      <c r="F57" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="10">
         <f t="shared" si="0"/>
         <v>25900</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="30" t="s">
-        <v>177</v>
+      <c r="H57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="58" ht="15.6" spans="1:9">
-      <c r="A58" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="A58" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="8">
         <v>369</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="8">
         <v>149</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="7">
+      <c r="F58" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" s="10">
         <f t="shared" si="0"/>
         <v>14900</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="30" t="s">
-        <v>180</v>
+      <c r="H58" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="59" ht="15.6" spans="1:9">
-      <c r="A59" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="A59" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="8">
         <v>439</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="8">
         <v>169</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="7">
+      <c r="F59" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="30" t="s">
-        <v>180</v>
+      <c r="H59" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60" ht="15.6" spans="1:9">
-      <c r="A60" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="A60" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="8">
         <v>489</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="8">
         <v>189</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="7">
+      <c r="F60" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="10">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="30" t="s">
-        <v>180</v>
+      <c r="H60" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="1:9">
-      <c r="A61" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="A61" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="8">
         <v>409</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="8">
         <v>159</v>
       </c>
-      <c r="F61" s="6">
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
+      <c r="F61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="10">
         <f t="shared" si="0"/>
         <v>15900</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="30" t="s">
-        <v>187</v>
+      <c r="H61" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="62" ht="15.6" spans="1:9">
-      <c r="A62" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="25" t="s">
+      <c r="A62" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="30">
+        <v>499</v>
+      </c>
+      <c r="E62" s="30">
         <v>189</v>
       </c>
-      <c r="D62" s="26">
-        <v>499</v>
-      </c>
-      <c r="E62" s="26">
-        <v>189</v>
-      </c>
-      <c r="F62" s="27">
-        <v>0</v>
-      </c>
-      <c r="G62" s="7">
+      <c r="F62" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" s="10">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="30" t="s">
-        <v>143</v>
+      <c r="H62" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="63" ht="15.6" spans="1:9">
-      <c r="A63" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="12">
+      <c r="A63" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="15">
         <v>699</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="15">
         <v>319</v>
       </c>
-      <c r="F63" s="6">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
+      <c r="F63" s="16"/>
+      <c r="G63" s="10">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>192</v>
+      <c r="H63" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="64" ht="15.6" spans="1:9">
-      <c r="A64" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="12">
+      <c r="A64" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="15">
         <v>949</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="15">
         <v>499</v>
       </c>
-      <c r="F64" s="6">
-        <v>0</v>
-      </c>
-      <c r="G64" s="7">
+      <c r="F64" s="16"/>
+      <c r="G64" s="10">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="30" t="s">
-        <v>195</v>
+      <c r="H64" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="65" ht="15.6" spans="1:9">
-      <c r="A65" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="A65" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="8">
         <v>18.5</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="8">
         <v>18.5</v>
       </c>
-      <c r="F65" s="6">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
+      <c r="F65" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G65" s="10">
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="30" t="s">
-        <v>199</v>
+      <c r="H65" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="66" ht="15.6" spans="1:9">
-      <c r="A66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="A66" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="8">
         <v>319</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="8">
         <v>279</v>
       </c>
-      <c r="F66" s="6">
-        <v>0</v>
-      </c>
-      <c r="G66" s="7">
+      <c r="G66" s="10">
         <f t="shared" ref="G66:G129" si="1">E66*100</f>
         <v>27900</v>
       </c>
-      <c r="H66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="30" t="s">
-        <v>203</v>
+      <c r="H66" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="67" ht="15.6" spans="1:9">
-      <c r="A67" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="A67" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="8">
         <v>39</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="8">
         <v>39</v>
       </c>
-      <c r="F67" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" s="7">
+      <c r="F67" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G67" s="10">
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>207</v>
+      <c r="H67" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="68" ht="15.6" spans="1:9">
-      <c r="A68" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="A68" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="8">
         <v>49</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="8">
         <v>49</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G68" s="7">
+      <c r="F68" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" s="10">
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="30" t="s">
-        <v>210</v>
+      <c r="H68" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="69" ht="15.6" spans="1:9">
-      <c r="A69" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="A69" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="8">
         <v>29</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="8">
         <v>29</v>
       </c>
-      <c r="F69" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G69" s="7">
+      <c r="F69" s="16"/>
+      <c r="G69" s="10">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>213</v>
+      <c r="H69" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="70" ht="15.6" spans="1:9">
-      <c r="A70" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" s="12">
+      <c r="A70" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="15">
         <v>24.9</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="15">
         <v>24.9</v>
       </c>
-      <c r="F70" s="6">
-        <v>0</v>
-      </c>
-      <c r="G70" s="7">
+      <c r="F70" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G70" s="10">
         <f t="shared" si="1"/>
         <v>2490</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="30" t="s">
-        <v>216</v>
+      <c r="H70" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="71" ht="15.6" spans="1:9">
-      <c r="A71" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D71" s="12">
+      <c r="A71" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="15">
         <v>20.9</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="15">
         <v>20.9</v>
       </c>
-      <c r="F71" s="6">
-        <v>0</v>
-      </c>
-      <c r="G71" s="7">
+      <c r="F71" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G71" s="10">
         <f t="shared" si="1"/>
         <v>2090</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>219</v>
+      <c r="H71" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="72" ht="15.6" spans="1:9">
-      <c r="A72" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D72" s="5">
+      <c r="A72" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D72" s="8">
         <v>210</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="8">
         <v>115</v>
       </c>
-      <c r="F72" s="6">
-        <v>0</v>
-      </c>
-      <c r="G72" s="7">
+      <c r="F72" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" s="10">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="H72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>223</v>
+      <c r="H72" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="1:9">
-      <c r="A73" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="A73" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="8">
         <v>228</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="8">
         <v>200</v>
       </c>
-      <c r="F73" s="6">
-        <v>0</v>
-      </c>
-      <c r="G73" s="7">
+      <c r="F73" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G73" s="10">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="H73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>226</v>
+      <c r="H73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="34" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="1:9">
-      <c r="A74" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="A74" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="8">
         <v>162</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="8">
         <v>115</v>
       </c>
-      <c r="F74" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" s="7">
+      <c r="F74" s="16"/>
+      <c r="G74" s="10">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="30" t="s">
-        <v>229</v>
+      <c r="H74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="34" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="1:9">
-      <c r="A75" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="A75" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" s="8">
         <v>11.9</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="8">
         <v>11.9</v>
       </c>
-      <c r="F75" s="6">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7">
+      <c r="F75" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G75" s="10">
         <f t="shared" si="1"/>
         <v>1190</v>
       </c>
-      <c r="H75" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="30" t="s">
-        <v>233</v>
+      <c r="H75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="76" ht="15.6" spans="1:9">
-      <c r="A76" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" s="5">
+      <c r="A76" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76" s="8">
         <v>129</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="8">
         <v>129</v>
       </c>
-      <c r="F76" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G76" s="7">
+      <c r="F76" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="10">
         <f t="shared" si="1"/>
         <v>12900</v>
       </c>
-      <c r="H76" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="30" t="s">
-        <v>237</v>
+      <c r="H76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="34" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="77" ht="15.6" spans="1:9">
-      <c r="A77" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="A77" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="8">
         <v>99</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="8">
         <v>99</v>
       </c>
-      <c r="F77" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" s="7">
+      <c r="F77" s="16"/>
+      <c r="G77" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H77" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="29" t="s">
-        <v>240</v>
+      <c r="H77" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="33" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="78" ht="15.6" spans="1:9">
-      <c r="A78" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D78" s="12">
+      <c r="A78" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="15">
         <v>89</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="8">
         <v>89</v>
       </c>
-      <c r="F78" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" s="7">
+      <c r="F78" s="16"/>
+      <c r="G78" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H78" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="30" t="s">
-        <v>244</v>
+      <c r="H78" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="34" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="79" ht="15.6" spans="1:9">
-      <c r="A79" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D79" s="12">
+      <c r="A79" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="15">
         <v>89</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="8">
         <v>89</v>
       </c>
-      <c r="F79" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" s="7">
+      <c r="F79" s="16"/>
+      <c r="G79" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H79" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>247</v>
+      <c r="H79" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="34" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="80" ht="15.6" spans="1:9">
-      <c r="A80" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D80" s="12">
+      <c r="A80" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="15">
         <v>89</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="8">
         <v>89</v>
       </c>
-      <c r="F80" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G80" s="7">
+      <c r="F80" s="16"/>
+      <c r="G80" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H80" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="30" t="s">
-        <v>244</v>
+      <c r="H80" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:9">
-      <c r="A81" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D81" s="12">
+      <c r="A81" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="15">
         <v>89</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="8">
         <v>89</v>
       </c>
-      <c r="F81" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G81" s="7">
+      <c r="F81" s="16"/>
+      <c r="G81" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H81" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="30" t="s">
-        <v>247</v>
+      <c r="H81" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="34" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="82" ht="15.6" spans="1:9">
-      <c r="A82" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D82" s="5">
+      <c r="A82" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="8">
         <v>18.5</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="8">
         <v>18.5</v>
       </c>
-      <c r="F82" s="6">
-        <v>0</v>
-      </c>
-      <c r="G82" s="7">
+      <c r="F82" s="16"/>
+      <c r="G82" s="10">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>255</v>
+      <c r="H82" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="83" ht="15.6" spans="1:9">
-      <c r="A83" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D83" s="5">
-        <v>18</v>
-      </c>
-      <c r="E83" s="5">
-        <v>18</v>
-      </c>
-      <c r="F83" s="6">
-        <v>0</v>
-      </c>
-      <c r="G83" s="7">
+      <c r="A83" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" s="8">
+        <v>18</v>
+      </c>
+      <c r="E83" s="8">
+        <v>18</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="10">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="H83" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83" s="30" t="s">
-        <v>258</v>
+      <c r="H83" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="34" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="84" ht="15.6" spans="1:9">
-      <c r="A84" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D84" s="5">
+      <c r="A84" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="8">
         <v>5.7</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="8">
         <v>5.7</v>
       </c>
-      <c r="F84" s="6">
-        <v>0</v>
-      </c>
-      <c r="G84" s="7">
+      <c r="F84" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G84" s="10">
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="H84" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" s="30" t="s">
-        <v>262</v>
+      <c r="H84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="34" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="85" ht="15.6" spans="1:9">
-      <c r="A85" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D85" s="5">
+      <c r="A85" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D85" s="8">
         <v>4.5</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="8">
         <v>4.5</v>
       </c>
-      <c r="F85" s="6">
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
+      <c r="F85" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G85" s="10">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="30" t="s">
-        <v>265</v>
+      <c r="H85" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="34" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="86" ht="15.6" spans="1:9">
-      <c r="A86" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D86" s="5">
+      <c r="A86" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86" s="8">
         <v>3.5</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="8">
         <v>3.5</v>
       </c>
-      <c r="F86" s="6">
-        <v>0</v>
-      </c>
-      <c r="G86" s="7">
+      <c r="F86" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="10">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H86" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="30" t="s">
-        <v>269</v>
+      <c r="H86" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="34" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="87" ht="15.6" spans="1:9">
-      <c r="A87" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="5">
+      <c r="A87" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D87" s="8">
         <v>989</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="8">
         <v>769</v>
       </c>
-      <c r="F87" s="6">
-        <v>0</v>
-      </c>
-      <c r="G87" s="7">
+      <c r="F87" s="16"/>
+      <c r="G87" s="10">
         <f t="shared" si="1"/>
         <v>76900</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="30" t="s">
-        <v>272</v>
+      <c r="H87" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="34" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:9">
-      <c r="A88" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D88" s="5">
+      <c r="A88" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" s="8">
         <v>799</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="8">
         <v>599</v>
       </c>
-      <c r="F88" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G88" s="7">
+      <c r="F88" s="16"/>
+      <c r="G88" s="10">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="H88" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="30" t="s">
-        <v>275</v>
+      <c r="H88" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="34" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="89" ht="15.6" spans="1:9">
-      <c r="A89" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D89" s="5">
+      <c r="A89" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89" s="8">
         <v>1199</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="8">
         <v>599</v>
       </c>
-      <c r="F89" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G89" s="7">
+      <c r="F89" s="16"/>
+      <c r="G89" s="10">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="H89" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>278</v>
+      <c r="H89" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="34" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="90" ht="15.6" spans="1:9">
-      <c r="A90" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="D90" s="5">
+      <c r="A90" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90" s="8">
         <v>2099</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="8">
         <v>1199</v>
       </c>
-      <c r="F90" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G90" s="7">
+      <c r="F90" s="16"/>
+      <c r="G90" s="10">
         <f t="shared" si="1"/>
         <v>119900</v>
       </c>
-      <c r="H90" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="30" t="s">
-        <v>281</v>
+      <c r="H90" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="34" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="91" ht="15.6" spans="1:9">
-      <c r="A91" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D91" s="5">
+      <c r="A91" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D91" s="8">
         <v>2699</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="8">
         <v>1699</v>
       </c>
-      <c r="F91" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G91" s="7">
+      <c r="F91" s="16"/>
+      <c r="G91" s="10">
         <f t="shared" si="1"/>
         <v>169900</v>
       </c>
-      <c r="H91" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="30" t="s">
-        <v>284</v>
+      <c r="H91" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="34" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="92" ht="15.6" spans="1:9">
-      <c r="A92" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D92" s="5">
+      <c r="A92" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" s="8">
         <v>119</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="8">
         <v>79</v>
       </c>
-      <c r="F92" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G92" s="7">
+      <c r="F92" s="16"/>
+      <c r="G92" s="10">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H92" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" s="30" t="s">
-        <v>287</v>
+      <c r="H92" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="34" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="93" ht="15.6" spans="1:9">
-      <c r="A93" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D93" s="5">
+      <c r="A93" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D93" s="8">
         <v>119</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="8">
         <v>79</v>
       </c>
-      <c r="F93" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G93" s="7">
+      <c r="F93" s="16"/>
+      <c r="G93" s="10">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H93" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I93" s="30" t="s">
-        <v>287</v>
+      <c r="H93" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="34" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="94" ht="15.6" spans="1:9">
-      <c r="A94" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D94" s="12">
+      <c r="A94" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94" s="15">
         <v>109</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="15">
         <v>109</v>
       </c>
-      <c r="F94" s="6">
-        <v>0</v>
-      </c>
-      <c r="G94" s="7">
+      <c r="F94" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G94" s="10">
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="H94" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I94" s="30" t="s">
-        <v>293</v>
+      <c r="H94" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="34" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="95" ht="15.6" spans="1:9">
-      <c r="A95" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D95" s="5">
+      <c r="A95" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" s="8">
         <v>99</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="8">
         <v>99</v>
       </c>
-      <c r="F95" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G95" s="7">
+      <c r="F95" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G95" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H95" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="30" t="s">
-        <v>296</v>
+      <c r="H95" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="34" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="96" ht="15.6" spans="1:9">
-      <c r="A96" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D96" s="5">
+      <c r="A96" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D96" s="8">
         <v>199</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="8">
         <v>169</v>
       </c>
-      <c r="F96" s="6">
-        <v>0</v>
-      </c>
-      <c r="G96" s="7">
+      <c r="F96" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G96" s="10">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="H96" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="30" t="s">
-        <v>300</v>
+      <c r="H96" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="34" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="97" ht="15.6" spans="1:9">
-      <c r="A97" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D97" s="5">
+      <c r="A97" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D97" s="8">
         <v>259</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="8">
         <v>189</v>
       </c>
-      <c r="F97" s="6">
-        <v>0</v>
-      </c>
-      <c r="G97" s="7">
+      <c r="F97" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G97" s="10">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="H97" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="29" t="s">
-        <v>303</v>
+      <c r="H97" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="33" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="98" ht="15.6" spans="1:9">
-      <c r="A98" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D98" s="5">
+      <c r="A98" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D98" s="8">
         <v>139</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="8">
         <v>79</v>
       </c>
-      <c r="F98" s="6">
-        <v>0</v>
-      </c>
-      <c r="G98" s="7">
+      <c r="F98" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G98" s="10">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H98" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="30" t="s">
-        <v>306</v>
+      <c r="H98" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="34" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="99" ht="15.6" spans="1:9">
-      <c r="A99" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D99" s="5">
+      <c r="A99" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" s="8">
         <v>139</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="8">
         <v>79</v>
       </c>
-      <c r="F99" s="6">
-        <v>0</v>
-      </c>
-      <c r="G99" s="7">
+      <c r="F99" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G99" s="10">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H99" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="30" t="s">
-        <v>306</v>
+      <c r="H99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="34" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="100" ht="15.6" spans="1:9">
-      <c r="A100" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D100" s="5">
+      <c r="A100" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D100" s="8">
         <v>169</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="8">
         <v>99</v>
       </c>
-      <c r="F100" s="6">
-        <v>0</v>
-      </c>
-      <c r="G100" s="7">
+      <c r="F100" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G100" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H100" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="30" t="s">
-        <v>311</v>
+      <c r="H100" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="34" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="101" ht="15.6" spans="1:9">
-      <c r="A101" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D101" s="5">
+      <c r="A101" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D101" s="8">
         <v>169</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="8">
         <v>99</v>
       </c>
-      <c r="F101" s="6">
-        <v>0</v>
-      </c>
-      <c r="G101" s="7">
+      <c r="F101" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G101" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H101" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="30" t="s">
-        <v>311</v>
+      <c r="H101" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="34" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="102" ht="15.6" spans="1:9">
-      <c r="A102" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D102" s="5">
+      <c r="A102" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D102" s="8">
         <v>169</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="8">
         <v>99</v>
       </c>
-      <c r="F102" s="6">
-        <v>0</v>
-      </c>
-      <c r="G102" s="7">
+      <c r="F102" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G102" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H102" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="29" t="s">
-        <v>316</v>
+      <c r="H102" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="33" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="103" ht="15.6" spans="1:9">
-      <c r="A103" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D103" s="5">
+      <c r="A103" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D103" s="8">
         <v>169</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="8">
         <v>99</v>
       </c>
-      <c r="F103" s="6">
-        <v>0</v>
-      </c>
-      <c r="G103" s="7">
+      <c r="F103" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G103" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H103" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="33" t="s">
-        <v>319</v>
+      <c r="H103" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="37" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:9">
-      <c r="A104" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D104" s="5">
+      <c r="A104" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" s="8">
         <v>179</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="8">
         <v>177</v>
       </c>
-      <c r="F104" s="6">
-        <v>0</v>
-      </c>
-      <c r="G104" s="7">
+      <c r="F104" s="16"/>
+      <c r="G104" s="10">
         <f t="shared" si="1"/>
         <v>17700</v>
       </c>
-      <c r="H104" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="30" t="s">
-        <v>323</v>
+      <c r="H104" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="34" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:9">
-      <c r="A105" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D105" s="12">
+      <c r="A105" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" s="15">
         <v>559</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="15">
         <v>329</v>
       </c>
-      <c r="F105" s="6">
-        <v>0</v>
-      </c>
-      <c r="G105" s="7">
+      <c r="F105" s="16"/>
+      <c r="G105" s="10">
         <f t="shared" si="1"/>
         <v>32900</v>
       </c>
-      <c r="H105" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I105" s="30" t="s">
-        <v>327</v>
+      <c r="H105" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="34" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="106" ht="15.6" spans="1:9">
-      <c r="A106" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D106" s="12">
+      <c r="A106" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D106" s="15">
         <v>699</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="8">
         <v>459</v>
       </c>
-      <c r="F106" s="6">
-        <v>0</v>
-      </c>
-      <c r="G106" s="7">
+      <c r="F106" s="16"/>
+      <c r="G106" s="10">
         <f t="shared" si="1"/>
         <v>45900</v>
       </c>
-      <c r="H106" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106" s="30" t="s">
-        <v>330</v>
+      <c r="H106" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="34" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="107" ht="15.6" spans="1:9">
-      <c r="A107" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D107" s="5">
+      <c r="A107" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D107" s="8">
         <v>699</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="8">
         <v>459</v>
       </c>
-      <c r="F107" s="6">
-        <v>0</v>
-      </c>
-      <c r="G107" s="7">
+      <c r="F107" s="16"/>
+      <c r="G107" s="10">
         <f t="shared" si="1"/>
         <v>45900</v>
       </c>
-      <c r="H107" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I107" s="30" t="s">
-        <v>330</v>
+      <c r="H107" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="34" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="108" ht="15.6" spans="1:9">
-      <c r="A108" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="D108" s="12">
+      <c r="A108" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D108" s="15">
         <v>119</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="15">
         <v>99</v>
       </c>
-      <c r="F108" s="6">
-        <v>0</v>
-      </c>
-      <c r="G108" s="7">
+      <c r="F108" s="16"/>
+      <c r="G108" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H108" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I108" s="30" t="s">
-        <v>336</v>
+      <c r="H108" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="34" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="109" ht="15.6" spans="1:9">
-      <c r="A109" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D109" s="5">
+      <c r="A109" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D109" s="8">
         <v>239</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="8">
         <v>209</v>
       </c>
-      <c r="F109" s="6">
-        <v>0</v>
-      </c>
-      <c r="G109" s="7">
+      <c r="F109" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G109" s="10">
         <f t="shared" si="1"/>
         <v>20900</v>
       </c>
-      <c r="H109" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="30" t="s">
-        <v>340</v>
+      <c r="H109" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="34" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="110" ht="15.6" spans="1:9">
-      <c r="A110" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="D110" s="5">
+      <c r="A110" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D110" s="8">
         <v>209</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="8">
         <v>189</v>
       </c>
-      <c r="F110" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G110" s="7">
+      <c r="F110" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G110" s="10">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="H110" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I110" s="30" t="s">
-        <v>343</v>
+      <c r="H110" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="111" ht="15.6" spans="1:9">
-      <c r="A111" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="D111" s="5">
+      <c r="A111" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D111" s="8">
         <v>135</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="8">
         <v>109</v>
       </c>
-      <c r="F111" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G111" s="7">
+      <c r="F111" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G111" s="10">
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="H111" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I111" s="30" t="s">
-        <v>346</v>
+      <c r="H111" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="34" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="112" ht="15.6" spans="1:9">
-      <c r="A112" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D112" s="5">
+      <c r="A112" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D112" s="8">
         <v>106</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="8">
         <v>105</v>
       </c>
-      <c r="F112" s="6">
-        <v>0</v>
-      </c>
-      <c r="G112" s="7">
+      <c r="F112" s="16"/>
+      <c r="G112" s="10">
         <f t="shared" si="1"/>
         <v>10500</v>
       </c>
-      <c r="H112" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="30" t="s">
-        <v>350</v>
+      <c r="H112" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="34" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:9">
-      <c r="A113" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D113" s="5">
+      <c r="A113" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="8">
         <v>86</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="8">
         <v>84</v>
       </c>
-      <c r="F113" s="6">
-        <v>0</v>
-      </c>
-      <c r="G113" s="7">
+      <c r="F113" s="16"/>
+      <c r="G113" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H113" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I113" s="30" t="s">
-        <v>353</v>
+      <c r="H113" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="34" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="114" ht="15.6" spans="1:9">
-      <c r="A114" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="D114" s="5">
+      <c r="A114" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" s="8">
         <v>86</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="8">
         <v>84</v>
       </c>
-      <c r="F114" s="6">
-        <v>0</v>
-      </c>
-      <c r="G114" s="7">
+      <c r="F114" s="16"/>
+      <c r="G114" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H114" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I114" s="30" t="s">
-        <v>356</v>
+      <c r="H114" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="34" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="115" ht="15.6" spans="1:9">
-      <c r="A115" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="D115" s="5">
+      <c r="A115" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D115" s="8">
         <v>86</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="8">
         <v>84</v>
       </c>
-      <c r="F115" s="6">
-        <v>0</v>
-      </c>
-      <c r="G115" s="7">
+      <c r="F115" s="16"/>
+      <c r="G115" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H115" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I115" s="30" t="s">
-        <v>359</v>
+      <c r="H115" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="34" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="116" ht="15.6" spans="1:9">
-      <c r="A116" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="D116" s="12">
+      <c r="A116" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D116" s="15">
         <v>106</v>
       </c>
-      <c r="E116" s="32">
+      <c r="E116" s="36">
         <v>104</v>
       </c>
-      <c r="F116" s="6">
-        <v>0</v>
-      </c>
-      <c r="G116" s="7">
+      <c r="F116" s="16"/>
+      <c r="G116" s="10">
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="H116" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I116" s="30" t="s">
-        <v>362</v>
+      <c r="H116" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="34" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="117" ht="15.6" spans="1:9">
-      <c r="A117" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="D117" s="5">
+      <c r="A117" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="D117" s="8">
         <v>8.6</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="8">
         <v>8.6</v>
       </c>
-      <c r="F117" s="6">
-        <v>0</v>
-      </c>
-      <c r="G117" s="7">
+      <c r="F117" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G117" s="10">
         <f t="shared" si="1"/>
         <v>860</v>
       </c>
-      <c r="H117" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I117" s="30" t="s">
-        <v>366</v>
+      <c r="H117" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="34" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="118" ht="15.6" spans="1:9">
-      <c r="A118" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="D118" s="5">
+      <c r="A118" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D118" s="8">
         <v>8</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="8">
         <v>8</v>
       </c>
-      <c r="F118" s="6">
-        <v>0</v>
-      </c>
-      <c r="G118" s="7">
+      <c r="F118" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G118" s="10">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H118" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I118" s="30" t="s">
-        <v>369</v>
+      <c r="H118" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="34" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="119" ht="15.6" spans="1:9">
-      <c r="A119" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="D119" s="5">
+      <c r="A119" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="D119" s="8">
         <v>8</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="8">
         <v>8</v>
       </c>
-      <c r="F119" s="6">
-        <v>0</v>
-      </c>
-      <c r="G119" s="7">
+      <c r="F119" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G119" s="10">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H119" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I119" s="30" t="s">
-        <v>372</v>
+      <c r="H119" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="34" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="120" ht="15.6" spans="1:9">
-      <c r="A120" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D120" s="5">
+      <c r="A120" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D120" s="8">
         <v>8</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="8">
         <v>8</v>
       </c>
-      <c r="F120" s="6">
-        <v>0</v>
-      </c>
-      <c r="G120" s="7">
+      <c r="F120" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G120" s="10">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H120" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I120" s="30" t="s">
-        <v>375</v>
+      <c r="H120" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="34" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="121" ht="15.6" spans="1:9">
-      <c r="A121" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="D121" s="5">
+      <c r="A121" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D121" s="8">
         <v>12.5</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="8">
         <v>12.5</v>
       </c>
-      <c r="F121" s="6">
-        <v>0</v>
-      </c>
-      <c r="G121" s="7">
+      <c r="F121" s="16"/>
+      <c r="G121" s="10">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="H121" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="I121" s="30" t="s">
-        <v>380</v>
+      <c r="H121" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="I121" s="34" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="122" ht="15.6" spans="1:9">
-      <c r="A122" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="D122" s="12">
+      <c r="A122" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D122" s="15">
         <v>69</v>
       </c>
-      <c r="E122" s="32">
+      <c r="E122" s="36">
         <v>69</v>
       </c>
-      <c r="F122" s="6">
-        <v>0</v>
-      </c>
-      <c r="G122" s="7">
+      <c r="F122" s="16"/>
+      <c r="G122" s="10">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H122" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I122" s="30" t="s">
-        <v>384</v>
+      <c r="H122" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="34" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="123" ht="15.6" spans="1:9">
-      <c r="A123" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="D123" s="12">
+      <c r="A123" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="D123" s="15">
         <v>69</v>
       </c>
-      <c r="E123" s="32">
+      <c r="E123" s="36">
         <v>69</v>
       </c>
-      <c r="F123" s="6">
-        <v>0</v>
-      </c>
-      <c r="G123" s="7">
+      <c r="F123" s="16"/>
+      <c r="G123" s="10">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H123" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I123" s="30" t="s">
-        <v>387</v>
+      <c r="H123" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="34" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="124" ht="15.6" spans="1:9">
-      <c r="A124" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="D124" s="12">
+      <c r="A124" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D124" s="15">
         <v>69</v>
       </c>
-      <c r="E124" s="32">
+      <c r="E124" s="36">
         <v>69</v>
       </c>
-      <c r="F124" s="6">
-        <v>0</v>
-      </c>
-      <c r="G124" s="7">
+      <c r="F124" s="16"/>
+      <c r="G124" s="10">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H124" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I124" s="30" t="s">
-        <v>390</v>
+      <c r="H124" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="34" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:9">
-      <c r="A125" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D125" s="5">
+      <c r="A125" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D125" s="8">
         <v>89</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="8">
         <v>89</v>
       </c>
-      <c r="F125" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G125" s="7">
+      <c r="F125" s="16"/>
+      <c r="G125" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H125" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I125" s="30" t="s">
-        <v>393</v>
+      <c r="H125" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="34" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="126" ht="15.6" spans="1:9">
-      <c r="A126" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D126" s="5">
+      <c r="A126" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D126" s="8">
         <v>89</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="8">
         <v>89</v>
       </c>
-      <c r="F126" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G126" s="7">
+      <c r="F126" s="16"/>
+      <c r="G126" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H126" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I126" s="30" t="s">
-        <v>395</v>
+      <c r="H126" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="34" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="127" ht="15.6" spans="1:9">
-      <c r="A127" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D127" s="5">
+      <c r="A127" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D127" s="8">
         <v>89</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="8">
         <v>89</v>
       </c>
-      <c r="F127" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G127" s="7">
+      <c r="F127" s="16"/>
+      <c r="G127" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H127" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I127" s="30" t="s">
-        <v>397</v>
+      <c r="H127" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="34" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="128" ht="15.6" spans="1:9">
-      <c r="A128" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D128" s="5">
+      <c r="A128" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D128" s="8">
         <v>39.9</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="8">
         <v>39.9</v>
       </c>
-      <c r="F128" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G128" s="7">
+      <c r="F128" s="16"/>
+      <c r="G128" s="10">
         <f t="shared" si="1"/>
         <v>3990</v>
       </c>
-      <c r="H128" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I128" s="30" t="s">
-        <v>400</v>
+      <c r="H128" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="34" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="129" ht="15.6" spans="1:9">
-      <c r="A129" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D129" s="5">
+      <c r="A129" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="D129" s="8">
         <v>469</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="8">
         <v>449</v>
       </c>
-      <c r="F129" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G129" s="7">
+      <c r="F129" s="16"/>
+      <c r="G129" s="10">
         <f t="shared" si="1"/>
         <v>44900</v>
       </c>
-      <c r="H129" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I129" s="30" t="s">
-        <v>404</v>
+      <c r="H129" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="34" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:9">
-      <c r="A130" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="D130" s="12">
+      <c r="A130" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="D130" s="15">
         <v>79</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="8">
         <v>79</v>
       </c>
-      <c r="F130" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G130" s="7">
+      <c r="F130" s="16"/>
+      <c r="G130" s="10">
         <f t="shared" ref="G130:G175" si="2">E130*100</f>
         <v>7900</v>
       </c>
-      <c r="H130" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I130" s="30" t="s">
-        <v>408</v>
+      <c r="H130" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="34" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="131" ht="15.6" spans="1:9">
-      <c r="A131" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D131" s="12">
+      <c r="A131" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="D131" s="15">
         <v>159</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="8">
         <v>159</v>
       </c>
-      <c r="F131" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G131" s="7">
+      <c r="F131" s="16"/>
+      <c r="G131" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H131" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I131" s="30" t="s">
-        <v>411</v>
+      <c r="H131" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="34" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:9">
-      <c r="A132" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="D132" s="12">
+      <c r="A132" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="D132" s="15">
         <v>159</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="8">
         <v>159</v>
       </c>
-      <c r="F132" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G132" s="7">
+      <c r="F132" s="16"/>
+      <c r="G132" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H132" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I132" s="30" t="s">
-        <v>414</v>
+      <c r="H132" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="34" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="133" ht="15.6" spans="1:9">
-      <c r="A133" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="D133" s="12">
+      <c r="A133" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="D133" s="15">
         <v>159</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="8">
         <v>159</v>
       </c>
-      <c r="F133" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G133" s="7">
+      <c r="F133" s="16"/>
+      <c r="G133" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H133" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I133" s="29" t="s">
-        <v>417</v>
+      <c r="H133" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="33" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="134" ht="15.6" spans="1:9">
-      <c r="A134" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="D134" s="12">
+      <c r="A134" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="D134" s="15">
         <v>159</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="8">
         <v>159</v>
       </c>
-      <c r="F134" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G134" s="7">
+      <c r="F134" s="16"/>
+      <c r="G134" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H134" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I134" s="29" t="s">
-        <v>420</v>
+      <c r="H134" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="33" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="135" ht="15.6" spans="1:9">
-      <c r="A135" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="D135" s="12">
+      <c r="A135" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="D135" s="15">
         <v>79</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="8">
         <v>79</v>
       </c>
-      <c r="F135" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G135" s="7">
+      <c r="F135" s="16"/>
+      <c r="G135" s="10">
         <f t="shared" si="2"/>
         <v>7900</v>
       </c>
-      <c r="H135" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I135" s="29" t="s">
-        <v>423</v>
+      <c r="H135" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="33" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="136" ht="15.6" spans="1:9">
-      <c r="A136" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="D136" s="12">
+      <c r="A136" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="D136" s="15">
         <v>79</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="8">
         <v>79</v>
       </c>
-      <c r="F136" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G136" s="7">
+      <c r="F136" s="16"/>
+      <c r="G136" s="10">
         <f t="shared" si="2"/>
         <v>7900</v>
       </c>
-      <c r="H136" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I136" s="29" t="s">
-        <v>426</v>
+      <c r="H136" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="33" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="137" ht="15.6" spans="1:9">
-      <c r="A137" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="D137" s="12">
+      <c r="A137" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C137" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D137" s="15">
         <v>289</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E137" s="15">
         <v>279</v>
       </c>
-      <c r="F137" s="6">
-        <v>0</v>
-      </c>
-      <c r="G137" s="7">
+      <c r="F137" s="16"/>
+      <c r="G137" s="10">
         <f t="shared" si="2"/>
         <v>27900</v>
       </c>
-      <c r="H137" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I137" s="30" t="s">
-        <v>430</v>
+      <c r="H137" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="34" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:9">
-      <c r="A138" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="D138" s="5">
+      <c r="A138" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="D138" s="8">
         <v>199</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="8">
         <v>169</v>
       </c>
-      <c r="F138" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G138" s="7">
+      <c r="F138" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G138" s="10">
         <f t="shared" si="2"/>
         <v>16900</v>
       </c>
-      <c r="H138" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I138" s="30" t="s">
-        <v>433</v>
+      <c r="H138" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="34" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:9">
-      <c r="A139" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="D139" s="5">
+      <c r="A139" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="D139" s="8">
         <v>8.1</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="8">
         <v>8.1</v>
       </c>
-      <c r="F139" s="6">
-        <v>0</v>
-      </c>
-      <c r="G139" s="7">
+      <c r="F139" s="16"/>
+      <c r="G139" s="10">
         <f t="shared" si="2"/>
         <v>810</v>
       </c>
-      <c r="H139" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I139" s="30" t="s">
-        <v>437</v>
+      <c r="H139" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="34" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:9">
-      <c r="A140" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="D140" s="5">
+      <c r="A140" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="D140" s="8">
         <v>3.3</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="8">
         <v>3.3</v>
       </c>
-      <c r="F140" s="6">
-        <v>0</v>
-      </c>
-      <c r="G140" s="7">
+      <c r="F140" s="16"/>
+      <c r="G140" s="10">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="H140" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I140" s="30" t="s">
-        <v>440</v>
+      <c r="H140" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="34" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:9">
-      <c r="A141" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="D141" s="5">
+      <c r="A141" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C141" s="39" t="s">
+        <v>475</v>
+      </c>
+      <c r="D141" s="8">
         <v>11.5</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="8">
         <v>11.5</v>
       </c>
-      <c r="F141" s="6">
-        <v>0</v>
-      </c>
-      <c r="G141" s="7">
+      <c r="F141" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="G141" s="10">
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-      <c r="H141" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" s="30" t="s">
-        <v>443</v>
+      <c r="H141" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="34" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="142" ht="15.6" spans="1:9">
-      <c r="A142" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D142" s="5">
+      <c r="A142" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D142" s="8">
         <v>449</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="8">
         <v>399</v>
       </c>
-      <c r="F142" s="6">
-        <v>0</v>
-      </c>
-      <c r="G142" s="7">
+      <c r="F142" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G142" s="10">
         <f t="shared" si="2"/>
         <v>39900</v>
       </c>
-      <c r="H142" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I142" s="30" t="s">
-        <v>447</v>
+      <c r="H142" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="34" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:9">
-      <c r="A143" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="D143" s="5">
+      <c r="A143" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="D143" s="8">
         <v>2.6</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="8">
         <v>2.6</v>
       </c>
-      <c r="F143" s="6">
-        <v>0</v>
-      </c>
-      <c r="G143" s="7">
+      <c r="F143" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G143" s="10">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="H143" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I143" s="30" t="s">
-        <v>451</v>
+      <c r="H143" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="34" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="144" ht="15.6" spans="1:9">
-      <c r="A144" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="D144" s="12">
+      <c r="A144" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C144" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="D144" s="15">
         <v>259</v>
       </c>
-      <c r="E144" s="12">
+      <c r="E144" s="15">
         <v>259</v>
       </c>
-      <c r="F144" s="6">
-        <v>0</v>
-      </c>
-      <c r="G144" s="7">
+      <c r="F144" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G144" s="10">
         <f t="shared" si="2"/>
         <v>25900</v>
       </c>
-      <c r="H144" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I144" s="30" t="s">
-        <v>455</v>
+      <c r="H144" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="34" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:9">
-      <c r="A145" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="D145" s="5">
+      <c r="A145" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D145" s="8">
         <v>269</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="8">
         <v>269</v>
       </c>
-      <c r="F145" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G145" s="7">
+      <c r="F145" s="16"/>
+      <c r="G145" s="10">
         <f t="shared" si="2"/>
         <v>26900</v>
       </c>
-      <c r="H145" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I145" s="30" t="s">
-        <v>458</v>
+      <c r="H145" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="34" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:9">
-      <c r="A146" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="D146" s="5">
+      <c r="A146" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D146" s="8">
         <v>129</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="8">
         <v>129</v>
       </c>
-      <c r="F146" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G146" s="7">
+      <c r="F146" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" s="10">
         <f t="shared" si="2"/>
         <v>12900</v>
       </c>
-      <c r="H146" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I146" s="30" t="s">
-        <v>461</v>
+      <c r="H146" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="34" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:9">
-      <c r="A147" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D147" s="5">
+      <c r="A147" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="D147" s="8">
         <v>1999</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147" s="8">
         <v>1499</v>
       </c>
-      <c r="F147" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G147" s="7">
+      <c r="F147" s="16"/>
+      <c r="G147" s="10">
         <f t="shared" si="2"/>
         <v>149900</v>
       </c>
-      <c r="H147" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I147" s="30" t="s">
-        <v>465</v>
+      <c r="H147" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="34" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:9">
-      <c r="A148" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="D148" s="5">
+      <c r="A148" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="D148" s="8">
         <v>9.1</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="8">
         <v>9.1</v>
       </c>
-      <c r="F148" s="6">
-        <v>0</v>
-      </c>
-      <c r="G148" s="7">
+      <c r="F148" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G148" s="10">
         <f t="shared" si="2"/>
         <v>910</v>
       </c>
-      <c r="H148" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I148" s="30" t="s">
-        <v>469</v>
+      <c r="H148" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="34" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:9">
-      <c r="A149" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D149" s="5">
+      <c r="A149" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="D149" s="8">
         <v>16.5</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="8">
         <v>16.5</v>
       </c>
-      <c r="F149" s="6">
-        <v>0</v>
-      </c>
-      <c r="G149" s="7">
+      <c r="F149" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="G149" s="10">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="H149" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I149" s="30" t="s">
-        <v>473</v>
+      <c r="H149" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="34" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:9">
-      <c r="A150" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D150" s="5">
+      <c r="A150" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="D150" s="8">
         <v>18.9</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="8">
         <v>18.9</v>
       </c>
-      <c r="F150" s="6">
-        <v>0</v>
-      </c>
-      <c r="G150" s="7">
+      <c r="F150" s="16"/>
+      <c r="G150" s="10">
         <f t="shared" si="2"/>
         <v>1890</v>
       </c>
-      <c r="H150" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I150" s="30" t="s">
-        <v>477</v>
+      <c r="H150" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="34" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="151" ht="15.6" spans="1:9">
-      <c r="A151" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D151" s="5">
+      <c r="A151" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D151" s="8">
         <v>30</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E151" s="8">
         <v>30</v>
       </c>
-      <c r="F151" s="6">
-        <v>0</v>
-      </c>
-      <c r="G151" s="7">
+      <c r="F151" s="16"/>
+      <c r="G151" s="10">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="H151" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I151" s="30" t="s">
-        <v>480</v>
+      <c r="H151" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="34" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="152" ht="15.6" spans="1:9">
-      <c r="A152" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="D152" s="5">
+      <c r="A152" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D152" s="8">
         <v>36</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E152" s="8">
         <v>36</v>
       </c>
-      <c r="F152" s="6">
-        <v>0</v>
-      </c>
-      <c r="G152" s="7">
+      <c r="F152" s="16"/>
+      <c r="G152" s="10">
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
-      <c r="H152" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I152" s="30" t="s">
-        <v>483</v>
+      <c r="H152" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="34" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="153" ht="15.6" spans="1:9">
-      <c r="A153" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D153" s="5">
+      <c r="A153" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="D153" s="8">
         <v>35</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E153" s="8">
         <v>35</v>
       </c>
-      <c r="F153" s="6">
-        <v>0</v>
-      </c>
-      <c r="G153" s="7">
+      <c r="F153" s="16"/>
+      <c r="G153" s="10">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="H153" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I153" s="30" t="s">
-        <v>486</v>
+      <c r="H153" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="34" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="154" ht="15.6" spans="1:9">
-      <c r="A154" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="D154" s="5">
+      <c r="A154" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="D154" s="8">
         <v>35</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="8">
         <v>35</v>
       </c>
-      <c r="F154" s="6">
-        <v>0</v>
-      </c>
-      <c r="G154" s="7">
+      <c r="F154" s="16"/>
+      <c r="G154" s="10">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="H154" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I154" s="30" t="s">
-        <v>489</v>
+      <c r="H154" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" s="34" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="155" ht="15.6" spans="1:9">
-      <c r="A155" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="D155" s="5">
+      <c r="A155" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="D155" s="8">
         <v>40</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E155" s="8">
         <v>40</v>
       </c>
-      <c r="F155" s="6">
-        <v>0</v>
-      </c>
-      <c r="G155" s="7">
+      <c r="F155" s="16"/>
+      <c r="G155" s="10">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H155" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I155" s="30" t="s">
-        <v>492</v>
+      <c r="H155" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="34" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="156" ht="15.6" spans="1:9">
-      <c r="A156" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="D156" s="5">
+      <c r="A156" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="D156" s="8">
         <v>50</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E156" s="8">
         <v>50</v>
       </c>
-      <c r="F156" s="6">
-        <v>0</v>
-      </c>
-      <c r="G156" s="7">
+      <c r="F156" s="16"/>
+      <c r="G156" s="10">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H156" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I156" s="30" t="s">
-        <v>495</v>
+      <c r="H156" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="34" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="157" ht="15.6" spans="1:9">
-      <c r="A157" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="D157" s="5">
+      <c r="A157" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="D157" s="8">
         <v>15</v>
       </c>
-      <c r="E157" s="5">
+      <c r="E157" s="8">
         <v>15</v>
       </c>
-      <c r="F157" s="6">
-        <v>0</v>
-      </c>
-      <c r="G157" s="7">
+      <c r="F157" s="16"/>
+      <c r="G157" s="10">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="H157" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I157" s="30" t="s">
-        <v>498</v>
+      <c r="H157" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="34" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="158" ht="15.6" spans="1:9">
-      <c r="A158" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="D158" s="5">
+      <c r="A158" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="D158" s="8">
         <v>7.9</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E158" s="8">
         <v>7.9</v>
       </c>
-      <c r="F158" s="6">
-        <v>0</v>
-      </c>
-      <c r="G158" s="7">
+      <c r="F158" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="G158" s="10">
         <f t="shared" si="2"/>
         <v>790</v>
       </c>
-      <c r="H158" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I158" s="30" t="s">
-        <v>502</v>
+      <c r="H158" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="34" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="159" ht="15.6" spans="1:9">
-      <c r="A159" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="D159" s="5">
+      <c r="A159" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="D159" s="8">
         <v>299</v>
       </c>
-      <c r="E159" s="5">
+      <c r="E159" s="8">
         <v>299</v>
       </c>
-      <c r="F159" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G159" s="7">
+      <c r="F159" s="16"/>
+      <c r="G159" s="10">
         <f t="shared" si="2"/>
         <v>29900</v>
       </c>
-      <c r="H159" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I159" s="30" t="s">
-        <v>506</v>
+      <c r="H159" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="34" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="160" ht="15.6" spans="1:9">
-      <c r="A160" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="D160" s="5">
+      <c r="A160" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="D160" s="8">
         <v>229</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160" s="8">
         <v>229</v>
       </c>
-      <c r="F160" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G160" s="7">
+      <c r="F160" s="16"/>
+      <c r="G160" s="10">
         <f t="shared" si="2"/>
         <v>22900</v>
       </c>
-      <c r="H160" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I160" s="30" t="s">
-        <v>509</v>
+      <c r="H160" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="34" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="161" ht="15.6" spans="1:9">
-      <c r="A161" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D161" s="5">
+      <c r="A161" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="D161" s="8">
         <v>309</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E161" s="8">
         <v>299</v>
       </c>
-      <c r="F161" s="6">
-        <v>0</v>
-      </c>
-      <c r="G161" s="7">
+      <c r="F161" s="16"/>
+      <c r="G161" s="10">
         <f t="shared" si="2"/>
         <v>29900</v>
       </c>
-      <c r="H161" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I161" s="30" t="s">
-        <v>513</v>
+      <c r="H161" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="34" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="162" ht="15.6" spans="1:9">
-      <c r="A162" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D162" s="5">
+      <c r="A162" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D162" s="8">
         <v>339</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="8">
         <v>329</v>
       </c>
-      <c r="F162" s="6">
-        <v>0</v>
-      </c>
-      <c r="G162" s="7">
+      <c r="F162" s="16"/>
+      <c r="G162" s="10">
         <f t="shared" si="2"/>
         <v>32900</v>
       </c>
-      <c r="H162" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I162" s="30" t="s">
-        <v>516</v>
+      <c r="H162" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" s="34" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="163" ht="15.6" spans="1:9">
-      <c r="A163" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="D163" s="5">
+      <c r="A163" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D163" s="8">
         <v>159</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163" s="8">
         <v>156</v>
       </c>
-      <c r="F163" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G163" s="7">
+      <c r="F163" s="16"/>
+      <c r="G163" s="10">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="H163" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I163" s="30" t="s">
-        <v>519</v>
+      <c r="H163" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="34" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="164" ht="15.6" spans="1:9">
-      <c r="A164" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="D164" s="5">
+      <c r="A164" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D164" s="8">
         <v>159</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="8">
         <v>156</v>
       </c>
-      <c r="F164" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G164" s="7">
+      <c r="F164" s="16"/>
+      <c r="G164" s="10">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="H164" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I164" s="30" t="s">
-        <v>522</v>
+      <c r="H164" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="34" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="165" ht="15.6" spans="1:9">
-      <c r="A165" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="D165" s="5">
+      <c r="A165" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="D165" s="8">
         <v>169</v>
       </c>
-      <c r="E165" s="5">
+      <c r="E165" s="8">
         <v>166</v>
       </c>
-      <c r="F165" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G165" s="7">
+      <c r="F165" s="16"/>
+      <c r="G165" s="10">
         <f t="shared" si="2"/>
         <v>16600</v>
       </c>
-      <c r="H165" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I165" s="30" t="s">
-        <v>525</v>
+      <c r="H165" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="34" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="166" ht="15.6" spans="1:9">
-      <c r="A166" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D166" s="5">
+      <c r="A166" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D166" s="8">
         <v>299</v>
       </c>
-      <c r="E166" s="5">
+      <c r="E166" s="8">
         <v>189</v>
       </c>
-      <c r="F166" s="6">
-        <v>0</v>
-      </c>
-      <c r="G166" s="7">
+      <c r="F166" s="16"/>
+      <c r="G166" s="10">
         <f t="shared" si="2"/>
         <v>18900</v>
       </c>
-      <c r="H166" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I166" s="30" t="s">
-        <v>529</v>
+      <c r="H166" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" s="34" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="167" ht="15.6" spans="1:9">
-      <c r="A167" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D167" s="5">
+      <c r="A167" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D167" s="8">
         <v>1899</v>
       </c>
-      <c r="E167" s="5">
+      <c r="E167" s="8">
         <v>1399</v>
       </c>
-      <c r="F167" s="6">
-        <v>0</v>
-      </c>
-      <c r="G167" s="7">
+      <c r="F167" s="16"/>
+      <c r="G167" s="10">
         <f t="shared" si="2"/>
         <v>139900</v>
       </c>
-      <c r="H167" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I167" s="30" t="s">
-        <v>533</v>
+      <c r="H167" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" s="34" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="168" ht="15.6" spans="1:9">
-      <c r="A168" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D168" s="5">
+      <c r="A168" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D168" s="8">
         <v>1299</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168" s="8">
         <v>879</v>
       </c>
-      <c r="F168" s="6">
-        <v>0</v>
-      </c>
-      <c r="G168" s="7">
+      <c r="F168" s="16"/>
+      <c r="G168" s="10">
         <f t="shared" si="2"/>
         <v>87900</v>
       </c>
-      <c r="H168" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I168" s="30" t="s">
-        <v>536</v>
+      <c r="H168" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="34" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="169" ht="15.6" spans="1:9">
-      <c r="A169" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D169" s="5">
+      <c r="A169" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D169" s="8">
         <v>1499</v>
       </c>
-      <c r="E169" s="5">
+      <c r="E169" s="8">
         <v>1049</v>
       </c>
-      <c r="F169" s="6">
-        <v>0</v>
-      </c>
-      <c r="G169" s="7">
+      <c r="F169" s="16"/>
+      <c r="G169" s="10">
         <f t="shared" si="2"/>
         <v>104900</v>
       </c>
-      <c r="H169" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I169" s="30" t="s">
-        <v>539</v>
+      <c r="H169" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="34" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="170" ht="15.6" spans="1:9">
-      <c r="A170" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D170" s="5">
+      <c r="A170" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D170" s="8">
         <v>499</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="8">
         <v>499</v>
       </c>
-      <c r="F170" s="6">
-        <v>0</v>
-      </c>
-      <c r="G170" s="7">
+      <c r="F170" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G170" s="10">
         <f t="shared" si="2"/>
         <v>49900</v>
       </c>
-      <c r="H170" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I170" s="30" t="s">
-        <v>543</v>
+      <c r="H170" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="34" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="171" ht="15.6" spans="1:9">
-      <c r="A171" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D171" s="5">
+      <c r="A171" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D171" s="8">
         <v>699</v>
       </c>
-      <c r="E171" s="5">
+      <c r="E171" s="8">
         <v>499</v>
       </c>
-      <c r="F171" s="6">
-        <v>0</v>
-      </c>
-      <c r="G171" s="7">
+      <c r="F171" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="G171" s="10">
         <f t="shared" si="2"/>
         <v>49900</v>
       </c>
-      <c r="H171" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I171" s="30" t="s">
-        <v>547</v>
+      <c r="H171" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" s="34" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="172" ht="15.6" spans="1:9">
-      <c r="A172" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="D172" s="5">
+      <c r="A172" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D172" s="8">
         <v>299</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E172" s="8">
         <v>269</v>
       </c>
-      <c r="F172" s="6">
-        <v>0</v>
-      </c>
-      <c r="G172" s="7">
+      <c r="F172" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="G172" s="10">
         <f t="shared" si="2"/>
         <v>26900</v>
       </c>
-      <c r="H172" s="8" t="s">
+      <c r="H172" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="34" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="173" ht="15.6" spans="1:9">
+      <c r="A173" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D173" s="8">
+        <v>246</v>
+      </c>
+      <c r="E173" s="8">
+        <v>209</v>
+      </c>
+      <c r="F173" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I172" s="30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="173" ht="15.6" spans="1:9">
-      <c r="A173" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D173" s="5">
-        <v>246</v>
-      </c>
-      <c r="E173" s="5">
-        <v>209</v>
-      </c>
-      <c r="F173" s="6">
-        <v>0</v>
-      </c>
-      <c r="G173" s="7">
+      <c r="G173" s="10">
         <f t="shared" si="2"/>
         <v>20900</v>
       </c>
-      <c r="H173" s="8" t="s">
+      <c r="H173" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" s="34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="174" ht="15.6" spans="1:9">
+      <c r="A174" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D174" s="8">
+        <v>179</v>
+      </c>
+      <c r="E174" s="8">
+        <v>139</v>
+      </c>
+      <c r="F174" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I173" s="30" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="174" ht="15.6" spans="1:9">
-      <c r="A174" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="D174" s="5">
-        <v>179</v>
-      </c>
-      <c r="E174" s="5">
-        <v>139</v>
-      </c>
-      <c r="F174" s="6">
-        <v>0</v>
-      </c>
-      <c r="G174" s="7">
+      <c r="G174" s="10">
         <f t="shared" si="2"/>
         <v>13900</v>
       </c>
-      <c r="H174" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I174" s="30" t="s">
-        <v>556</v>
+      <c r="H174" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" s="34" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="175" ht="15.6" spans="1:9">
-      <c r="A175" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D175" s="5">
+      <c r="A175" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="D175" s="8">
         <v>439</v>
       </c>
-      <c r="E175" s="5">
+      <c r="E175" s="8">
         <v>379</v>
       </c>
-      <c r="F175" s="6">
-        <v>0</v>
-      </c>
-      <c r="G175" s="7">
+      <c r="F175" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G175" s="10">
         <f t="shared" si="2"/>
         <v>37900</v>
       </c>
-      <c r="H175" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I175" s="30" t="s">
-        <v>559</v>
+      <c r="H175" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I175" s="34" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="176" ht="15.6" spans="1:9">
+      <c r="A176" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="B176" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="C176" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="D176" s="44">
+        <v>159</v>
+      </c>
+      <c r="E176" s="44">
+        <v>99</v>
+      </c>
+      <c r="F176" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="G176" s="46">
+        <v>9900</v>
+      </c>
+      <c r="H176" s="47" t="s">
+        <v>605</v>
+      </c>
+      <c r="I176" s="48" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="177" ht="15.6" spans="1:9">
+      <c r="A177" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="B177" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="C177" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="D177" s="44">
+        <v>449</v>
+      </c>
+      <c r="E177" s="44">
+        <v>299</v>
+      </c>
+      <c r="F177" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G177" s="46">
+        <v>29900</v>
+      </c>
+      <c r="H177" s="47" t="s">
+        <v>605</v>
+      </c>
+      <c r="I177" s="48" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="178" ht="15.6" spans="1:9">
+      <c r="A178" s="41" t="s">
+        <v>610</v>
+      </c>
+      <c r="B178" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="C178" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D178" s="44">
+        <v>239</v>
+      </c>
+      <c r="E178" s="44">
+        <v>129</v>
+      </c>
+      <c r="F178" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="G178" s="46">
+        <v>12900</v>
+      </c>
+      <c r="H178" s="47" t="s">
+        <v>605</v>
+      </c>
+      <c r="I178" s="48" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
